--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Netherlands Eredivisie</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
+  </si>
+  <si>
+    <t>['8', '25', '31', '68']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7466055</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45513.625</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>2.2</v>
+      </c>
+      <c r="R2">
+        <v>2.5</v>
+      </c>
+      <c r="S2">
+        <v>4.5</v>
+      </c>
+      <c r="T2">
+        <v>1.25</v>
+      </c>
+      <c r="U2">
+        <v>3.75</v>
+      </c>
+      <c r="V2">
+        <v>2.25</v>
+      </c>
+      <c r="W2">
+        <v>1.57</v>
+      </c>
+      <c r="X2">
+        <v>5.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.14</v>
+      </c>
+      <c r="Z2">
+        <v>1.87</v>
+      </c>
+      <c r="AA2">
+        <v>3.89</v>
+      </c>
+      <c r="AB2">
+        <v>3.69</v>
+      </c>
+      <c r="AC2">
+        <v>1.02</v>
+      </c>
+      <c r="AD2">
+        <v>19</v>
+      </c>
+      <c r="AE2">
+        <v>1.16</v>
+      </c>
+      <c r="AF2">
+        <v>4.87</v>
+      </c>
+      <c r="AG2">
+        <v>1.41</v>
+      </c>
+      <c r="AH2">
+        <v>2.64</v>
+      </c>
+      <c r="AI2">
+        <v>1.53</v>
+      </c>
+      <c r="AJ2">
+        <v>2.38</v>
+      </c>
+      <c r="AK2">
+        <v>1.2</v>
+      </c>
+      <c r="AL2">
+        <v>1.2</v>
+      </c>
+      <c r="AM2">
+        <v>2.15</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>10</v>
+      </c>
+      <c r="AV2">
+        <v>4</v>
+      </c>
+      <c r="AW2">
+        <v>5</v>
+      </c>
+      <c r="AX2">
+        <v>4</v>
+      </c>
+      <c r="AY2">
+        <v>15</v>
+      </c>
+      <c r="AZ2">
+        <v>8</v>
+      </c>
+      <c r="BA2">
+        <v>8</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>9</v>
+      </c>
+      <c r="BD2">
+        <v>1.35</v>
+      </c>
+      <c r="BE2">
+        <v>7</v>
+      </c>
+      <c r="BF2">
+        <v>3.55</v>
+      </c>
+      <c r="BG2">
+        <v>1.26</v>
+      </c>
+      <c r="BH2">
+        <v>3.4</v>
+      </c>
+      <c r="BI2">
+        <v>1.47</v>
+      </c>
+      <c r="BJ2">
+        <v>2.48</v>
+      </c>
+      <c r="BK2">
+        <v>1.74</v>
+      </c>
+      <c r="BL2">
+        <v>1.95</v>
+      </c>
+      <c r="BM2">
+        <v>2.18</v>
+      </c>
+      <c r="BN2">
+        <v>1.58</v>
+      </c>
+      <c r="BO2">
+        <v>2.75</v>
+      </c>
+      <c r="BP2">
+        <v>1.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,13 +229,67 @@
     <t>Groningen</t>
   </si>
   <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>PSV</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
     <t>NAC Breda</t>
   </si>
   <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
     <t>['8', '25', '31', '68']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['9', '28', '37', '72', '79']</t>
+  </si>
+  <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['8', '54']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
 </sst>
 </file>
@@ -597,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +886,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -853,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1013,6 +1067,1036 @@
       </c>
       <c r="BP2">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7466056</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45514.47916666666</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3">
+        <v>1.44</v>
+      </c>
+      <c r="R3">
+        <v>3.1</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>1.22</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1.73</v>
+      </c>
+      <c r="X3">
+        <v>4.33</v>
+      </c>
+      <c r="Y3">
+        <v>1.2</v>
+      </c>
+      <c r="Z3">
+        <v>1.08</v>
+      </c>
+      <c r="AA3">
+        <v>11.41</v>
+      </c>
+      <c r="AB3">
+        <v>20.68</v>
+      </c>
+      <c r="AC3">
+        <v>1.02</v>
+      </c>
+      <c r="AD3">
+        <v>29</v>
+      </c>
+      <c r="AE3">
+        <v>1.09</v>
+      </c>
+      <c r="AF3">
+        <v>5.75</v>
+      </c>
+      <c r="AG3">
+        <v>1.4</v>
+      </c>
+      <c r="AH3">
+        <v>2.75</v>
+      </c>
+      <c r="AI3">
+        <v>2.25</v>
+      </c>
+      <c r="AJ3">
+        <v>1.57</v>
+      </c>
+      <c r="AK3">
+        <v>1.02</v>
+      </c>
+      <c r="AL3">
+        <v>1.04</v>
+      </c>
+      <c r="AM3">
+        <v>6</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>9</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
+        <v>9</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>18</v>
+      </c>
+      <c r="AZ3">
+        <v>2</v>
+      </c>
+      <c r="BA3">
+        <v>14</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>17</v>
+      </c>
+      <c r="BD3">
+        <v>1.11</v>
+      </c>
+      <c r="BE3">
+        <v>10.5</v>
+      </c>
+      <c r="BF3">
+        <v>6.5</v>
+      </c>
+      <c r="BG3">
+        <v>1.16</v>
+      </c>
+      <c r="BH3">
+        <v>4.4</v>
+      </c>
+      <c r="BI3">
+        <v>1.29</v>
+      </c>
+      <c r="BJ3">
+        <v>3.2</v>
+      </c>
+      <c r="BK3">
+        <v>1.49</v>
+      </c>
+      <c r="BL3">
+        <v>2.4</v>
+      </c>
+      <c r="BM3">
+        <v>1.77</v>
+      </c>
+      <c r="BN3">
+        <v>1.92</v>
+      </c>
+      <c r="BO3">
+        <v>2.18</v>
+      </c>
+      <c r="BP3">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7466057</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45514.57291666666</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>2.3</v>
+      </c>
+      <c r="S4">
+        <v>2.6</v>
+      </c>
+      <c r="T4">
+        <v>1.33</v>
+      </c>
+      <c r="U4">
+        <v>3.25</v>
+      </c>
+      <c r="V4">
+        <v>2.5</v>
+      </c>
+      <c r="W4">
+        <v>1.5</v>
+      </c>
+      <c r="X4">
+        <v>6.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.11</v>
+      </c>
+      <c r="Z4">
+        <v>3.54</v>
+      </c>
+      <c r="AA4">
+        <v>3.66</v>
+      </c>
+      <c r="AB4">
+        <v>1.98</v>
+      </c>
+      <c r="AC4">
+        <v>1.03</v>
+      </c>
+      <c r="AD4">
+        <v>15</v>
+      </c>
+      <c r="AE4">
+        <v>1.21</v>
+      </c>
+      <c r="AF4">
+        <v>4.25</v>
+      </c>
+      <c r="AG4">
+        <v>1.65</v>
+      </c>
+      <c r="AH4">
+        <v>2.1</v>
+      </c>
+      <c r="AI4">
+        <v>1.62</v>
+      </c>
+      <c r="AJ4">
+        <v>2.2</v>
+      </c>
+      <c r="AK4">
+        <v>1.83</v>
+      </c>
+      <c r="AL4">
+        <v>1.24</v>
+      </c>
+      <c r="AM4">
+        <v>1.3</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>3</v>
+      </c>
+      <c r="AV4">
+        <v>6</v>
+      </c>
+      <c r="AW4">
+        <v>5</v>
+      </c>
+      <c r="AX4">
+        <v>8</v>
+      </c>
+      <c r="AY4">
+        <v>8</v>
+      </c>
+      <c r="AZ4">
+        <v>14</v>
+      </c>
+      <c r="BA4">
+        <v>7</v>
+      </c>
+      <c r="BB4">
+        <v>5</v>
+      </c>
+      <c r="BC4">
+        <v>12</v>
+      </c>
+      <c r="BD4">
+        <v>3.3</v>
+      </c>
+      <c r="BE4">
+        <v>7</v>
+      </c>
+      <c r="BF4">
+        <v>1.41</v>
+      </c>
+      <c r="BG4">
+        <v>1.22</v>
+      </c>
+      <c r="BH4">
+        <v>3.7</v>
+      </c>
+      <c r="BI4">
+        <v>1.4</v>
+      </c>
+      <c r="BJ4">
+        <v>2.7</v>
+      </c>
+      <c r="BK4">
+        <v>1.65</v>
+      </c>
+      <c r="BL4">
+        <v>2.08</v>
+      </c>
+      <c r="BM4">
+        <v>2</v>
+      </c>
+      <c r="BN4">
+        <v>1.71</v>
+      </c>
+      <c r="BO4">
+        <v>2.5</v>
+      </c>
+      <c r="BP4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7466061</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45514.625</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5">
+        <v>5.5</v>
+      </c>
+      <c r="R5">
+        <v>2.38</v>
+      </c>
+      <c r="S5">
+        <v>2.1</v>
+      </c>
+      <c r="T5">
+        <v>1.33</v>
+      </c>
+      <c r="U5">
+        <v>3.25</v>
+      </c>
+      <c r="V5">
+        <v>2.5</v>
+      </c>
+      <c r="W5">
+        <v>1.5</v>
+      </c>
+      <c r="X5">
+        <v>6.5</v>
+      </c>
+      <c r="Y5">
+        <v>1.11</v>
+      </c>
+      <c r="Z5">
+        <v>4.86</v>
+      </c>
+      <c r="AA5">
+        <v>4.01</v>
+      </c>
+      <c r="AB5">
+        <v>1.63</v>
+      </c>
+      <c r="AC5">
+        <v>1.03</v>
+      </c>
+      <c r="AD5">
+        <v>15</v>
+      </c>
+      <c r="AE5">
+        <v>1.18</v>
+      </c>
+      <c r="AF5">
+        <v>4.05</v>
+      </c>
+      <c r="AG5">
+        <v>1.67</v>
+      </c>
+      <c r="AH5">
+        <v>2.1</v>
+      </c>
+      <c r="AI5">
+        <v>1.8</v>
+      </c>
+      <c r="AJ5">
+        <v>1.95</v>
+      </c>
+      <c r="AK5">
+        <v>2.45</v>
+      </c>
+      <c r="AL5">
+        <v>1.18</v>
+      </c>
+      <c r="AM5">
+        <v>1.15</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <v>5</v>
+      </c>
+      <c r="AW5">
+        <v>3</v>
+      </c>
+      <c r="AX5">
+        <v>5</v>
+      </c>
+      <c r="AY5">
+        <v>6</v>
+      </c>
+      <c r="AZ5">
+        <v>10</v>
+      </c>
+      <c r="BA5">
+        <v>2</v>
+      </c>
+      <c r="BB5">
+        <v>8</v>
+      </c>
+      <c r="BC5">
+        <v>10</v>
+      </c>
+      <c r="BD5">
+        <v>2.95</v>
+      </c>
+      <c r="BE5">
+        <v>6.75</v>
+      </c>
+      <c r="BF5">
+        <v>1.47</v>
+      </c>
+      <c r="BG5">
+        <v>1.24</v>
+      </c>
+      <c r="BH5">
+        <v>3.55</v>
+      </c>
+      <c r="BI5">
+        <v>1.44</v>
+      </c>
+      <c r="BJ5">
+        <v>2.55</v>
+      </c>
+      <c r="BK5">
+        <v>1.72</v>
+      </c>
+      <c r="BL5">
+        <v>1.98</v>
+      </c>
+      <c r="BM5">
+        <v>2.12</v>
+      </c>
+      <c r="BN5">
+        <v>1.62</v>
+      </c>
+      <c r="BO5">
+        <v>2.7</v>
+      </c>
+      <c r="BP5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7466059</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45514.66666666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6">
+        <v>1.36</v>
+      </c>
+      <c r="R6">
+        <v>3.6</v>
+      </c>
+      <c r="S6">
+        <v>13</v>
+      </c>
+      <c r="T6">
+        <v>1.17</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>1.8</v>
+      </c>
+      <c r="W6">
+        <v>1.91</v>
+      </c>
+      <c r="X6">
+        <v>3.5</v>
+      </c>
+      <c r="Y6">
+        <v>1.29</v>
+      </c>
+      <c r="Z6">
+        <v>1.1</v>
+      </c>
+      <c r="AA6">
+        <v>10.49</v>
+      </c>
+      <c r="AB6">
+        <v>16.41</v>
+      </c>
+      <c r="AC6">
+        <v>1.01</v>
+      </c>
+      <c r="AD6">
+        <v>41</v>
+      </c>
+      <c r="AE6">
+        <v>1.04</v>
+      </c>
+      <c r="AF6">
+        <v>7.4</v>
+      </c>
+      <c r="AG6">
+        <v>1.25</v>
+      </c>
+      <c r="AH6">
+        <v>3.5</v>
+      </c>
+      <c r="AI6">
+        <v>2.1</v>
+      </c>
+      <c r="AJ6">
+        <v>1.67</v>
+      </c>
+      <c r="AK6">
+        <v>1.01</v>
+      </c>
+      <c r="AL6">
+        <v>1.04</v>
+      </c>
+      <c r="AM6">
+        <v>7.2</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>13</v>
+      </c>
+      <c r="AV6">
+        <v>5</v>
+      </c>
+      <c r="AW6">
+        <v>7</v>
+      </c>
+      <c r="AX6">
+        <v>4</v>
+      </c>
+      <c r="AY6">
+        <v>20</v>
+      </c>
+      <c r="AZ6">
+        <v>9</v>
+      </c>
+      <c r="BA6">
+        <v>7</v>
+      </c>
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BC6">
+        <v>10</v>
+      </c>
+      <c r="BD6">
+        <v>1.07</v>
+      </c>
+      <c r="BE6">
+        <v>12.5</v>
+      </c>
+      <c r="BF6">
+        <v>8.5</v>
+      </c>
+      <c r="BG6">
+        <v>1.14</v>
+      </c>
+      <c r="BH6">
+        <v>4.8</v>
+      </c>
+      <c r="BI6">
+        <v>1.26</v>
+      </c>
+      <c r="BJ6">
+        <v>3.4</v>
+      </c>
+      <c r="BK6">
+        <v>1.44</v>
+      </c>
+      <c r="BL6">
+        <v>2.55</v>
+      </c>
+      <c r="BM6">
+        <v>1.7</v>
+      </c>
+      <c r="BN6">
+        <v>2.02</v>
+      </c>
+      <c r="BO6">
+        <v>2.04</v>
+      </c>
+      <c r="BP6">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7466060</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45515.30208333334</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7">
+        <v>1.95</v>
+      </c>
+      <c r="R7">
+        <v>2.6</v>
+      </c>
+      <c r="S7">
+        <v>5.5</v>
+      </c>
+      <c r="T7">
+        <v>1.25</v>
+      </c>
+      <c r="U7">
+        <v>3.75</v>
+      </c>
+      <c r="V7">
+        <v>2.2</v>
+      </c>
+      <c r="W7">
+        <v>1.62</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>1.17</v>
+      </c>
+      <c r="Z7">
+        <v>1.5</v>
+      </c>
+      <c r="AA7">
+        <v>4.6</v>
+      </c>
+      <c r="AB7">
+        <v>6</v>
+      </c>
+      <c r="AC7">
+        <v>1.03</v>
+      </c>
+      <c r="AD7">
+        <v>15</v>
+      </c>
+      <c r="AE7">
+        <v>1.16</v>
+      </c>
+      <c r="AF7">
+        <v>4.93</v>
+      </c>
+      <c r="AG7">
+        <v>1.53</v>
+      </c>
+      <c r="AH7">
+        <v>2.3</v>
+      </c>
+      <c r="AI7">
+        <v>1.62</v>
+      </c>
+      <c r="AJ7">
+        <v>2.2</v>
+      </c>
+      <c r="AK7">
+        <v>1.12</v>
+      </c>
+      <c r="AL7">
+        <v>1.16</v>
+      </c>
+      <c r="AM7">
+        <v>2.65</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>2</v>
+      </c>
+      <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7">
+        <v>6</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>8</v>
+      </c>
+      <c r="AZ7">
+        <v>8</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>4</v>
+      </c>
+      <c r="BC7">
+        <v>7</v>
+      </c>
+      <c r="BD7">
+        <v>1.47</v>
+      </c>
+      <c r="BE7">
+        <v>7</v>
+      </c>
+      <c r="BF7">
+        <v>2.95</v>
+      </c>
+      <c r="BG7">
+        <v>1.14</v>
+      </c>
+      <c r="BH7">
+        <v>4.8</v>
+      </c>
+      <c r="BI7">
+        <v>1.25</v>
+      </c>
+      <c r="BJ7">
+        <v>3.4</v>
+      </c>
+      <c r="BK7">
+        <v>1.44</v>
+      </c>
+      <c r="BL7">
+        <v>2.55</v>
+      </c>
+      <c r="BM7">
+        <v>1.68</v>
+      </c>
+      <c r="BN7">
+        <v>2.02</v>
+      </c>
+      <c r="BO7">
+        <v>2.06</v>
+      </c>
+      <c r="BP7">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,6 +244,15 @@
     <t>Sparta Rotterdam</t>
   </si>
   <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
     <t>NAC Breda</t>
   </si>
   <si>
@@ -262,6 +271,15 @@
     <t>Heracles</t>
   </si>
   <si>
+    <t>PEC Zwolle</t>
+  </si>
+  <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
     <t>['8', '25', '31', '68']</t>
   </si>
   <si>
@@ -277,6 +295,12 @@
     <t>['9', '28', '37', '72', '79']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -290,6 +314,9 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['57', '73']</t>
   </si>
 </sst>
 </file>
@@ -651,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +913,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -907,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1092,7 +1119,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1113,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q3">
         <v>1.44</v>
@@ -1298,7 +1325,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1319,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1504,7 +1531,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1525,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1710,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -1731,10 +1758,10 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -1916,7 +1943,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1937,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q7">
         <v>1.95</v>
@@ -2097,6 +2124,624 @@
       </c>
       <c r="BP7">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7466058</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45515.39583333334</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8">
+        <v>1.95</v>
+      </c>
+      <c r="R8">
+        <v>2.5</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>1.29</v>
+      </c>
+      <c r="U8">
+        <v>3.5</v>
+      </c>
+      <c r="V8">
+        <v>2.25</v>
+      </c>
+      <c r="W8">
+        <v>1.57</v>
+      </c>
+      <c r="X8">
+        <v>5.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.14</v>
+      </c>
+      <c r="Z8">
+        <v>1.45</v>
+      </c>
+      <c r="AA8">
+        <v>4.7</v>
+      </c>
+      <c r="AB8">
+        <v>6.8</v>
+      </c>
+      <c r="AC8">
+        <v>1.02</v>
+      </c>
+      <c r="AD8">
+        <v>19</v>
+      </c>
+      <c r="AE8">
+        <v>1.16</v>
+      </c>
+      <c r="AF8">
+        <v>4.87</v>
+      </c>
+      <c r="AG8">
+        <v>1.53</v>
+      </c>
+      <c r="AH8">
+        <v>2.3</v>
+      </c>
+      <c r="AI8">
+        <v>1.75</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>1.1</v>
+      </c>
+      <c r="AL8">
+        <v>1.15</v>
+      </c>
+      <c r="AM8">
+        <v>2.8</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>3</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>3</v>
+      </c>
+      <c r="AX8">
+        <v>3</v>
+      </c>
+      <c r="AY8">
+        <v>6</v>
+      </c>
+      <c r="AZ8">
+        <v>5</v>
+      </c>
+      <c r="BA8">
+        <v>2</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>3</v>
+      </c>
+      <c r="BD8">
+        <v>1.27</v>
+      </c>
+      <c r="BE8">
+        <v>8</v>
+      </c>
+      <c r="BF8">
+        <v>4.1</v>
+      </c>
+      <c r="BG8">
+        <v>1.19</v>
+      </c>
+      <c r="BH8">
+        <v>3.9</v>
+      </c>
+      <c r="BI8">
+        <v>1.36</v>
+      </c>
+      <c r="BJ8">
+        <v>2.8</v>
+      </c>
+      <c r="BK8">
+        <v>1.58</v>
+      </c>
+      <c r="BL8">
+        <v>2.18</v>
+      </c>
+      <c r="BM8">
+        <v>1.94</v>
+      </c>
+      <c r="BN8">
+        <v>1.76</v>
+      </c>
+      <c r="BO8">
+        <v>2.4</v>
+      </c>
+      <c r="BP8">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7466062</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45515.39583333334</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>2.6</v>
+      </c>
+      <c r="R9">
+        <v>2.2</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>1.36</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
+        <v>1.1</v>
+      </c>
+      <c r="Z9">
+        <v>2.01</v>
+      </c>
+      <c r="AA9">
+        <v>3.5</v>
+      </c>
+      <c r="AB9">
+        <v>3.7</v>
+      </c>
+      <c r="AC9">
+        <v>1.02</v>
+      </c>
+      <c r="AD9">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE9">
+        <v>1.25</v>
+      </c>
+      <c r="AF9">
+        <v>3.42</v>
+      </c>
+      <c r="AG9">
+        <v>1.86</v>
+      </c>
+      <c r="AH9">
+        <v>1.95</v>
+      </c>
+      <c r="AI9">
+        <v>1.7</v>
+      </c>
+      <c r="AJ9">
+        <v>2.05</v>
+      </c>
+      <c r="AK9">
+        <v>1.3</v>
+      </c>
+      <c r="AL9">
+        <v>1.25</v>
+      </c>
+      <c r="AM9">
+        <v>1.83</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>3</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>5</v>
+      </c>
+      <c r="AV9">
+        <v>5</v>
+      </c>
+      <c r="AW9">
+        <v>9</v>
+      </c>
+      <c r="AX9">
+        <v>3</v>
+      </c>
+      <c r="AY9">
+        <v>14</v>
+      </c>
+      <c r="AZ9">
+        <v>8</v>
+      </c>
+      <c r="BA9">
+        <v>6</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9">
+        <v>9</v>
+      </c>
+      <c r="BD9">
+        <v>1.7</v>
+      </c>
+      <c r="BE9">
+        <v>6.5</v>
+      </c>
+      <c r="BF9">
+        <v>2.4</v>
+      </c>
+      <c r="BG9">
+        <v>1.27</v>
+      </c>
+      <c r="BH9">
+        <v>3.3</v>
+      </c>
+      <c r="BI9">
+        <v>1.48</v>
+      </c>
+      <c r="BJ9">
+        <v>2.45</v>
+      </c>
+      <c r="BK9">
+        <v>1.78</v>
+      </c>
+      <c r="BL9">
+        <v>1.9</v>
+      </c>
+      <c r="BM9">
+        <v>2.23</v>
+      </c>
+      <c r="BN9">
+        <v>1.56</v>
+      </c>
+      <c r="BO9">
+        <v>2.9</v>
+      </c>
+      <c r="BP9">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7466063</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45515.48958333334</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10">
+        <v>1.91</v>
+      </c>
+      <c r="R10">
+        <v>2.75</v>
+      </c>
+      <c r="S10">
+        <v>5.5</v>
+      </c>
+      <c r="T10">
+        <v>1.22</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1.73</v>
+      </c>
+      <c r="X10">
+        <v>4.33</v>
+      </c>
+      <c r="Y10">
+        <v>1.2</v>
+      </c>
+      <c r="Z10">
+        <v>1.4</v>
+      </c>
+      <c r="AA10">
+        <v>4.52</v>
+      </c>
+      <c r="AB10">
+        <v>8</v>
+      </c>
+      <c r="AC10">
+        <v>1.02</v>
+      </c>
+      <c r="AD10">
+        <v>17.5</v>
+      </c>
+      <c r="AE10">
+        <v>1.12</v>
+      </c>
+      <c r="AF10">
+        <v>5.75</v>
+      </c>
+      <c r="AG10">
+        <v>1.41</v>
+      </c>
+      <c r="AH10">
+        <v>2.78</v>
+      </c>
+      <c r="AI10">
+        <v>1.53</v>
+      </c>
+      <c r="AJ10">
+        <v>2.38</v>
+      </c>
+      <c r="AK10">
+        <v>1.11</v>
+      </c>
+      <c r="AL10">
+        <v>1.14</v>
+      </c>
+      <c r="AM10">
+        <v>2.7</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>5</v>
+      </c>
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10">
+        <v>6</v>
+      </c>
+      <c r="AX10">
+        <v>3</v>
+      </c>
+      <c r="AY10">
+        <v>11</v>
+      </c>
+      <c r="AZ10">
+        <v>6</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
+      <c r="BD10">
+        <v>1.3</v>
+      </c>
+      <c r="BE10">
+        <v>7.5</v>
+      </c>
+      <c r="BF10">
+        <v>3.9</v>
+      </c>
+      <c r="BG10">
+        <v>1.2</v>
+      </c>
+      <c r="BH10">
+        <v>3.95</v>
+      </c>
+      <c r="BI10">
+        <v>1.35</v>
+      </c>
+      <c r="BJ10">
+        <v>2.9</v>
+      </c>
+      <c r="BK10">
+        <v>1.58</v>
+      </c>
+      <c r="BL10">
+        <v>2.2</v>
+      </c>
+      <c r="BM10">
+        <v>1.92</v>
+      </c>
+      <c r="BN10">
+        <v>1.77</v>
+      </c>
+      <c r="BO10">
+        <v>2.4</v>
+      </c>
+      <c r="BP10">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,6 +253,9 @@
     <t>Ajax</t>
   </si>
   <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
     <t>NAC Breda</t>
   </si>
   <si>
@@ -274,9 +277,6 @@
     <t>PEC Zwolle</t>
   </si>
   <si>
-    <t>Fortuna Sittard</t>
-  </si>
-  <si>
     <t>Heerenveen</t>
   </si>
   <si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['24', '68', '73']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -678,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -937,7 +940,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1119,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1143,7 +1146,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q3">
         <v>1.44</v>
@@ -1325,7 +1328,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1349,7 +1352,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1531,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1555,7 +1558,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1737,7 +1740,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -1761,7 +1764,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -1943,7 +1946,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2149,7 +2152,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2355,7 +2358,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2379,7 +2382,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2742,6 +2745,212 @@
       </c>
       <c r="BP10">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7467148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11">
+        <v>2.38</v>
+      </c>
+      <c r="R11">
+        <v>2.25</v>
+      </c>
+      <c r="S11">
+        <v>4.75</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>2.63</v>
+      </c>
+      <c r="W11">
+        <v>1.44</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1.1</v>
+      </c>
+      <c r="Z11">
+        <v>1.9</v>
+      </c>
+      <c r="AA11">
+        <v>3.5</v>
+      </c>
+      <c r="AB11">
+        <v>4.1</v>
+      </c>
+      <c r="AC11">
+        <v>1.02</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>1.25</v>
+      </c>
+      <c r="AF11">
+        <v>3.6</v>
+      </c>
+      <c r="AG11">
+        <v>1.76</v>
+      </c>
+      <c r="AH11">
+        <v>2.07</v>
+      </c>
+      <c r="AI11">
+        <v>1.8</v>
+      </c>
+      <c r="AJ11">
+        <v>1.95</v>
+      </c>
+      <c r="AK11">
+        <v>1.22</v>
+      </c>
+      <c r="AL11">
+        <v>1.29</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>10</v>
+      </c>
+      <c r="AV11">
+        <v>5</v>
+      </c>
+      <c r="AW11">
+        <v>6</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
+        <v>16</v>
+      </c>
+      <c r="AZ11">
+        <v>7</v>
+      </c>
+      <c r="BA11">
+        <v>9</v>
+      </c>
+      <c r="BB11">
+        <v>3</v>
+      </c>
+      <c r="BC11">
+        <v>12</v>
+      </c>
+      <c r="BD11">
+        <v>1.4</v>
+      </c>
+      <c r="BE11">
+        <v>7</v>
+      </c>
+      <c r="BF11">
+        <v>3.3</v>
+      </c>
+      <c r="BG11">
+        <v>1.23</v>
+      </c>
+      <c r="BH11">
+        <v>3.65</v>
+      </c>
+      <c r="BI11">
+        <v>1.41</v>
+      </c>
+      <c r="BJ11">
+        <v>2.65</v>
+      </c>
+      <c r="BK11">
+        <v>1.68</v>
+      </c>
+      <c r="BL11">
+        <v>2.04</v>
+      </c>
+      <c r="BM11">
+        <v>2.06</v>
+      </c>
+      <c r="BN11">
+        <v>1.66</v>
+      </c>
+      <c r="BO11">
+        <v>2.65</v>
+      </c>
+      <c r="BP11">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,30 +256,30 @@
     <t>Fortuna Sittard</t>
   </si>
   <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
     <t>NAC Breda</t>
   </si>
   <si>
     <t>Willem II</t>
   </si>
   <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>RKC Waalwijk</t>
-  </si>
-  <si>
     <t>Heracles</t>
   </si>
   <si>
     <t>PEC Zwolle</t>
   </si>
   <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
     <t>['8', '25', '31', '68']</t>
   </si>
   <si>
@@ -304,12 +304,18 @@
     <t>['24', '68', '73']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
-    <t>['82']</t>
-  </si>
-  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -320,6 +326,15 @@
   </si>
   <si>
     <t>['57', '73']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['11', '77']</t>
   </si>
 </sst>
 </file>
@@ -681,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +931,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -940,7 +955,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1122,7 +1137,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1146,7 +1161,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q3">
         <v>1.44</v>
@@ -1328,7 +1343,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1352,7 +1367,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1534,7 +1549,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1558,7 +1573,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1740,7 +1755,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -1764,7 +1779,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -1946,7 +1961,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2152,7 +2167,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2382,7 +2397,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2564,7 +2579,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2951,6 +2966,830 @@
       </c>
       <c r="BP11">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7466064</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45521.47916666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12">
+        <v>3.1</v>
+      </c>
+      <c r="R12">
+        <v>2.38</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>1.3</v>
+      </c>
+      <c r="U12">
+        <v>3.4</v>
+      </c>
+      <c r="V12">
+        <v>2.38</v>
+      </c>
+      <c r="W12">
+        <v>1.53</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>1.13</v>
+      </c>
+      <c r="Z12">
+        <v>2.5</v>
+      </c>
+      <c r="AA12">
+        <v>3.75</v>
+      </c>
+      <c r="AB12">
+        <v>2.5</v>
+      </c>
+      <c r="AC12">
+        <v>1.01</v>
+      </c>
+      <c r="AD12">
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>1.18</v>
+      </c>
+      <c r="AF12">
+        <v>4.33</v>
+      </c>
+      <c r="AG12">
+        <v>1.55</v>
+      </c>
+      <c r="AH12">
+        <v>2.3</v>
+      </c>
+      <c r="AI12">
+        <v>1.5</v>
+      </c>
+      <c r="AJ12">
+        <v>2.5</v>
+      </c>
+      <c r="AK12">
+        <v>1.55</v>
+      </c>
+      <c r="AL12">
+        <v>1.29</v>
+      </c>
+      <c r="AM12">
+        <v>1.48</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>8</v>
+      </c>
+      <c r="AV12">
+        <v>5</v>
+      </c>
+      <c r="AW12">
+        <v>13</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>21</v>
+      </c>
+      <c r="AZ12">
+        <v>7</v>
+      </c>
+      <c r="BA12">
+        <v>6</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>10</v>
+      </c>
+      <c r="BD12">
+        <v>2.08</v>
+      </c>
+      <c r="BE12">
+        <v>6.5</v>
+      </c>
+      <c r="BF12">
+        <v>1.9</v>
+      </c>
+      <c r="BG12">
+        <v>1.19</v>
+      </c>
+      <c r="BH12">
+        <v>4.1</v>
+      </c>
+      <c r="BI12">
+        <v>1.33</v>
+      </c>
+      <c r="BJ12">
+        <v>2.95</v>
+      </c>
+      <c r="BK12">
+        <v>1.55</v>
+      </c>
+      <c r="BL12">
+        <v>2.28</v>
+      </c>
+      <c r="BM12">
+        <v>1.86</v>
+      </c>
+      <c r="BN12">
+        <v>1.82</v>
+      </c>
+      <c r="BO12">
+        <v>2.32</v>
+      </c>
+      <c r="BP12">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7466065</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45521.57291666666</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2.5</v>
+      </c>
+      <c r="S13">
+        <v>5.5</v>
+      </c>
+      <c r="T13">
+        <v>1.29</v>
+      </c>
+      <c r="U13">
+        <v>3.5</v>
+      </c>
+      <c r="V13">
+        <v>2.25</v>
+      </c>
+      <c r="W13">
+        <v>1.57</v>
+      </c>
+      <c r="X13">
+        <v>5.5</v>
+      </c>
+      <c r="Y13">
+        <v>1.14</v>
+      </c>
+      <c r="Z13">
+        <v>1.4</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AB13">
+        <v>7</v>
+      </c>
+      <c r="AC13">
+        <v>1.02</v>
+      </c>
+      <c r="AD13">
+        <v>13</v>
+      </c>
+      <c r="AE13">
+        <v>1.13</v>
+      </c>
+      <c r="AF13">
+        <v>5.2</v>
+      </c>
+      <c r="AG13">
+        <v>1.56</v>
+      </c>
+      <c r="AH13">
+        <v>2.43</v>
+      </c>
+      <c r="AI13">
+        <v>1.7</v>
+      </c>
+      <c r="AJ13">
+        <v>2.05</v>
+      </c>
+      <c r="AK13">
+        <v>1.1</v>
+      </c>
+      <c r="AL13">
+        <v>1.18</v>
+      </c>
+      <c r="AM13">
+        <v>2.55</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>4</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>11</v>
+      </c>
+      <c r="AX13">
+        <v>7</v>
+      </c>
+      <c r="AY13">
+        <v>15</v>
+      </c>
+      <c r="AZ13">
+        <v>11</v>
+      </c>
+      <c r="BA13">
+        <v>5</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>9</v>
+      </c>
+      <c r="BD13">
+        <v>1.25</v>
+      </c>
+      <c r="BE13">
+        <v>8</v>
+      </c>
+      <c r="BF13">
+        <v>4.35</v>
+      </c>
+      <c r="BG13">
+        <v>1.24</v>
+      </c>
+      <c r="BH13">
+        <v>3.55</v>
+      </c>
+      <c r="BI13">
+        <v>1.41</v>
+      </c>
+      <c r="BJ13">
+        <v>2.63</v>
+      </c>
+      <c r="BK13">
+        <v>1.68</v>
+      </c>
+      <c r="BL13">
+        <v>2.04</v>
+      </c>
+      <c r="BM13">
+        <v>2.07</v>
+      </c>
+      <c r="BN13">
+        <v>1.66</v>
+      </c>
+      <c r="BO13">
+        <v>2.63</v>
+      </c>
+      <c r="BP13">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7466066</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45521.625</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14">
+        <v>1.9</v>
+      </c>
+      <c r="R14">
+        <v>2.45</v>
+      </c>
+      <c r="S14">
+        <v>5.5</v>
+      </c>
+      <c r="T14">
+        <v>1.3</v>
+      </c>
+      <c r="U14">
+        <v>3.6</v>
+      </c>
+      <c r="V14">
+        <v>2.35</v>
+      </c>
+      <c r="W14">
+        <v>1.58</v>
+      </c>
+      <c r="X14">
+        <v>5.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.14</v>
+      </c>
+      <c r="Z14">
+        <v>1.48</v>
+      </c>
+      <c r="AA14">
+        <v>4.8</v>
+      </c>
+      <c r="AB14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <v>1.02</v>
+      </c>
+      <c r="AD14">
+        <v>19</v>
+      </c>
+      <c r="AE14">
+        <v>1.18</v>
+      </c>
+      <c r="AF14">
+        <v>4.65</v>
+      </c>
+      <c r="AG14">
+        <v>1.6</v>
+      </c>
+      <c r="AH14">
+        <v>2.35</v>
+      </c>
+      <c r="AI14">
+        <v>1.72</v>
+      </c>
+      <c r="AJ14">
+        <v>2.1</v>
+      </c>
+      <c r="AK14">
+        <v>1.11</v>
+      </c>
+      <c r="AL14">
+        <v>1.16</v>
+      </c>
+      <c r="AM14">
+        <v>2.75</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>7</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>5</v>
+      </c>
+      <c r="AX14">
+        <v>6</v>
+      </c>
+      <c r="AY14">
+        <v>12</v>
+      </c>
+      <c r="AZ14">
+        <v>8</v>
+      </c>
+      <c r="BA14">
+        <v>4</v>
+      </c>
+      <c r="BB14">
+        <v>6</v>
+      </c>
+      <c r="BC14">
+        <v>10</v>
+      </c>
+      <c r="BD14">
+        <v>1.21</v>
+      </c>
+      <c r="BE14">
+        <v>8.5</v>
+      </c>
+      <c r="BF14">
+        <v>4.8</v>
+      </c>
+      <c r="BG14">
+        <v>1.23</v>
+      </c>
+      <c r="BH14">
+        <v>3.65</v>
+      </c>
+      <c r="BI14">
+        <v>1.4</v>
+      </c>
+      <c r="BJ14">
+        <v>2.65</v>
+      </c>
+      <c r="BK14">
+        <v>1.65</v>
+      </c>
+      <c r="BL14">
+        <v>2.08</v>
+      </c>
+      <c r="BM14">
+        <v>1.98</v>
+      </c>
+      <c r="BN14">
+        <v>1.82</v>
+      </c>
+      <c r="BO14">
+        <v>2.55</v>
+      </c>
+      <c r="BP14">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7466067</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45521.66666666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15">
+        <v>2.88</v>
+      </c>
+      <c r="R15">
+        <v>2.4</v>
+      </c>
+      <c r="S15">
+        <v>3.2</v>
+      </c>
+      <c r="T15">
+        <v>1.25</v>
+      </c>
+      <c r="U15">
+        <v>3.75</v>
+      </c>
+      <c r="V15">
+        <v>2.25</v>
+      </c>
+      <c r="W15">
+        <v>1.57</v>
+      </c>
+      <c r="X15">
+        <v>5.5</v>
+      </c>
+      <c r="Y15">
+        <v>1.14</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>3.75</v>
+      </c>
+      <c r="AB15">
+        <v>3.4</v>
+      </c>
+      <c r="AC15">
+        <v>1.02</v>
+      </c>
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15">
+        <v>1.15</v>
+      </c>
+      <c r="AF15">
+        <v>4.75</v>
+      </c>
+      <c r="AG15">
+        <v>1.56</v>
+      </c>
+      <c r="AH15">
+        <v>2.43</v>
+      </c>
+      <c r="AI15">
+        <v>1.44</v>
+      </c>
+      <c r="AJ15">
+        <v>2.63</v>
+      </c>
+      <c r="AK15">
+        <v>1.4</v>
+      </c>
+      <c r="AL15">
+        <v>1.29</v>
+      </c>
+      <c r="AM15">
+        <v>1.65</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>8</v>
+      </c>
+      <c r="AV15">
+        <v>10</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>3</v>
+      </c>
+      <c r="AY15">
+        <v>13</v>
+      </c>
+      <c r="AZ15">
+        <v>13</v>
+      </c>
+      <c r="BA15">
+        <v>7</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>8</v>
+      </c>
+      <c r="BD15">
+        <v>1.74</v>
+      </c>
+      <c r="BE15">
+        <v>6.4</v>
+      </c>
+      <c r="BF15">
+        <v>2.33</v>
+      </c>
+      <c r="BG15">
+        <v>1.27</v>
+      </c>
+      <c r="BH15">
+        <v>3.3</v>
+      </c>
+      <c r="BI15">
+        <v>1.48</v>
+      </c>
+      <c r="BJ15">
+        <v>2.43</v>
+      </c>
+      <c r="BK15">
+        <v>1.79</v>
+      </c>
+      <c r="BL15">
+        <v>1.9</v>
+      </c>
+      <c r="BM15">
+        <v>2.23</v>
+      </c>
+      <c r="BN15">
+        <v>1.56</v>
+      </c>
+      <c r="BO15">
+        <v>2.9</v>
+      </c>
+      <c r="BP15">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -268,18 +268,18 @@
     <t>RKC Waalwijk</t>
   </si>
   <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>PEC Zwolle</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
     <t>NAC Breda</t>
   </si>
   <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>PEC Zwolle</t>
-  </si>
-  <si>
     <t>['8', '25', '31', '68']</t>
   </si>
   <si>
@@ -313,6 +313,18 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['21', '28']</t>
+  </si>
+  <si>
+    <t>['58', '90+1']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -335,6 +347,15 @@
   </si>
   <si>
     <t>['11', '77']</t>
+  </si>
+  <si>
+    <t>['52', '59', '90']</t>
+  </si>
+  <si>
+    <t>['4', '46', '51', '68', '71']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -696,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,7 +952,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -955,7 +976,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1137,7 +1158,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1367,7 +1388,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1573,7 +1594,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1779,7 +1800,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -1961,7 +1982,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2167,7 +2188,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2397,7 +2418,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3015,7 +3036,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3221,7 +3242,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3633,7 +3654,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3790,6 +3811,830 @@
       </c>
       <c r="BP15">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7466068</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45522.30208333334</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>3.4</v>
+      </c>
+      <c r="S16">
+        <v>1.5</v>
+      </c>
+      <c r="T16">
+        <v>1.14</v>
+      </c>
+      <c r="U16">
+        <v>5.5</v>
+      </c>
+      <c r="V16">
+        <v>1.73</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>3.25</v>
+      </c>
+      <c r="Y16">
+        <v>1.33</v>
+      </c>
+      <c r="Z16">
+        <v>10.43</v>
+      </c>
+      <c r="AA16">
+        <v>8.34</v>
+      </c>
+      <c r="AB16">
+        <v>1.11</v>
+      </c>
+      <c r="AC16">
+        <v>1.01</v>
+      </c>
+      <c r="AD16">
+        <v>53</v>
+      </c>
+      <c r="AE16">
+        <v>1.05</v>
+      </c>
+      <c r="AF16">
+        <v>9</v>
+      </c>
+      <c r="AG16">
+        <v>1.23</v>
+      </c>
+      <c r="AH16">
+        <v>3.9</v>
+      </c>
+      <c r="AI16">
+        <v>1.67</v>
+      </c>
+      <c r="AJ16">
+        <v>2.1</v>
+      </c>
+      <c r="AK16">
+        <v>5.1</v>
+      </c>
+      <c r="AL16">
+        <v>1.08</v>
+      </c>
+      <c r="AM16">
+        <v>1.02</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>4</v>
+      </c>
+      <c r="AV16">
+        <v>9</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>10</v>
+      </c>
+      <c r="AY16">
+        <v>5</v>
+      </c>
+      <c r="AZ16">
+        <v>19</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BB16">
+        <v>12</v>
+      </c>
+      <c r="BC16">
+        <v>14</v>
+      </c>
+      <c r="BD16">
+        <v>5.4</v>
+      </c>
+      <c r="BE16">
+        <v>9.5</v>
+      </c>
+      <c r="BF16">
+        <v>1.16</v>
+      </c>
+      <c r="BG16">
+        <v>1.19</v>
+      </c>
+      <c r="BH16">
+        <v>4.1</v>
+      </c>
+      <c r="BI16">
+        <v>1.33</v>
+      </c>
+      <c r="BJ16">
+        <v>2.95</v>
+      </c>
+      <c r="BK16">
+        <v>1.55</v>
+      </c>
+      <c r="BL16">
+        <v>2.28</v>
+      </c>
+      <c r="BM16">
+        <v>1.88</v>
+      </c>
+      <c r="BN16">
+        <v>1.81</v>
+      </c>
+      <c r="BO16">
+        <v>2.32</v>
+      </c>
+      <c r="BP16">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7466069</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45522.39583333334</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>1.67</v>
+      </c>
+      <c r="T17">
+        <v>1.18</v>
+      </c>
+      <c r="U17">
+        <v>4.5</v>
+      </c>
+      <c r="V17">
+        <v>1.83</v>
+      </c>
+      <c r="W17">
+        <v>1.83</v>
+      </c>
+      <c r="X17">
+        <v>3.75</v>
+      </c>
+      <c r="Y17">
+        <v>1.25</v>
+      </c>
+      <c r="Z17">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA17">
+        <v>6</v>
+      </c>
+      <c r="AB17">
+        <v>1.25</v>
+      </c>
+      <c r="AC17">
+        <v>1.01</v>
+      </c>
+      <c r="AD17">
+        <v>35.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.06</v>
+      </c>
+      <c r="AF17">
+        <v>6.75</v>
+      </c>
+      <c r="AG17">
+        <v>1.29</v>
+      </c>
+      <c r="AH17">
+        <v>3.4</v>
+      </c>
+      <c r="AI17">
+        <v>1.62</v>
+      </c>
+      <c r="AJ17">
+        <v>2.2</v>
+      </c>
+      <c r="AK17">
+        <v>3.75</v>
+      </c>
+      <c r="AL17">
+        <v>1.11</v>
+      </c>
+      <c r="AM17">
+        <v>1.07</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>3</v>
+      </c>
+      <c r="AV17">
+        <v>9</v>
+      </c>
+      <c r="AW17">
+        <v>3</v>
+      </c>
+      <c r="AX17">
+        <v>4</v>
+      </c>
+      <c r="AY17">
+        <v>6</v>
+      </c>
+      <c r="AZ17">
+        <v>13</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>3</v>
+      </c>
+      <c r="BD17">
+        <v>4.8</v>
+      </c>
+      <c r="BE17">
+        <v>8.5</v>
+      </c>
+      <c r="BF17">
+        <v>1.2</v>
+      </c>
+      <c r="BG17">
+        <v>1.24</v>
+      </c>
+      <c r="BH17">
+        <v>3.55</v>
+      </c>
+      <c r="BI17">
+        <v>1.43</v>
+      </c>
+      <c r="BJ17">
+        <v>2.6</v>
+      </c>
+      <c r="BK17">
+        <v>1.68</v>
+      </c>
+      <c r="BL17">
+        <v>2.02</v>
+      </c>
+      <c r="BM17">
+        <v>2.08</v>
+      </c>
+      <c r="BN17">
+        <v>1.65</v>
+      </c>
+      <c r="BO17">
+        <v>2.65</v>
+      </c>
+      <c r="BP17">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7466070</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45522.39583333334</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18">
+        <v>3.5</v>
+      </c>
+      <c r="R18">
+        <v>2.25</v>
+      </c>
+      <c r="S18">
+        <v>2.88</v>
+      </c>
+      <c r="T18">
+        <v>1.33</v>
+      </c>
+      <c r="U18">
+        <v>3.25</v>
+      </c>
+      <c r="V18">
+        <v>2.63</v>
+      </c>
+      <c r="W18">
+        <v>1.44</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>1.1</v>
+      </c>
+      <c r="Z18">
+        <v>2.94</v>
+      </c>
+      <c r="AA18">
+        <v>3.5</v>
+      </c>
+      <c r="AB18">
+        <v>2.2</v>
+      </c>
+      <c r="AC18">
+        <v>1.04</v>
+      </c>
+      <c r="AD18">
+        <v>10.25</v>
+      </c>
+      <c r="AE18">
+        <v>1.22</v>
+      </c>
+      <c r="AF18">
+        <v>3.66</v>
+      </c>
+      <c r="AG18">
+        <v>1.72</v>
+      </c>
+      <c r="AH18">
+        <v>2.05</v>
+      </c>
+      <c r="AI18">
+        <v>1.62</v>
+      </c>
+      <c r="AJ18">
+        <v>2.2</v>
+      </c>
+      <c r="AK18">
+        <v>1.68</v>
+      </c>
+      <c r="AL18">
+        <v>1.29</v>
+      </c>
+      <c r="AM18">
+        <v>1.36</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>3</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>9</v>
+      </c>
+      <c r="AY18">
+        <v>7</v>
+      </c>
+      <c r="AZ18">
+        <v>11</v>
+      </c>
+      <c r="BA18">
+        <v>4</v>
+      </c>
+      <c r="BB18">
+        <v>3</v>
+      </c>
+      <c r="BC18">
+        <v>7</v>
+      </c>
+      <c r="BD18">
+        <v>2.3</v>
+      </c>
+      <c r="BE18">
+        <v>6.4</v>
+      </c>
+      <c r="BF18">
+        <v>1.76</v>
+      </c>
+      <c r="BG18">
+        <v>1.27</v>
+      </c>
+      <c r="BH18">
+        <v>3.3</v>
+      </c>
+      <c r="BI18">
+        <v>1.46</v>
+      </c>
+      <c r="BJ18">
+        <v>2.48</v>
+      </c>
+      <c r="BK18">
+        <v>1.77</v>
+      </c>
+      <c r="BL18">
+        <v>1.92</v>
+      </c>
+      <c r="BM18">
+        <v>2.18</v>
+      </c>
+      <c r="BN18">
+        <v>1.58</v>
+      </c>
+      <c r="BO18">
+        <v>2.8</v>
+      </c>
+      <c r="BP18">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7466071</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45522.48958333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>1.67</v>
+      </c>
+      <c r="T19">
+        <v>1.18</v>
+      </c>
+      <c r="U19">
+        <v>4.5</v>
+      </c>
+      <c r="V19">
+        <v>1.83</v>
+      </c>
+      <c r="W19">
+        <v>1.83</v>
+      </c>
+      <c r="X19">
+        <v>3.75</v>
+      </c>
+      <c r="Y19">
+        <v>1.25</v>
+      </c>
+      <c r="Z19">
+        <v>8.09</v>
+      </c>
+      <c r="AA19">
+        <v>5.96</v>
+      </c>
+      <c r="AB19">
+        <v>1.24</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>38</v>
+      </c>
+      <c r="AE19">
+        <v>1.06</v>
+      </c>
+      <c r="AF19">
+        <v>6.8</v>
+      </c>
+      <c r="AG19">
+        <v>1.28</v>
+      </c>
+      <c r="AH19">
+        <v>3.3</v>
+      </c>
+      <c r="AI19">
+        <v>1.62</v>
+      </c>
+      <c r="AJ19">
+        <v>2.2</v>
+      </c>
+      <c r="AK19">
+        <v>3.76</v>
+      </c>
+      <c r="AL19">
+        <v>1.12</v>
+      </c>
+      <c r="AM19">
+        <v>1.06</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>4</v>
+      </c>
+      <c r="AV19">
+        <v>6</v>
+      </c>
+      <c r="AW19">
+        <v>3</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19">
+        <v>7</v>
+      </c>
+      <c r="AZ19">
+        <v>10</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>8</v>
+      </c>
+      <c r="BC19">
+        <v>9</v>
+      </c>
+      <c r="BD19">
+        <v>3.9</v>
+      </c>
+      <c r="BE19">
+        <v>7.5</v>
+      </c>
+      <c r="BF19">
+        <v>1.3</v>
+      </c>
+      <c r="BG19">
+        <v>1.25</v>
+      </c>
+      <c r="BH19">
+        <v>3.4</v>
+      </c>
+      <c r="BI19">
+        <v>1.44</v>
+      </c>
+      <c r="BJ19">
+        <v>2.55</v>
+      </c>
+      <c r="BK19">
+        <v>1.72</v>
+      </c>
+      <c r="BL19">
+        <v>1.98</v>
+      </c>
+      <c r="BM19">
+        <v>2.12</v>
+      </c>
+      <c r="BN19">
+        <v>1.63</v>
+      </c>
+      <c r="BO19">
+        <v>2.65</v>
+      </c>
+      <c r="BP19">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,12 @@
     <t>['58', '90+1']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -356,6 +362,12 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['10', '15', '65', '71', '78', '83', '90']</t>
+  </si>
+  <si>
+    <t>['90+1', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +988,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1388,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1466,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>3</v>
@@ -1594,7 +1606,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1800,7 +1812,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2418,7 +2430,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3036,7 +3048,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3117,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3242,7 +3254,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3654,7 +3666,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3860,7 +3872,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4066,7 +4078,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4478,7 +4490,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4556,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4635,6 +4647,624 @@
       </c>
       <c r="BP19">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7466072</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45528.57291666666</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20">
+        <v>2.05</v>
+      </c>
+      <c r="R20">
+        <v>2.5</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>1.29</v>
+      </c>
+      <c r="U20">
+        <v>3.5</v>
+      </c>
+      <c r="V20">
+        <v>2.25</v>
+      </c>
+      <c r="W20">
+        <v>1.57</v>
+      </c>
+      <c r="X20">
+        <v>5.5</v>
+      </c>
+      <c r="Y20">
+        <v>1.14</v>
+      </c>
+      <c r="Z20">
+        <v>1.59</v>
+      </c>
+      <c r="AA20">
+        <v>4.21</v>
+      </c>
+      <c r="AB20">
+        <v>5.01</v>
+      </c>
+      <c r="AC20">
+        <v>1.03</v>
+      </c>
+      <c r="AD20">
+        <v>12</v>
+      </c>
+      <c r="AE20">
+        <v>1.17</v>
+      </c>
+      <c r="AF20">
+        <v>4.5</v>
+      </c>
+      <c r="AG20">
+        <v>1.54</v>
+      </c>
+      <c r="AH20">
+        <v>2.38</v>
+      </c>
+      <c r="AI20">
+        <v>1.62</v>
+      </c>
+      <c r="AJ20">
+        <v>2.2</v>
+      </c>
+      <c r="AK20">
+        <v>1.14</v>
+      </c>
+      <c r="AL20">
+        <v>1.17</v>
+      </c>
+      <c r="AM20">
+        <v>2.4</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>1.5</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>1.11</v>
+      </c>
+      <c r="AS20">
+        <v>0.73</v>
+      </c>
+      <c r="AT20">
+        <v>1.84</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>7</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>10</v>
+      </c>
+      <c r="AZ20">
+        <v>9</v>
+      </c>
+      <c r="BA20">
+        <v>6</v>
+      </c>
+      <c r="BB20">
+        <v>2</v>
+      </c>
+      <c r="BC20">
+        <v>8</v>
+      </c>
+      <c r="BD20">
+        <v>1.38</v>
+      </c>
+      <c r="BE20">
+        <v>7</v>
+      </c>
+      <c r="BF20">
+        <v>3.45</v>
+      </c>
+      <c r="BG20">
+        <v>1.24</v>
+      </c>
+      <c r="BH20">
+        <v>3.55</v>
+      </c>
+      <c r="BI20">
+        <v>1.44</v>
+      </c>
+      <c r="BJ20">
+        <v>2.55</v>
+      </c>
+      <c r="BK20">
+        <v>1.7</v>
+      </c>
+      <c r="BL20">
+        <v>2</v>
+      </c>
+      <c r="BM20">
+        <v>2.08</v>
+      </c>
+      <c r="BN20">
+        <v>1.65</v>
+      </c>
+      <c r="BO20">
+        <v>2.65</v>
+      </c>
+      <c r="BP20">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7466073</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45528.625</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21">
+        <v>11</v>
+      </c>
+      <c r="R21">
+        <v>3.1</v>
+      </c>
+      <c r="S21">
+        <v>1.5</v>
+      </c>
+      <c r="T21">
+        <v>1.2</v>
+      </c>
+      <c r="U21">
+        <v>4.33</v>
+      </c>
+      <c r="V21">
+        <v>1.91</v>
+      </c>
+      <c r="W21">
+        <v>1.8</v>
+      </c>
+      <c r="X21">
+        <v>4</v>
+      </c>
+      <c r="Y21">
+        <v>1.22</v>
+      </c>
+      <c r="Z21">
+        <v>15.6</v>
+      </c>
+      <c r="AA21">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="AB21">
+        <v>1.11</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>29</v>
+      </c>
+      <c r="AE21">
+        <v>1.09</v>
+      </c>
+      <c r="AF21">
+        <v>6</v>
+      </c>
+      <c r="AG21">
+        <v>1.33</v>
+      </c>
+      <c r="AH21">
+        <v>3.15</v>
+      </c>
+      <c r="AI21">
+        <v>2</v>
+      </c>
+      <c r="AJ21">
+        <v>1.75</v>
+      </c>
+      <c r="AK21">
+        <v>5.25</v>
+      </c>
+      <c r="AL21">
+        <v>1.08</v>
+      </c>
+      <c r="AM21">
+        <v>1.02</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>0.96</v>
+      </c>
+      <c r="AS21">
+        <v>2.27</v>
+      </c>
+      <c r="AT21">
+        <v>3.23</v>
+      </c>
+      <c r="AU21">
+        <v>2</v>
+      </c>
+      <c r="AV21">
+        <v>12</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>7</v>
+      </c>
+      <c r="AY21">
+        <v>2</v>
+      </c>
+      <c r="AZ21">
+        <v>19</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>9</v>
+      </c>
+      <c r="BC21">
+        <v>10</v>
+      </c>
+      <c r="BD21">
+        <v>6.4</v>
+      </c>
+      <c r="BE21">
+        <v>10</v>
+      </c>
+      <c r="BF21">
+        <v>1.12</v>
+      </c>
+      <c r="BG21">
+        <v>1.29</v>
+      </c>
+      <c r="BH21">
+        <v>3.2</v>
+      </c>
+      <c r="BI21">
+        <v>1.49</v>
+      </c>
+      <c r="BJ21">
+        <v>2.4</v>
+      </c>
+      <c r="BK21">
+        <v>1.79</v>
+      </c>
+      <c r="BL21">
+        <v>1.9</v>
+      </c>
+      <c r="BM21">
+        <v>2.23</v>
+      </c>
+      <c r="BN21">
+        <v>1.57</v>
+      </c>
+      <c r="BO21">
+        <v>2.8</v>
+      </c>
+      <c r="BP21">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7466074</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45528.66666666666</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22">
+        <v>4.5</v>
+      </c>
+      <c r="R22">
+        <v>2.4</v>
+      </c>
+      <c r="S22">
+        <v>2.25</v>
+      </c>
+      <c r="T22">
+        <v>1.29</v>
+      </c>
+      <c r="U22">
+        <v>3.5</v>
+      </c>
+      <c r="V22">
+        <v>2.38</v>
+      </c>
+      <c r="W22">
+        <v>1.53</v>
+      </c>
+      <c r="X22">
+        <v>5.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.14</v>
+      </c>
+      <c r="Z22">
+        <v>4.58</v>
+      </c>
+      <c r="AA22">
+        <v>3.97</v>
+      </c>
+      <c r="AB22">
+        <v>1.68</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>17.75</v>
+      </c>
+      <c r="AE22">
+        <v>1.19</v>
+      </c>
+      <c r="AF22">
+        <v>4.85</v>
+      </c>
+      <c r="AG22">
+        <v>1.61</v>
+      </c>
+      <c r="AH22">
+        <v>2.23</v>
+      </c>
+      <c r="AI22">
+        <v>1.62</v>
+      </c>
+      <c r="AJ22">
+        <v>2.2</v>
+      </c>
+      <c r="AK22">
+        <v>2.1</v>
+      </c>
+      <c r="AL22">
+        <v>1.25</v>
+      </c>
+      <c r="AM22">
+        <v>1.22</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>1.5</v>
+      </c>
+      <c r="AQ22">
+        <v>2</v>
+      </c>
+      <c r="AR22">
+        <v>0.79</v>
+      </c>
+      <c r="AS22">
+        <v>0.95</v>
+      </c>
+      <c r="AT22">
+        <v>1.74</v>
+      </c>
+      <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <v>8</v>
+      </c>
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AX22">
+        <v>4</v>
+      </c>
+      <c r="AY22">
+        <v>6</v>
+      </c>
+      <c r="AZ22">
+        <v>12</v>
+      </c>
+      <c r="BA22">
+        <v>4</v>
+      </c>
+      <c r="BB22">
+        <v>5</v>
+      </c>
+      <c r="BC22">
+        <v>9</v>
+      </c>
+      <c r="BD22">
+        <v>3.45</v>
+      </c>
+      <c r="BE22">
+        <v>6.75</v>
+      </c>
+      <c r="BF22">
+        <v>1.38</v>
+      </c>
+      <c r="BG22">
+        <v>1.32</v>
+      </c>
+      <c r="BH22">
+        <v>3.05</v>
+      </c>
+      <c r="BI22">
+        <v>1.55</v>
+      </c>
+      <c r="BJ22">
+        <v>2.25</v>
+      </c>
+      <c r="BK22">
+        <v>1.91</v>
+      </c>
+      <c r="BL22">
+        <v>1.78</v>
+      </c>
+      <c r="BM22">
+        <v>2.4</v>
+      </c>
+      <c r="BN22">
+        <v>1.49</v>
+      </c>
+      <c r="BO22">
+        <v>3.15</v>
+      </c>
+      <c r="BP22">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,15 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['3', '60']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -368,6 +377,9 @@
   </si>
   <si>
     <t>['90+1', '90+6']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -988,7 +1000,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1066,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1400,7 +1412,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1606,7 +1618,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1687,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1812,7 +1824,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2430,7 +2442,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2508,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>3</v>
@@ -3048,7 +3060,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3254,7 +3266,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3666,7 +3678,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3872,7 +3884,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -3950,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4078,7 +4090,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4159,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4490,7 +4502,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4902,7 +4914,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5108,7 +5120,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5265,6 +5277,830 @@
       </c>
       <c r="BP22">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7466077</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45529.30208333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23">
+        <v>4.33</v>
+      </c>
+      <c r="R23">
+        <v>2.3</v>
+      </c>
+      <c r="S23">
+        <v>2.4</v>
+      </c>
+      <c r="T23">
+        <v>1.33</v>
+      </c>
+      <c r="U23">
+        <v>3.25</v>
+      </c>
+      <c r="V23">
+        <v>2.5</v>
+      </c>
+      <c r="W23">
+        <v>1.5</v>
+      </c>
+      <c r="X23">
+        <v>6.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.11</v>
+      </c>
+      <c r="Z23">
+        <v>3.7</v>
+      </c>
+      <c r="AA23">
+        <v>3.7</v>
+      </c>
+      <c r="AB23">
+        <v>1.95</v>
+      </c>
+      <c r="AC23">
+        <v>1.02</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AE23">
+        <v>1.2</v>
+      </c>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>1.72</v>
+      </c>
+      <c r="AH23">
+        <v>2.07</v>
+      </c>
+      <c r="AI23">
+        <v>1.62</v>
+      </c>
+      <c r="AJ23">
+        <v>2.2</v>
+      </c>
+      <c r="AK23">
+        <v>1.9</v>
+      </c>
+      <c r="AL23">
+        <v>1.28</v>
+      </c>
+      <c r="AM23">
+        <v>1.25</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>1.65</v>
+      </c>
+      <c r="AS23">
+        <v>1.24</v>
+      </c>
+      <c r="AT23">
+        <v>2.89</v>
+      </c>
+      <c r="AU23">
+        <v>2</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>5</v>
+      </c>
+      <c r="AY23">
+        <v>2</v>
+      </c>
+      <c r="AZ23">
+        <v>10</v>
+      </c>
+      <c r="BA23">
+        <v>2</v>
+      </c>
+      <c r="BB23">
+        <v>6</v>
+      </c>
+      <c r="BC23">
+        <v>8</v>
+      </c>
+      <c r="BD23">
+        <v>3.65</v>
+      </c>
+      <c r="BE23">
+        <v>7.5</v>
+      </c>
+      <c r="BF23">
+        <v>1.33</v>
+      </c>
+      <c r="BG23">
+        <v>1.17</v>
+      </c>
+      <c r="BH23">
+        <v>4.3</v>
+      </c>
+      <c r="BI23">
+        <v>1.3</v>
+      </c>
+      <c r="BJ23">
+        <v>3.05</v>
+      </c>
+      <c r="BK23">
+        <v>1.52</v>
+      </c>
+      <c r="BL23">
+        <v>2.32</v>
+      </c>
+      <c r="BM23">
+        <v>1.83</v>
+      </c>
+      <c r="BN23">
+        <v>1.85</v>
+      </c>
+      <c r="BO23">
+        <v>2.28</v>
+      </c>
+      <c r="BP23">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7466078</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45529.39583333334</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>3.25</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.4</v>
+      </c>
+      <c r="V24">
+        <v>2.5</v>
+      </c>
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>1.13</v>
+      </c>
+      <c r="Z24">
+        <v>2.2</v>
+      </c>
+      <c r="AA24">
+        <v>3.9</v>
+      </c>
+      <c r="AB24">
+        <v>2.9</v>
+      </c>
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AE24">
+        <v>1.18</v>
+      </c>
+      <c r="AF24">
+        <v>4.33</v>
+      </c>
+      <c r="AG24">
+        <v>1.64</v>
+      </c>
+      <c r="AH24">
+        <v>2.18</v>
+      </c>
+      <c r="AI24">
+        <v>1.57</v>
+      </c>
+      <c r="AJ24">
+        <v>2.25</v>
+      </c>
+      <c r="AK24">
+        <v>1.44</v>
+      </c>
+      <c r="AL24">
+        <v>1.3</v>
+      </c>
+      <c r="AM24">
+        <v>1.57</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0.78</v>
+      </c>
+      <c r="AS24">
+        <v>0.43</v>
+      </c>
+      <c r="AT24">
+        <v>1.21</v>
+      </c>
+      <c r="AU24">
+        <v>7</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>6</v>
+      </c>
+      <c r="AX24">
+        <v>6</v>
+      </c>
+      <c r="AY24">
+        <v>13</v>
+      </c>
+      <c r="AZ24">
+        <v>10</v>
+      </c>
+      <c r="BA24">
+        <v>8</v>
+      </c>
+      <c r="BB24">
+        <v>6</v>
+      </c>
+      <c r="BC24">
+        <v>14</v>
+      </c>
+      <c r="BD24">
+        <v>1.58</v>
+      </c>
+      <c r="BE24">
+        <v>6.75</v>
+      </c>
+      <c r="BF24">
+        <v>2.55</v>
+      </c>
+      <c r="BG24">
+        <v>1.2</v>
+      </c>
+      <c r="BH24">
+        <v>3.9</v>
+      </c>
+      <c r="BI24">
+        <v>1.37</v>
+      </c>
+      <c r="BJ24">
+        <v>2.8</v>
+      </c>
+      <c r="BK24">
+        <v>1.61</v>
+      </c>
+      <c r="BL24">
+        <v>2.15</v>
+      </c>
+      <c r="BM24">
+        <v>1.96</v>
+      </c>
+      <c r="BN24">
+        <v>1.73</v>
+      </c>
+      <c r="BO24">
+        <v>2.48</v>
+      </c>
+      <c r="BP24">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7466079</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45529.39583333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>2.6</v>
+      </c>
+      <c r="S25">
+        <v>1.91</v>
+      </c>
+      <c r="T25">
+        <v>1.25</v>
+      </c>
+      <c r="U25">
+        <v>3.75</v>
+      </c>
+      <c r="V25">
+        <v>2.2</v>
+      </c>
+      <c r="W25">
+        <v>1.62</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>1.17</v>
+      </c>
+      <c r="Z25">
+        <v>5.5</v>
+      </c>
+      <c r="AA25">
+        <v>4.8</v>
+      </c>
+      <c r="AB25">
+        <v>1.5</v>
+      </c>
+      <c r="AC25">
+        <v>1.02</v>
+      </c>
+      <c r="AD25">
+        <v>11</v>
+      </c>
+      <c r="AE25">
+        <v>1.13</v>
+      </c>
+      <c r="AF25">
+        <v>5.2</v>
+      </c>
+      <c r="AG25">
+        <v>1.5</v>
+      </c>
+      <c r="AH25">
+        <v>2.48</v>
+      </c>
+      <c r="AI25">
+        <v>1.67</v>
+      </c>
+      <c r="AJ25">
+        <v>2.1</v>
+      </c>
+      <c r="AK25">
+        <v>2.7</v>
+      </c>
+      <c r="AL25">
+        <v>1.19</v>
+      </c>
+      <c r="AM25">
+        <v>1.14</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>3</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>2</v>
+      </c>
+      <c r="AR25">
+        <v>1.08</v>
+      </c>
+      <c r="AS25">
+        <v>1.77</v>
+      </c>
+      <c r="AT25">
+        <v>2.85</v>
+      </c>
+      <c r="AU25">
+        <v>7</v>
+      </c>
+      <c r="AV25">
+        <v>8</v>
+      </c>
+      <c r="AW25">
+        <v>3</v>
+      </c>
+      <c r="AX25">
+        <v>8</v>
+      </c>
+      <c r="AY25">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>16</v>
+      </c>
+      <c r="BA25">
+        <v>6</v>
+      </c>
+      <c r="BB25">
+        <v>11</v>
+      </c>
+      <c r="BC25">
+        <v>17</v>
+      </c>
+      <c r="BD25">
+        <v>3.15</v>
+      </c>
+      <c r="BE25">
+        <v>6.75</v>
+      </c>
+      <c r="BF25">
+        <v>1.45</v>
+      </c>
+      <c r="BG25">
+        <v>1.29</v>
+      </c>
+      <c r="BH25">
+        <v>3.15</v>
+      </c>
+      <c r="BI25">
+        <v>1.5</v>
+      </c>
+      <c r="BJ25">
+        <v>2.38</v>
+      </c>
+      <c r="BK25">
+        <v>1.82</v>
+      </c>
+      <c r="BL25">
+        <v>1.86</v>
+      </c>
+      <c r="BM25">
+        <v>2.3</v>
+      </c>
+      <c r="BN25">
+        <v>1.54</v>
+      </c>
+      <c r="BO25">
+        <v>2.9</v>
+      </c>
+      <c r="BP25">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7466080</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45529.48958333334</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q26">
+        <v>2.3</v>
+      </c>
+      <c r="R26">
+        <v>2.38</v>
+      </c>
+      <c r="S26">
+        <v>4.33</v>
+      </c>
+      <c r="T26">
+        <v>1.3</v>
+      </c>
+      <c r="U26">
+        <v>3.4</v>
+      </c>
+      <c r="V26">
+        <v>2.38</v>
+      </c>
+      <c r="W26">
+        <v>1.53</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
+      </c>
+      <c r="Y26">
+        <v>1.13</v>
+      </c>
+      <c r="Z26">
+        <v>1.71</v>
+      </c>
+      <c r="AA26">
+        <v>4.1</v>
+      </c>
+      <c r="AB26">
+        <v>4.4</v>
+      </c>
+      <c r="AC26">
+        <v>1.03</v>
+      </c>
+      <c r="AD26">
+        <v>16.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.2</v>
+      </c>
+      <c r="AF26">
+        <v>4.68</v>
+      </c>
+      <c r="AG26">
+        <v>1.6</v>
+      </c>
+      <c r="AH26">
+        <v>2.2</v>
+      </c>
+      <c r="AI26">
+        <v>1.62</v>
+      </c>
+      <c r="AJ26">
+        <v>2.2</v>
+      </c>
+      <c r="AK26">
+        <v>1.23</v>
+      </c>
+      <c r="AL26">
+        <v>1.27</v>
+      </c>
+      <c r="AM26">
+        <v>2</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>1.73</v>
+      </c>
+      <c r="AS26">
+        <v>1.03</v>
+      </c>
+      <c r="AT26">
+        <v>2.76</v>
+      </c>
+      <c r="AU26">
+        <v>7</v>
+      </c>
+      <c r="AV26">
+        <v>3</v>
+      </c>
+      <c r="AW26">
+        <v>9</v>
+      </c>
+      <c r="AX26">
+        <v>4</v>
+      </c>
+      <c r="AY26">
+        <v>16</v>
+      </c>
+      <c r="AZ26">
+        <v>7</v>
+      </c>
+      <c r="BA26">
+        <v>7</v>
+      </c>
+      <c r="BB26">
+        <v>1</v>
+      </c>
+      <c r="BC26">
+        <v>8</v>
+      </c>
+      <c r="BD26">
+        <v>1.3</v>
+      </c>
+      <c r="BE26">
+        <v>7.5</v>
+      </c>
+      <c r="BF26">
+        <v>3.8</v>
+      </c>
+      <c r="BG26">
+        <v>1.24</v>
+      </c>
+      <c r="BH26">
+        <v>3.55</v>
+      </c>
+      <c r="BI26">
+        <v>1.41</v>
+      </c>
+      <c r="BJ26">
+        <v>2.65</v>
+      </c>
+      <c r="BK26">
+        <v>1.67</v>
+      </c>
+      <c r="BL26">
+        <v>2.04</v>
+      </c>
+      <c r="BM26">
+        <v>2.06</v>
+      </c>
+      <c r="BN26">
+        <v>1.66</v>
+      </c>
+      <c r="BO26">
+        <v>2.63</v>
+      </c>
+      <c r="BP26">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['31', '36', '87']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -5407,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6101,6 +6104,212 @@
       </c>
       <c r="BP26">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7466082</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27">
+        <v>5.5</v>
+      </c>
+      <c r="R27">
+        <v>2.38</v>
+      </c>
+      <c r="S27">
+        <v>2.1</v>
+      </c>
+      <c r="T27">
+        <v>1.33</v>
+      </c>
+      <c r="U27">
+        <v>3.25</v>
+      </c>
+      <c r="V27">
+        <v>2.5</v>
+      </c>
+      <c r="W27">
+        <v>1.5</v>
+      </c>
+      <c r="X27">
+        <v>6.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.11</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AA27">
+        <v>4.3</v>
+      </c>
+      <c r="AB27">
+        <v>1.55</v>
+      </c>
+      <c r="AC27">
+        <v>1.04</v>
+      </c>
+      <c r="AD27">
+        <v>15.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.23</v>
+      </c>
+      <c r="AF27">
+        <v>4.25</v>
+      </c>
+      <c r="AG27">
+        <v>1.67</v>
+      </c>
+      <c r="AH27">
+        <v>2.2</v>
+      </c>
+      <c r="AI27">
+        <v>1.8</v>
+      </c>
+      <c r="AJ27">
+        <v>1.95</v>
+      </c>
+      <c r="AK27">
+        <v>2.5</v>
+      </c>
+      <c r="AL27">
+        <v>1.18</v>
+      </c>
+      <c r="AM27">
+        <v>1.14</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>2.33</v>
+      </c>
+      <c r="AR27">
+        <v>1.81</v>
+      </c>
+      <c r="AS27">
+        <v>1.28</v>
+      </c>
+      <c r="AT27">
+        <v>3.09</v>
+      </c>
+      <c r="AU27">
+        <v>2</v>
+      </c>
+      <c r="AV27">
+        <v>8</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>13</v>
+      </c>
+      <c r="AY27">
+        <v>3</v>
+      </c>
+      <c r="AZ27">
+        <v>21</v>
+      </c>
+      <c r="BA27">
+        <v>3</v>
+      </c>
+      <c r="BB27">
+        <v>10</v>
+      </c>
+      <c r="BC27">
+        <v>13</v>
+      </c>
+      <c r="BD27">
+        <v>3.8</v>
+      </c>
+      <c r="BE27">
+        <v>7.5</v>
+      </c>
+      <c r="BF27">
+        <v>1.32</v>
+      </c>
+      <c r="BG27">
+        <v>1.24</v>
+      </c>
+      <c r="BH27">
+        <v>3.55</v>
+      </c>
+      <c r="BI27">
+        <v>1.43</v>
+      </c>
+      <c r="BJ27">
+        <v>2.6</v>
+      </c>
+      <c r="BK27">
+        <v>1.7</v>
+      </c>
+      <c r="BL27">
+        <v>2.02</v>
+      </c>
+      <c r="BM27">
+        <v>2.08</v>
+      </c>
+      <c r="BN27">
+        <v>1.65</v>
+      </c>
+      <c r="BO27">
+        <v>2.65</v>
+      </c>
+      <c r="BP27">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,15 @@
     <t>['3', '60']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['47', '50', '70', '84']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -383,6 +392,15 @@
   </si>
   <si>
     <t>['31', '36', '87']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['35', '40', '88']</t>
+  </si>
+  <si>
+    <t>['48', '89']</t>
   </si>
 </sst>
 </file>
@@ -744,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,7 +1021,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1415,7 +1433,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1621,7 +1639,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1699,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ5">
         <v>2.33</v>
@@ -1827,7 +1845,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2445,7 +2463,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2935,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3063,7 +3081,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3141,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3269,7 +3287,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3350,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3556,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3681,7 +3699,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3762,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3887,7 +3905,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4093,7 +4111,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4377,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4505,7 +4523,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4917,7 +4935,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -4995,7 +5013,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -5123,7 +5141,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5741,7 +5759,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6153,7 +6171,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6310,6 +6328,830 @@
       </c>
       <c r="BP27">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7466085</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45535.47916666666</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28">
+        <v>3.75</v>
+      </c>
+      <c r="R28">
+        <v>2.2</v>
+      </c>
+      <c r="S28">
+        <v>2.88</v>
+      </c>
+      <c r="T28">
+        <v>1.36</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2.75</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Y28">
+        <v>1.1</v>
+      </c>
+      <c r="Z28">
+        <v>2.65</v>
+      </c>
+      <c r="AA28">
+        <v>3.6</v>
+      </c>
+      <c r="AB28">
+        <v>2.5</v>
+      </c>
+      <c r="AC28">
+        <v>1.01</v>
+      </c>
+      <c r="AD28">
+        <v>9.6</v>
+      </c>
+      <c r="AE28">
+        <v>1.25</v>
+      </c>
+      <c r="AF28">
+        <v>3.42</v>
+      </c>
+      <c r="AG28">
+        <v>1.78</v>
+      </c>
+      <c r="AH28">
+        <v>2.05</v>
+      </c>
+      <c r="AI28">
+        <v>1.7</v>
+      </c>
+      <c r="AJ28">
+        <v>2.05</v>
+      </c>
+      <c r="AK28">
+        <v>1.65</v>
+      </c>
+      <c r="AL28">
+        <v>1.25</v>
+      </c>
+      <c r="AM28">
+        <v>1.35</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <v>0.33</v>
+      </c>
+      <c r="AQ28">
+        <v>2</v>
+      </c>
+      <c r="AR28">
+        <v>0.73</v>
+      </c>
+      <c r="AS28">
+        <v>1.74</v>
+      </c>
+      <c r="AT28">
+        <v>2.47</v>
+      </c>
+      <c r="AU28">
+        <v>3</v>
+      </c>
+      <c r="AV28">
+        <v>3</v>
+      </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
+      <c r="AY28">
+        <v>8</v>
+      </c>
+      <c r="AZ28">
+        <v>9</v>
+      </c>
+      <c r="BA28">
+        <v>6</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
+        <v>10</v>
+      </c>
+      <c r="BD28">
+        <v>1.85</v>
+      </c>
+      <c r="BE28">
+        <v>6.75</v>
+      </c>
+      <c r="BF28">
+        <v>2.12</v>
+      </c>
+      <c r="BG28">
+        <v>1.23</v>
+      </c>
+      <c r="BH28">
+        <v>3.65</v>
+      </c>
+      <c r="BI28">
+        <v>1.41</v>
+      </c>
+      <c r="BJ28">
+        <v>2.65</v>
+      </c>
+      <c r="BK28">
+        <v>1.66</v>
+      </c>
+      <c r="BL28">
+        <v>2.07</v>
+      </c>
+      <c r="BM28">
+        <v>2.04</v>
+      </c>
+      <c r="BN28">
+        <v>1.67</v>
+      </c>
+      <c r="BO28">
+        <v>2.55</v>
+      </c>
+      <c r="BP28">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7466083</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45535.57291666666</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q29">
+        <v>2.88</v>
+      </c>
+      <c r="R29">
+        <v>2.2</v>
+      </c>
+      <c r="S29">
+        <v>3.6</v>
+      </c>
+      <c r="T29">
+        <v>1.36</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2.63</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+      <c r="X29">
+        <v>7</v>
+      </c>
+      <c r="Y29">
+        <v>1.1</v>
+      </c>
+      <c r="Z29">
+        <v>2.25</v>
+      </c>
+      <c r="AA29">
+        <v>3.3</v>
+      </c>
+      <c r="AB29">
+        <v>3</v>
+      </c>
+      <c r="AC29">
+        <v>1.01</v>
+      </c>
+      <c r="AD29">
+        <v>9.9</v>
+      </c>
+      <c r="AE29">
+        <v>1.23</v>
+      </c>
+      <c r="AF29">
+        <v>3.58</v>
+      </c>
+      <c r="AG29">
+        <v>1.83</v>
+      </c>
+      <c r="AH29">
+        <v>1.98</v>
+      </c>
+      <c r="AI29">
+        <v>1.7</v>
+      </c>
+      <c r="AJ29">
+        <v>2.05</v>
+      </c>
+      <c r="AK29">
+        <v>1.38</v>
+      </c>
+      <c r="AL29">
+        <v>1.25</v>
+      </c>
+      <c r="AM29">
+        <v>1.68</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>1.5</v>
+      </c>
+      <c r="AQ29">
+        <v>1.5</v>
+      </c>
+      <c r="AR29">
+        <v>2.19</v>
+      </c>
+      <c r="AS29">
+        <v>0.8</v>
+      </c>
+      <c r="AT29">
+        <v>2.99</v>
+      </c>
+      <c r="AU29">
+        <v>2</v>
+      </c>
+      <c r="AV29">
+        <v>6</v>
+      </c>
+      <c r="AW29">
+        <v>7</v>
+      </c>
+      <c r="AX29">
+        <v>3</v>
+      </c>
+      <c r="AY29">
+        <v>9</v>
+      </c>
+      <c r="AZ29">
+        <v>9</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>9</v>
+      </c>
+      <c r="BD29">
+        <v>1.45</v>
+      </c>
+      <c r="BE29">
+        <v>7</v>
+      </c>
+      <c r="BF29">
+        <v>3.05</v>
+      </c>
+      <c r="BG29">
+        <v>1.18</v>
+      </c>
+      <c r="BH29">
+        <v>4.2</v>
+      </c>
+      <c r="BI29">
+        <v>1.32</v>
+      </c>
+      <c r="BJ29">
+        <v>3.05</v>
+      </c>
+      <c r="BK29">
+        <v>1.54</v>
+      </c>
+      <c r="BL29">
+        <v>2.3</v>
+      </c>
+      <c r="BM29">
+        <v>1.95</v>
+      </c>
+      <c r="BN29">
+        <v>1.85</v>
+      </c>
+      <c r="BO29">
+        <v>2.32</v>
+      </c>
+      <c r="BP29">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7466084</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45535.625</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q30">
+        <v>2.25</v>
+      </c>
+      <c r="R30">
+        <v>2.38</v>
+      </c>
+      <c r="S30">
+        <v>4.5</v>
+      </c>
+      <c r="T30">
+        <v>1.3</v>
+      </c>
+      <c r="U30">
+        <v>3.4</v>
+      </c>
+      <c r="V30">
+        <v>2.5</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>1.13</v>
+      </c>
+      <c r="Z30">
+        <v>1.7</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30">
+        <v>4.2</v>
+      </c>
+      <c r="AC30">
+        <v>1.03</v>
+      </c>
+      <c r="AD30">
+        <v>16.5</v>
+      </c>
+      <c r="AE30">
+        <v>1.17</v>
+      </c>
+      <c r="AF30">
+        <v>4.25</v>
+      </c>
+      <c r="AG30">
+        <v>1.6</v>
+      </c>
+      <c r="AH30">
+        <v>2.33</v>
+      </c>
+      <c r="AI30">
+        <v>1.67</v>
+      </c>
+      <c r="AJ30">
+        <v>2.1</v>
+      </c>
+      <c r="AK30">
+        <v>1.22</v>
+      </c>
+      <c r="AL30">
+        <v>1.25</v>
+      </c>
+      <c r="AM30">
+        <v>2.15</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>2.4</v>
+      </c>
+      <c r="AS30">
+        <v>0.79</v>
+      </c>
+      <c r="AT30">
+        <v>3.19</v>
+      </c>
+      <c r="AU30">
+        <v>9</v>
+      </c>
+      <c r="AV30">
+        <v>2</v>
+      </c>
+      <c r="AW30">
+        <v>6</v>
+      </c>
+      <c r="AX30">
+        <v>7</v>
+      </c>
+      <c r="AY30">
+        <v>15</v>
+      </c>
+      <c r="AZ30">
+        <v>9</v>
+      </c>
+      <c r="BA30">
+        <v>3</v>
+      </c>
+      <c r="BB30">
+        <v>6</v>
+      </c>
+      <c r="BC30">
+        <v>9</v>
+      </c>
+      <c r="BD30">
+        <v>1.33</v>
+      </c>
+      <c r="BE30">
+        <v>7.5</v>
+      </c>
+      <c r="BF30">
+        <v>3.65</v>
+      </c>
+      <c r="BG30">
+        <v>1.26</v>
+      </c>
+      <c r="BH30">
+        <v>3.4</v>
+      </c>
+      <c r="BI30">
+        <v>1.46</v>
+      </c>
+      <c r="BJ30">
+        <v>2.5</v>
+      </c>
+      <c r="BK30">
+        <v>1.74</v>
+      </c>
+      <c r="BL30">
+        <v>1.95</v>
+      </c>
+      <c r="BM30">
+        <v>2.17</v>
+      </c>
+      <c r="BN30">
+        <v>1.6</v>
+      </c>
+      <c r="BO30">
+        <v>2.75</v>
+      </c>
+      <c r="BP30">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7466081</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31">
+        <v>3.25</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>3.2</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.75</v>
+      </c>
+      <c r="V31">
+        <v>2.75</v>
+      </c>
+      <c r="W31">
+        <v>1.4</v>
+      </c>
+      <c r="X31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>2.75</v>
+      </c>
+      <c r="AA31">
+        <v>3.3</v>
+      </c>
+      <c r="AB31">
+        <v>2.4</v>
+      </c>
+      <c r="AC31">
+        <v>1.01</v>
+      </c>
+      <c r="AD31">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE31">
+        <v>1.24</v>
+      </c>
+      <c r="AF31">
+        <v>3.5</v>
+      </c>
+      <c r="AG31">
+        <v>1.87</v>
+      </c>
+      <c r="AH31">
+        <v>1.93</v>
+      </c>
+      <c r="AI31">
+        <v>1.7</v>
+      </c>
+      <c r="AJ31">
+        <v>2.05</v>
+      </c>
+      <c r="AK31">
+        <v>1.53</v>
+      </c>
+      <c r="AL31">
+        <v>1.31</v>
+      </c>
+      <c r="AM31">
+        <v>1.47</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>1.5</v>
+      </c>
+      <c r="AQ31">
+        <v>2</v>
+      </c>
+      <c r="AR31">
+        <v>0.77</v>
+      </c>
+      <c r="AS31">
+        <v>1.13</v>
+      </c>
+      <c r="AT31">
+        <v>1.9</v>
+      </c>
+      <c r="AU31">
+        <v>6</v>
+      </c>
+      <c r="AV31">
+        <v>5</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>4</v>
+      </c>
+      <c r="AY31">
+        <v>10</v>
+      </c>
+      <c r="AZ31">
+        <v>9</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>7</v>
+      </c>
+      <c r="BD31">
+        <v>1.97</v>
+      </c>
+      <c r="BE31">
+        <v>6.4</v>
+      </c>
+      <c r="BF31">
+        <v>2.02</v>
+      </c>
+      <c r="BG31">
+        <v>1.21</v>
+      </c>
+      <c r="BH31">
+        <v>3.7</v>
+      </c>
+      <c r="BI31">
+        <v>1.4</v>
+      </c>
+      <c r="BJ31">
+        <v>2.65</v>
+      </c>
+      <c r="BK31">
+        <v>1.66</v>
+      </c>
+      <c r="BL31">
+        <v>2.07</v>
+      </c>
+      <c r="BM31">
+        <v>2.05</v>
+      </c>
+      <c r="BN31">
+        <v>1.67</v>
+      </c>
+      <c r="BO31">
+        <v>2.55</v>
+      </c>
+      <c r="BP31">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -271,12 +271,12 @@
     <t>Heracles</t>
   </si>
   <si>
+    <t>Willem II</t>
+  </si>
+  <si>
     <t>PEC Zwolle</t>
   </si>
   <si>
-    <t>Willem II</t>
-  </si>
-  <si>
     <t>NAC Breda</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['21', '28']</t>
+  </si>
+  <si>
     <t>['87']</t>
   </si>
   <si>
-    <t>['21', '28']</t>
-  </si>
-  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -349,6 +349,15 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['14', '52']</t>
+  </si>
+  <si>
+    <t>['13', '78', '90+4']</t>
+  </si>
+  <si>
+    <t>['11', '27', '63']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -401,6 +410,9 @@
   </si>
   <si>
     <t>['48', '89']</t>
+  </si>
+  <si>
+    <t>['11']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,7 +1033,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1203,7 +1215,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1433,7 +1445,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1514,7 +1526,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1639,7 +1651,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1845,7 +1857,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2132,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2233,7 +2245,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2463,7 +2475,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3081,7 +3093,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3287,7 +3299,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3699,7 +3711,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3905,7 +3917,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4069,7 +4081,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7466069</v>
+        <v>7466070</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4087,85 +4099,85 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="Q17">
+        <v>3.5</v>
+      </c>
+      <c r="R17">
+        <v>2.25</v>
+      </c>
+      <c r="S17">
+        <v>2.88</v>
+      </c>
+      <c r="T17">
+        <v>1.33</v>
+      </c>
+      <c r="U17">
+        <v>3.25</v>
+      </c>
+      <c r="V17">
+        <v>2.63</v>
+      </c>
+      <c r="W17">
+        <v>1.44</v>
+      </c>
+      <c r="X17">
         <v>7</v>
       </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17">
-        <v>1.67</v>
-      </c>
-      <c r="T17">
-        <v>1.18</v>
-      </c>
-      <c r="U17">
-        <v>4.5</v>
-      </c>
-      <c r="V17">
-        <v>1.83</v>
-      </c>
-      <c r="W17">
-        <v>1.83</v>
-      </c>
-      <c r="X17">
-        <v>3.75</v>
-      </c>
       <c r="Y17">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Z17">
-        <v>8.800000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="AA17">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AB17">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="AC17">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD17">
-        <v>35.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE17">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AF17">
-        <v>6.75</v>
+        <v>3.66</v>
       </c>
       <c r="AG17">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="AH17">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="AI17">
         <v>1.62</v>
@@ -4174,13 +4186,13 @@
         <v>2.2</v>
       </c>
       <c r="AK17">
-        <v>3.75</v>
+        <v>1.68</v>
       </c>
       <c r="AL17">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AM17">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="AN17">
         <v>0</v>
@@ -4189,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4204,70 +4216,70 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>3</v>
+      </c>
+      <c r="AX17">
         <v>9</v>
       </c>
-      <c r="AW17">
-        <v>3</v>
-      </c>
-      <c r="AX17">
+      <c r="AY17">
+        <v>7</v>
+      </c>
+      <c r="AZ17">
+        <v>11</v>
+      </c>
+      <c r="BA17">
         <v>4</v>
       </c>
-      <c r="AY17">
-        <v>6</v>
-      </c>
-      <c r="AZ17">
-        <v>13</v>
-      </c>
-      <c r="BA17">
-        <v>1</v>
-      </c>
       <c r="BB17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD17">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="BE17">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF17">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="BG17">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH17">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI17">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BJ17">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="BK17">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="BL17">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="BM17">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="BN17">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BO17">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP17">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4275,7 +4287,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7466070</v>
+        <v>7466069</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4293,85 +4305,85 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O18" t="s">
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="Q18">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="R18">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>2.88</v>
+        <v>1.67</v>
       </c>
       <c r="T18">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="U18">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="V18">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="W18">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="X18">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Y18">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z18">
-        <v>2.94</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA18">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AB18">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="AC18">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD18">
-        <v>10.25</v>
+        <v>35.5</v>
       </c>
       <c r="AE18">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AF18">
-        <v>3.66</v>
+        <v>6.75</v>
       </c>
       <c r="AG18">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="AH18">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="AI18">
         <v>1.62</v>
@@ -4380,13 +4392,13 @@
         <v>2.2</v>
       </c>
       <c r="AK18">
-        <v>1.68</v>
+        <v>3.75</v>
       </c>
       <c r="AL18">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AM18">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4398,7 +4410,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4410,70 +4422,70 @@
         <v>0</v>
       </c>
       <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>9</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
         <v>4</v>
       </c>
-      <c r="AV18">
-        <v>2</v>
-      </c>
-      <c r="AW18">
-        <v>3</v>
-      </c>
-      <c r="AX18">
-        <v>9</v>
-      </c>
       <c r="AY18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BD18">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="BE18">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF18">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="BG18">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BH18">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BI18">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BJ18">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="BK18">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BL18">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="BM18">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BN18">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BO18">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP18">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4523,7 +4535,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4705,7 +4717,7 @@
         <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4726,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P20" t="s">
         <v>91</v>
@@ -4935,7 +4947,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5141,7 +5153,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5529,7 +5541,7 @@
         <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5759,7 +5771,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6171,7 +6183,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6377,7 +6389,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6583,7 +6595,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6968,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
         <v>75</v>
@@ -6995,7 +7007,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7152,6 +7164,624 @@
       </c>
       <c r="BP31">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7466086</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45536.30208333334</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q32">
+        <v>3.4</v>
+      </c>
+      <c r="R32">
+        <v>2.2</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>1.36</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>2.75</v>
+      </c>
+      <c r="W32">
+        <v>1.4</v>
+      </c>
+      <c r="X32">
+        <v>7</v>
+      </c>
+      <c r="Y32">
+        <v>1.1</v>
+      </c>
+      <c r="Z32">
+        <v>2.9</v>
+      </c>
+      <c r="AA32">
+        <v>3.4</v>
+      </c>
+      <c r="AB32">
+        <v>2.4</v>
+      </c>
+      <c r="AC32">
+        <v>1.02</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AE32">
+        <v>1.25</v>
+      </c>
+      <c r="AF32">
+        <v>3.6</v>
+      </c>
+      <c r="AG32">
+        <v>1.81</v>
+      </c>
+      <c r="AH32">
+        <v>2</v>
+      </c>
+      <c r="AI32">
+        <v>1.67</v>
+      </c>
+      <c r="AJ32">
+        <v>2.1</v>
+      </c>
+      <c r="AK32">
+        <v>1.57</v>
+      </c>
+      <c r="AL32">
+        <v>1.33</v>
+      </c>
+      <c r="AM32">
+        <v>1.4</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.07</v>
+      </c>
+      <c r="AS32">
+        <v>1.63</v>
+      </c>
+      <c r="AT32">
+        <v>2.7</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>8</v>
+      </c>
+      <c r="AW32">
+        <v>3</v>
+      </c>
+      <c r="AX32">
+        <v>7</v>
+      </c>
+      <c r="AY32">
+        <v>8</v>
+      </c>
+      <c r="AZ32">
+        <v>15</v>
+      </c>
+      <c r="BA32">
+        <v>5</v>
+      </c>
+      <c r="BB32">
+        <v>4</v>
+      </c>
+      <c r="BC32">
+        <v>9</v>
+      </c>
+      <c r="BD32">
+        <v>2.18</v>
+      </c>
+      <c r="BE32">
+        <v>6.75</v>
+      </c>
+      <c r="BF32">
+        <v>1.81</v>
+      </c>
+      <c r="BG32">
+        <v>1.2</v>
+      </c>
+      <c r="BH32">
+        <v>3.9</v>
+      </c>
+      <c r="BI32">
+        <v>1.36</v>
+      </c>
+      <c r="BJ32">
+        <v>2.8</v>
+      </c>
+      <c r="BK32">
+        <v>1.61</v>
+      </c>
+      <c r="BL32">
+        <v>2.15</v>
+      </c>
+      <c r="BM32">
+        <v>2</v>
+      </c>
+      <c r="BN32">
+        <v>1.8</v>
+      </c>
+      <c r="BO32">
+        <v>2.43</v>
+      </c>
+      <c r="BP32">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7466088</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45536.39583333334</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>112</v>
+      </c>
+      <c r="P33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33">
+        <v>2.6</v>
+      </c>
+      <c r="R33">
+        <v>2.3</v>
+      </c>
+      <c r="S33">
+        <v>3.75</v>
+      </c>
+      <c r="T33">
+        <v>1.33</v>
+      </c>
+      <c r="U33">
+        <v>3.25</v>
+      </c>
+      <c r="V33">
+        <v>2.5</v>
+      </c>
+      <c r="W33">
+        <v>1.5</v>
+      </c>
+      <c r="X33">
+        <v>6.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.11</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>3.7</v>
+      </c>
+      <c r="AB33">
+        <v>3.5</v>
+      </c>
+      <c r="AC33">
+        <v>1.04</v>
+      </c>
+      <c r="AD33">
+        <v>10</v>
+      </c>
+      <c r="AE33">
+        <v>1.18</v>
+      </c>
+      <c r="AF33">
+        <v>4.05</v>
+      </c>
+      <c r="AG33">
+        <v>1.71</v>
+      </c>
+      <c r="AH33">
+        <v>2.14</v>
+      </c>
+      <c r="AI33">
+        <v>1.62</v>
+      </c>
+      <c r="AJ33">
+        <v>2.2</v>
+      </c>
+      <c r="AK33">
+        <v>1.32</v>
+      </c>
+      <c r="AL33">
+        <v>1.27</v>
+      </c>
+      <c r="AM33">
+        <v>1.8</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5</v>
+      </c>
+      <c r="AR33">
+        <v>0.7</v>
+      </c>
+      <c r="AS33">
+        <v>0.91</v>
+      </c>
+      <c r="AT33">
+        <v>1.61</v>
+      </c>
+      <c r="AU33">
+        <v>6</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33">
+        <v>3</v>
+      </c>
+      <c r="AY33">
+        <v>11</v>
+      </c>
+      <c r="AZ33">
+        <v>8</v>
+      </c>
+      <c r="BA33">
+        <v>4</v>
+      </c>
+      <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BC33">
+        <v>8</v>
+      </c>
+      <c r="BD33">
+        <v>1.81</v>
+      </c>
+      <c r="BE33">
+        <v>6.5</v>
+      </c>
+      <c r="BF33">
+        <v>2.18</v>
+      </c>
+      <c r="BG33">
+        <v>1.2</v>
+      </c>
+      <c r="BH33">
+        <v>3.9</v>
+      </c>
+      <c r="BI33">
+        <v>1.37</v>
+      </c>
+      <c r="BJ33">
+        <v>2.8</v>
+      </c>
+      <c r="BK33">
+        <v>1.63</v>
+      </c>
+      <c r="BL33">
+        <v>2.12</v>
+      </c>
+      <c r="BM33">
+        <v>1.98</v>
+      </c>
+      <c r="BN33">
+        <v>1.82</v>
+      </c>
+      <c r="BO33">
+        <v>2.48</v>
+      </c>
+      <c r="BP33">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7466089</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45536.48958333334</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q34">
+        <v>1.44</v>
+      </c>
+      <c r="R34">
+        <v>3.4</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>1.14</v>
+      </c>
+      <c r="U34">
+        <v>5.5</v>
+      </c>
+      <c r="V34">
+        <v>1.73</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34">
+        <v>3.4</v>
+      </c>
+      <c r="Y34">
+        <v>1.3</v>
+      </c>
+      <c r="Z34">
+        <v>1.11</v>
+      </c>
+      <c r="AA34">
+        <v>8.5</v>
+      </c>
+      <c r="AB34">
+        <v>19</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>50</v>
+      </c>
+      <c r="AE34">
+        <v>1.04</v>
+      </c>
+      <c r="AF34">
+        <v>8.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.25</v>
+      </c>
+      <c r="AH34">
+        <v>3.5</v>
+      </c>
+      <c r="AI34">
+        <v>1.8</v>
+      </c>
+      <c r="AJ34">
+        <v>1.95</v>
+      </c>
+      <c r="AK34">
+        <v>1.02</v>
+      </c>
+      <c r="AL34">
+        <v>1.06</v>
+      </c>
+      <c r="AM34">
+        <v>5.5</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>2.85</v>
+      </c>
+      <c r="AS34">
+        <v>0.86</v>
+      </c>
+      <c r="AT34">
+        <v>3.71</v>
+      </c>
+      <c r="AU34">
+        <v>9</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
+        <v>2</v>
+      </c>
+      <c r="AY34">
+        <v>17</v>
+      </c>
+      <c r="AZ34">
+        <v>5</v>
+      </c>
+      <c r="BA34">
+        <v>5</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
+        <v>8</v>
+      </c>
+      <c r="BD34">
+        <v>1.07</v>
+      </c>
+      <c r="BE34">
+        <v>13</v>
+      </c>
+      <c r="BF34">
+        <v>8.5</v>
+      </c>
+      <c r="BG34">
+        <v>1.2</v>
+      </c>
+      <c r="BH34">
+        <v>3.95</v>
+      </c>
+      <c r="BI34">
+        <v>1.35</v>
+      </c>
+      <c r="BJ34">
+        <v>2.9</v>
+      </c>
+      <c r="BK34">
+        <v>1.58</v>
+      </c>
+      <c r="BL34">
+        <v>2.18</v>
+      </c>
+      <c r="BM34">
+        <v>2</v>
+      </c>
+      <c r="BN34">
+        <v>1.8</v>
+      </c>
+      <c r="BO34">
+        <v>2.38</v>
+      </c>
+      <c r="BP34">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -1114,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2347,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2959,25 +2959,25 @@
         <v>2</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AU11">
         <v>10</v>
@@ -3168,22 +3168,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AU12">
         <v>8</v>
@@ -3371,25 +3371,25 @@
         <v>2.55</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -3577,25 +3577,25 @@
         <v>2.75</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -3795,13 +3795,13 @@
         <v>2</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AU15">
         <v>8</v>
@@ -3989,10 +3989,10 @@
         <v>1.02</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
         <v>0.5</v>
@@ -4001,13 +4001,13 @@
         <v>3</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4195,25 +4195,25 @@
         <v>1.36</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -4404,22 +4404,22 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AU18">
         <v>3</v>
@@ -4610,22 +4610,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
+        <v>0.75</v>
+      </c>
+      <c r="AQ19">
         <v>1.5</v>
       </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
       <c r="AR19">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -4822,16 +4822,16 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AS20">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5025,19 +5025,19 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ21">
         <v>3</v>
       </c>
       <c r="AR21">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="AS21">
-        <v>2.27</v>
+        <v>2.56</v>
       </c>
       <c r="AT21">
-        <v>3.23</v>
+        <v>3.61</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5225,25 +5225,25 @@
         <v>1.22</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
       </c>
       <c r="AS22">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="AT22">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU22">
         <v>4</v>
@@ -5440,16 +5440,16 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR23">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AS23">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AT23">
-        <v>2.89</v>
+        <v>3.23</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -5637,25 +5637,25 @@
         <v>1.57</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP24">
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="AS24">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT24">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -5846,22 +5846,22 @@
         <v>1</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AS25">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="AU25">
         <v>7</v>
@@ -6055,19 +6055,19 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="AS26">
-        <v>1.03</v>
+        <v>1.42</v>
       </c>
       <c r="AT26">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6258,22 +6258,22 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP27">
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
-        <v>1.81</v>
+        <v>1.21</v>
       </c>
       <c r="AS27">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AT27">
-        <v>3.09</v>
+        <v>2.67</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6464,22 +6464,22 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ28">
         <v>2</v>
       </c>
       <c r="AR28">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AS28">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="AT28">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -6670,22 +6670,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
       </c>
       <c r="AR29">
-        <v>2.19</v>
+        <v>1.64</v>
       </c>
       <c r="AS29">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AT29">
-        <v>2.99</v>
+        <v>2.69</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -6873,25 +6873,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="AS30">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="AT30">
-        <v>3.19</v>
+        <v>2.46</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7079,25 +7079,25 @@
         <v>1.47</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO31">
         <v>1</v>
       </c>
       <c r="AP31">
+        <v>1.25</v>
+      </c>
+      <c r="AQ31">
         <v>1.5</v>
       </c>
-      <c r="AQ31">
-        <v>2</v>
-      </c>
       <c r="AR31">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS31">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AT31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7285,25 +7285,25 @@
         <v>1.4</v>
       </c>
       <c r="AN32">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AS32">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7494,22 +7494,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
       </c>
       <c r="AR33">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="AS33">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AT33">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7700,22 +7700,22 @@
         <v>3</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34">
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="AS34">
-        <v>0.86</v>
+        <v>1.56</v>
       </c>
       <c r="AT34">
-        <v>3.71</v>
+        <v>4.13</v>
       </c>
       <c r="AU34">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -1114,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ5">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2347,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2959,25 +2959,25 @@
         <v>2</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>10</v>
@@ -3168,22 +3168,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR12">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>8</v>
@@ -3371,25 +3371,25 @@
         <v>2.55</v>
       </c>
       <c r="AN13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR13">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -3577,25 +3577,25 @@
         <v>2.75</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
       </c>
       <c r="AR14">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -3795,13 +3795,13 @@
         <v>2</v>
       </c>
       <c r="AR15">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>8</v>
@@ -3989,10 +3989,10 @@
         <v>1.02</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
         <v>0.5</v>
@@ -4001,13 +4001,13 @@
         <v>3</v>
       </c>
       <c r="AR16">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4195,25 +4195,25 @@
         <v>1.36</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>4</v>
@@ -4404,22 +4404,22 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>3</v>
@@ -4610,22 +4610,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -4822,16 +4822,16 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT20">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5025,19 +5025,19 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
         <v>3</v>
       </c>
       <c r="AR21">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AS21">
-        <v>2.56</v>
+        <v>2.27</v>
       </c>
       <c r="AT21">
-        <v>3.61</v>
+        <v>3.23</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5225,25 +5225,25 @@
         <v>1.22</v>
       </c>
       <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
         <v>1.5</v>
       </c>
-      <c r="AO22">
-        <v>2</v>
-      </c>
-      <c r="AP22">
-        <v>0.75</v>
-      </c>
       <c r="AQ22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
       </c>
       <c r="AS22">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AT22">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AU22">
         <v>4</v>
@@ -5440,16 +5440,16 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR23">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AS23">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AT23">
-        <v>3.23</v>
+        <v>2.89</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -5637,25 +5637,25 @@
         <v>1.57</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP24">
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR24">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="AS24">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AT24">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -5846,22 +5846,22 @@
         <v>1</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR25">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AT25">
-        <v>3.11</v>
+        <v>2.85</v>
       </c>
       <c r="AU25">
         <v>7</v>
@@ -6055,19 +6055,19 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="AS26">
-        <v>1.42</v>
+        <v>1.03</v>
       </c>
       <c r="AT26">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6258,22 +6258,22 @@
         <v>0</v>
       </c>
       <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
         <v>2.33</v>
       </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>2.5</v>
-      </c>
       <c r="AR27">
-        <v>1.21</v>
+        <v>1.81</v>
       </c>
       <c r="AS27">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AT27">
-        <v>2.67</v>
+        <v>3.09</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6464,22 +6464,22 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ28">
         <v>2</v>
       </c>
       <c r="AR28">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AS28">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="AT28">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -6670,22 +6670,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
       </c>
       <c r="AR29">
-        <v>1.64</v>
+        <v>2.19</v>
       </c>
       <c r="AS29">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AT29">
-        <v>2.69</v>
+        <v>2.99</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -6873,25 +6873,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>1.64</v>
+        <v>2.4</v>
       </c>
       <c r="AS30">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AT30">
-        <v>2.46</v>
+        <v>3.19</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7079,25 +7079,25 @@
         <v>1.47</v>
       </c>
       <c r="AN31">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO31">
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR31">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AS31">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7285,25 +7285,25 @@
         <v>1.4</v>
       </c>
       <c r="AN32">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT32">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7494,22 +7494,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
       </c>
       <c r="AR33">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="AS33">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AT33">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7700,22 +7700,22 @@
         <v>3</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34">
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR34">
-        <v>2.57</v>
+        <v>2.85</v>
       </c>
       <c r="AS34">
-        <v>1.56</v>
+        <v>0.86</v>
       </c>
       <c r="AT34">
-        <v>4.13</v>
+        <v>3.71</v>
       </c>
       <c r="AU34">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,24 @@
     <t>['11', '27', '63']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['11', '16']</t>
+  </si>
+  <si>
+    <t>['81', '90+1']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['4', '23', '48', '50', '56', '72', '75', '82', '85']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -388,9 +406,6 @@
     <t>['4', '46', '51', '68', '71']</t>
   </si>
   <si>
-    <t>['63']</t>
-  </si>
-  <si>
     <t>['10', '15', '65', '71', '78', '83', '90']</t>
   </si>
   <si>
@@ -413,6 +428,15 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['33', '70']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['21', '53']</t>
   </si>
 </sst>
 </file>
@@ -774,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1033,7 +1057,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1111,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1445,7 +1469,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1651,7 +1675,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1857,7 +1881,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2141,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2350,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2475,7 +2499,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2556,7 +2580,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3093,7 +3117,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3299,7 +3323,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3586,7 +3610,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3711,7 +3735,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3917,7 +3941,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4204,7 +4228,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4329,7 +4353,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4410,7 +4434,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4535,7 +4559,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4613,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4822,7 +4846,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -4947,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5153,7 +5177,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5231,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>2</v>
@@ -5437,7 +5461,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
         <v>2.33</v>
@@ -5771,7 +5795,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5849,10 +5873,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.08</v>
@@ -6183,7 +6207,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6389,7 +6413,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6595,7 +6619,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6676,7 +6700,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>2.19</v>
@@ -7007,7 +7031,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7213,7 +7237,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7706,7 +7730,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>2.85</v>
@@ -7781,6 +7805,1242 @@
         <v>2.38</v>
       </c>
       <c r="BP34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7466090</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45549.47916666666</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q35">
+        <v>1.73</v>
+      </c>
+      <c r="R35">
+        <v>2.75</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+      <c r="T35">
+        <v>1.25</v>
+      </c>
+      <c r="U35">
+        <v>3.75</v>
+      </c>
+      <c r="V35">
+        <v>2.25</v>
+      </c>
+      <c r="W35">
+        <v>1.57</v>
+      </c>
+      <c r="X35">
+        <v>5.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.14</v>
+      </c>
+      <c r="Z35">
+        <v>1.33</v>
+      </c>
+      <c r="AA35">
+        <v>5.5</v>
+      </c>
+      <c r="AB35">
+        <v>8.25</v>
+      </c>
+      <c r="AC35">
+        <v>1.02</v>
+      </c>
+      <c r="AD35">
+        <v>21</v>
+      </c>
+      <c r="AE35">
+        <v>1.14</v>
+      </c>
+      <c r="AF35">
+        <v>4.6</v>
+      </c>
+      <c r="AG35">
+        <v>1.55</v>
+      </c>
+      <c r="AH35">
+        <v>2.3</v>
+      </c>
+      <c r="AI35">
+        <v>1.95</v>
+      </c>
+      <c r="AJ35">
+        <v>1.8</v>
+      </c>
+      <c r="AK35">
+        <v>1.02</v>
+      </c>
+      <c r="AL35">
+        <v>1.1</v>
+      </c>
+      <c r="AM35">
+        <v>3.75</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>0.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.72</v>
+      </c>
+      <c r="AS35">
+        <v>0.95</v>
+      </c>
+      <c r="AT35">
+        <v>2.67</v>
+      </c>
+      <c r="AU35">
+        <v>13</v>
+      </c>
+      <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>1</v>
+      </c>
+      <c r="AY35">
+        <v>18</v>
+      </c>
+      <c r="AZ35">
+        <v>4</v>
+      </c>
+      <c r="BA35">
+        <v>8</v>
+      </c>
+      <c r="BB35">
+        <v>4</v>
+      </c>
+      <c r="BC35">
+        <v>12</v>
+      </c>
+      <c r="BD35">
+        <v>1.16</v>
+      </c>
+      <c r="BE35">
+        <v>9.5</v>
+      </c>
+      <c r="BF35">
+        <v>5.4</v>
+      </c>
+      <c r="BG35">
+        <v>1.2</v>
+      </c>
+      <c r="BH35">
+        <v>4</v>
+      </c>
+      <c r="BI35">
+        <v>1.34</v>
+      </c>
+      <c r="BJ35">
+        <v>2.9</v>
+      </c>
+      <c r="BK35">
+        <v>1.55</v>
+      </c>
+      <c r="BL35">
+        <v>2.25</v>
+      </c>
+      <c r="BM35">
+        <v>1.86</v>
+      </c>
+      <c r="BN35">
+        <v>1.82</v>
+      </c>
+      <c r="BO35">
+        <v>2.3</v>
+      </c>
+      <c r="BP35">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7466094</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45549.47916666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q36">
+        <v>1.44</v>
+      </c>
+      <c r="R36">
+        <v>3.4</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>1.17</v>
+      </c>
+      <c r="U36">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>1.8</v>
+      </c>
+      <c r="W36">
+        <v>1.91</v>
+      </c>
+      <c r="X36">
+        <v>3.5</v>
+      </c>
+      <c r="Y36">
+        <v>1.29</v>
+      </c>
+      <c r="Z36">
+        <v>1.15</v>
+      </c>
+      <c r="AA36">
+        <v>9</v>
+      </c>
+      <c r="AB36">
+        <v>16</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>36</v>
+      </c>
+      <c r="AE36">
+        <v>1.05</v>
+      </c>
+      <c r="AF36">
+        <v>7.2</v>
+      </c>
+      <c r="AG36">
+        <v>1.3</v>
+      </c>
+      <c r="AH36">
+        <v>3.2</v>
+      </c>
+      <c r="AI36">
+        <v>1.91</v>
+      </c>
+      <c r="AJ36">
+        <v>1.91</v>
+      </c>
+      <c r="AK36">
+        <v>1.01</v>
+      </c>
+      <c r="AL36">
+        <v>1.06</v>
+      </c>
+      <c r="AM36">
+        <v>5.85</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>1.5</v>
+      </c>
+      <c r="AP36">
+        <v>3</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>2.65</v>
+      </c>
+      <c r="AS36">
+        <v>1</v>
+      </c>
+      <c r="AT36">
+        <v>3.65</v>
+      </c>
+      <c r="AU36">
+        <v>12</v>
+      </c>
+      <c r="AV36">
+        <v>2</v>
+      </c>
+      <c r="AW36">
+        <v>8</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>20</v>
+      </c>
+      <c r="AZ36">
+        <v>2</v>
+      </c>
+      <c r="BA36">
+        <v>15</v>
+      </c>
+      <c r="BB36">
+        <v>3</v>
+      </c>
+      <c r="BC36">
+        <v>18</v>
+      </c>
+      <c r="BD36">
+        <v>1.15</v>
+      </c>
+      <c r="BE36">
+        <v>9.5</v>
+      </c>
+      <c r="BF36">
+        <v>5.6</v>
+      </c>
+      <c r="BG36">
+        <v>1.15</v>
+      </c>
+      <c r="BH36">
+        <v>4.6</v>
+      </c>
+      <c r="BI36">
+        <v>1.27</v>
+      </c>
+      <c r="BJ36">
+        <v>3.3</v>
+      </c>
+      <c r="BK36">
+        <v>1.47</v>
+      </c>
+      <c r="BL36">
+        <v>2.48</v>
+      </c>
+      <c r="BM36">
+        <v>2</v>
+      </c>
+      <c r="BN36">
+        <v>1.8</v>
+      </c>
+      <c r="BO36">
+        <v>2.14</v>
+      </c>
+      <c r="BP36">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7466091</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45549.57291666666</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P37" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>2.4</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>1.3</v>
+      </c>
+      <c r="U37">
+        <v>3.4</v>
+      </c>
+      <c r="V37">
+        <v>2.5</v>
+      </c>
+      <c r="W37">
+        <v>1.5</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>1.13</v>
+      </c>
+      <c r="Z37">
+        <v>6</v>
+      </c>
+      <c r="AA37">
+        <v>4.75</v>
+      </c>
+      <c r="AB37">
+        <v>1.43</v>
+      </c>
+      <c r="AC37">
+        <v>1.03</v>
+      </c>
+      <c r="AD37">
+        <v>17</v>
+      </c>
+      <c r="AE37">
+        <v>1.19</v>
+      </c>
+      <c r="AF37">
+        <v>4.45</v>
+      </c>
+      <c r="AG37">
+        <v>1.57</v>
+      </c>
+      <c r="AH37">
+        <v>2.25</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.95</v>
+      </c>
+      <c r="AK37">
+        <v>2.55</v>
+      </c>
+      <c r="AL37">
+        <v>1.2</v>
+      </c>
+      <c r="AM37">
+        <v>1.09</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>2</v>
+      </c>
+      <c r="AP37">
+        <v>1.67</v>
+      </c>
+      <c r="AQ37">
+        <v>1.67</v>
+      </c>
+      <c r="AR37">
+        <v>1.07</v>
+      </c>
+      <c r="AS37">
+        <v>1.89</v>
+      </c>
+      <c r="AT37">
+        <v>2.96</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>9</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>3</v>
+      </c>
+      <c r="AY37">
+        <v>10</v>
+      </c>
+      <c r="AZ37">
+        <v>12</v>
+      </c>
+      <c r="BA37">
+        <v>5</v>
+      </c>
+      <c r="BB37">
+        <v>6</v>
+      </c>
+      <c r="BC37">
+        <v>11</v>
+      </c>
+      <c r="BD37">
+        <v>2.65</v>
+      </c>
+      <c r="BE37">
+        <v>6.75</v>
+      </c>
+      <c r="BF37">
+        <v>1.57</v>
+      </c>
+      <c r="BG37">
+        <v>1.21</v>
+      </c>
+      <c r="BH37">
+        <v>3.8</v>
+      </c>
+      <c r="BI37">
+        <v>1.38</v>
+      </c>
+      <c r="BJ37">
+        <v>2.75</v>
+      </c>
+      <c r="BK37">
+        <v>1.64</v>
+      </c>
+      <c r="BL37">
+        <v>2.1</v>
+      </c>
+      <c r="BM37">
+        <v>1.98</v>
+      </c>
+      <c r="BN37">
+        <v>1.72</v>
+      </c>
+      <c r="BO37">
+        <v>2.5</v>
+      </c>
+      <c r="BP37">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7466092</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45549.625</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q38">
+        <v>3.5</v>
+      </c>
+      <c r="R38">
+        <v>2.2</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2.75</v>
+      </c>
+      <c r="W38">
+        <v>1.4</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>1.1</v>
+      </c>
+      <c r="Z38">
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <v>3.3</v>
+      </c>
+      <c r="AB38">
+        <v>2.25</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>9.9</v>
+      </c>
+      <c r="AE38">
+        <v>1.23</v>
+      </c>
+      <c r="AF38">
+        <v>3.58</v>
+      </c>
+      <c r="AG38">
+        <v>1.8</v>
+      </c>
+      <c r="AH38">
+        <v>1.91</v>
+      </c>
+      <c r="AI38">
+        <v>1.7</v>
+      </c>
+      <c r="AJ38">
+        <v>2.05</v>
+      </c>
+      <c r="AK38">
+        <v>1.65</v>
+      </c>
+      <c r="AL38">
+        <v>1.25</v>
+      </c>
+      <c r="AM38">
+        <v>1.4</v>
+      </c>
+      <c r="AN38">
+        <v>1.5</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>1.5</v>
+      </c>
+      <c r="AR38">
+        <v>0.83</v>
+      </c>
+      <c r="AS38">
+        <v>1.09</v>
+      </c>
+      <c r="AT38">
+        <v>1.92</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>5</v>
+      </c>
+      <c r="AY38">
+        <v>8</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>3</v>
+      </c>
+      <c r="BB38">
+        <v>8</v>
+      </c>
+      <c r="BC38">
+        <v>11</v>
+      </c>
+      <c r="BD38">
+        <v>2.38</v>
+      </c>
+      <c r="BE38">
+        <v>6.4</v>
+      </c>
+      <c r="BF38">
+        <v>1.72</v>
+      </c>
+      <c r="BG38">
+        <v>1.34</v>
+      </c>
+      <c r="BH38">
+        <v>2.9</v>
+      </c>
+      <c r="BI38">
+        <v>1.57</v>
+      </c>
+      <c r="BJ38">
+        <v>2.23</v>
+      </c>
+      <c r="BK38">
+        <v>1.95</v>
+      </c>
+      <c r="BL38">
+        <v>1.75</v>
+      </c>
+      <c r="BM38">
+        <v>2.45</v>
+      </c>
+      <c r="BN38">
+        <v>1.48</v>
+      </c>
+      <c r="BO38">
+        <v>3.2</v>
+      </c>
+      <c r="BP38">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7466093</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45549.66666666666</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q39">
+        <v>1.95</v>
+      </c>
+      <c r="R39">
+        <v>2.4</v>
+      </c>
+      <c r="S39">
+        <v>6.5</v>
+      </c>
+      <c r="T39">
+        <v>1.3</v>
+      </c>
+      <c r="U39">
+        <v>3.4</v>
+      </c>
+      <c r="V39">
+        <v>2.5</v>
+      </c>
+      <c r="W39">
+        <v>1.5</v>
+      </c>
+      <c r="X39">
+        <v>6</v>
+      </c>
+      <c r="Y39">
+        <v>1.13</v>
+      </c>
+      <c r="Z39">
+        <v>1.38</v>
+      </c>
+      <c r="AA39">
+        <v>4.75</v>
+      </c>
+      <c r="AB39">
+        <v>7</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>10.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.18</v>
+      </c>
+      <c r="AF39">
+        <v>4.05</v>
+      </c>
+      <c r="AG39">
+        <v>1.57</v>
+      </c>
+      <c r="AH39">
+        <v>2.25</v>
+      </c>
+      <c r="AI39">
+        <v>1.91</v>
+      </c>
+      <c r="AJ39">
+        <v>1.91</v>
+      </c>
+      <c r="AK39">
+        <v>1.09</v>
+      </c>
+      <c r="AL39">
+        <v>1.16</v>
+      </c>
+      <c r="AM39">
+        <v>2.8</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>3</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>1.82</v>
+      </c>
+      <c r="AS39">
+        <v>0.89</v>
+      </c>
+      <c r="AT39">
+        <v>2.71</v>
+      </c>
+      <c r="AU39">
+        <v>20</v>
+      </c>
+      <c r="AV39">
+        <v>6</v>
+      </c>
+      <c r="AW39">
+        <v>6</v>
+      </c>
+      <c r="AX39">
+        <v>7</v>
+      </c>
+      <c r="AY39">
+        <v>26</v>
+      </c>
+      <c r="AZ39">
+        <v>13</v>
+      </c>
+      <c r="BA39">
+        <v>5</v>
+      </c>
+      <c r="BB39">
+        <v>3</v>
+      </c>
+      <c r="BC39">
+        <v>8</v>
+      </c>
+      <c r="BD39">
+        <v>1.42</v>
+      </c>
+      <c r="BE39">
+        <v>7</v>
+      </c>
+      <c r="BF39">
+        <v>3.15</v>
+      </c>
+      <c r="BG39">
+        <v>1.15</v>
+      </c>
+      <c r="BH39">
+        <v>4.6</v>
+      </c>
+      <c r="BI39">
+        <v>1.27</v>
+      </c>
+      <c r="BJ39">
+        <v>3.3</v>
+      </c>
+      <c r="BK39">
+        <v>1.47</v>
+      </c>
+      <c r="BL39">
+        <v>2.48</v>
+      </c>
+      <c r="BM39">
+        <v>1.72</v>
+      </c>
+      <c r="BN39">
+        <v>1.98</v>
+      </c>
+      <c r="BO39">
+        <v>2.1</v>
+      </c>
+      <c r="BP39">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7466095</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45550.30208333334</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q40">
+        <v>2.63</v>
+      </c>
+      <c r="R40">
+        <v>2.25</v>
+      </c>
+      <c r="S40">
+        <v>4</v>
+      </c>
+      <c r="T40">
+        <v>1.36</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2.63</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>2.02</v>
+      </c>
+      <c r="AA40">
+        <v>3.5</v>
+      </c>
+      <c r="AB40">
+        <v>3.3</v>
+      </c>
+      <c r="AC40">
+        <v>1.04</v>
+      </c>
+      <c r="AD40">
+        <v>13</v>
+      </c>
+      <c r="AE40">
+        <v>1.26</v>
+      </c>
+      <c r="AF40">
+        <v>3.67</v>
+      </c>
+      <c r="AG40">
+        <v>1.88</v>
+      </c>
+      <c r="AH40">
+        <v>1.98</v>
+      </c>
+      <c r="AI40">
+        <v>1.67</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.25</v>
+      </c>
+      <c r="AL40">
+        <v>1.23</v>
+      </c>
+      <c r="AM40">
+        <v>1.74</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0.67</v>
+      </c>
+      <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <v>1.21</v>
+      </c>
+      <c r="AS40">
+        <v>0.82</v>
+      </c>
+      <c r="AT40">
+        <v>2.03</v>
+      </c>
+      <c r="AU40">
+        <v>8</v>
+      </c>
+      <c r="AV40">
+        <v>4</v>
+      </c>
+      <c r="AW40">
+        <v>7</v>
+      </c>
+      <c r="AX40">
+        <v>9</v>
+      </c>
+      <c r="AY40">
+        <v>15</v>
+      </c>
+      <c r="AZ40">
+        <v>13</v>
+      </c>
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>13</v>
+      </c>
+      <c r="BC40">
+        <v>18</v>
+      </c>
+      <c r="BD40">
+        <v>1.65</v>
+      </c>
+      <c r="BE40">
+        <v>6.75</v>
+      </c>
+      <c r="BF40">
+        <v>2.48</v>
+      </c>
+      <c r="BG40">
+        <v>1.2</v>
+      </c>
+      <c r="BH40">
+        <v>3.95</v>
+      </c>
+      <c r="BI40">
+        <v>1.35</v>
+      </c>
+      <c r="BJ40">
+        <v>2.9</v>
+      </c>
+      <c r="BK40">
+        <v>1.58</v>
+      </c>
+      <c r="BL40">
+        <v>2.2</v>
+      </c>
+      <c r="BM40">
+        <v>1.91</v>
+      </c>
+      <c r="BN40">
+        <v>1.78</v>
+      </c>
+      <c r="BO40">
+        <v>2.38</v>
+      </c>
+      <c r="BP40">
         <v>1.5</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['8', '30', '52']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -798,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1469,7 +1472,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1675,7 +1678,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1881,7 +1884,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2499,7 +2502,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2992,7 +2995,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3117,7 +3120,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3323,7 +3326,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3735,7 +3738,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3941,7 +3944,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4019,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4225,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4353,7 +4356,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4971,7 +4974,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5177,7 +5180,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5667,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5795,7 +5798,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6207,7 +6210,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6413,7 +6416,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6619,7 +6622,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7031,7 +7034,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7109,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7237,7 +7240,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8267,7 +8270,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8679,7 +8682,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8885,7 +8888,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9042,6 +9045,418 @@
       </c>
       <c r="BP40">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7466097</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45550.39583333334</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q41">
+        <v>2.5</v>
+      </c>
+      <c r="R41">
+        <v>2.2</v>
+      </c>
+      <c r="S41">
+        <v>4.33</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>2.75</v>
+      </c>
+      <c r="W41">
+        <v>1.4</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
+        <v>1.91</v>
+      </c>
+      <c r="AA41">
+        <v>3.4</v>
+      </c>
+      <c r="AB41">
+        <v>3.8</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE41">
+        <v>1.24</v>
+      </c>
+      <c r="AF41">
+        <v>3.5</v>
+      </c>
+      <c r="AG41">
+        <v>1.95</v>
+      </c>
+      <c r="AH41">
+        <v>1.91</v>
+      </c>
+      <c r="AI41">
+        <v>1.75</v>
+      </c>
+      <c r="AJ41">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>1.18</v>
+      </c>
+      <c r="AL41">
+        <v>1.22</v>
+      </c>
+      <c r="AM41">
+        <v>1.9</v>
+      </c>
+      <c r="AN41">
+        <v>1.5</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>2</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>1.08</v>
+      </c>
+      <c r="AS41">
+        <v>0.91</v>
+      </c>
+      <c r="AT41">
+        <v>1.99</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>6</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>6</v>
+      </c>
+      <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>4</v>
+      </c>
+      <c r="BC41">
+        <v>8</v>
+      </c>
+      <c r="BD41">
+        <v>1.54</v>
+      </c>
+      <c r="BE41">
+        <v>7</v>
+      </c>
+      <c r="BF41">
+        <v>2.65</v>
+      </c>
+      <c r="BG41">
+        <v>1.14</v>
+      </c>
+      <c r="BH41">
+        <v>4.8</v>
+      </c>
+      <c r="BI41">
+        <v>1.25</v>
+      </c>
+      <c r="BJ41">
+        <v>3.4</v>
+      </c>
+      <c r="BK41">
+        <v>1.44</v>
+      </c>
+      <c r="BL41">
+        <v>2.55</v>
+      </c>
+      <c r="BM41">
+        <v>1.68</v>
+      </c>
+      <c r="BN41">
+        <v>2.02</v>
+      </c>
+      <c r="BO41">
+        <v>2.04</v>
+      </c>
+      <c r="BP41">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7466098</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45550.48958333334</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q42">
+        <v>2.88</v>
+      </c>
+      <c r="R42">
+        <v>2.1</v>
+      </c>
+      <c r="S42">
+        <v>3.75</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>2.75</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1.36</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>2.12</v>
+      </c>
+      <c r="AA42">
+        <v>3.3</v>
+      </c>
+      <c r="AB42">
+        <v>3.3</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>9</v>
+      </c>
+      <c r="AE42">
+        <v>1.33</v>
+      </c>
+      <c r="AF42">
+        <v>3.3</v>
+      </c>
+      <c r="AG42">
+        <v>2.03</v>
+      </c>
+      <c r="AH42">
+        <v>1.83</v>
+      </c>
+      <c r="AI42">
+        <v>1.8</v>
+      </c>
+      <c r="AJ42">
+        <v>1.95</v>
+      </c>
+      <c r="AK42">
+        <v>1.25</v>
+      </c>
+      <c r="AL42">
+        <v>1.25</v>
+      </c>
+      <c r="AM42">
+        <v>1.7</v>
+      </c>
+      <c r="AN42">
+        <v>0.5</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0.67</v>
+      </c>
+      <c r="AQ42">
+        <v>0.5</v>
+      </c>
+      <c r="AR42">
+        <v>1.23</v>
+      </c>
+      <c r="AS42">
+        <v>1.14</v>
+      </c>
+      <c r="AT42">
+        <v>2.37</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>13</v>
+      </c>
+      <c r="AX42">
+        <v>3</v>
+      </c>
+      <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
+        <v>8</v>
+      </c>
+      <c r="BA42">
+        <v>10</v>
+      </c>
+      <c r="BB42">
+        <v>2</v>
+      </c>
+      <c r="BC42">
+        <v>12</v>
+      </c>
+      <c r="BD42">
+        <v>1.95</v>
+      </c>
+      <c r="BE42">
+        <v>6.75</v>
+      </c>
+      <c r="BF42">
+        <v>2.02</v>
+      </c>
+      <c r="BG42">
+        <v>1.2</v>
+      </c>
+      <c r="BH42">
+        <v>3.9</v>
+      </c>
+      <c r="BI42">
+        <v>1.37</v>
+      </c>
+      <c r="BJ42">
+        <v>2.8</v>
+      </c>
+      <c r="BK42">
+        <v>1.63</v>
+      </c>
+      <c r="BL42">
+        <v>2.12</v>
+      </c>
+      <c r="BM42">
+        <v>1.98</v>
+      </c>
+      <c r="BN42">
+        <v>1.72</v>
+      </c>
+      <c r="BO42">
+        <v>2.48</v>
+      </c>
+      <c r="BP42">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>['8', '30', '52']</t>
+  </si>
+  <si>
+    <t>['22', '39']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -801,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1063,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1472,7 +1475,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1678,7 +1681,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1884,7 +1887,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2502,7 +2505,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3120,7 +3123,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3326,7 +3329,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3404,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3738,7 +3741,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3944,7 +3947,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4356,7 +4359,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4974,7 +4977,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5180,7 +5183,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5798,7 +5801,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6210,7 +6213,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6416,7 +6419,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6622,7 +6625,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7034,7 +7037,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7240,7 +7243,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7936,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
@@ -8270,7 +8273,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8682,7 +8685,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8888,7 +8891,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9457,6 +9460,212 @@
       </c>
       <c r="BP42">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7466075</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45552.625</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>121</v>
+      </c>
+      <c r="P43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q43">
+        <v>1.91</v>
+      </c>
+      <c r="R43">
+        <v>2.5</v>
+      </c>
+      <c r="S43">
+        <v>6.5</v>
+      </c>
+      <c r="T43">
+        <v>1.3</v>
+      </c>
+      <c r="U43">
+        <v>3.4</v>
+      </c>
+      <c r="V43">
+        <v>2.38</v>
+      </c>
+      <c r="W43">
+        <v>1.53</v>
+      </c>
+      <c r="X43">
+        <v>6</v>
+      </c>
+      <c r="Y43">
+        <v>1.13</v>
+      </c>
+      <c r="Z43">
+        <v>1.42</v>
+      </c>
+      <c r="AA43">
+        <v>4.85</v>
+      </c>
+      <c r="AB43">
+        <v>7.1</v>
+      </c>
+      <c r="AC43">
+        <v>1.03</v>
+      </c>
+      <c r="AD43">
+        <v>18.25</v>
+      </c>
+      <c r="AE43">
+        <v>1.2</v>
+      </c>
+      <c r="AF43">
+        <v>4.55</v>
+      </c>
+      <c r="AG43">
+        <v>1.6</v>
+      </c>
+      <c r="AH43">
+        <v>2.2</v>
+      </c>
+      <c r="AI43">
+        <v>1.91</v>
+      </c>
+      <c r="AJ43">
+        <v>1.91</v>
+      </c>
+      <c r="AK43">
+        <v>1.13</v>
+      </c>
+      <c r="AL43">
+        <v>1.18</v>
+      </c>
+      <c r="AM43">
+        <v>2.8</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>1.67</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>2.19</v>
+      </c>
+      <c r="AS43">
+        <v>1.25</v>
+      </c>
+      <c r="AT43">
+        <v>3.44</v>
+      </c>
+      <c r="AU43">
+        <v>10</v>
+      </c>
+      <c r="AV43">
+        <v>5</v>
+      </c>
+      <c r="AW43">
+        <v>4</v>
+      </c>
+      <c r="AX43">
+        <v>3</v>
+      </c>
+      <c r="AY43">
+        <v>14</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>3</v>
+      </c>
+      <c r="BC43">
+        <v>9</v>
+      </c>
+      <c r="BD43">
+        <v>1.44</v>
+      </c>
+      <c r="BE43">
+        <v>7</v>
+      </c>
+      <c r="BF43">
+        <v>3.15</v>
+      </c>
+      <c r="BG43">
+        <v>1.15</v>
+      </c>
+      <c r="BH43">
+        <v>4.6</v>
+      </c>
+      <c r="BI43">
+        <v>1.27</v>
+      </c>
+      <c r="BJ43">
+        <v>3.3</v>
+      </c>
+      <c r="BK43">
+        <v>1.47</v>
+      </c>
+      <c r="BL43">
+        <v>2.48</v>
+      </c>
+      <c r="BM43">
+        <v>1.73</v>
+      </c>
+      <c r="BN43">
+        <v>1.96</v>
+      </c>
+      <c r="BO43">
+        <v>2.14</v>
+      </c>
+      <c r="BP43">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>['22', '39']</t>
+  </si>
+  <si>
+    <t>['9', '24', '58', '71', '87']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -804,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1066,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1475,7 +1478,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1681,7 +1684,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1887,7 +1890,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2505,7 +2508,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2586,7 +2589,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3123,7 +3126,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3329,7 +3332,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3741,7 +3744,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3947,7 +3950,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4359,7 +4362,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4977,7 +4980,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5183,7 +5186,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5801,7 +5804,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6213,7 +6216,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6419,7 +6422,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6625,7 +6628,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7037,7 +7040,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7243,7 +7246,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8273,7 +8276,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8560,7 +8563,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>0.83</v>
@@ -8685,7 +8688,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8891,7 +8894,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9666,6 +9669,212 @@
       </c>
       <c r="BP43">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7466076</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45553.625</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>122</v>
+      </c>
+      <c r="P44" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q44">
+        <v>1.95</v>
+      </c>
+      <c r="R44">
+        <v>2.6</v>
+      </c>
+      <c r="S44">
+        <v>5.5</v>
+      </c>
+      <c r="T44">
+        <v>1.25</v>
+      </c>
+      <c r="U44">
+        <v>3.75</v>
+      </c>
+      <c r="V44">
+        <v>2.2</v>
+      </c>
+      <c r="W44">
+        <v>1.62</v>
+      </c>
+      <c r="X44">
+        <v>5</v>
+      </c>
+      <c r="Y44">
+        <v>1.17</v>
+      </c>
+      <c r="Z44">
+        <v>1.38</v>
+      </c>
+      <c r="AA44">
+        <v>4.75</v>
+      </c>
+      <c r="AB44">
+        <v>7</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>13</v>
+      </c>
+      <c r="AE44">
+        <v>1.13</v>
+      </c>
+      <c r="AF44">
+        <v>5.2</v>
+      </c>
+      <c r="AG44">
+        <v>1.57</v>
+      </c>
+      <c r="AH44">
+        <v>2.28</v>
+      </c>
+      <c r="AI44">
+        <v>1.7</v>
+      </c>
+      <c r="AJ44">
+        <v>2.05</v>
+      </c>
+      <c r="AK44">
+        <v>1.13</v>
+      </c>
+      <c r="AL44">
+        <v>1.18</v>
+      </c>
+      <c r="AM44">
+        <v>2.7</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>1.5</v>
+      </c>
+      <c r="AP44">
+        <v>3</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.45</v>
+      </c>
+      <c r="AS44">
+        <v>1.18</v>
+      </c>
+      <c r="AT44">
+        <v>2.63</v>
+      </c>
+      <c r="AU44">
+        <v>15</v>
+      </c>
+      <c r="AV44">
+        <v>2</v>
+      </c>
+      <c r="AW44">
+        <v>6</v>
+      </c>
+      <c r="AX44">
+        <v>3</v>
+      </c>
+      <c r="AY44">
+        <v>21</v>
+      </c>
+      <c r="AZ44">
+        <v>5</v>
+      </c>
+      <c r="BA44">
+        <v>15</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>15</v>
+      </c>
+      <c r="BD44">
+        <v>1.52</v>
+      </c>
+      <c r="BE44">
+        <v>6.75</v>
+      </c>
+      <c r="BF44">
+        <v>2.8</v>
+      </c>
+      <c r="BG44">
+        <v>1.3</v>
+      </c>
+      <c r="BH44">
+        <v>3.05</v>
+      </c>
+      <c r="BI44">
+        <v>1.55</v>
+      </c>
+      <c r="BJ44">
+        <v>2.28</v>
+      </c>
+      <c r="BK44">
+        <v>1.88</v>
+      </c>
+      <c r="BL44">
+        <v>1.8</v>
+      </c>
+      <c r="BM44">
+        <v>2.35</v>
+      </c>
+      <c r="BN44">
+        <v>1.5</v>
+      </c>
+      <c r="BO44">
+        <v>3.05</v>
+      </c>
+      <c r="BP44">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,9 @@
     <t>['9', '24', '58', '71', '87']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -446,6 +449,9 @@
   </si>
   <si>
     <t>['21', '53']</t>
+  </si>
+  <si>
+    <t>['6', '50']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1072,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1478,7 +1484,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1684,7 +1690,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1765,7 +1771,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1890,7 +1896,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2508,7 +2514,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3126,7 +3132,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3332,7 +3338,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3744,7 +3750,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3950,7 +3956,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4362,7 +4368,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4440,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -4980,7 +4986,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5186,7 +5192,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5473,7 +5479,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5804,7 +5810,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6216,7 +6222,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6297,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR27">
         <v>1.81</v>
@@ -6422,7 +6428,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6628,7 +6634,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7040,7 +7046,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7246,7 +7252,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7530,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -8276,7 +8282,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8688,7 +8694,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8894,7 +8900,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9875,6 +9881,212 @@
       </c>
       <c r="BP44">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7466099</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>2.5</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>1.3</v>
+      </c>
+      <c r="U45">
+        <v>3.4</v>
+      </c>
+      <c r="V45">
+        <v>2.38</v>
+      </c>
+      <c r="W45">
+        <v>1.53</v>
+      </c>
+      <c r="X45">
+        <v>6</v>
+      </c>
+      <c r="Y45">
+        <v>1.13</v>
+      </c>
+      <c r="Z45">
+        <v>6.75</v>
+      </c>
+      <c r="AA45">
+        <v>4.6</v>
+      </c>
+      <c r="AB45">
+        <v>1.43</v>
+      </c>
+      <c r="AC45">
+        <v>1.03</v>
+      </c>
+      <c r="AD45">
+        <v>17</v>
+      </c>
+      <c r="AE45">
+        <v>1.19</v>
+      </c>
+      <c r="AF45">
+        <v>4.45</v>
+      </c>
+      <c r="AG45">
+        <v>1.7</v>
+      </c>
+      <c r="AH45">
+        <v>2.15</v>
+      </c>
+      <c r="AI45">
+        <v>1.8</v>
+      </c>
+      <c r="AJ45">
+        <v>1.95</v>
+      </c>
+      <c r="AK45">
+        <v>2.7</v>
+      </c>
+      <c r="AL45">
+        <v>1.17</v>
+      </c>
+      <c r="AM45">
+        <v>1.12</v>
+      </c>
+      <c r="AN45">
+        <v>1.5</v>
+      </c>
+      <c r="AO45">
+        <v>2.33</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>2.5</v>
+      </c>
+      <c r="AR45">
+        <v>1.06</v>
+      </c>
+      <c r="AS45">
+        <v>1.63</v>
+      </c>
+      <c r="AT45">
+        <v>2.69</v>
+      </c>
+      <c r="AU45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>7</v>
+      </c>
+      <c r="AW45">
+        <v>6</v>
+      </c>
+      <c r="AX45">
+        <v>6</v>
+      </c>
+      <c r="AY45">
+        <v>9</v>
+      </c>
+      <c r="AZ45">
+        <v>13</v>
+      </c>
+      <c r="BA45">
+        <v>10</v>
+      </c>
+      <c r="BB45">
+        <v>9</v>
+      </c>
+      <c r="BC45">
+        <v>19</v>
+      </c>
+      <c r="BD45">
+        <v>2.8</v>
+      </c>
+      <c r="BE45">
+        <v>6.4</v>
+      </c>
+      <c r="BF45">
+        <v>1.56</v>
+      </c>
+      <c r="BG45">
+        <v>1.33</v>
+      </c>
+      <c r="BH45">
+        <v>2.95</v>
+      </c>
+      <c r="BI45">
+        <v>1.58</v>
+      </c>
+      <c r="BJ45">
+        <v>2.2</v>
+      </c>
+      <c r="BK45">
+        <v>1.95</v>
+      </c>
+      <c r="BL45">
+        <v>1.75</v>
+      </c>
+      <c r="BM45">
+        <v>2.45</v>
+      </c>
+      <c r="BN45">
+        <v>1.48</v>
+      </c>
+      <c r="BO45">
+        <v>3.2</v>
+      </c>
+      <c r="BP45">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,12 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['11', '37', '53']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -452,6 +458,18 @@
   </si>
   <si>
     <t>['6', '50']</t>
+  </si>
+  <si>
+    <t>['29', '43']</t>
+  </si>
+  <si>
+    <t>['32', '55']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['3', '13']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1090,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1359,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1484,7 +1502,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1562,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1690,7 +1708,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1896,7 +1914,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2183,7 +2201,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2514,7 +2532,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2592,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3132,7 +3150,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3338,7 +3356,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3419,7 +3437,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3750,7 +3768,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3956,7 +3974,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4368,7 +4386,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4655,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4858,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -4986,7 +5004,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5192,7 +5210,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5685,7 +5703,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -5810,7 +5828,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6094,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6222,7 +6240,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6428,7 +6446,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6634,7 +6652,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7046,7 +7064,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7127,7 +7145,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR31">
         <v>0.77</v>
@@ -7252,7 +7270,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7539,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>0.7</v>
@@ -8282,7 +8300,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8694,7 +8712,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8900,7 +8918,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9930,7 +9948,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10087,6 +10105,830 @@
       </c>
       <c r="BP45">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7466100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45556.47916666666</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>124</v>
+      </c>
+      <c r="P46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q46">
+        <v>2.2</v>
+      </c>
+      <c r="R46">
+        <v>2.38</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1.33</v>
+      </c>
+      <c r="U46">
+        <v>3.25</v>
+      </c>
+      <c r="V46">
+        <v>2.63</v>
+      </c>
+      <c r="W46">
+        <v>1.44</v>
+      </c>
+      <c r="X46">
+        <v>6.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.11</v>
+      </c>
+      <c r="Z46">
+        <v>1.6</v>
+      </c>
+      <c r="AA46">
+        <v>3.9</v>
+      </c>
+      <c r="AB46">
+        <v>5.25</v>
+      </c>
+      <c r="AC46">
+        <v>1.03</v>
+      </c>
+      <c r="AD46">
+        <v>15</v>
+      </c>
+      <c r="AE46">
+        <v>1.24</v>
+      </c>
+      <c r="AF46">
+        <v>3.92</v>
+      </c>
+      <c r="AG46">
+        <v>1.6</v>
+      </c>
+      <c r="AH46">
+        <v>2.2</v>
+      </c>
+      <c r="AI46">
+        <v>1.8</v>
+      </c>
+      <c r="AJ46">
+        <v>1.95</v>
+      </c>
+      <c r="AK46">
+        <v>1.15</v>
+      </c>
+      <c r="AL46">
+        <v>1.19</v>
+      </c>
+      <c r="AM46">
+        <v>2.4</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <v>0.67</v>
+      </c>
+      <c r="AR46">
+        <v>1.08</v>
+      </c>
+      <c r="AS46">
+        <v>0.84</v>
+      </c>
+      <c r="AT46">
+        <v>1.92</v>
+      </c>
+      <c r="AU46">
+        <v>3</v>
+      </c>
+      <c r="AV46">
+        <v>4</v>
+      </c>
+      <c r="AW46">
+        <v>5</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>8</v>
+      </c>
+      <c r="AZ46">
+        <v>7</v>
+      </c>
+      <c r="BA46">
+        <v>7</v>
+      </c>
+      <c r="BB46">
+        <v>7</v>
+      </c>
+      <c r="BC46">
+        <v>14</v>
+      </c>
+      <c r="BD46">
+        <v>1.4</v>
+      </c>
+      <c r="BE46">
+        <v>7.5</v>
+      </c>
+      <c r="BF46">
+        <v>3.3</v>
+      </c>
+      <c r="BG46">
+        <v>1.16</v>
+      </c>
+      <c r="BH46">
+        <v>4.4</v>
+      </c>
+      <c r="BI46">
+        <v>1.29</v>
+      </c>
+      <c r="BJ46">
+        <v>3.15</v>
+      </c>
+      <c r="BK46">
+        <v>1.48</v>
+      </c>
+      <c r="BL46">
+        <v>2.43</v>
+      </c>
+      <c r="BM46">
+        <v>1.76</v>
+      </c>
+      <c r="BN46">
+        <v>1.94</v>
+      </c>
+      <c r="BO46">
+        <v>2.15</v>
+      </c>
+      <c r="BP46">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7466101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45556.57291666666</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q47">
+        <v>3.75</v>
+      </c>
+      <c r="R47">
+        <v>2.3</v>
+      </c>
+      <c r="S47">
+        <v>2.63</v>
+      </c>
+      <c r="T47">
+        <v>1.33</v>
+      </c>
+      <c r="U47">
+        <v>3.25</v>
+      </c>
+      <c r="V47">
+        <v>2.63</v>
+      </c>
+      <c r="W47">
+        <v>1.44</v>
+      </c>
+      <c r="X47">
+        <v>6.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.11</v>
+      </c>
+      <c r="Z47">
+        <v>3.3</v>
+      </c>
+      <c r="AA47">
+        <v>3.5</v>
+      </c>
+      <c r="AB47">
+        <v>2.05</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>11</v>
+      </c>
+      <c r="AE47">
+        <v>1.2</v>
+      </c>
+      <c r="AF47">
+        <v>4</v>
+      </c>
+      <c r="AG47">
+        <v>1.75</v>
+      </c>
+      <c r="AH47">
+        <v>1.95</v>
+      </c>
+      <c r="AI47">
+        <v>1.62</v>
+      </c>
+      <c r="AJ47">
+        <v>2.2</v>
+      </c>
+      <c r="AK47">
+        <v>1.8</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.32</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>2</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>2.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.15</v>
+      </c>
+      <c r="AS47">
+        <v>1.18</v>
+      </c>
+      <c r="AT47">
+        <v>2.33</v>
+      </c>
+      <c r="AU47">
+        <v>11</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>6</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>17</v>
+      </c>
+      <c r="AZ47">
+        <v>12</v>
+      </c>
+      <c r="BA47">
+        <v>6</v>
+      </c>
+      <c r="BB47">
+        <v>2</v>
+      </c>
+      <c r="BC47">
+        <v>8</v>
+      </c>
+      <c r="BD47">
+        <v>2.17</v>
+      </c>
+      <c r="BE47">
+        <v>6.75</v>
+      </c>
+      <c r="BF47">
+        <v>1.82</v>
+      </c>
+      <c r="BG47">
+        <v>1.21</v>
+      </c>
+      <c r="BH47">
+        <v>3.8</v>
+      </c>
+      <c r="BI47">
+        <v>1.38</v>
+      </c>
+      <c r="BJ47">
+        <v>2.7</v>
+      </c>
+      <c r="BK47">
+        <v>1.65</v>
+      </c>
+      <c r="BL47">
+        <v>2.08</v>
+      </c>
+      <c r="BM47">
+        <v>2.02</v>
+      </c>
+      <c r="BN47">
+        <v>1.68</v>
+      </c>
+      <c r="BO47">
+        <v>2.55</v>
+      </c>
+      <c r="BP47">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7466102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45556.625</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>125</v>
+      </c>
+      <c r="P48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>2.3</v>
+      </c>
+      <c r="S48">
+        <v>2.5</v>
+      </c>
+      <c r="T48">
+        <v>1.33</v>
+      </c>
+      <c r="U48">
+        <v>3.25</v>
+      </c>
+      <c r="V48">
+        <v>2.5</v>
+      </c>
+      <c r="W48">
+        <v>1.5</v>
+      </c>
+      <c r="X48">
+        <v>6</v>
+      </c>
+      <c r="Y48">
+        <v>1.13</v>
+      </c>
+      <c r="Z48">
+        <v>4</v>
+      </c>
+      <c r="AA48">
+        <v>3.75</v>
+      </c>
+      <c r="AB48">
+        <v>1.78</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>15</v>
+      </c>
+      <c r="AE48">
+        <v>1.21</v>
+      </c>
+      <c r="AF48">
+        <v>4.25</v>
+      </c>
+      <c r="AG48">
+        <v>1.65</v>
+      </c>
+      <c r="AH48">
+        <v>2.1</v>
+      </c>
+      <c r="AI48">
+        <v>1.62</v>
+      </c>
+      <c r="AJ48">
+        <v>2.2</v>
+      </c>
+      <c r="AK48">
+        <v>1.92</v>
+      </c>
+      <c r="AL48">
+        <v>1.22</v>
+      </c>
+      <c r="AM48">
+        <v>1.28</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>1.33</v>
+      </c>
+      <c r="AQ48">
+        <v>0.5</v>
+      </c>
+      <c r="AR48">
+        <v>1.91</v>
+      </c>
+      <c r="AS48">
+        <v>1.65</v>
+      </c>
+      <c r="AT48">
+        <v>3.56</v>
+      </c>
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>7</v>
+      </c>
+      <c r="AZ48">
+        <v>7</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>9</v>
+      </c>
+      <c r="BD48">
+        <v>1.98</v>
+      </c>
+      <c r="BE48">
+        <v>6.4</v>
+      </c>
+      <c r="BF48">
+        <v>1.98</v>
+      </c>
+      <c r="BG48">
+        <v>1.2</v>
+      </c>
+      <c r="BH48">
+        <v>3.95</v>
+      </c>
+      <c r="BI48">
+        <v>1.36</v>
+      </c>
+      <c r="BJ48">
+        <v>2.8</v>
+      </c>
+      <c r="BK48">
+        <v>1.58</v>
+      </c>
+      <c r="BL48">
+        <v>2.18</v>
+      </c>
+      <c r="BM48">
+        <v>1.94</v>
+      </c>
+      <c r="BN48">
+        <v>1.76</v>
+      </c>
+      <c r="BO48">
+        <v>2.4</v>
+      </c>
+      <c r="BP48">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7466103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45556.66666666666</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q49">
+        <v>2.1</v>
+      </c>
+      <c r="R49">
+        <v>2.4</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>1.3</v>
+      </c>
+      <c r="U49">
+        <v>3.4</v>
+      </c>
+      <c r="V49">
+        <v>2.5</v>
+      </c>
+      <c r="W49">
+        <v>1.5</v>
+      </c>
+      <c r="X49">
+        <v>6</v>
+      </c>
+      <c r="Y49">
+        <v>1.13</v>
+      </c>
+      <c r="Z49">
+        <v>1.62</v>
+      </c>
+      <c r="AA49">
+        <v>4.2</v>
+      </c>
+      <c r="AB49">
+        <v>4.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>17</v>
+      </c>
+      <c r="AE49">
+        <v>1.19</v>
+      </c>
+      <c r="AF49">
+        <v>4.45</v>
+      </c>
+      <c r="AG49">
+        <v>1.65</v>
+      </c>
+      <c r="AH49">
+        <v>2.1</v>
+      </c>
+      <c r="AI49">
+        <v>1.7</v>
+      </c>
+      <c r="AJ49">
+        <v>2.05</v>
+      </c>
+      <c r="AK49">
+        <v>1.16</v>
+      </c>
+      <c r="AL49">
+        <v>1.19</v>
+      </c>
+      <c r="AM49">
+        <v>2.4</v>
+      </c>
+      <c r="AN49">
+        <v>1.5</v>
+      </c>
+      <c r="AO49">
+        <v>0.5</v>
+      </c>
+      <c r="AP49">
+        <v>1</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.18</v>
+      </c>
+      <c r="AS49">
+        <v>1</v>
+      </c>
+      <c r="AT49">
+        <v>2.18</v>
+      </c>
+      <c r="AU49">
+        <v>10</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>8</v>
+      </c>
+      <c r="AX49">
+        <v>5</v>
+      </c>
+      <c r="AY49">
+        <v>18</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>7</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>1.53</v>
+      </c>
+      <c r="BE49">
+        <v>7</v>
+      </c>
+      <c r="BF49">
+        <v>2.7</v>
+      </c>
+      <c r="BG49">
+        <v>1.13</v>
+      </c>
+      <c r="BH49">
+        <v>4.9</v>
+      </c>
+      <c r="BI49">
+        <v>1.24</v>
+      </c>
+      <c r="BJ49">
+        <v>3.55</v>
+      </c>
+      <c r="BK49">
+        <v>1.41</v>
+      </c>
+      <c r="BL49">
+        <v>2.63</v>
+      </c>
+      <c r="BM49">
+        <v>1.66</v>
+      </c>
+      <c r="BN49">
+        <v>2.05</v>
+      </c>
+      <c r="BO49">
+        <v>2.02</v>
+      </c>
+      <c r="BP49">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,10 +388,16 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['11', '37', '53']</t>
   </si>
   <si>
-    <t>['64']</t>
+    <t>['12', '69']</t>
+  </si>
+  <si>
+    <t>['34', '74']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -460,16 +466,22 @@
     <t>['6', '50']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['29', '43']</t>
   </si>
   <si>
     <t>['32', '55']</t>
   </si>
   <si>
-    <t>['69']</t>
-  </si>
-  <si>
     <t>['3', '13']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['9', '45+1', '55', '73', '75']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1102,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1374,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1502,7 +1514,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1583,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1708,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1786,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ5">
         <v>2.5</v>
@@ -1914,7 +1926,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2532,7 +2544,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3150,7 +3162,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3228,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3356,7 +3368,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3768,7 +3780,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3849,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3974,7 +3986,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4386,7 +4398,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -5004,7 +5016,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5082,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -5210,7 +5222,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5828,7 +5840,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6240,7 +6252,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6446,7 +6458,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6524,10 +6536,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>0.73</v>
@@ -6652,7 +6664,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6936,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7064,7 +7076,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7270,7 +7282,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7351,7 +7363,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.07</v>
@@ -8300,7 +8312,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8712,7 +8724,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8918,7 +8930,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9948,7 +9960,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10112,7 +10124,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7466100</v>
+        <v>7466102</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10121,49 +10133,49 @@
         <v>69</v>
       </c>
       <c r="E46" s="2">
-        <v>45556.47916666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O46" t="s">
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q46">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="R46">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S46">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="T46">
         <v>1.33</v>
@@ -10172,25 +10184,25 @@
         <v>3.25</v>
       </c>
       <c r="V46">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W46">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X46">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y46">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z46">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="AA46">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AB46">
-        <v>5.25</v>
+        <v>1.78</v>
       </c>
       <c r="AC46">
         <v>1.03</v>
@@ -10199,52 +10211,52 @@
         <v>15</v>
       </c>
       <c r="AE46">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AF46">
-        <v>3.92</v>
+        <v>4.25</v>
       </c>
       <c r="AG46">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AH46">
+        <v>2.1</v>
+      </c>
+      <c r="AI46">
+        <v>1.62</v>
+      </c>
+      <c r="AJ46">
         <v>2.2</v>
       </c>
-      <c r="AI46">
-        <v>1.8</v>
-      </c>
-      <c r="AJ46">
-        <v>1.95</v>
-      </c>
       <c r="AK46">
-        <v>1.15</v>
+        <v>1.92</v>
       </c>
       <c r="AL46">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AM46">
-        <v>2.4</v>
+        <v>1.28</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
-        <v>1.08</v>
+        <v>1.91</v>
       </c>
       <c r="AS46">
-        <v>0.84</v>
+        <v>1.65</v>
       </c>
       <c r="AT46">
-        <v>1.92</v>
+        <v>3.56</v>
       </c>
       <c r="AU46">
         <v>3</v>
@@ -10253,64 +10265,64 @@
         <v>4</v>
       </c>
       <c r="AW46">
+        <v>2</v>
+      </c>
+      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
         <v>5</v>
       </c>
-      <c r="AX46">
-        <v>3</v>
-      </c>
-      <c r="AY46">
+      <c r="AZ46">
         <v>8</v>
-      </c>
-      <c r="AZ46">
-        <v>7</v>
       </c>
       <c r="BA46">
         <v>7</v>
       </c>
       <c r="BB46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC46">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD46">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="BE46">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF46">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="BG46">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH46">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="BI46">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BJ46">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BK46">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="BL46">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
       <c r="BM46">
+        <v>1.94</v>
+      </c>
+      <c r="BN46">
         <v>1.76</v>
       </c>
-      <c r="BN46">
-        <v>1.94</v>
-      </c>
       <c r="BO46">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BP46">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10318,7 +10330,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7466101</v>
+        <v>7466100</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10327,49 +10339,49 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45556.57291666666</v>
+        <v>45556.47916666666</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <v>2</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q47">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R47">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S47">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="T47">
         <v>1.33</v>
@@ -10390,133 +10402,133 @@
         <v>1.11</v>
       </c>
       <c r="Z47">
+        <v>1.6</v>
+      </c>
+      <c r="AA47">
+        <v>3.9</v>
+      </c>
+      <c r="AB47">
+        <v>5.25</v>
+      </c>
+      <c r="AC47">
+        <v>1.03</v>
+      </c>
+      <c r="AD47">
+        <v>15</v>
+      </c>
+      <c r="AE47">
+        <v>1.24</v>
+      </c>
+      <c r="AF47">
+        <v>3.92</v>
+      </c>
+      <c r="AG47">
+        <v>1.6</v>
+      </c>
+      <c r="AH47">
+        <v>2.2</v>
+      </c>
+      <c r="AI47">
+        <v>1.8</v>
+      </c>
+      <c r="AJ47">
+        <v>1.95</v>
+      </c>
+      <c r="AK47">
+        <v>1.15</v>
+      </c>
+      <c r="AL47">
+        <v>1.19</v>
+      </c>
+      <c r="AM47">
+        <v>2.4</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>3</v>
+      </c>
+      <c r="AQ47">
+        <v>0.67</v>
+      </c>
+      <c r="AR47">
+        <v>1.08</v>
+      </c>
+      <c r="AS47">
+        <v>0.84</v>
+      </c>
+      <c r="AT47">
+        <v>1.92</v>
+      </c>
+      <c r="AU47">
+        <v>3</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>5</v>
+      </c>
+      <c r="AX47">
+        <v>3</v>
+      </c>
+      <c r="AY47">
+        <v>8</v>
+      </c>
+      <c r="AZ47">
+        <v>7</v>
+      </c>
+      <c r="BA47">
+        <v>7</v>
+      </c>
+      <c r="BB47">
+        <v>7</v>
+      </c>
+      <c r="BC47">
+        <v>14</v>
+      </c>
+      <c r="BD47">
+        <v>1.4</v>
+      </c>
+      <c r="BE47">
+        <v>7.5</v>
+      </c>
+      <c r="BF47">
         <v>3.3</v>
       </c>
-      <c r="AA47">
-        <v>3.5</v>
-      </c>
-      <c r="AB47">
-        <v>2.05</v>
-      </c>
-      <c r="AC47">
-        <v>1.01</v>
-      </c>
-      <c r="AD47">
-        <v>11</v>
-      </c>
-      <c r="AE47">
-        <v>1.2</v>
-      </c>
-      <c r="AF47">
-        <v>4</v>
-      </c>
-      <c r="AG47">
-        <v>1.75</v>
-      </c>
-      <c r="AH47">
-        <v>1.95</v>
-      </c>
-      <c r="AI47">
-        <v>1.62</v>
-      </c>
-      <c r="AJ47">
-        <v>2.2</v>
-      </c>
-      <c r="AK47">
-        <v>1.8</v>
-      </c>
-      <c r="AL47">
-        <v>1.25</v>
-      </c>
-      <c r="AM47">
-        <v>1.32</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>2</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47">
-        <v>2.33</v>
-      </c>
-      <c r="AR47">
-        <v>1.15</v>
-      </c>
-      <c r="AS47">
-        <v>1.18</v>
-      </c>
-      <c r="AT47">
-        <v>2.33</v>
-      </c>
-      <c r="AU47">
-        <v>11</v>
-      </c>
-      <c r="AV47">
-        <v>6</v>
-      </c>
-      <c r="AW47">
-        <v>6</v>
-      </c>
-      <c r="AX47">
-        <v>6</v>
-      </c>
-      <c r="AY47">
-        <v>17</v>
-      </c>
-      <c r="AZ47">
-        <v>12</v>
-      </c>
-      <c r="BA47">
-        <v>6</v>
-      </c>
-      <c r="BB47">
-        <v>2</v>
-      </c>
-      <c r="BC47">
-        <v>8</v>
-      </c>
-      <c r="BD47">
-        <v>2.17</v>
-      </c>
-      <c r="BE47">
-        <v>6.75</v>
-      </c>
-      <c r="BF47">
-        <v>1.82</v>
-      </c>
       <c r="BG47">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH47">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="BI47">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BJ47">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="BK47">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BL47">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="BM47">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="BN47">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="BO47">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="BP47">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10524,7 +10536,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7466102</v>
+        <v>7466101</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10533,49 +10545,49 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45556.625</v>
+        <v>45556.57291666666</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q48">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R48">
         <v>2.3</v>
       </c>
       <c r="S48">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T48">
         <v>1.33</v>
@@ -10584,43 +10596,43 @@
         <v>3.25</v>
       </c>
       <c r="V48">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W48">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X48">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y48">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z48">
+        <v>3.3</v>
+      </c>
+      <c r="AA48">
+        <v>3.5</v>
+      </c>
+      <c r="AB48">
+        <v>2.05</v>
+      </c>
+      <c r="AC48">
+        <v>1.01</v>
+      </c>
+      <c r="AD48">
+        <v>11</v>
+      </c>
+      <c r="AE48">
+        <v>1.2</v>
+      </c>
+      <c r="AF48">
         <v>4</v>
       </c>
-      <c r="AA48">
-        <v>3.75</v>
-      </c>
-      <c r="AB48">
-        <v>1.78</v>
-      </c>
-      <c r="AC48">
-        <v>1.03</v>
-      </c>
-      <c r="AD48">
-        <v>15</v>
-      </c>
-      <c r="AE48">
-        <v>1.21</v>
-      </c>
-      <c r="AF48">
-        <v>4.25</v>
-      </c>
       <c r="AG48">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH48">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AI48">
         <v>1.62</v>
@@ -10629,100 +10641,100 @@
         <v>2.2</v>
       </c>
       <c r="AK48">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="AL48">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM48">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR48">
-        <v>1.91</v>
+        <v>1.15</v>
       </c>
       <c r="AS48">
+        <v>1.18</v>
+      </c>
+      <c r="AT48">
+        <v>2.33</v>
+      </c>
+      <c r="AU48">
+        <v>11</v>
+      </c>
+      <c r="AV48">
+        <v>6</v>
+      </c>
+      <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>17</v>
+      </c>
+      <c r="AZ48">
+        <v>12</v>
+      </c>
+      <c r="BA48">
+        <v>6</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>8</v>
+      </c>
+      <c r="BD48">
+        <v>2.17</v>
+      </c>
+      <c r="BE48">
+        <v>6.75</v>
+      </c>
+      <c r="BF48">
+        <v>1.82</v>
+      </c>
+      <c r="BG48">
+        <v>1.21</v>
+      </c>
+      <c r="BH48">
+        <v>3.8</v>
+      </c>
+      <c r="BI48">
+        <v>1.38</v>
+      </c>
+      <c r="BJ48">
+        <v>2.7</v>
+      </c>
+      <c r="BK48">
         <v>1.65</v>
       </c>
-      <c r="AT48">
-        <v>3.56</v>
-      </c>
-      <c r="AU48">
-        <v>5</v>
-      </c>
-      <c r="AV48">
-        <v>4</v>
-      </c>
-      <c r="AW48">
-        <v>2</v>
-      </c>
-      <c r="AX48">
-        <v>3</v>
-      </c>
-      <c r="AY48">
-        <v>7</v>
-      </c>
-      <c r="AZ48">
-        <v>7</v>
-      </c>
-      <c r="BA48">
-        <v>7</v>
-      </c>
-      <c r="BB48">
-        <v>2</v>
-      </c>
-      <c r="BC48">
-        <v>9</v>
-      </c>
-      <c r="BD48">
-        <v>1.98</v>
-      </c>
-      <c r="BE48">
-        <v>6.4</v>
-      </c>
-      <c r="BF48">
-        <v>1.98</v>
-      </c>
-      <c r="BG48">
-        <v>1.2</v>
-      </c>
-      <c r="BH48">
-        <v>3.95</v>
-      </c>
-      <c r="BI48">
-        <v>1.36</v>
-      </c>
-      <c r="BJ48">
-        <v>2.8</v>
-      </c>
-      <c r="BK48">
-        <v>1.58</v>
-      </c>
       <c r="BL48">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BM48">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="BN48">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="BO48">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BP48">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10772,7 +10784,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -10929,6 +10941,624 @@
       </c>
       <c r="BP49">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7466104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>126</v>
+      </c>
+      <c r="P50" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q50">
+        <v>3.1</v>
+      </c>
+      <c r="R50">
+        <v>2.25</v>
+      </c>
+      <c r="S50">
+        <v>3.25</v>
+      </c>
+      <c r="T50">
+        <v>1.36</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>2.63</v>
+      </c>
+      <c r="W50">
+        <v>1.44</v>
+      </c>
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>2.1</v>
+      </c>
+      <c r="AA50">
+        <v>3.7</v>
+      </c>
+      <c r="AB50">
+        <v>3.2</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE50">
+        <v>1.2</v>
+      </c>
+      <c r="AF50">
+        <v>3.64</v>
+      </c>
+      <c r="AG50">
+        <v>1.86</v>
+      </c>
+      <c r="AH50">
+        <v>1.94</v>
+      </c>
+      <c r="AI50">
+        <v>1.62</v>
+      </c>
+      <c r="AJ50">
+        <v>2.2</v>
+      </c>
+      <c r="AK50">
+        <v>1.46</v>
+      </c>
+      <c r="AL50">
+        <v>1.3</v>
+      </c>
+      <c r="AM50">
+        <v>1.55</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
+      <c r="AP50">
+        <v>2.33</v>
+      </c>
+      <c r="AQ50">
+        <v>1.33</v>
+      </c>
+      <c r="AR50">
+        <v>2.16</v>
+      </c>
+      <c r="AS50">
+        <v>1.52</v>
+      </c>
+      <c r="AT50">
+        <v>3.68</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>9</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>15</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>9</v>
+      </c>
+      <c r="BB50">
+        <v>3</v>
+      </c>
+      <c r="BC50">
+        <v>12</v>
+      </c>
+      <c r="BD50">
+        <v>1.84</v>
+      </c>
+      <c r="BE50">
+        <v>6.5</v>
+      </c>
+      <c r="BF50">
+        <v>2.15</v>
+      </c>
+      <c r="BG50">
+        <v>1.21</v>
+      </c>
+      <c r="BH50">
+        <v>3.7</v>
+      </c>
+      <c r="BI50">
+        <v>1.4</v>
+      </c>
+      <c r="BJ50">
+        <v>2.7</v>
+      </c>
+      <c r="BK50">
+        <v>1.66</v>
+      </c>
+      <c r="BL50">
+        <v>2.07</v>
+      </c>
+      <c r="BM50">
+        <v>2.04</v>
+      </c>
+      <c r="BN50">
+        <v>1.68</v>
+      </c>
+      <c r="BO50">
+        <v>2.55</v>
+      </c>
+      <c r="BP50">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7466105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45557.39583333334</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51" t="s">
+        <v>91</v>
+      </c>
+      <c r="P51" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q51">
+        <v>5.5</v>
+      </c>
+      <c r="R51">
+        <v>2.4</v>
+      </c>
+      <c r="S51">
+        <v>2.1</v>
+      </c>
+      <c r="T51">
+        <v>1.3</v>
+      </c>
+      <c r="U51">
+        <v>3.4</v>
+      </c>
+      <c r="V51">
+        <v>2.5</v>
+      </c>
+      <c r="W51">
+        <v>1.5</v>
+      </c>
+      <c r="X51">
+        <v>6</v>
+      </c>
+      <c r="Y51">
+        <v>1.13</v>
+      </c>
+      <c r="Z51">
+        <v>5</v>
+      </c>
+      <c r="AA51">
+        <v>4.4</v>
+      </c>
+      <c r="AB51">
+        <v>1.58</v>
+      </c>
+      <c r="AC51">
+        <v>1.03</v>
+      </c>
+      <c r="AD51">
+        <v>15</v>
+      </c>
+      <c r="AE51">
+        <v>1.21</v>
+      </c>
+      <c r="AF51">
+        <v>4.25</v>
+      </c>
+      <c r="AG51">
+        <v>1.61</v>
+      </c>
+      <c r="AH51">
+        <v>2.32</v>
+      </c>
+      <c r="AI51">
+        <v>1.8</v>
+      </c>
+      <c r="AJ51">
+        <v>1.95</v>
+      </c>
+      <c r="AK51">
+        <v>2.55</v>
+      </c>
+      <c r="AL51">
+        <v>1.17</v>
+      </c>
+      <c r="AM51">
+        <v>1.14</v>
+      </c>
+      <c r="AN51">
+        <v>0.33</v>
+      </c>
+      <c r="AO51">
+        <v>1.5</v>
+      </c>
+      <c r="AP51">
+        <v>0.25</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>0.82</v>
+      </c>
+      <c r="AS51">
+        <v>1.73</v>
+      </c>
+      <c r="AT51">
+        <v>2.55</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>9</v>
+      </c>
+      <c r="AW51">
+        <v>8</v>
+      </c>
+      <c r="AX51">
+        <v>4</v>
+      </c>
+      <c r="AY51">
+        <v>13</v>
+      </c>
+      <c r="AZ51">
+        <v>13</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>12</v>
+      </c>
+      <c r="BD51">
+        <v>3.05</v>
+      </c>
+      <c r="BE51">
+        <v>6.75</v>
+      </c>
+      <c r="BF51">
+        <v>1.45</v>
+      </c>
+      <c r="BG51">
+        <v>1.23</v>
+      </c>
+      <c r="BH51">
+        <v>3.65</v>
+      </c>
+      <c r="BI51">
+        <v>1.41</v>
+      </c>
+      <c r="BJ51">
+        <v>2.65</v>
+      </c>
+      <c r="BK51">
+        <v>1.66</v>
+      </c>
+      <c r="BL51">
+        <v>2.07</v>
+      </c>
+      <c r="BM51">
+        <v>2.02</v>
+      </c>
+      <c r="BN51">
+        <v>1.68</v>
+      </c>
+      <c r="BO51">
+        <v>2.55</v>
+      </c>
+      <c r="BP51">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7466106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45557.39583333334</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q52">
+        <v>1.44</v>
+      </c>
+      <c r="R52">
+        <v>3.25</v>
+      </c>
+      <c r="S52">
+        <v>11</v>
+      </c>
+      <c r="T52">
+        <v>1.18</v>
+      </c>
+      <c r="U52">
+        <v>4.5</v>
+      </c>
+      <c r="V52">
+        <v>1.83</v>
+      </c>
+      <c r="W52">
+        <v>1.83</v>
+      </c>
+      <c r="X52">
+        <v>3.75</v>
+      </c>
+      <c r="Y52">
+        <v>1.25</v>
+      </c>
+      <c r="Z52">
+        <v>1.11</v>
+      </c>
+      <c r="AA52">
+        <v>10</v>
+      </c>
+      <c r="AB52">
+        <v>26</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>29</v>
+      </c>
+      <c r="AE52">
+        <v>1.06</v>
+      </c>
+      <c r="AF52">
+        <v>5.75</v>
+      </c>
+      <c r="AG52">
+        <v>1.33</v>
+      </c>
+      <c r="AH52">
+        <v>3.15</v>
+      </c>
+      <c r="AI52">
+        <v>2</v>
+      </c>
+      <c r="AJ52">
+        <v>1.75</v>
+      </c>
+      <c r="AK52">
+        <v>1.01</v>
+      </c>
+      <c r="AL52">
+        <v>1.07</v>
+      </c>
+      <c r="AM52">
+        <v>5.45</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>2.23</v>
+      </c>
+      <c r="AS52">
+        <v>0.82</v>
+      </c>
+      <c r="AT52">
+        <v>3.05</v>
+      </c>
+      <c r="AU52">
+        <v>6</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>12</v>
+      </c>
+      <c r="AX52">
+        <v>2</v>
+      </c>
+      <c r="AY52">
+        <v>18</v>
+      </c>
+      <c r="AZ52">
+        <v>4</v>
+      </c>
+      <c r="BA52">
+        <v>5</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>7</v>
+      </c>
+      <c r="BD52">
+        <v>1.1</v>
+      </c>
+      <c r="BE52">
+        <v>13</v>
+      </c>
+      <c r="BF52">
+        <v>8.75</v>
+      </c>
+      <c r="BG52">
+        <v>1.22</v>
+      </c>
+      <c r="BH52">
+        <v>3.7</v>
+      </c>
+      <c r="BI52">
+        <v>1.4</v>
+      </c>
+      <c r="BJ52">
+        <v>2.65</v>
+      </c>
+      <c r="BK52">
+        <v>1.7</v>
+      </c>
+      <c r="BL52">
+        <v>1.95</v>
+      </c>
+      <c r="BM52">
+        <v>2.02</v>
+      </c>
+      <c r="BN52">
+        <v>1.7</v>
+      </c>
+      <c r="BO52">
+        <v>2.55</v>
+      </c>
+      <c r="BP52">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,9 @@
     <t>['34', '74']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -482,6 +485,9 @@
   </si>
   <si>
     <t>['9', '45+1', '55', '73', '75']</t>
+  </si>
+  <si>
+    <t>['16', '68', '72']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1108,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1514,7 +1520,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1720,7 +1726,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1926,7 +1932,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2544,7 +2550,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3034,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3162,7 +3168,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3368,7 +3374,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3780,7 +3786,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3986,7 +3992,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4398,7 +4404,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -5016,7 +5022,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5222,7 +5228,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5840,7 +5846,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6252,7 +6258,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6458,7 +6464,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6664,7 +6670,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6742,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7076,7 +7082,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7282,7 +7288,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8312,7 +8318,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8724,7 +8730,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8930,7 +8936,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9960,7 +9966,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10166,7 +10172,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10372,7 +10378,7 @@
         <v>125</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q47">
         <v>2.2</v>
@@ -10578,7 +10584,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10784,7 +10790,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -10990,7 +10996,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11196,7 +11202,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11559,6 +11565,212 @@
       </c>
       <c r="BP52">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7466107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45557.48958333334</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>128</v>
+      </c>
+      <c r="P53" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q53">
+        <v>8.5</v>
+      </c>
+      <c r="R53">
+        <v>2.88</v>
+      </c>
+      <c r="S53">
+        <v>1.62</v>
+      </c>
+      <c r="T53">
+        <v>1.22</v>
+      </c>
+      <c r="U53">
+        <v>4</v>
+      </c>
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <v>1.73</v>
+      </c>
+      <c r="X53">
+        <v>4.33</v>
+      </c>
+      <c r="Y53">
+        <v>1.2</v>
+      </c>
+      <c r="Z53">
+        <v>11.5</v>
+      </c>
+      <c r="AA53">
+        <v>6.5</v>
+      </c>
+      <c r="AB53">
+        <v>1.24</v>
+      </c>
+      <c r="AC53">
+        <v>1.01</v>
+      </c>
+      <c r="AD53">
+        <v>26</v>
+      </c>
+      <c r="AE53">
+        <v>1.08</v>
+      </c>
+      <c r="AF53">
+        <v>5.25</v>
+      </c>
+      <c r="AG53">
+        <v>1.36</v>
+      </c>
+      <c r="AH53">
+        <v>2.99</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.91</v>
+      </c>
+      <c r="AK53">
+        <v>3.76</v>
+      </c>
+      <c r="AL53">
+        <v>1.12</v>
+      </c>
+      <c r="AM53">
+        <v>1.06</v>
+      </c>
+      <c r="AN53">
+        <v>1.5</v>
+      </c>
+      <c r="AO53">
+        <v>3</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>3</v>
+      </c>
+      <c r="AR53">
+        <v>1.65</v>
+      </c>
+      <c r="AS53">
+        <v>2.43</v>
+      </c>
+      <c r="AT53">
+        <v>4.08</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>8</v>
+      </c>
+      <c r="AW53">
+        <v>1</v>
+      </c>
+      <c r="AX53">
+        <v>5</v>
+      </c>
+      <c r="AY53">
+        <v>6</v>
+      </c>
+      <c r="AZ53">
+        <v>13</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>6</v>
+      </c>
+      <c r="BC53">
+        <v>11</v>
+      </c>
+      <c r="BD53">
+        <v>5.6</v>
+      </c>
+      <c r="BE53">
+        <v>9.5</v>
+      </c>
+      <c r="BF53">
+        <v>1.16</v>
+      </c>
+      <c r="BG53">
+        <v>1.2</v>
+      </c>
+      <c r="BH53">
+        <v>3.9</v>
+      </c>
+      <c r="BI53">
+        <v>1.36</v>
+      </c>
+      <c r="BJ53">
+        <v>2.8</v>
+      </c>
+      <c r="BK53">
+        <v>1.58</v>
+      </c>
+      <c r="BL53">
+        <v>2.18</v>
+      </c>
+      <c r="BM53">
+        <v>1.92</v>
+      </c>
+      <c r="BN53">
+        <v>1.77</v>
+      </c>
+      <c r="BO53">
+        <v>2.4</v>
+      </c>
+      <c r="BP53">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,9 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['25', '87']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -488,6 +491,9 @@
   </si>
   <si>
     <t>['16', '68', '72']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1114,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1520,7 +1526,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1726,7 +1732,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1932,7 +1938,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2550,7 +2556,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3168,7 +3174,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3374,7 +3380,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3786,7 +3792,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3992,7 +3998,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4070,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4404,7 +4410,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -5022,7 +5028,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5228,7 +5234,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5718,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -5846,7 +5852,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6258,7 +6264,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6464,7 +6470,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6670,7 +6676,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7082,7 +7088,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7288,7 +7294,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8318,7 +8324,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8730,7 +8736,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8936,7 +8942,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9426,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9966,7 +9972,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10172,7 +10178,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10378,7 +10384,7 @@
         <v>125</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q47">
         <v>2.2</v>
@@ -10584,7 +10590,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10790,7 +10796,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -10996,7 +11002,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11202,7 +11208,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11614,7 +11620,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11771,6 +11777,212 @@
       </c>
       <c r="BP53">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7466108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>129</v>
+      </c>
+      <c r="P54" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q54">
+        <v>3.2</v>
+      </c>
+      <c r="R54">
+        <v>2.38</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54">
+        <v>1.3</v>
+      </c>
+      <c r="U54">
+        <v>3.4</v>
+      </c>
+      <c r="V54">
+        <v>2.38</v>
+      </c>
+      <c r="W54">
+        <v>1.53</v>
+      </c>
+      <c r="X54">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>1.13</v>
+      </c>
+      <c r="Z54">
+        <v>3.03</v>
+      </c>
+      <c r="AA54">
+        <v>3.64</v>
+      </c>
+      <c r="AB54">
+        <v>2.24</v>
+      </c>
+      <c r="AC54">
+        <v>1.03</v>
+      </c>
+      <c r="AD54">
+        <v>17.75</v>
+      </c>
+      <c r="AE54">
+        <v>1.19</v>
+      </c>
+      <c r="AF54">
+        <v>4.8</v>
+      </c>
+      <c r="AG54">
+        <v>1.58</v>
+      </c>
+      <c r="AH54">
+        <v>2.29</v>
+      </c>
+      <c r="AI54">
+        <v>1.53</v>
+      </c>
+      <c r="AJ54">
+        <v>2.38</v>
+      </c>
+      <c r="AK54">
+        <v>1.58</v>
+      </c>
+      <c r="AL54">
+        <v>1.24</v>
+      </c>
+      <c r="AM54">
+        <v>1.48</v>
+      </c>
+      <c r="AN54">
+        <v>0.67</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1.25</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>1.37</v>
+      </c>
+      <c r="AS54">
+        <v>1.22</v>
+      </c>
+      <c r="AT54">
+        <v>2.59</v>
+      </c>
+      <c r="AU54">
+        <v>10</v>
+      </c>
+      <c r="AV54">
+        <v>7</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>16</v>
+      </c>
+      <c r="AZ54">
+        <v>12</v>
+      </c>
+      <c r="BA54">
+        <v>9</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
+        <v>13</v>
+      </c>
+      <c r="BD54">
+        <v>2.3</v>
+      </c>
+      <c r="BE54">
+        <v>7</v>
+      </c>
+      <c r="BF54">
+        <v>1.73</v>
+      </c>
+      <c r="BG54">
+        <v>1.11</v>
+      </c>
+      <c r="BH54">
+        <v>5.1</v>
+      </c>
+      <c r="BI54">
+        <v>1.24</v>
+      </c>
+      <c r="BJ54">
+        <v>3.55</v>
+      </c>
+      <c r="BK54">
+        <v>1.41</v>
+      </c>
+      <c r="BL54">
+        <v>2.65</v>
+      </c>
+      <c r="BM54">
+        <v>1.88</v>
+      </c>
+      <c r="BN54">
+        <v>1.92</v>
+      </c>
+      <c r="BO54">
+        <v>1.98</v>
+      </c>
+      <c r="BP54">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,9 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -478,15 +481,15 @@
     <t>['6', '50']</t>
   </si>
   <si>
+    <t>['32', '55']</t>
+  </si>
+  <si>
     <t>['69']</t>
   </si>
   <si>
     <t>['29', '43']</t>
   </si>
   <si>
-    <t>['32', '55']</t>
-  </si>
-  <si>
     <t>['3', '13']</t>
   </si>
   <si>
@@ -500,6 +503,9 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['49', '64']</t>
   </si>
   <si>
     <t>['88']</t>
@@ -870,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,7 +1135,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1541,7 +1547,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1747,7 +1753,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1953,7 +1959,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2571,7 +2577,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3395,7 +3401,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3473,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>2.33</v>
@@ -3807,7 +3813,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4013,7 +4019,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4297,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4425,7 +4431,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -5043,7 +5049,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5249,7 +5255,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5867,7 +5873,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6279,7 +6285,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6485,7 +6491,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6691,7 +6697,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7103,7 +7109,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7181,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>2.33</v>
@@ -7309,7 +7315,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8005,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
@@ -8339,7 +8345,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8751,7 +8757,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8957,7 +8963,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9241,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9653,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -9987,7 +9993,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10151,7 +10157,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7466102</v>
+        <v>7466101</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10166,43 +10172,43 @@
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R46">
         <v>2.3</v>
       </c>
       <c r="S46">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T46">
         <v>1.33</v>
@@ -10211,43 +10217,43 @@
         <v>3.25</v>
       </c>
       <c r="V46">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W46">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X46">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y46">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z46">
+        <v>3.3</v>
+      </c>
+      <c r="AA46">
+        <v>3.5</v>
+      </c>
+      <c r="AB46">
+        <v>2.05</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>11</v>
+      </c>
+      <c r="AE46">
+        <v>1.2</v>
+      </c>
+      <c r="AF46">
         <v>4</v>
       </c>
-      <c r="AA46">
-        <v>3.75</v>
-      </c>
-      <c r="AB46">
-        <v>1.78</v>
-      </c>
-      <c r="AC46">
-        <v>1.03</v>
-      </c>
-      <c r="AD46">
-        <v>15</v>
-      </c>
-      <c r="AE46">
-        <v>1.21</v>
-      </c>
-      <c r="AF46">
-        <v>4.25</v>
-      </c>
       <c r="AG46">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH46">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AI46">
         <v>1.62</v>
@@ -10256,100 +10262,100 @@
         <v>2.2</v>
       </c>
       <c r="AK46">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="AL46">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM46">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AN46">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AR46">
-        <v>1.91</v>
+        <v>1.15</v>
       </c>
       <c r="AS46">
-        <v>1.65</v>
+        <v>1.18</v>
       </c>
       <c r="AT46">
-        <v>3.56</v>
+        <v>2.33</v>
       </c>
       <c r="AU46">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV46">
         <v>4</v>
       </c>
       <c r="AW46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX46">
         <v>4</v>
       </c>
       <c r="AY46">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AZ46">
         <v>8</v>
       </c>
       <c r="BA46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB46">
         <v>2</v>
       </c>
       <c r="BC46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD46">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="BE46">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF46">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="BG46">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH46">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="BI46">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="BJ46">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BK46">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BL46">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BM46">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="BN46">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="BO46">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BP46">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10357,7 +10363,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7466100</v>
+        <v>7466102</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10366,49 +10372,49 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45556.47916666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q47">
         <v>4</v>
       </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-      <c r="N47">
-        <v>5</v>
-      </c>
-      <c r="O47" t="s">
-        <v>125</v>
-      </c>
-      <c r="P47" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q47">
-        <v>2.2</v>
-      </c>
       <c r="R47">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S47">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="T47">
         <v>1.33</v>
@@ -10417,25 +10423,25 @@
         <v>3.25</v>
       </c>
       <c r="V47">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W47">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X47">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y47">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z47">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="AA47">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AB47">
-        <v>5.25</v>
+        <v>1.78</v>
       </c>
       <c r="AC47">
         <v>1.03</v>
@@ -10444,52 +10450,52 @@
         <v>15</v>
       </c>
       <c r="AE47">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AF47">
-        <v>3.92</v>
+        <v>4.25</v>
       </c>
       <c r="AG47">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AH47">
+        <v>2.1</v>
+      </c>
+      <c r="AI47">
+        <v>1.62</v>
+      </c>
+      <c r="AJ47">
         <v>2.2</v>
       </c>
-      <c r="AI47">
-        <v>1.8</v>
-      </c>
-      <c r="AJ47">
-        <v>1.95</v>
-      </c>
       <c r="AK47">
-        <v>1.15</v>
+        <v>1.92</v>
       </c>
       <c r="AL47">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AM47">
-        <v>2.4</v>
+        <v>1.28</v>
       </c>
       <c r="AN47">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
-        <v>1.08</v>
+        <v>1.91</v>
       </c>
       <c r="AS47">
-        <v>0.84</v>
+        <v>1.65</v>
       </c>
       <c r="AT47">
-        <v>1.92</v>
+        <v>3.56</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -10498,64 +10504,64 @@
         <v>4</v>
       </c>
       <c r="AW47">
+        <v>2</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
         <v>5</v>
       </c>
-      <c r="AX47">
-        <v>3</v>
-      </c>
-      <c r="AY47">
+      <c r="AZ47">
         <v>8</v>
-      </c>
-      <c r="AZ47">
-        <v>7</v>
       </c>
       <c r="BA47">
         <v>7</v>
       </c>
       <c r="BB47">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC47">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD47">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="BE47">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF47">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="BG47">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH47">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="BI47">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BJ47">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BK47">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="BL47">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
       <c r="BM47">
+        <v>1.94</v>
+      </c>
+      <c r="BN47">
         <v>1.76</v>
       </c>
-      <c r="BN47">
-        <v>1.94</v>
-      </c>
       <c r="BO47">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BP47">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10563,7 +10569,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7466101</v>
+        <v>7466100</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10572,49 +10578,49 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45556.57291666666</v>
+        <v>45556.47916666666</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>2</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q48">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R48">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S48">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="T48">
         <v>1.33</v>
@@ -10635,133 +10641,133 @@
         <v>1.11</v>
       </c>
       <c r="Z48">
+        <v>1.6</v>
+      </c>
+      <c r="AA48">
+        <v>3.9</v>
+      </c>
+      <c r="AB48">
+        <v>5.25</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>15</v>
+      </c>
+      <c r="AE48">
+        <v>1.24</v>
+      </c>
+      <c r="AF48">
+        <v>3.92</v>
+      </c>
+      <c r="AG48">
+        <v>1.6</v>
+      </c>
+      <c r="AH48">
+        <v>2.2</v>
+      </c>
+      <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
+        <v>1.95</v>
+      </c>
+      <c r="AK48">
+        <v>1.15</v>
+      </c>
+      <c r="AL48">
+        <v>1.19</v>
+      </c>
+      <c r="AM48">
+        <v>2.4</v>
+      </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>3</v>
+      </c>
+      <c r="AQ48">
+        <v>0.67</v>
+      </c>
+      <c r="AR48">
+        <v>1.08</v>
+      </c>
+      <c r="AS48">
+        <v>0.84</v>
+      </c>
+      <c r="AT48">
+        <v>1.92</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>5</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>8</v>
+      </c>
+      <c r="AZ48">
+        <v>7</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
+        <v>7</v>
+      </c>
+      <c r="BC48">
+        <v>14</v>
+      </c>
+      <c r="BD48">
+        <v>1.4</v>
+      </c>
+      <c r="BE48">
+        <v>7.5</v>
+      </c>
+      <c r="BF48">
         <v>3.3</v>
       </c>
-      <c r="AA48">
-        <v>3.5</v>
-      </c>
-      <c r="AB48">
-        <v>2.05</v>
-      </c>
-      <c r="AC48">
-        <v>1.01</v>
-      </c>
-      <c r="AD48">
-        <v>11</v>
-      </c>
-      <c r="AE48">
-        <v>1.2</v>
-      </c>
-      <c r="AF48">
-        <v>4</v>
-      </c>
-      <c r="AG48">
-        <v>1.75</v>
-      </c>
-      <c r="AH48">
-        <v>1.95</v>
-      </c>
-      <c r="AI48">
-        <v>1.62</v>
-      </c>
-      <c r="AJ48">
-        <v>2.2</v>
-      </c>
-      <c r="AK48">
-        <v>1.8</v>
-      </c>
-      <c r="AL48">
-        <v>1.25</v>
-      </c>
-      <c r="AM48">
-        <v>1.32</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>2</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>2.33</v>
-      </c>
-      <c r="AR48">
-        <v>1.15</v>
-      </c>
-      <c r="AS48">
-        <v>1.18</v>
-      </c>
-      <c r="AT48">
-        <v>2.33</v>
-      </c>
-      <c r="AU48">
-        <v>11</v>
-      </c>
-      <c r="AV48">
-        <v>6</v>
-      </c>
-      <c r="AW48">
-        <v>6</v>
-      </c>
-      <c r="AX48">
-        <v>6</v>
-      </c>
-      <c r="AY48">
-        <v>17</v>
-      </c>
-      <c r="AZ48">
-        <v>12</v>
-      </c>
-      <c r="BA48">
-        <v>6</v>
-      </c>
-      <c r="BB48">
-        <v>2</v>
-      </c>
-      <c r="BC48">
-        <v>8</v>
-      </c>
-      <c r="BD48">
-        <v>2.17</v>
-      </c>
-      <c r="BE48">
-        <v>6.75</v>
-      </c>
-      <c r="BF48">
-        <v>1.82</v>
-      </c>
       <c r="BG48">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH48">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="BI48">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BJ48">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="BK48">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BL48">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="BM48">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="BN48">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="BO48">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="BP48">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10811,7 +10817,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11017,7 +11023,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11223,7 +11229,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11635,7 +11641,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11841,7 +11847,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12005,7 +12011,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7466110</v>
+        <v>7466112</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12014,196 +12020,196 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45563.57291666666</v>
+        <v>45563.47916666666</v>
       </c>
       <c r="F55">
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="R55">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="T55">
+        <v>1.2</v>
+      </c>
+      <c r="U55">
+        <v>4.33</v>
+      </c>
+      <c r="V55">
+        <v>1.91</v>
+      </c>
+      <c r="W55">
+        <v>1.8</v>
+      </c>
+      <c r="X55">
+        <v>4</v>
+      </c>
+      <c r="Y55">
+        <v>1.22</v>
+      </c>
+      <c r="Z55">
+        <v>7.6</v>
+      </c>
+      <c r="AA55">
+        <v>6.55</v>
+      </c>
+      <c r="AB55">
         <v>1.29</v>
       </c>
-      <c r="U55">
-        <v>3.5</v>
-      </c>
-      <c r="V55">
-        <v>2.25</v>
-      </c>
-      <c r="W55">
-        <v>1.57</v>
-      </c>
-      <c r="X55">
-        <v>5.5</v>
-      </c>
-      <c r="Y55">
-        <v>1.14</v>
-      </c>
-      <c r="Z55">
-        <v>5.8</v>
-      </c>
-      <c r="AA55">
-        <v>4.5</v>
-      </c>
-      <c r="AB55">
-        <v>1.49</v>
-      </c>
       <c r="AC55">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD55">
-        <v>19.25</v>
+        <v>34</v>
       </c>
       <c r="AE55">
+        <v>1.06</v>
+      </c>
+      <c r="AF55">
+        <v>5.75</v>
+      </c>
+      <c r="AG55">
+        <v>1.33</v>
+      </c>
+      <c r="AH55">
+        <v>3.15</v>
+      </c>
+      <c r="AI55">
+        <v>1.75</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>3.75</v>
+      </c>
+      <c r="AL55">
         <v>1.12</v>
       </c>
-      <c r="AF55">
-        <v>4.45</v>
-      </c>
-      <c r="AG55">
-        <v>1.6</v>
-      </c>
-      <c r="AH55">
-        <v>2.33</v>
-      </c>
-      <c r="AI55">
-        <v>1.62</v>
-      </c>
-      <c r="AJ55">
-        <v>2.2</v>
-      </c>
-      <c r="AK55">
-        <v>2.38</v>
-      </c>
-      <c r="AL55">
-        <v>1.21</v>
-      </c>
       <c r="AM55">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO55">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AR55">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AS55">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="AT55">
-        <v>3.39</v>
+        <v>3.51</v>
       </c>
       <c r="AU55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW55">
         <v>5</v>
       </c>
       <c r="AX55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY55">
+        <v>5</v>
+      </c>
+      <c r="AZ55">
         <v>10</v>
       </c>
-      <c r="AZ55">
-        <v>15</v>
-      </c>
       <c r="BA55">
         <v>3</v>
       </c>
       <c r="BB55">
+        <v>6</v>
+      </c>
+      <c r="BC55">
         <v>9</v>
       </c>
-      <c r="BC55">
-        <v>12</v>
-      </c>
       <c r="BD55">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="BE55">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF55">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="BG55">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="BH55">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI55">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="BJ55">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BK55">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="BL55">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="BM55">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="BN55">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="BO55">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BP55">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12211,7 +12217,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7466111</v>
+        <v>7466110</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12220,25 +12226,25 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45563.66666666666</v>
+        <v>45563.57291666666</v>
       </c>
       <c r="F56">
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -12250,166 +12256,166 @@
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q56">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="R56">
+        <v>2.5</v>
+      </c>
+      <c r="S56">
+        <v>2.05</v>
+      </c>
+      <c r="T56">
+        <v>1.29</v>
+      </c>
+      <c r="U56">
+        <v>3.5</v>
+      </c>
+      <c r="V56">
+        <v>2.25</v>
+      </c>
+      <c r="W56">
+        <v>1.57</v>
+      </c>
+      <c r="X56">
+        <v>5.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.14</v>
+      </c>
+      <c r="Z56">
+        <v>5.8</v>
+      </c>
+      <c r="AA56">
+        <v>4.5</v>
+      </c>
+      <c r="AB56">
+        <v>1.49</v>
+      </c>
+      <c r="AC56">
+        <v>1.03</v>
+      </c>
+      <c r="AD56">
+        <v>19.25</v>
+      </c>
+      <c r="AE56">
+        <v>1.12</v>
+      </c>
+      <c r="AF56">
+        <v>4.45</v>
+      </c>
+      <c r="AG56">
+        <v>1.6</v>
+      </c>
+      <c r="AH56">
+        <v>2.33</v>
+      </c>
+      <c r="AI56">
+        <v>1.62</v>
+      </c>
+      <c r="AJ56">
         <v>2.2</v>
       </c>
-      <c r="S56">
-        <v>4.75</v>
-      </c>
-      <c r="T56">
-        <v>1.36</v>
-      </c>
-      <c r="U56">
-        <v>3</v>
-      </c>
-      <c r="V56">
-        <v>2.75</v>
-      </c>
-      <c r="W56">
-        <v>1.4</v>
-      </c>
-      <c r="X56">
+      <c r="AK56">
+        <v>2.38</v>
+      </c>
+      <c r="AL56">
+        <v>1.21</v>
+      </c>
+      <c r="AM56">
+        <v>1.16</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
+        <v>1.67</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
+        <v>1.5</v>
+      </c>
+      <c r="AR56">
+        <v>1.55</v>
+      </c>
+      <c r="AS56">
+        <v>1.84</v>
+      </c>
+      <c r="AT56">
+        <v>3.39</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>7</v>
+      </c>
+      <c r="AW56">
+        <v>5</v>
+      </c>
+      <c r="AX56">
         <v>8</v>
       </c>
-      <c r="Y56">
-        <v>1.08</v>
-      </c>
-      <c r="Z56">
-        <v>1.83</v>
-      </c>
-      <c r="AA56">
-        <v>3.7</v>
-      </c>
-      <c r="AB56">
-        <v>4.25</v>
-      </c>
-      <c r="AC56">
-        <v>1.02</v>
-      </c>
-      <c r="AD56">
-        <v>10.5</v>
-      </c>
-      <c r="AE56">
-        <v>1.25</v>
-      </c>
-      <c r="AF56">
-        <v>3.6</v>
-      </c>
-      <c r="AG56">
-        <v>1.86</v>
-      </c>
-      <c r="AH56">
-        <v>1.89</v>
-      </c>
-      <c r="AI56">
-        <v>1.8</v>
-      </c>
-      <c r="AJ56">
-        <v>1.95</v>
-      </c>
-      <c r="AK56">
-        <v>1.18</v>
-      </c>
-      <c r="AL56">
-        <v>1.27</v>
-      </c>
-      <c r="AM56">
-        <v>1.95</v>
-      </c>
-      <c r="AN56">
-        <v>0.67</v>
-      </c>
-      <c r="AO56">
-        <v>1</v>
-      </c>
-      <c r="AP56">
-        <v>0.75</v>
-      </c>
-      <c r="AQ56">
-        <v>1</v>
-      </c>
-      <c r="AR56">
+      <c r="AY56">
+        <v>10</v>
+      </c>
+      <c r="AZ56">
+        <v>15</v>
+      </c>
+      <c r="BA56">
+        <v>3</v>
+      </c>
+      <c r="BB56">
+        <v>9</v>
+      </c>
+      <c r="BC56">
+        <v>12</v>
+      </c>
+      <c r="BD56">
+        <v>2.9</v>
+      </c>
+      <c r="BE56">
+        <v>7</v>
+      </c>
+      <c r="BF56">
         <v>1.49</v>
       </c>
-      <c r="AS56">
-        <v>0.99</v>
-      </c>
-      <c r="AT56">
+      <c r="BG56">
+        <v>1.21</v>
+      </c>
+      <c r="BH56">
+        <v>3.8</v>
+      </c>
+      <c r="BI56">
+        <v>1.37</v>
+      </c>
+      <c r="BJ56">
+        <v>2.8</v>
+      </c>
+      <c r="BK56">
+        <v>1.63</v>
+      </c>
+      <c r="BL56">
+        <v>2.12</v>
+      </c>
+      <c r="BM56">
+        <v>1.98</v>
+      </c>
+      <c r="BN56">
+        <v>1.82</v>
+      </c>
+      <c r="BO56">
         <v>2.48</v>
       </c>
-      <c r="AU56">
-        <v>7</v>
-      </c>
-      <c r="AV56">
-        <v>6</v>
-      </c>
-      <c r="AW56">
-        <v>11</v>
-      </c>
-      <c r="AX56">
-        <v>3</v>
-      </c>
-      <c r="AY56">
-        <v>18</v>
-      </c>
-      <c r="AZ56">
-        <v>9</v>
-      </c>
-      <c r="BA56">
-        <v>9</v>
-      </c>
-      <c r="BB56">
-        <v>5</v>
-      </c>
-      <c r="BC56">
-        <v>14</v>
-      </c>
-      <c r="BD56">
-        <v>1.64</v>
-      </c>
-      <c r="BE56">
-        <v>8.5</v>
-      </c>
-      <c r="BF56">
-        <v>2.64</v>
-      </c>
-      <c r="BG56">
-        <v>1.28</v>
-      </c>
-      <c r="BH56">
-        <v>3.25</v>
-      </c>
-      <c r="BI56">
-        <v>1.48</v>
-      </c>
-      <c r="BJ56">
-        <v>2.45</v>
-      </c>
-      <c r="BK56">
-        <v>1.77</v>
-      </c>
-      <c r="BL56">
-        <v>1.92</v>
-      </c>
-      <c r="BM56">
-        <v>2.2</v>
-      </c>
-      <c r="BN56">
-        <v>1.57</v>
-      </c>
-      <c r="BO56">
-        <v>2.8</v>
-      </c>
       <c r="BP56">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12417,7 +12423,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7466113</v>
+        <v>7466111</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12426,49 +12432,49 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45564.30208333334</v>
+        <v>45563.66666666666</v>
       </c>
       <c r="F57">
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="Q57">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="R57">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S57">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T57">
         <v>1.36</v>
@@ -12477,145 +12483,145 @@
         <v>3</v>
       </c>
       <c r="V57">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W57">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y57">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z57">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA57">
         <v>3.7</v>
       </c>
       <c r="AB57">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="AC57">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD57">
+        <v>10.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.25</v>
+      </c>
+      <c r="AF57">
+        <v>3.6</v>
+      </c>
+      <c r="AG57">
+        <v>1.86</v>
+      </c>
+      <c r="AH57">
+        <v>1.89</v>
+      </c>
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>1.95</v>
+      </c>
+      <c r="AK57">
+        <v>1.18</v>
+      </c>
+      <c r="AL57">
+        <v>1.27</v>
+      </c>
+      <c r="AM57">
+        <v>1.95</v>
+      </c>
+      <c r="AN57">
+        <v>0.67</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>0.75</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.49</v>
+      </c>
+      <c r="AS57">
+        <v>0.99</v>
+      </c>
+      <c r="AT57">
+        <v>2.48</v>
+      </c>
+      <c r="AU57">
+        <v>7</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
         <v>11</v>
       </c>
-      <c r="AE57">
-        <v>1.2</v>
-      </c>
-      <c r="AF57">
-        <v>4</v>
-      </c>
-      <c r="AG57">
-        <v>1.73</v>
-      </c>
-      <c r="AH57">
-        <v>2</v>
-      </c>
-      <c r="AI57">
-        <v>1.67</v>
-      </c>
-      <c r="AJ57">
-        <v>2.1</v>
-      </c>
-      <c r="AK57">
-        <v>1.25</v>
-      </c>
-      <c r="AL57">
-        <v>1.28</v>
-      </c>
-      <c r="AM57">
-        <v>1.77</v>
-      </c>
-      <c r="AN57">
-        <v>1</v>
-      </c>
-      <c r="AO57">
-        <v>0.5</v>
-      </c>
-      <c r="AP57">
-        <v>1.5</v>
-      </c>
-      <c r="AQ57">
-        <v>0.33</v>
-      </c>
-      <c r="AR57">
-        <v>1.08</v>
-      </c>
-      <c r="AS57">
-        <v>1.15</v>
-      </c>
-      <c r="AT57">
-        <v>2.23</v>
-      </c>
-      <c r="AU57">
-        <v>4</v>
-      </c>
-      <c r="AV57">
-        <v>7</v>
-      </c>
-      <c r="AW57">
+      <c r="AX57">
+        <v>3</v>
+      </c>
+      <c r="AY57">
+        <v>18</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>9</v>
+      </c>
+      <c r="BB57">
         <v>5</v>
-      </c>
-      <c r="AX57">
-        <v>6</v>
-      </c>
-      <c r="AY57">
-        <v>9</v>
-      </c>
-      <c r="AZ57">
-        <v>13</v>
-      </c>
-      <c r="BA57">
-        <v>6</v>
-      </c>
-      <c r="BB57">
-        <v>8</v>
       </c>
       <c r="BC57">
         <v>14</v>
       </c>
       <c r="BD57">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="BE57">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF57">
-        <v>2.33</v>
+        <v>2.64</v>
       </c>
       <c r="BG57">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BH57">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="BI57">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BJ57">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="BK57">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="BL57">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BM57">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="BN57">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="BO57">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="BP57">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12623,7 +12629,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7466114</v>
+        <v>7466113</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12632,16 +12638,16 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45564.39583333334</v>
+        <v>45564.30208333334</v>
       </c>
       <c r="F58">
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -12653,34 +12659,34 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58" t="s">
+        <v>131</v>
+      </c>
+      <c r="P58" t="s">
         <v>91</v>
       </c>
-      <c r="P58" t="s">
-        <v>97</v>
-      </c>
       <c r="Q58">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R58">
         <v>2.25</v>
       </c>
       <c r="S58">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T58">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U58">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V58">
         <v>2.63</v>
@@ -12689,139 +12695,139 @@
         <v>1.44</v>
       </c>
       <c r="X58">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y58">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z58">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="AA58">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB58">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="AC58">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE58">
+        <v>1.2</v>
+      </c>
+      <c r="AF58">
+        <v>4</v>
+      </c>
+      <c r="AG58">
+        <v>1.73</v>
+      </c>
+      <c r="AH58">
+        <v>2</v>
+      </c>
+      <c r="AI58">
+        <v>1.67</v>
+      </c>
+      <c r="AJ58">
+        <v>2.1</v>
+      </c>
+      <c r="AK58">
         <v>1.25</v>
       </c>
-      <c r="AF58">
-        <v>3.85</v>
-      </c>
-      <c r="AG58">
-        <v>1.8</v>
-      </c>
-      <c r="AH58">
-        <v>1.91</v>
-      </c>
-      <c r="AI58">
-        <v>1.62</v>
-      </c>
-      <c r="AJ58">
-        <v>2.2</v>
-      </c>
-      <c r="AK58">
-        <v>1.36</v>
-      </c>
       <c r="AL58">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM58">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AN58">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR58">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT58">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY58">
+        <v>9</v>
+      </c>
+      <c r="AZ58">
+        <v>13</v>
+      </c>
+      <c r="BA58">
         <v>6</v>
       </c>
-      <c r="AZ58">
-        <v>9</v>
-      </c>
-      <c r="BA58">
-        <v>7</v>
-      </c>
       <c r="BB58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC58">
         <v>14</v>
       </c>
       <c r="BD58">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="BE58">
         <v>8</v>
       </c>
       <c r="BF58">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="BG58">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BH58">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI58">
+        <v>1.46</v>
+      </c>
+      <c r="BJ58">
+        <v>2.48</v>
+      </c>
+      <c r="BK58">
+        <v>1.75</v>
+      </c>
+      <c r="BL58">
+        <v>1.95</v>
+      </c>
+      <c r="BM58">
+        <v>2.17</v>
+      </c>
+      <c r="BN58">
+        <v>1.61</v>
+      </c>
+      <c r="BO58">
+        <v>2.75</v>
+      </c>
+      <c r="BP58">
         <v>1.38</v>
-      </c>
-      <c r="BJ58">
-        <v>2.7</v>
-      </c>
-      <c r="BK58">
-        <v>1.65</v>
-      </c>
-      <c r="BL58">
-        <v>2.08</v>
-      </c>
-      <c r="BM58">
-        <v>2.02</v>
-      </c>
-      <c r="BN58">
-        <v>1.68</v>
-      </c>
-      <c r="BO58">
-        <v>2.55</v>
-      </c>
-      <c r="BP58">
-        <v>1.43</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12829,7 +12835,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7466115</v>
+        <v>7466114</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12838,16 +12844,16 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45564.48958333334</v>
+        <v>45564.39583333334</v>
       </c>
       <c r="F59">
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -12862,172 +12868,172 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" t="s">
         <v>91</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="Q59">
+        <v>2.75</v>
+      </c>
+      <c r="R59">
+        <v>2.25</v>
+      </c>
+      <c r="S59">
+        <v>3.6</v>
+      </c>
+      <c r="T59">
+        <v>1.33</v>
+      </c>
+      <c r="U59">
+        <v>3.25</v>
+      </c>
+      <c r="V59">
+        <v>2.63</v>
+      </c>
+      <c r="W59">
+        <v>1.44</v>
+      </c>
+      <c r="X59">
+        <v>6.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.11</v>
+      </c>
+      <c r="Z59">
+        <v>2.3</v>
+      </c>
+      <c r="AA59">
+        <v>3.5</v>
+      </c>
+      <c r="AB59">
+        <v>2.9</v>
+      </c>
+      <c r="AC59">
+        <v>1.04</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.25</v>
+      </c>
+      <c r="AF59">
+        <v>3.85</v>
+      </c>
+      <c r="AG59">
+        <v>1.8</v>
+      </c>
+      <c r="AH59">
+        <v>1.91</v>
+      </c>
+      <c r="AI59">
+        <v>1.62</v>
+      </c>
+      <c r="AJ59">
+        <v>2.2</v>
+      </c>
+      <c r="AK59">
+        <v>1.36</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.72</v>
+      </c>
+      <c r="AN59">
+        <v>1.67</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1.25</v>
+      </c>
+      <c r="AQ59">
+        <v>1.5</v>
+      </c>
+      <c r="AR59">
+        <v>1.17</v>
+      </c>
+      <c r="AS59">
+        <v>1</v>
+      </c>
+      <c r="AT59">
+        <v>2.17</v>
+      </c>
+      <c r="AU59">
+        <v>2</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>5</v>
+      </c>
+      <c r="AY59">
         <v>6</v>
       </c>
-      <c r="R59">
-        <v>2.63</v>
-      </c>
-      <c r="S59">
-        <v>1.91</v>
-      </c>
-      <c r="T59">
-        <v>1.25</v>
-      </c>
-      <c r="U59">
-        <v>3.75</v>
-      </c>
-      <c r="V59">
-        <v>2.1</v>
-      </c>
-      <c r="W59">
-        <v>1.67</v>
-      </c>
-      <c r="X59">
-        <v>4.5</v>
-      </c>
-      <c r="Y59">
-        <v>1.18</v>
-      </c>
-      <c r="Z59">
-        <v>6.5</v>
-      </c>
-      <c r="AA59">
-        <v>5</v>
-      </c>
-      <c r="AB59">
-        <v>1.4</v>
-      </c>
-      <c r="AC59">
-        <v>1.01</v>
-      </c>
-      <c r="AD59">
-        <v>23</v>
-      </c>
-      <c r="AE59">
-        <v>1.14</v>
-      </c>
-      <c r="AF59">
-        <v>5.38</v>
-      </c>
-      <c r="AG59">
-        <v>1.45</v>
-      </c>
-      <c r="AH59">
-        <v>2.55</v>
-      </c>
-      <c r="AI59">
-        <v>1.67</v>
-      </c>
-      <c r="AJ59">
-        <v>2.1</v>
-      </c>
-      <c r="AK59">
-        <v>2.95</v>
-      </c>
-      <c r="AL59">
-        <v>1.13</v>
-      </c>
-      <c r="AM59">
-        <v>1.09</v>
-      </c>
-      <c r="AN59">
-        <v>0</v>
-      </c>
-      <c r="AO59">
-        <v>0.5</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
-      </c>
-      <c r="AQ59">
-        <v>1.33</v>
-      </c>
-      <c r="AR59">
-        <v>1.5</v>
-      </c>
-      <c r="AS59">
-        <v>1.65</v>
-      </c>
-      <c r="AT59">
-        <v>3.15</v>
-      </c>
-      <c r="AU59">
-        <v>2</v>
-      </c>
-      <c r="AV59">
-        <v>5</v>
-      </c>
-      <c r="AW59">
-        <v>0</v>
-      </c>
-      <c r="AX59">
-        <v>12</v>
-      </c>
-      <c r="AY59">
-        <v>2</v>
-      </c>
       <c r="AZ59">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BA59">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB59">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BC59">
         <v>14</v>
       </c>
       <c r="BD59">
-        <v>4.42</v>
+        <v>1.75</v>
       </c>
       <c r="BE59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF59">
-        <v>1.3</v>
+        <v>2.42</v>
       </c>
       <c r="BG59">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BH59">
         <v>3.8</v>
       </c>
       <c r="BI59">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="BJ59">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BK59">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BL59">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="BM59">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="BN59">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="BO59">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BP59">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13035,7 +13041,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7466116</v>
+        <v>7466109</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13044,195 +13050,607 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45564.625</v>
+        <v>45564.39583333334</v>
       </c>
       <c r="F60">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O60" t="s">
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="Q60">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="R60">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="S60">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="T60">
+        <v>1.22</v>
+      </c>
+      <c r="U60">
+        <v>4</v>
+      </c>
+      <c r="V60">
+        <v>2</v>
+      </c>
+      <c r="W60">
+        <v>1.73</v>
+      </c>
+      <c r="X60">
+        <v>4.33</v>
+      </c>
+      <c r="Y60">
+        <v>1.2</v>
+      </c>
+      <c r="Z60">
         <v>1.33</v>
       </c>
-      <c r="U60">
-        <v>3.25</v>
-      </c>
-      <c r="V60">
-        <v>2.5</v>
-      </c>
-      <c r="W60">
-        <v>1.5</v>
-      </c>
-      <c r="X60">
-        <v>6.5</v>
-      </c>
-      <c r="Y60">
+      <c r="AA60">
+        <v>5.75</v>
+      </c>
+      <c r="AB60">
+        <v>8.5</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>29</v>
+      </c>
+      <c r="AE60">
         <v>1.11</v>
       </c>
-      <c r="Z60">
-        <v>1.58</v>
-      </c>
-      <c r="AA60">
-        <v>4.2</v>
-      </c>
-      <c r="AB60">
-        <v>5.4</v>
-      </c>
-      <c r="AC60">
-        <v>1.03</v>
-      </c>
-      <c r="AD60">
-        <v>15</v>
-      </c>
-      <c r="AE60">
-        <v>1.21</v>
-      </c>
       <c r="AF60">
-        <v>4.25</v>
+        <v>6.28</v>
       </c>
       <c r="AG60">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AH60">
-        <v>2.14</v>
+        <v>2.75</v>
       </c>
       <c r="AI60">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK60">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="AL60">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AM60">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="AN60">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP60">
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AR60">
-        <v>2.58</v>
+        <v>2.11</v>
       </c>
       <c r="AS60">
-        <v>1.35</v>
+        <v>0.73</v>
       </c>
       <c r="AT60">
-        <v>3.93</v>
+        <v>2.84</v>
       </c>
       <c r="AU60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
         <v>4</v>
       </c>
-      <c r="AW60">
-        <v>11</v>
-      </c>
       <c r="AX60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY60">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ60">
         <v>7</v>
       </c>
       <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
         <v>8</v>
       </c>
-      <c r="BB60">
-        <v>1</v>
-      </c>
-      <c r="BC60">
+      <c r="BD60">
+        <v>1.19</v>
+      </c>
+      <c r="BE60">
+        <v>11</v>
+      </c>
+      <c r="BF60">
+        <v>5.67</v>
+      </c>
+      <c r="BG60">
+        <v>1.29</v>
+      </c>
+      <c r="BH60">
+        <v>3.2</v>
+      </c>
+      <c r="BI60">
+        <v>1.45</v>
+      </c>
+      <c r="BJ60">
+        <v>2.38</v>
+      </c>
+      <c r="BK60">
+        <v>1.8</v>
+      </c>
+      <c r="BL60">
+        <v>1.88</v>
+      </c>
+      <c r="BM60">
+        <v>2.2</v>
+      </c>
+      <c r="BN60">
+        <v>1.65</v>
+      </c>
+      <c r="BO60">
+        <v>2.92</v>
+      </c>
+      <c r="BP60">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7466115</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45564.48958333334</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>91</v>
+      </c>
+      <c r="P61" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q61">
+        <v>6</v>
+      </c>
+      <c r="R61">
+        <v>2.63</v>
+      </c>
+      <c r="S61">
+        <v>1.91</v>
+      </c>
+      <c r="T61">
+        <v>1.25</v>
+      </c>
+      <c r="U61">
+        <v>3.75</v>
+      </c>
+      <c r="V61">
+        <v>2.1</v>
+      </c>
+      <c r="W61">
+        <v>1.67</v>
+      </c>
+      <c r="X61">
+        <v>4.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.18</v>
+      </c>
+      <c r="Z61">
+        <v>6.5</v>
+      </c>
+      <c r="AA61">
+        <v>5</v>
+      </c>
+      <c r="AB61">
+        <v>1.4</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>23</v>
+      </c>
+      <c r="AE61">
+        <v>1.14</v>
+      </c>
+      <c r="AF61">
+        <v>5.38</v>
+      </c>
+      <c r="AG61">
+        <v>1.45</v>
+      </c>
+      <c r="AH61">
+        <v>2.55</v>
+      </c>
+      <c r="AI61">
+        <v>1.67</v>
+      </c>
+      <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>2.95</v>
+      </c>
+      <c r="AL61">
+        <v>1.13</v>
+      </c>
+      <c r="AM61">
+        <v>1.09</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0.5</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>1.33</v>
+      </c>
+      <c r="AR61">
+        <v>1.15</v>
+      </c>
+      <c r="AS61">
+        <v>1.65</v>
+      </c>
+      <c r="AT61">
+        <v>2.8</v>
+      </c>
+      <c r="AU61">
+        <v>2</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>12</v>
+      </c>
+      <c r="AY61">
+        <v>2</v>
+      </c>
+      <c r="AZ61">
+        <v>17</v>
+      </c>
+      <c r="BA61">
+        <v>2</v>
+      </c>
+      <c r="BB61">
+        <v>12</v>
+      </c>
+      <c r="BC61">
+        <v>14</v>
+      </c>
+      <c r="BD61">
+        <v>4.42</v>
+      </c>
+      <c r="BE61">
+        <v>10</v>
+      </c>
+      <c r="BF61">
+        <v>1.3</v>
+      </c>
+      <c r="BG61">
+        <v>1.26</v>
+      </c>
+      <c r="BH61">
+        <v>3.8</v>
+      </c>
+      <c r="BI61">
+        <v>1.46</v>
+      </c>
+      <c r="BJ61">
+        <v>2.5</v>
+      </c>
+      <c r="BK61">
+        <v>1.7</v>
+      </c>
+      <c r="BL61">
+        <v>2.05</v>
+      </c>
+      <c r="BM61">
+        <v>2.05</v>
+      </c>
+      <c r="BN61">
+        <v>1.7</v>
+      </c>
+      <c r="BO61">
+        <v>2.7</v>
+      </c>
+      <c r="BP61">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7466116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45564.625</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q62">
+        <v>2.1</v>
+      </c>
+      <c r="R62">
+        <v>2.38</v>
+      </c>
+      <c r="S62">
+        <v>5.5</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.5</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.11</v>
+      </c>
+      <c r="Z62">
+        <v>1.58</v>
+      </c>
+      <c r="AA62">
+        <v>4.2</v>
+      </c>
+      <c r="AB62">
+        <v>5.4</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>15</v>
+      </c>
+      <c r="AE62">
+        <v>1.21</v>
+      </c>
+      <c r="AF62">
+        <v>4.25</v>
+      </c>
+      <c r="AG62">
+        <v>1.71</v>
+      </c>
+      <c r="AH62">
+        <v>2.14</v>
+      </c>
+      <c r="AI62">
+        <v>1.75</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>1.15</v>
+      </c>
+      <c r="AL62">
+        <v>1.19</v>
+      </c>
+      <c r="AM62">
+        <v>2.4</v>
+      </c>
+      <c r="AN62">
+        <v>3</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+      <c r="AQ62">
+        <v>2.33</v>
+      </c>
+      <c r="AR62">
+        <v>2.58</v>
+      </c>
+      <c r="AS62">
+        <v>1.35</v>
+      </c>
+      <c r="AT62">
+        <v>3.93</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>11</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>18</v>
+      </c>
+      <c r="AZ62">
+        <v>7</v>
+      </c>
+      <c r="BA62">
+        <v>8</v>
+      </c>
+      <c r="BB62">
+        <v>1</v>
+      </c>
+      <c r="BC62">
         <v>9</v>
       </c>
-      <c r="BD60">
+      <c r="BD62">
         <v>1.45</v>
       </c>
-      <c r="BE60">
+      <c r="BE62">
         <v>9</v>
       </c>
-      <c r="BF60">
+      <c r="BF62">
         <v>3.32</v>
       </c>
-      <c r="BG60">
+      <c r="BG62">
         <v>1.25</v>
       </c>
-      <c r="BH60">
+      <c r="BH62">
         <v>3.45</v>
       </c>
-      <c r="BI60">
+      <c r="BI62">
         <v>1.44</v>
       </c>
-      <c r="BJ60">
+      <c r="BJ62">
         <v>2.55</v>
       </c>
-      <c r="BK60">
+      <c r="BK62">
         <v>1.72</v>
       </c>
-      <c r="BL60">
+      <c r="BL62">
         <v>1.98</v>
       </c>
-      <c r="BM60">
+      <c r="BM62">
         <v>2.14</v>
       </c>
-      <c r="BN60">
+      <c r="BN62">
         <v>1.61</v>
       </c>
-      <c r="BO60">
+      <c r="BO62">
         <v>2.7</v>
       </c>
-      <c r="BP60">
+      <c r="BP62">
         <v>1.4</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -394,27 +394,27 @@
     <t>['11', '37', '53']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['34', '74']</t>
+  </si>
+  <si>
     <t>['12', '69']</t>
   </si>
   <si>
-    <t>['34', '74']</t>
-  </si>
-  <si>
-    <t>['32']</t>
-  </si>
-  <si>
     <t>['25', '87']</t>
   </si>
   <si>
     <t>['3']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['78']</t>
   </si>
   <si>
-    <t>['76']</t>
-  </si>
-  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -487,10 +487,13 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['3', '13']</t>
+  </si>
+  <si>
     <t>['29', '43']</t>
   </si>
   <si>
-    <t>['3', '13']</t>
+    <t>['16', '68', '72']</t>
   </si>
   <si>
     <t>['9']</t>
@@ -499,19 +502,16 @@
     <t>['9', '45+1', '55', '73', '75']</t>
   </si>
   <si>
-    <t>['16', '68', '72']</t>
-  </si>
-  <si>
     <t>['59']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['49', '64']</t>
-  </si>
-  <si>
-    <t>['88']</t>
-  </si>
-  <si>
-    <t>['31']</t>
   </si>
   <si>
     <t>['76', '90+4']</t>
@@ -10569,7 +10569,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7466100</v>
+        <v>7466103</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10578,103 +10578,103 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45556.47916666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>2</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <v>2</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O48" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="P48" t="s">
         <v>157</v>
       </c>
       <c r="Q48">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R48">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S48">
         <v>5</v>
       </c>
       <c r="T48">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U48">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V48">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W48">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X48">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y48">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z48">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AA48">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AB48">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AC48">
         <v>1.03</v>
       </c>
       <c r="AD48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE48">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AF48">
-        <v>3.92</v>
+        <v>4.45</v>
       </c>
       <c r="AG48">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AH48">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AI48">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ48">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK48">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AL48">
         <v>1.19</v>
@@ -10683,91 +10683,91 @@
         <v>2.4</v>
       </c>
       <c r="AN48">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AS48">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AT48">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="AU48">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY48">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA48">
         <v>7</v>
       </c>
       <c r="BB48">
+        <v>3</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>1.53</v>
+      </c>
+      <c r="BE48">
         <v>7</v>
       </c>
-      <c r="BC48">
-        <v>14</v>
-      </c>
-      <c r="BD48">
-        <v>1.4</v>
-      </c>
-      <c r="BE48">
-        <v>7.5</v>
-      </c>
       <c r="BF48">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BG48">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="BH48">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="BI48">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BJ48">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="BK48">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BL48">
-        <v>2.43</v>
+        <v>2.63</v>
       </c>
       <c r="BM48">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="BN48">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="BO48">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="BP48">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10775,7 +10775,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7466103</v>
+        <v>7466100</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10784,103 +10784,103 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45556.66666666666</v>
+        <v>45556.47916666666</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <v>2</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M49">
         <v>2</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O49" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="P49" t="s">
         <v>158</v>
       </c>
       <c r="Q49">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R49">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S49">
         <v>5</v>
       </c>
       <c r="T49">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U49">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V49">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W49">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X49">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y49">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z49">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AA49">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AB49">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="AC49">
         <v>1.03</v>
       </c>
       <c r="AD49">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE49">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AF49">
-        <v>4.45</v>
+        <v>3.92</v>
       </c>
       <c r="AG49">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AH49">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI49">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ49">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK49">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AL49">
         <v>1.19</v>
@@ -10889,91 +10889,91 @@
         <v>2.4</v>
       </c>
       <c r="AN49">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AT49">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="AU49">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
         <v>5</v>
       </c>
-      <c r="AW49">
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
         <v>8</v>
       </c>
-      <c r="AX49">
-        <v>5</v>
-      </c>
-      <c r="AY49">
-        <v>18</v>
-      </c>
       <c r="AZ49">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA49">
         <v>7</v>
       </c>
       <c r="BB49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD49">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="BE49">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF49">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BG49">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="BH49">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="BI49">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BJ49">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BK49">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BL49">
-        <v>2.63</v>
+        <v>2.43</v>
       </c>
       <c r="BM49">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="BN49">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="BO49">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="BP49">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10981,7 +10981,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7466104</v>
+        <v>7466107</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10996,10 +10996,10 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11011,13 +11011,13 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O50" t="s">
         <v>126</v>
@@ -11026,160 +11026,160 @@
         <v>159</v>
       </c>
       <c r="Q50">
-        <v>3.1</v>
+        <v>8.5</v>
       </c>
       <c r="R50">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="S50">
-        <v>3.25</v>
+        <v>1.62</v>
       </c>
       <c r="T50">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="U50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V50">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="X50">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Z50">
-        <v>2.1</v>
+        <v>11.5</v>
       </c>
       <c r="AA50">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB50">
-        <v>3.2</v>
+        <v>1.24</v>
       </c>
       <c r="AC50">
         <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>9.699999999999999</v>
+        <v>26</v>
       </c>
       <c r="AE50">
+        <v>1.08</v>
+      </c>
+      <c r="AF50">
+        <v>5.25</v>
+      </c>
+      <c r="AG50">
+        <v>1.36</v>
+      </c>
+      <c r="AH50">
+        <v>2.99</v>
+      </c>
+      <c r="AI50">
+        <v>1.91</v>
+      </c>
+      <c r="AJ50">
+        <v>1.91</v>
+      </c>
+      <c r="AK50">
+        <v>3.76</v>
+      </c>
+      <c r="AL50">
+        <v>1.12</v>
+      </c>
+      <c r="AM50">
+        <v>1.06</v>
+      </c>
+      <c r="AN50">
+        <v>1.5</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>3</v>
+      </c>
+      <c r="AR50">
+        <v>1.65</v>
+      </c>
+      <c r="AS50">
+        <v>2.43</v>
+      </c>
+      <c r="AT50">
+        <v>4.08</v>
+      </c>
+      <c r="AU50">
+        <v>4</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
+        <v>4</v>
+      </c>
+      <c r="AZ50">
+        <v>9</v>
+      </c>
+      <c r="BA50">
+        <v>5</v>
+      </c>
+      <c r="BB50">
+        <v>6</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>5.6</v>
+      </c>
+      <c r="BE50">
+        <v>9.5</v>
+      </c>
+      <c r="BF50">
+        <v>1.16</v>
+      </c>
+      <c r="BG50">
         <v>1.2</v>
       </c>
-      <c r="AF50">
-        <v>3.64</v>
-      </c>
-      <c r="AG50">
-        <v>1.86</v>
-      </c>
-      <c r="AH50">
-        <v>1.94</v>
-      </c>
-      <c r="AI50">
-        <v>1.62</v>
-      </c>
-      <c r="AJ50">
-        <v>2.2</v>
-      </c>
-      <c r="AK50">
-        <v>1.46</v>
-      </c>
-      <c r="AL50">
-        <v>1.3</v>
-      </c>
-      <c r="AM50">
-        <v>1.55</v>
-      </c>
-      <c r="AN50">
-        <v>2</v>
-      </c>
-      <c r="AO50">
-        <v>2</v>
-      </c>
-      <c r="AP50">
-        <v>2.33</v>
-      </c>
-      <c r="AQ50">
-        <v>1.33</v>
-      </c>
-      <c r="AR50">
-        <v>2.16</v>
-      </c>
-      <c r="AS50">
-        <v>1.52</v>
-      </c>
-      <c r="AT50">
-        <v>3.68</v>
-      </c>
-      <c r="AU50">
-        <v>6</v>
-      </c>
-      <c r="AV50">
-        <v>0</v>
-      </c>
-      <c r="AW50">
-        <v>9</v>
-      </c>
-      <c r="AX50">
-        <v>0</v>
-      </c>
-      <c r="AY50">
-        <v>15</v>
-      </c>
-      <c r="AZ50">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>9</v>
-      </c>
-      <c r="BB50">
-        <v>3</v>
-      </c>
-      <c r="BC50">
-        <v>12</v>
-      </c>
-      <c r="BD50">
-        <v>1.84</v>
-      </c>
-      <c r="BE50">
-        <v>6.5</v>
-      </c>
-      <c r="BF50">
-        <v>2.15</v>
-      </c>
-      <c r="BG50">
-        <v>1.21</v>
-      </c>
       <c r="BH50">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="BI50">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BJ50">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BK50">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BL50">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="BM50">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="BN50">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="BO50">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BP50">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11187,7 +11187,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7466105</v>
+        <v>7466106</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11196,190 +11196,190 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45557.39583333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P51" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q51">
+        <v>1.44</v>
+      </c>
+      <c r="R51">
+        <v>3.25</v>
+      </c>
+      <c r="S51">
+        <v>11</v>
+      </c>
+      <c r="T51">
+        <v>1.18</v>
+      </c>
+      <c r="U51">
+        <v>4.5</v>
+      </c>
+      <c r="V51">
+        <v>1.83</v>
+      </c>
+      <c r="W51">
+        <v>1.83</v>
+      </c>
+      <c r="X51">
+        <v>3.75</v>
+      </c>
+      <c r="Y51">
+        <v>1.25</v>
+      </c>
+      <c r="Z51">
+        <v>1.11</v>
+      </c>
+      <c r="AA51">
+        <v>10</v>
+      </c>
+      <c r="AB51">
+        <v>26</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>29</v>
+      </c>
+      <c r="AE51">
+        <v>1.06</v>
+      </c>
+      <c r="AF51">
+        <v>5.75</v>
+      </c>
+      <c r="AG51">
+        <v>1.33</v>
+      </c>
+      <c r="AH51">
+        <v>3.15</v>
+      </c>
+      <c r="AI51">
+        <v>2</v>
+      </c>
+      <c r="AJ51">
+        <v>1.75</v>
+      </c>
+      <c r="AK51">
+        <v>1.01</v>
+      </c>
+      <c r="AL51">
+        <v>1.07</v>
+      </c>
+      <c r="AM51">
+        <v>5.45</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>2.23</v>
+      </c>
+      <c r="AS51">
+        <v>0.82</v>
+      </c>
+      <c r="AT51">
+        <v>3.05</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>12</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>16</v>
+      </c>
+      <c r="AZ51">
+        <v>3</v>
+      </c>
+      <c r="BA51">
         <v>5</v>
       </c>
-      <c r="N51">
-        <v>5</v>
-      </c>
-      <c r="O51" t="s">
-        <v>91</v>
-      </c>
-      <c r="P51" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q51">
-        <v>5.5</v>
-      </c>
-      <c r="R51">
-        <v>2.4</v>
-      </c>
-      <c r="S51">
-        <v>2.1</v>
-      </c>
-      <c r="T51">
-        <v>1.3</v>
-      </c>
-      <c r="U51">
-        <v>3.4</v>
-      </c>
-      <c r="V51">
-        <v>2.5</v>
-      </c>
-      <c r="W51">
-        <v>1.5</v>
-      </c>
-      <c r="X51">
-        <v>6</v>
-      </c>
-      <c r="Y51">
-        <v>1.13</v>
-      </c>
-      <c r="Z51">
-        <v>5</v>
-      </c>
-      <c r="AA51">
-        <v>4.4</v>
-      </c>
-      <c r="AB51">
-        <v>1.58</v>
-      </c>
-      <c r="AC51">
-        <v>1.03</v>
-      </c>
-      <c r="AD51">
-        <v>15</v>
-      </c>
-      <c r="AE51">
-        <v>1.21</v>
-      </c>
-      <c r="AF51">
-        <v>4.25</v>
-      </c>
-      <c r="AG51">
-        <v>1.61</v>
-      </c>
-      <c r="AH51">
-        <v>2.32</v>
-      </c>
-      <c r="AI51">
-        <v>1.8</v>
-      </c>
-      <c r="AJ51">
-        <v>1.95</v>
-      </c>
-      <c r="AK51">
-        <v>2.55</v>
-      </c>
-      <c r="AL51">
-        <v>1.17</v>
-      </c>
-      <c r="AM51">
-        <v>1.14</v>
-      </c>
-      <c r="AN51">
-        <v>0.33</v>
-      </c>
-      <c r="AO51">
-        <v>1.5</v>
-      </c>
-      <c r="AP51">
-        <v>0.25</v>
-      </c>
-      <c r="AQ51">
-        <v>2</v>
-      </c>
-      <c r="AR51">
-        <v>0.82</v>
-      </c>
-      <c r="AS51">
-        <v>1.73</v>
-      </c>
-      <c r="AT51">
-        <v>2.55</v>
-      </c>
-      <c r="AU51">
-        <v>5</v>
-      </c>
-      <c r="AV51">
-        <v>9</v>
-      </c>
-      <c r="AW51">
-        <v>8</v>
-      </c>
-      <c r="AX51">
-        <v>4</v>
-      </c>
-      <c r="AY51">
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>7</v>
+      </c>
+      <c r="BD51">
+        <v>1.1</v>
+      </c>
+      <c r="BE51">
         <v>13</v>
       </c>
-      <c r="AZ51">
-        <v>13</v>
-      </c>
-      <c r="BA51">
-        <v>7</v>
-      </c>
-      <c r="BB51">
-        <v>5</v>
-      </c>
-      <c r="BC51">
-        <v>12</v>
-      </c>
-      <c r="BD51">
-        <v>3.05</v>
-      </c>
-      <c r="BE51">
-        <v>6.75</v>
-      </c>
       <c r="BF51">
-        <v>1.45</v>
+        <v>8.75</v>
       </c>
       <c r="BG51">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="BH51">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BI51">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BJ51">
         <v>2.65</v>
       </c>
       <c r="BK51">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="BL51">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="BM51">
         <v>2.02</v>
       </c>
       <c r="BN51">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="BO51">
         <v>2.55</v>
@@ -11393,7 +11393,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7466106</v>
+        <v>7466104</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11402,169 +11402,169 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45557.39583333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>2</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P52" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="Q52">
+        <v>3.1</v>
+      </c>
+      <c r="R52">
+        <v>2.25</v>
+      </c>
+      <c r="S52">
+        <v>3.25</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>2.63</v>
+      </c>
+      <c r="W52">
         <v>1.44</v>
       </c>
-      <c r="R52">
-        <v>3.25</v>
-      </c>
-      <c r="S52">
-        <v>11</v>
-      </c>
-      <c r="T52">
-        <v>1.18</v>
-      </c>
-      <c r="U52">
-        <v>4.5</v>
-      </c>
-      <c r="V52">
-        <v>1.83</v>
-      </c>
-      <c r="W52">
-        <v>1.83</v>
-      </c>
       <c r="X52">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Y52">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Z52">
-        <v>1.11</v>
+        <v>2.1</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="AB52">
-        <v>26</v>
+        <v>3.2</v>
       </c>
       <c r="AC52">
         <v>1.01</v>
       </c>
       <c r="AD52">
-        <v>29</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE52">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AF52">
-        <v>5.75</v>
+        <v>3.64</v>
       </c>
       <c r="AG52">
+        <v>1.86</v>
+      </c>
+      <c r="AH52">
+        <v>1.94</v>
+      </c>
+      <c r="AI52">
+        <v>1.62</v>
+      </c>
+      <c r="AJ52">
+        <v>2.2</v>
+      </c>
+      <c r="AK52">
+        <v>1.46</v>
+      </c>
+      <c r="AL52">
+        <v>1.3</v>
+      </c>
+      <c r="AM52">
+        <v>1.55</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>2.33</v>
+      </c>
+      <c r="AQ52">
         <v>1.33</v>
       </c>
-      <c r="AH52">
-        <v>3.15</v>
-      </c>
-      <c r="AI52">
-        <v>2</v>
-      </c>
-      <c r="AJ52">
-        <v>1.75</v>
-      </c>
-      <c r="AK52">
-        <v>1.01</v>
-      </c>
-      <c r="AL52">
-        <v>1.07</v>
-      </c>
-      <c r="AM52">
-        <v>5.45</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AP52">
-        <v>2</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
-      </c>
       <c r="AR52">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="AS52">
-        <v>0.82</v>
+        <v>1.52</v>
       </c>
       <c r="AT52">
-        <v>3.05</v>
+        <v>3.68</v>
       </c>
       <c r="AU52">
         <v>6</v>
       </c>
       <c r="AV52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW52">
+        <v>9</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>15</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>9</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
         <v>12</v>
       </c>
-      <c r="AX52">
-        <v>2</v>
-      </c>
-      <c r="AY52">
-        <v>18</v>
-      </c>
-      <c r="AZ52">
-        <v>4</v>
-      </c>
-      <c r="BA52">
-        <v>5</v>
-      </c>
-      <c r="BB52">
-        <v>2</v>
-      </c>
-      <c r="BC52">
-        <v>7</v>
-      </c>
       <c r="BD52">
-        <v>1.1</v>
+        <v>1.84</v>
       </c>
       <c r="BE52">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="BF52">
-        <v>8.75</v>
+        <v>2.15</v>
       </c>
       <c r="BG52">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BH52">
         <v>3.7</v>
@@ -11573,19 +11573,19 @@
         <v>1.4</v>
       </c>
       <c r="BJ52">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BK52">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="BL52">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BM52">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="BN52">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="BO52">
         <v>2.55</v>
@@ -11599,7 +11599,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7466107</v>
+        <v>7466105</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11608,196 +11608,196 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45557.48958333334</v>
+        <v>45556.875</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53">
         <v>2</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O53" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="P53" t="s">
         <v>161</v>
       </c>
       <c r="Q53">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="R53">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="S53">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="T53">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="U53">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W53">
+        <v>1.5</v>
+      </c>
+      <c r="X53">
+        <v>6</v>
+      </c>
+      <c r="Y53">
+        <v>1.13</v>
+      </c>
+      <c r="Z53">
+        <v>5</v>
+      </c>
+      <c r="AA53">
+        <v>4.4</v>
+      </c>
+      <c r="AB53">
+        <v>1.58</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>15</v>
+      </c>
+      <c r="AE53">
+        <v>1.21</v>
+      </c>
+      <c r="AF53">
+        <v>4.25</v>
+      </c>
+      <c r="AG53">
+        <v>1.61</v>
+      </c>
+      <c r="AH53">
+        <v>2.32</v>
+      </c>
+      <c r="AI53">
+        <v>1.8</v>
+      </c>
+      <c r="AJ53">
+        <v>1.95</v>
+      </c>
+      <c r="AK53">
+        <v>2.55</v>
+      </c>
+      <c r="AL53">
+        <v>1.17</v>
+      </c>
+      <c r="AM53">
+        <v>1.14</v>
+      </c>
+      <c r="AN53">
+        <v>0.33</v>
+      </c>
+      <c r="AO53">
+        <v>1.5</v>
+      </c>
+      <c r="AP53">
+        <v>0.25</v>
+      </c>
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>0.82</v>
+      </c>
+      <c r="AS53">
         <v>1.73</v>
       </c>
-      <c r="X53">
-        <v>4.33</v>
-      </c>
-      <c r="Y53">
-        <v>1.2</v>
-      </c>
-      <c r="Z53">
-        <v>11.5</v>
-      </c>
-      <c r="AA53">
-        <v>6.5</v>
-      </c>
-      <c r="AB53">
-        <v>1.24</v>
-      </c>
-      <c r="AC53">
-        <v>1.01</v>
-      </c>
-      <c r="AD53">
-        <v>26</v>
-      </c>
-      <c r="AE53">
-        <v>1.08</v>
-      </c>
-      <c r="AF53">
-        <v>5.25</v>
-      </c>
-      <c r="AG53">
-        <v>1.36</v>
-      </c>
-      <c r="AH53">
-        <v>2.99</v>
-      </c>
-      <c r="AI53">
-        <v>1.91</v>
-      </c>
-      <c r="AJ53">
-        <v>1.91</v>
-      </c>
-      <c r="AK53">
-        <v>3.76</v>
-      </c>
-      <c r="AL53">
-        <v>1.12</v>
-      </c>
-      <c r="AM53">
-        <v>1.06</v>
-      </c>
-      <c r="AN53">
-        <v>1.5</v>
-      </c>
-      <c r="AO53">
-        <v>3</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53">
-        <v>3</v>
-      </c>
-      <c r="AR53">
-        <v>1.65</v>
-      </c>
-      <c r="AS53">
-        <v>2.43</v>
-      </c>
       <c r="AT53">
-        <v>4.08</v>
+        <v>2.55</v>
       </c>
       <c r="AU53">
+        <v>6</v>
+      </c>
+      <c r="AV53">
+        <v>7</v>
+      </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
+      <c r="AX53">
+        <v>2</v>
+      </c>
+      <c r="AY53">
+        <v>12</v>
+      </c>
+      <c r="AZ53">
+        <v>9</v>
+      </c>
+      <c r="BA53">
+        <v>7</v>
+      </c>
+      <c r="BB53">
         <v>5</v>
       </c>
-      <c r="AV53">
-        <v>8</v>
-      </c>
-      <c r="AW53">
-        <v>1</v>
-      </c>
-      <c r="AX53">
-        <v>5</v>
-      </c>
-      <c r="AY53">
-        <v>6</v>
-      </c>
-      <c r="AZ53">
-        <v>13</v>
-      </c>
-      <c r="BA53">
-        <v>5</v>
-      </c>
-      <c r="BB53">
-        <v>6</v>
-      </c>
       <c r="BC53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD53">
-        <v>5.6</v>
+        <v>3.05</v>
       </c>
       <c r="BE53">
-        <v>9.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF53">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="BG53">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BH53">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BI53">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="BJ53">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BK53">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="BL53">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="BM53">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="BN53">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BO53">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BP53">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11814,7 +11814,7 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45562.625</v>
+        <v>45561.875</v>
       </c>
       <c r="F54">
         <v>7</v>
@@ -11940,22 +11940,22 @@
         <v>2.59</v>
       </c>
       <c r="AU54">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW54">
         <v>6</v>
       </c>
       <c r="AX54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY54">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ54">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA54">
         <v>9</v>
@@ -12011,7 +12011,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7466112</v>
+        <v>7466110</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12020,196 +12020,196 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45563.47916666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F55">
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="P55" t="s">
         <v>163</v>
       </c>
       <c r="Q55">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="R55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="S55">
+        <v>2.05</v>
+      </c>
+      <c r="T55">
+        <v>1.29</v>
+      </c>
+      <c r="U55">
+        <v>3.5</v>
+      </c>
+      <c r="V55">
+        <v>2.25</v>
+      </c>
+      <c r="W55">
+        <v>1.57</v>
+      </c>
+      <c r="X55">
+        <v>5.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.14</v>
+      </c>
+      <c r="Z55">
+        <v>5.8</v>
+      </c>
+      <c r="AA55">
+        <v>4.5</v>
+      </c>
+      <c r="AB55">
+        <v>1.49</v>
+      </c>
+      <c r="AC55">
+        <v>1.03</v>
+      </c>
+      <c r="AD55">
+        <v>19.25</v>
+      </c>
+      <c r="AE55">
+        <v>1.12</v>
+      </c>
+      <c r="AF55">
+        <v>4.45</v>
+      </c>
+      <c r="AG55">
+        <v>1.6</v>
+      </c>
+      <c r="AH55">
+        <v>2.33</v>
+      </c>
+      <c r="AI55">
         <v>1.62</v>
       </c>
-      <c r="T55">
-        <v>1.2</v>
-      </c>
-      <c r="U55">
-        <v>4.33</v>
-      </c>
-      <c r="V55">
-        <v>1.91</v>
-      </c>
-      <c r="W55">
-        <v>1.8</v>
-      </c>
-      <c r="X55">
+      <c r="AJ55">
+        <v>2.2</v>
+      </c>
+      <c r="AK55">
+        <v>2.38</v>
+      </c>
+      <c r="AL55">
+        <v>1.21</v>
+      </c>
+      <c r="AM55">
+        <v>1.16</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>1.67</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1.5</v>
+      </c>
+      <c r="AR55">
+        <v>1.18</v>
+      </c>
+      <c r="AS55">
+        <v>1.84</v>
+      </c>
+      <c r="AT55">
+        <v>3.02</v>
+      </c>
+      <c r="AU55">
         <v>4</v>
       </c>
-      <c r="Y55">
-        <v>1.22</v>
-      </c>
-      <c r="Z55">
-        <v>7.6</v>
-      </c>
-      <c r="AA55">
-        <v>6.55</v>
-      </c>
-      <c r="AB55">
-        <v>1.29</v>
-      </c>
-      <c r="AC55">
-        <v>1.01</v>
-      </c>
-      <c r="AD55">
-        <v>34</v>
-      </c>
-      <c r="AE55">
-        <v>1.06</v>
-      </c>
-      <c r="AF55">
-        <v>5.75</v>
-      </c>
-      <c r="AG55">
-        <v>1.33</v>
-      </c>
-      <c r="AH55">
-        <v>3.15</v>
-      </c>
-      <c r="AI55">
-        <v>1.75</v>
-      </c>
-      <c r="AJ55">
-        <v>2</v>
-      </c>
-      <c r="AK55">
-        <v>3.75</v>
-      </c>
-      <c r="AL55">
-        <v>1.12</v>
-      </c>
-      <c r="AM55">
-        <v>1.05</v>
-      </c>
-      <c r="AN55">
-        <v>2</v>
-      </c>
-      <c r="AO55">
-        <v>3</v>
-      </c>
-      <c r="AP55">
-        <v>1.5</v>
-      </c>
-      <c r="AQ55">
-        <v>3</v>
-      </c>
-      <c r="AR55">
-        <v>1.25</v>
-      </c>
-      <c r="AS55">
-        <v>2.26</v>
-      </c>
-      <c r="AT55">
-        <v>3.51</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
       <c r="AV55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ55">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA55">
         <v>3</v>
       </c>
       <c r="BB55">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BC55">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD55">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="BE55">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF55">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="BG55">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="BH55">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="BI55">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="BJ55">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BK55">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="BL55">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="BM55">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="BN55">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="BO55">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="BP55">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12217,7 +12217,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7466110</v>
+        <v>7466111</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12226,25 +12226,25 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45563.57291666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F56">
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -12256,166 +12256,166 @@
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="P56" t="s">
         <v>164</v>
       </c>
       <c r="Q56">
+        <v>2.4</v>
+      </c>
+      <c r="R56">
+        <v>2.2</v>
+      </c>
+      <c r="S56">
+        <v>4.75</v>
+      </c>
+      <c r="T56">
+        <v>1.36</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>2.75</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>8</v>
+      </c>
+      <c r="Y56">
+        <v>1.08</v>
+      </c>
+      <c r="Z56">
+        <v>1.83</v>
+      </c>
+      <c r="AA56">
+        <v>3.7</v>
+      </c>
+      <c r="AB56">
+        <v>4.25</v>
+      </c>
+      <c r="AC56">
+        <v>1.02</v>
+      </c>
+      <c r="AD56">
+        <v>10.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.25</v>
+      </c>
+      <c r="AF56">
+        <v>3.6</v>
+      </c>
+      <c r="AG56">
+        <v>1.86</v>
+      </c>
+      <c r="AH56">
+        <v>1.89</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.95</v>
+      </c>
+      <c r="AK56">
+        <v>1.18</v>
+      </c>
+      <c r="AL56">
+        <v>1.27</v>
+      </c>
+      <c r="AM56">
+        <v>1.95</v>
+      </c>
+      <c r="AN56">
+        <v>0.67</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>0.75</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.49</v>
+      </c>
+      <c r="AS56">
+        <v>0.99</v>
+      </c>
+      <c r="AT56">
+        <v>2.48</v>
+      </c>
+      <c r="AU56">
+        <v>6</v>
+      </c>
+      <c r="AV56">
+        <v>6</v>
+      </c>
+      <c r="AW56">
+        <v>10</v>
+      </c>
+      <c r="AX56">
+        <v>3</v>
+      </c>
+      <c r="AY56">
+        <v>16</v>
+      </c>
+      <c r="AZ56">
+        <v>9</v>
+      </c>
+      <c r="BA56">
+        <v>9</v>
+      </c>
+      <c r="BB56">
         <v>5</v>
       </c>
-      <c r="R56">
-        <v>2.5</v>
-      </c>
-      <c r="S56">
-        <v>2.05</v>
-      </c>
-      <c r="T56">
-        <v>1.29</v>
-      </c>
-      <c r="U56">
-        <v>3.5</v>
-      </c>
-      <c r="V56">
-        <v>2.25</v>
-      </c>
-      <c r="W56">
+      <c r="BC56">
+        <v>14</v>
+      </c>
+      <c r="BD56">
+        <v>1.64</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>2.64</v>
+      </c>
+      <c r="BG56">
+        <v>1.28</v>
+      </c>
+      <c r="BH56">
+        <v>3.25</v>
+      </c>
+      <c r="BI56">
+        <v>1.48</v>
+      </c>
+      <c r="BJ56">
+        <v>2.45</v>
+      </c>
+      <c r="BK56">
+        <v>1.77</v>
+      </c>
+      <c r="BL56">
+        <v>1.92</v>
+      </c>
+      <c r="BM56">
+        <v>2.2</v>
+      </c>
+      <c r="BN56">
         <v>1.57</v>
       </c>
-      <c r="X56">
-        <v>5.5</v>
-      </c>
-      <c r="Y56">
-        <v>1.14</v>
-      </c>
-      <c r="Z56">
-        <v>5.8</v>
-      </c>
-      <c r="AA56">
-        <v>4.5</v>
-      </c>
-      <c r="AB56">
-        <v>1.49</v>
-      </c>
-      <c r="AC56">
-        <v>1.03</v>
-      </c>
-      <c r="AD56">
-        <v>19.25</v>
-      </c>
-      <c r="AE56">
-        <v>1.12</v>
-      </c>
-      <c r="AF56">
-        <v>4.45</v>
-      </c>
-      <c r="AG56">
-        <v>1.6</v>
-      </c>
-      <c r="AH56">
-        <v>2.33</v>
-      </c>
-      <c r="AI56">
-        <v>1.62</v>
-      </c>
-      <c r="AJ56">
-        <v>2.2</v>
-      </c>
-      <c r="AK56">
-        <v>2.38</v>
-      </c>
-      <c r="AL56">
-        <v>1.21</v>
-      </c>
-      <c r="AM56">
-        <v>1.16</v>
-      </c>
-      <c r="AN56">
-        <v>1</v>
-      </c>
-      <c r="AO56">
-        <v>1.67</v>
-      </c>
-      <c r="AP56">
-        <v>1</v>
-      </c>
-      <c r="AQ56">
-        <v>1.5</v>
-      </c>
-      <c r="AR56">
-        <v>1.55</v>
-      </c>
-      <c r="AS56">
-        <v>1.84</v>
-      </c>
-      <c r="AT56">
-        <v>3.39</v>
-      </c>
-      <c r="AU56">
-        <v>5</v>
-      </c>
-      <c r="AV56">
-        <v>7</v>
-      </c>
-      <c r="AW56">
-        <v>5</v>
-      </c>
-      <c r="AX56">
-        <v>8</v>
-      </c>
-      <c r="AY56">
-        <v>10</v>
-      </c>
-      <c r="AZ56">
-        <v>15</v>
-      </c>
-      <c r="BA56">
-        <v>3</v>
-      </c>
-      <c r="BB56">
-        <v>9</v>
-      </c>
-      <c r="BC56">
-        <v>12</v>
-      </c>
-      <c r="BD56">
-        <v>2.9</v>
-      </c>
-      <c r="BE56">
-        <v>7</v>
-      </c>
-      <c r="BF56">
-        <v>1.49</v>
-      </c>
-      <c r="BG56">
-        <v>1.21</v>
-      </c>
-      <c r="BH56">
-        <v>3.8</v>
-      </c>
-      <c r="BI56">
-        <v>1.37</v>
-      </c>
-      <c r="BJ56">
+      <c r="BO56">
         <v>2.8</v>
       </c>
-      <c r="BK56">
-        <v>1.63</v>
-      </c>
-      <c r="BL56">
-        <v>2.12</v>
-      </c>
-      <c r="BM56">
-        <v>1.98</v>
-      </c>
-      <c r="BN56">
-        <v>1.82</v>
-      </c>
-      <c r="BO56">
-        <v>2.48</v>
-      </c>
       <c r="BP56">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12423,7 +12423,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7466111</v>
+        <v>7466112</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12432,196 +12432,196 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45563.66666666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F57">
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="P57" t="s">
         <v>165</v>
       </c>
       <c r="Q57">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="R57">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="S57">
-        <v>4.75</v>
+        <v>1.62</v>
       </c>
       <c r="T57">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U57">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="V57">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="W57">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X57">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y57">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="Z57">
-        <v>1.83</v>
+        <v>7.6</v>
       </c>
       <c r="AA57">
-        <v>3.7</v>
+        <v>6.55</v>
       </c>
       <c r="AB57">
-        <v>4.25</v>
+        <v>1.29</v>
       </c>
       <c r="AC57">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD57">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AE57">
+        <v>1.06</v>
+      </c>
+      <c r="AF57">
+        <v>5.75</v>
+      </c>
+      <c r="AG57">
+        <v>1.33</v>
+      </c>
+      <c r="AH57">
+        <v>3.15</v>
+      </c>
+      <c r="AI57">
+        <v>1.75</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>3.75</v>
+      </c>
+      <c r="AL57">
+        <v>1.12</v>
+      </c>
+      <c r="AM57">
+        <v>1.05</v>
+      </c>
+      <c r="AN57">
+        <v>2</v>
+      </c>
+      <c r="AO57">
+        <v>3</v>
+      </c>
+      <c r="AP57">
+        <v>1.5</v>
+      </c>
+      <c r="AQ57">
+        <v>3</v>
+      </c>
+      <c r="AR57">
         <v>1.25</v>
       </c>
-      <c r="AF57">
-        <v>3.6</v>
-      </c>
-      <c r="AG57">
-        <v>1.86</v>
-      </c>
-      <c r="AH57">
-        <v>1.89</v>
-      </c>
-      <c r="AI57">
-        <v>1.8</v>
-      </c>
-      <c r="AJ57">
-        <v>1.95</v>
-      </c>
-      <c r="AK57">
-        <v>1.18</v>
-      </c>
-      <c r="AL57">
-        <v>1.27</v>
-      </c>
-      <c r="AM57">
-        <v>1.95</v>
-      </c>
-      <c r="AN57">
-        <v>0.67</v>
-      </c>
-      <c r="AO57">
-        <v>1</v>
-      </c>
-      <c r="AP57">
-        <v>0.75</v>
-      </c>
-      <c r="AQ57">
-        <v>1</v>
-      </c>
-      <c r="AR57">
-        <v>1.49</v>
-      </c>
       <c r="AS57">
-        <v>0.99</v>
+        <v>2.43</v>
       </c>
       <c r="AT57">
-        <v>2.48</v>
+        <v>3.68</v>
       </c>
       <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>2</v>
+      </c>
+      <c r="AW57">
+        <v>6</v>
+      </c>
+      <c r="AX57">
         <v>7</v>
       </c>
-      <c r="AV57">
+      <c r="AY57">
         <v>6</v>
-      </c>
-      <c r="AW57">
-        <v>11</v>
-      </c>
-      <c r="AX57">
-        <v>3</v>
-      </c>
-      <c r="AY57">
-        <v>18</v>
       </c>
       <c r="AZ57">
         <v>9</v>
       </c>
       <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>6</v>
+      </c>
+      <c r="BC57">
         <v>9</v>
       </c>
-      <c r="BB57">
-        <v>5</v>
-      </c>
-      <c r="BC57">
-        <v>14</v>
-      </c>
       <c r="BD57">
-        <v>1.64</v>
+        <v>4.1</v>
       </c>
       <c r="BE57">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF57">
-        <v>2.64</v>
+        <v>1.28</v>
       </c>
       <c r="BG57">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="BH57">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="BI57">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="BJ57">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BK57">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="BL57">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="BM57">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="BN57">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="BO57">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BP57">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12629,7 +12629,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7466113</v>
+        <v>7466109</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12638,16 +12638,16 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45564.30208333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F58">
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -12674,160 +12674,160 @@
         <v>91</v>
       </c>
       <c r="Q58">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="R58">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="S58">
+        <v>8.5</v>
+      </c>
+      <c r="T58">
+        <v>1.22</v>
+      </c>
+      <c r="U58">
         <v>4</v>
       </c>
-      <c r="T58">
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>1.73</v>
+      </c>
+      <c r="X58">
+        <v>4.33</v>
+      </c>
+      <c r="Y58">
+        <v>1.2</v>
+      </c>
+      <c r="Z58">
+        <v>1.33</v>
+      </c>
+      <c r="AA58">
+        <v>5.75</v>
+      </c>
+      <c r="AB58">
+        <v>8.5</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>29</v>
+      </c>
+      <c r="AE58">
+        <v>1.11</v>
+      </c>
+      <c r="AF58">
+        <v>6.28</v>
+      </c>
+      <c r="AG58">
+        <v>1.4</v>
+      </c>
+      <c r="AH58">
+        <v>2.75</v>
+      </c>
+      <c r="AI58">
+        <v>1.95</v>
+      </c>
+      <c r="AJ58">
+        <v>1.8</v>
+      </c>
+      <c r="AK58">
+        <v>1.01</v>
+      </c>
+      <c r="AL58">
+        <v>1.08</v>
+      </c>
+      <c r="AM58">
+        <v>4.33</v>
+      </c>
+      <c r="AN58">
+        <v>1.67</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>2.11</v>
+      </c>
+      <c r="AS58">
+        <v>0.82</v>
+      </c>
+      <c r="AT58">
+        <v>2.93</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>7</v>
+      </c>
+      <c r="BA58">
+        <v>5</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>8</v>
+      </c>
+      <c r="BD58">
+        <v>1.19</v>
+      </c>
+      <c r="BE58">
+        <v>11</v>
+      </c>
+      <c r="BF58">
+        <v>5.67</v>
+      </c>
+      <c r="BG58">
+        <v>1.29</v>
+      </c>
+      <c r="BH58">
+        <v>3.2</v>
+      </c>
+      <c r="BI58">
+        <v>1.45</v>
+      </c>
+      <c r="BJ58">
+        <v>2.38</v>
+      </c>
+      <c r="BK58">
+        <v>1.8</v>
+      </c>
+      <c r="BL58">
+        <v>1.88</v>
+      </c>
+      <c r="BM58">
+        <v>2.2</v>
+      </c>
+      <c r="BN58">
+        <v>1.65</v>
+      </c>
+      <c r="BO58">
+        <v>2.92</v>
+      </c>
+      <c r="BP58">
         <v>1.36</v>
-      </c>
-      <c r="U58">
-        <v>3</v>
-      </c>
-      <c r="V58">
-        <v>2.63</v>
-      </c>
-      <c r="W58">
-        <v>1.44</v>
-      </c>
-      <c r="X58">
-        <v>7</v>
-      </c>
-      <c r="Y58">
-        <v>1.1</v>
-      </c>
-      <c r="Z58">
-        <v>1.91</v>
-      </c>
-      <c r="AA58">
-        <v>3.7</v>
-      </c>
-      <c r="AB58">
-        <v>3.75</v>
-      </c>
-      <c r="AC58">
-        <v>1.01</v>
-      </c>
-      <c r="AD58">
-        <v>11</v>
-      </c>
-      <c r="AE58">
-        <v>1.2</v>
-      </c>
-      <c r="AF58">
-        <v>4</v>
-      </c>
-      <c r="AG58">
-        <v>1.73</v>
-      </c>
-      <c r="AH58">
-        <v>2</v>
-      </c>
-      <c r="AI58">
-        <v>1.67</v>
-      </c>
-      <c r="AJ58">
-        <v>2.1</v>
-      </c>
-      <c r="AK58">
-        <v>1.25</v>
-      </c>
-      <c r="AL58">
-        <v>1.28</v>
-      </c>
-      <c r="AM58">
-        <v>1.77</v>
-      </c>
-      <c r="AN58">
-        <v>1</v>
-      </c>
-      <c r="AO58">
-        <v>0.5</v>
-      </c>
-      <c r="AP58">
-        <v>1.5</v>
-      </c>
-      <c r="AQ58">
-        <v>0.33</v>
-      </c>
-      <c r="AR58">
-        <v>1.08</v>
-      </c>
-      <c r="AS58">
-        <v>1.15</v>
-      </c>
-      <c r="AT58">
-        <v>2.23</v>
-      </c>
-      <c r="AU58">
-        <v>4</v>
-      </c>
-      <c r="AV58">
-        <v>7</v>
-      </c>
-      <c r="AW58">
-        <v>5</v>
-      </c>
-      <c r="AX58">
-        <v>6</v>
-      </c>
-      <c r="AY58">
-        <v>9</v>
-      </c>
-      <c r="AZ58">
-        <v>13</v>
-      </c>
-      <c r="BA58">
-        <v>6</v>
-      </c>
-      <c r="BB58">
-        <v>8</v>
-      </c>
-      <c r="BC58">
-        <v>14</v>
-      </c>
-      <c r="BD58">
-        <v>1.82</v>
-      </c>
-      <c r="BE58">
-        <v>8</v>
-      </c>
-      <c r="BF58">
-        <v>2.33</v>
-      </c>
-      <c r="BG58">
-        <v>1.26</v>
-      </c>
-      <c r="BH58">
-        <v>3.4</v>
-      </c>
-      <c r="BI58">
-        <v>1.46</v>
-      </c>
-      <c r="BJ58">
-        <v>2.48</v>
-      </c>
-      <c r="BK58">
-        <v>1.75</v>
-      </c>
-      <c r="BL58">
-        <v>1.95</v>
-      </c>
-      <c r="BM58">
-        <v>2.17</v>
-      </c>
-      <c r="BN58">
-        <v>1.61</v>
-      </c>
-      <c r="BO58">
-        <v>2.75</v>
-      </c>
-      <c r="BP58">
-        <v>1.38</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12835,7 +12835,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7466114</v>
+        <v>7466113</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12844,16 +12844,16 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45564.39583333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F59">
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -12865,34 +12865,34 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="O59" t="s">
+        <v>132</v>
+      </c>
+      <c r="P59" t="s">
         <v>91</v>
       </c>
-      <c r="P59" t="s">
-        <v>97</v>
-      </c>
       <c r="Q59">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R59">
         <v>2.25</v>
       </c>
       <c r="S59">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T59">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U59">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V59">
         <v>2.63</v>
@@ -12901,139 +12901,139 @@
         <v>1.44</v>
       </c>
       <c r="X59">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y59">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z59">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="AA59">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB59">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="AC59">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE59">
+        <v>1.2</v>
+      </c>
+      <c r="AF59">
+        <v>4</v>
+      </c>
+      <c r="AG59">
+        <v>1.73</v>
+      </c>
+      <c r="AH59">
+        <v>2</v>
+      </c>
+      <c r="AI59">
+        <v>1.67</v>
+      </c>
+      <c r="AJ59">
+        <v>2.1</v>
+      </c>
+      <c r="AK59">
         <v>1.25</v>
       </c>
-      <c r="AF59">
-        <v>3.85</v>
-      </c>
-      <c r="AG59">
-        <v>1.8</v>
-      </c>
-      <c r="AH59">
-        <v>1.91</v>
-      </c>
-      <c r="AI59">
-        <v>1.62</v>
-      </c>
-      <c r="AJ59">
-        <v>2.2</v>
-      </c>
-      <c r="AK59">
-        <v>1.36</v>
-      </c>
       <c r="AL59">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM59">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AN59">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR59">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT59">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU59">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV59">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW59">
         <v>4</v>
       </c>
       <c r="AX59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY59">
+        <v>13</v>
+      </c>
+      <c r="AZ59">
+        <v>10</v>
+      </c>
+      <c r="BA59">
         <v>6</v>
       </c>
-      <c r="AZ59">
-        <v>9</v>
-      </c>
-      <c r="BA59">
-        <v>7</v>
-      </c>
       <c r="BB59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC59">
         <v>14</v>
       </c>
       <c r="BD59">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="BE59">
         <v>8</v>
       </c>
       <c r="BF59">
-        <v>2.42</v>
+        <v>2.33</v>
       </c>
       <c r="BG59">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BH59">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI59">
+        <v>1.46</v>
+      </c>
+      <c r="BJ59">
+        <v>2.48</v>
+      </c>
+      <c r="BK59">
+        <v>1.75</v>
+      </c>
+      <c r="BL59">
+        <v>1.95</v>
+      </c>
+      <c r="BM59">
+        <v>2.17</v>
+      </c>
+      <c r="BN59">
+        <v>1.61</v>
+      </c>
+      <c r="BO59">
+        <v>2.75</v>
+      </c>
+      <c r="BP59">
         <v>1.38</v>
-      </c>
-      <c r="BJ59">
-        <v>2.7</v>
-      </c>
-      <c r="BK59">
-        <v>1.65</v>
-      </c>
-      <c r="BL59">
-        <v>2.08</v>
-      </c>
-      <c r="BM59">
-        <v>2.02</v>
-      </c>
-      <c r="BN59">
-        <v>1.68</v>
-      </c>
-      <c r="BO59">
-        <v>2.55</v>
-      </c>
-      <c r="BP59">
-        <v>1.43</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13041,7 +13041,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7466109</v>
+        <v>7466114</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13050,16 +13050,16 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45564.39583333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F60">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -13071,175 +13071,175 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>1</v>
       </c>
       <c r="O60" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q60">
+        <v>2.75</v>
+      </c>
+      <c r="R60">
+        <v>2.25</v>
+      </c>
+      <c r="S60">
+        <v>3.6</v>
+      </c>
+      <c r="T60">
+        <v>1.33</v>
+      </c>
+      <c r="U60">
+        <v>3.25</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.11</v>
+      </c>
+      <c r="Z60">
+        <v>2.3</v>
+      </c>
+      <c r="AA60">
+        <v>3.5</v>
+      </c>
+      <c r="AB60">
+        <v>2.9</v>
+      </c>
+      <c r="AC60">
+        <v>1.04</v>
+      </c>
+      <c r="AD60">
+        <v>10</v>
+      </c>
+      <c r="AE60">
+        <v>1.25</v>
+      </c>
+      <c r="AF60">
+        <v>3.85</v>
+      </c>
+      <c r="AG60">
+        <v>1.8</v>
+      </c>
+      <c r="AH60">
+        <v>1.91</v>
+      </c>
+      <c r="AI60">
         <v>1.62</v>
       </c>
-      <c r="R60">
-        <v>2.88</v>
-      </c>
-      <c r="S60">
-        <v>8.5</v>
-      </c>
-      <c r="T60">
-        <v>1.22</v>
-      </c>
-      <c r="U60">
-        <v>4</v>
-      </c>
-      <c r="V60">
-        <v>2</v>
-      </c>
-      <c r="W60">
-        <v>1.73</v>
-      </c>
-      <c r="X60">
-        <v>4.33</v>
-      </c>
-      <c r="Y60">
-        <v>1.2</v>
-      </c>
-      <c r="Z60">
-        <v>1.33</v>
-      </c>
-      <c r="AA60">
-        <v>5.75</v>
-      </c>
-      <c r="AB60">
-        <v>8.5</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>29</v>
-      </c>
-      <c r="AE60">
-        <v>1.11</v>
-      </c>
-      <c r="AF60">
-        <v>6.28</v>
-      </c>
-      <c r="AG60">
-        <v>1.4</v>
-      </c>
-      <c r="AH60">
-        <v>2.75</v>
-      </c>
-      <c r="AI60">
-        <v>1.95</v>
-      </c>
       <c r="AJ60">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK60">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="AL60">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="AM60">
-        <v>4.33</v>
+        <v>1.72</v>
       </c>
       <c r="AN60">
         <v>1.67</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
-        <v>2.11</v>
+        <v>1.17</v>
       </c>
       <c r="AS60">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="AU60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW60">
         <v>4</v>
       </c>
       <c r="AX60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY60">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ60">
         <v>7</v>
       </c>
       <c r="BA60">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC60">
+        <v>14</v>
+      </c>
+      <c r="BD60">
+        <v>1.75</v>
+      </c>
+      <c r="BE60">
         <v>8</v>
       </c>
-      <c r="BD60">
-        <v>1.19</v>
-      </c>
-      <c r="BE60">
-        <v>11</v>
-      </c>
       <c r="BF60">
-        <v>5.67</v>
+        <v>2.42</v>
       </c>
       <c r="BG60">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="BH60">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="BI60">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BJ60">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="BK60">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BL60">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="BM60">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="BN60">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="BO60">
-        <v>2.92</v>
+        <v>2.55</v>
       </c>
       <c r="BP60">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13256,7 +13256,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45564.48958333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -13385,19 +13385,19 @@
         <v>2</v>
       </c>
       <c r="AV61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW61">
         <v>0</v>
       </c>
       <c r="AX61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY61">
         <v>2</v>
       </c>
       <c r="AZ61">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA61">
         <v>2</v>
@@ -13462,7 +13462,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45564.625</v>
+        <v>45563.875</v>
       </c>
       <c r="F62">
         <v>7</v>
@@ -13588,22 +13588,22 @@
         <v>3.93</v>
       </c>
       <c r="AU62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY62">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA62">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -271,12 +271,12 @@
     <t>Heracles</t>
   </si>
   <si>
+    <t>PEC Zwolle</t>
+  </si>
+  <si>
     <t>Willem II</t>
   </si>
   <si>
-    <t>PEC Zwolle</t>
-  </si>
-  <si>
     <t>NAC Breda</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['21', '28']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>['11', '27', '63']</t>
   </si>
   <si>
+    <t>['11', '16']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
-    <t>['11', '16']</t>
-  </si>
-  <si>
     <t>['81', '90+1']</t>
   </si>
   <si>
@@ -388,33 +388,33 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['11', '37', '53']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
-    <t>['11', '37', '53']</t>
+    <t>['12', '69']</t>
+  </si>
+  <si>
+    <t>['34', '74']</t>
   </si>
   <si>
     <t>['32']</t>
   </si>
   <si>
-    <t>['34', '74']</t>
-  </si>
-  <si>
-    <t>['12', '69']</t>
-  </si>
-  <si>
     <t>['25', '87']</t>
   </si>
   <si>
     <t>['3']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['76']</t>
   </si>
   <si>
-    <t>['78']</t>
-  </si>
-  <si>
     <t>['24']</t>
   </si>
   <si>
@@ -481,6 +481,9 @@
     <t>['6', '50']</t>
   </si>
   <si>
+    <t>['29', '43']</t>
+  </si>
+  <si>
     <t>['32', '55']</t>
   </si>
   <si>
@@ -490,28 +493,25 @@
     <t>['3', '13']</t>
   </si>
   <si>
-    <t>['29', '43']</t>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['9', '45+1', '55', '73', '75']</t>
   </si>
   <si>
     <t>['16', '68', '72']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
-    <t>['9', '45+1', '55', '73', '75']</t>
-  </si>
-  <si>
     <t>['59']</t>
   </si>
   <si>
+    <t>['49', '64']</t>
+  </si>
+  <si>
     <t>['88']</t>
   </si>
   <si>
     <t>['31']</t>
-  </si>
-  <si>
-    <t>['49', '64']</t>
   </si>
   <si>
     <t>['76', '90+4']</t>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ2">
         <v>8</v>
@@ -1317,7 +1317,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1446,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA3">
         <v>14</v>
@@ -1652,10 +1652,10 @@
         <v>8</v>
       </c>
       <c r="AY4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA4">
         <v>7</v>
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="AY5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ5">
         <v>10</v>
@@ -2064,10 +2064,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA6">
         <v>7</v>
@@ -2270,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA7">
         <v>3</v>
@@ -2347,7 +2347,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2476,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="AY8">
+        <v>10</v>
+      </c>
+      <c r="AZ8">
         <v>6</v>
-      </c>
-      <c r="AZ8">
-        <v>5</v>
       </c>
       <c r="BA8">
         <v>2</v>
@@ -2682,10 +2682,10 @@
         <v>3</v>
       </c>
       <c r="AY9">
+        <v>19</v>
+      </c>
+      <c r="AZ9">
         <v>14</v>
-      </c>
-      <c r="AZ9">
-        <v>8</v>
       </c>
       <c r="BA9">
         <v>6</v>
@@ -2888,10 +2888,10 @@
         <v>3</v>
       </c>
       <c r="AY10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -3094,10 +3094,10 @@
         <v>2</v>
       </c>
       <c r="AY11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA11">
         <v>9</v>
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ12">
         <v>7</v>
@@ -3506,10 +3506,10 @@
         <v>7</v>
       </c>
       <c r="AY13">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -3712,10 +3712,10 @@
         <v>6</v>
       </c>
       <c r="AY14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA14">
         <v>4</v>
@@ -3918,10 +3918,10 @@
         <v>3</v>
       </c>
       <c r="AY15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA15">
         <v>7</v>
@@ -4124,10 +4124,10 @@
         <v>10</v>
       </c>
       <c r="AY16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ16">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="BA16">
         <v>2</v>
@@ -4183,7 +4183,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7466070</v>
+        <v>7466069</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4201,85 +4201,85 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O17" t="s">
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="Q17">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>2.88</v>
+        <v>1.67</v>
       </c>
       <c r="T17">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="U17">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="V17">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="W17">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="X17">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Y17">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z17">
-        <v>2.94</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA17">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AB17">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="AC17">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD17">
-        <v>10.25</v>
+        <v>35.5</v>
       </c>
       <c r="AE17">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AF17">
-        <v>3.66</v>
+        <v>6.75</v>
       </c>
       <c r="AG17">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="AH17">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="AI17">
         <v>1.62</v>
@@ -4288,13 +4288,13 @@
         <v>2.2</v>
       </c>
       <c r="AK17">
-        <v>1.68</v>
+        <v>3.75</v>
       </c>
       <c r="AL17">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AM17">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="AN17">
         <v>0</v>
@@ -4318,70 +4318,70 @@
         <v>0</v>
       </c>
       <c r="AU17">
+        <v>3</v>
+      </c>
+      <c r="AV17">
+        <v>9</v>
+      </c>
+      <c r="AW17">
+        <v>3</v>
+      </c>
+      <c r="AX17">
         <v>4</v>
       </c>
-      <c r="AV17">
-        <v>2</v>
-      </c>
-      <c r="AW17">
-        <v>3</v>
-      </c>
-      <c r="AX17">
-        <v>9</v>
-      </c>
       <c r="AY17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BD17">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="BE17">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF17">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="BG17">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BH17">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BI17">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BJ17">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="BK17">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BL17">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="BM17">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BN17">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BO17">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP17">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4389,7 +4389,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7466069</v>
+        <v>7466070</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4407,85 +4407,85 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O18" t="s">
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="Q18">
+        <v>3.5</v>
+      </c>
+      <c r="R18">
+        <v>2.25</v>
+      </c>
+      <c r="S18">
+        <v>2.88</v>
+      </c>
+      <c r="T18">
+        <v>1.33</v>
+      </c>
+      <c r="U18">
+        <v>3.25</v>
+      </c>
+      <c r="V18">
+        <v>2.63</v>
+      </c>
+      <c r="W18">
+        <v>1.44</v>
+      </c>
+      <c r="X18">
         <v>7</v>
       </c>
-      <c r="R18">
-        <v>3</v>
-      </c>
-      <c r="S18">
-        <v>1.67</v>
-      </c>
-      <c r="T18">
-        <v>1.18</v>
-      </c>
-      <c r="U18">
-        <v>4.5</v>
-      </c>
-      <c r="V18">
-        <v>1.83</v>
-      </c>
-      <c r="W18">
-        <v>1.83</v>
-      </c>
-      <c r="X18">
-        <v>3.75</v>
-      </c>
       <c r="Y18">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Z18">
-        <v>8.800000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="AA18">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AB18">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="AC18">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD18">
-        <v>35.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE18">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AF18">
-        <v>6.75</v>
+        <v>3.66</v>
       </c>
       <c r="AG18">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="AH18">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="AI18">
         <v>1.62</v>
@@ -4494,13 +4494,13 @@
         <v>2.2</v>
       </c>
       <c r="AK18">
-        <v>3.75</v>
+        <v>1.68</v>
       </c>
       <c r="AL18">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AM18">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4524,70 +4524,70 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
         <v>9</v>
       </c>
-      <c r="AW18">
-        <v>3</v>
-      </c>
-      <c r="AX18">
+      <c r="AY18">
+        <v>9</v>
+      </c>
+      <c r="AZ18">
+        <v>12</v>
+      </c>
+      <c r="BA18">
         <v>4</v>
       </c>
-      <c r="AY18">
-        <v>6</v>
-      </c>
-      <c r="AZ18">
-        <v>13</v>
-      </c>
-      <c r="BA18">
-        <v>1</v>
-      </c>
       <c r="BB18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD18">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="BE18">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF18">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="BG18">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH18">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI18">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BJ18">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="BK18">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="BL18">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="BM18">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="BN18">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BO18">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP18">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4637,7 +4637,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4742,10 +4742,10 @@
         <v>4</v>
       </c>
       <c r="AY19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA19">
         <v>1</v>
@@ -4819,7 +4819,7 @@
         <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s">
         <v>91</v>
@@ -4948,10 +4948,10 @@
         <v>4</v>
       </c>
       <c r="AY20">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA20">
         <v>6</v>
@@ -5154,10 +5154,10 @@
         <v>7</v>
       </c>
       <c r="AY21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA21">
         <v>1</v>
@@ -5360,10 +5360,10 @@
         <v>4</v>
       </c>
       <c r="AY22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA22">
         <v>4</v>
@@ -5566,10 +5566,10 @@
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ23">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA23">
         <v>2</v>
@@ -5643,7 +5643,7 @@
         <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5772,10 +5772,10 @@
         <v>6</v>
       </c>
       <c r="AY24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA24">
         <v>8</v>
@@ -5978,10 +5978,10 @@
         <v>8</v>
       </c>
       <c r="AY25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ25">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA25">
         <v>6</v>
@@ -6184,10 +6184,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA26">
         <v>7</v>
@@ -6390,10 +6390,10 @@
         <v>13</v>
       </c>
       <c r="AY27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA27">
         <v>3</v>
@@ -6596,7 +6596,7 @@
         <v>6</v>
       </c>
       <c r="AY28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ28">
         <v>9</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AY29">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA29">
         <v>4</v>
@@ -7008,10 +7008,10 @@
         <v>7</v>
       </c>
       <c r="AY30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7082,7 +7082,7 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
         <v>75</v>
@@ -7214,10 +7214,10 @@
         <v>4</v>
       </c>
       <c r="AY31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ31">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA31">
         <v>4</v>
@@ -7420,10 +7420,10 @@
         <v>7</v>
       </c>
       <c r="AY32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA32">
         <v>5</v>
@@ -7494,7 +7494,7 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
         <v>84</v>
@@ -7626,10 +7626,10 @@
         <v>3</v>
       </c>
       <c r="AY33">
+        <v>19</v>
+      </c>
+      <c r="AZ33">
         <v>11</v>
-      </c>
-      <c r="AZ33">
-        <v>8</v>
       </c>
       <c r="BA33">
         <v>4</v>
@@ -7832,10 +7832,10 @@
         <v>2</v>
       </c>
       <c r="AY34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA34">
         <v>5</v>
@@ -7891,7 +7891,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7466090</v>
+        <v>7466094</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7906,25 +7906,25 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -7933,163 +7933,163 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="Q35">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="R35">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>1.17</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <v>1.8</v>
+      </c>
+      <c r="W35">
+        <v>1.91</v>
+      </c>
+      <c r="X35">
+        <v>3.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.29</v>
+      </c>
+      <c r="Z35">
+        <v>1.15</v>
+      </c>
+      <c r="AA35">
+        <v>9</v>
+      </c>
+      <c r="AB35">
+        <v>16</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>36</v>
+      </c>
+      <c r="AE35">
+        <v>1.05</v>
+      </c>
+      <c r="AF35">
+        <v>7.2</v>
+      </c>
+      <c r="AG35">
+        <v>1.3</v>
+      </c>
+      <c r="AH35">
+        <v>3.2</v>
+      </c>
+      <c r="AI35">
+        <v>1.91</v>
+      </c>
+      <c r="AJ35">
+        <v>1.91</v>
+      </c>
+      <c r="AK35">
+        <v>1.01</v>
+      </c>
+      <c r="AL35">
+        <v>1.06</v>
+      </c>
+      <c r="AM35">
+        <v>5.85</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>3</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>2.65</v>
+      </c>
+      <c r="AS35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>3.65</v>
+      </c>
+      <c r="AU35">
+        <v>12</v>
+      </c>
+      <c r="AV35">
+        <v>2</v>
+      </c>
+      <c r="AW35">
         <v>8</v>
       </c>
-      <c r="T35">
-        <v>1.25</v>
-      </c>
-      <c r="U35">
-        <v>3.75</v>
-      </c>
-      <c r="V35">
-        <v>2.25</v>
-      </c>
-      <c r="W35">
-        <v>1.57</v>
-      </c>
-      <c r="X35">
-        <v>5.5</v>
-      </c>
-      <c r="Y35">
-        <v>1.14</v>
-      </c>
-      <c r="Z35">
-        <v>1.33</v>
-      </c>
-      <c r="AA35">
-        <v>5.5</v>
-      </c>
-      <c r="AB35">
-        <v>8.25</v>
-      </c>
-      <c r="AC35">
-        <v>1.02</v>
-      </c>
-      <c r="AD35">
-        <v>21</v>
-      </c>
-      <c r="AE35">
-        <v>1.14</v>
-      </c>
-      <c r="AF35">
-        <v>4.6</v>
-      </c>
-      <c r="AG35">
-        <v>1.55</v>
-      </c>
-      <c r="AH35">
-        <v>2.3</v>
-      </c>
-      <c r="AI35">
-        <v>1.95</v>
-      </c>
-      <c r="AJ35">
-        <v>1.8</v>
-      </c>
-      <c r="AK35">
-        <v>1.02</v>
-      </c>
-      <c r="AL35">
-        <v>1.1</v>
-      </c>
-      <c r="AM35">
-        <v>3.75</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>2</v>
-      </c>
-      <c r="AQ35">
-        <v>0.33</v>
-      </c>
-      <c r="AR35">
-        <v>1.72</v>
-      </c>
-      <c r="AS35">
-        <v>0.95</v>
-      </c>
-      <c r="AT35">
-        <v>2.67</v>
-      </c>
-      <c r="AU35">
-        <v>13</v>
-      </c>
-      <c r="AV35">
-        <v>3</v>
-      </c>
-      <c r="AW35">
-        <v>5</v>
-      </c>
       <c r="AX35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY35">
+        <v>27</v>
+      </c>
+      <c r="AZ35">
+        <v>3</v>
+      </c>
+      <c r="BA35">
+        <v>15</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
         <v>18</v>
       </c>
-      <c r="AZ35">
-        <v>4</v>
-      </c>
-      <c r="BA35">
-        <v>8</v>
-      </c>
-      <c r="BB35">
-        <v>4</v>
-      </c>
-      <c r="BC35">
-        <v>12</v>
-      </c>
       <c r="BD35">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BE35">
         <v>9.5</v>
       </c>
       <c r="BF35">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="BG35">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BH35">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="BI35">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="BJ35">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BK35">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BL35">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="BM35">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="BN35">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BO35">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="BP35">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8097,7 +8097,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7466094</v>
+        <v>7466090</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8112,25 +8112,25 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8139,163 +8139,163 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Q36">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="R36">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="S36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T36">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="U36">
+        <v>3.75</v>
+      </c>
+      <c r="V36">
+        <v>2.25</v>
+      </c>
+      <c r="W36">
+        <v>1.57</v>
+      </c>
+      <c r="X36">
+        <v>5.5</v>
+      </c>
+      <c r="Y36">
+        <v>1.14</v>
+      </c>
+      <c r="Z36">
+        <v>1.33</v>
+      </c>
+      <c r="AA36">
+        <v>5.5</v>
+      </c>
+      <c r="AB36">
+        <v>8.25</v>
+      </c>
+      <c r="AC36">
+        <v>1.02</v>
+      </c>
+      <c r="AD36">
+        <v>21</v>
+      </c>
+      <c r="AE36">
+        <v>1.14</v>
+      </c>
+      <c r="AF36">
+        <v>4.6</v>
+      </c>
+      <c r="AG36">
+        <v>1.55</v>
+      </c>
+      <c r="AH36">
+        <v>2.3</v>
+      </c>
+      <c r="AI36">
+        <v>1.95</v>
+      </c>
+      <c r="AJ36">
+        <v>1.8</v>
+      </c>
+      <c r="AK36">
+        <v>1.02</v>
+      </c>
+      <c r="AL36">
+        <v>1.1</v>
+      </c>
+      <c r="AM36">
+        <v>3.75</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>2</v>
+      </c>
+      <c r="AQ36">
+        <v>0.33</v>
+      </c>
+      <c r="AR36">
+        <v>1.72</v>
+      </c>
+      <c r="AS36">
+        <v>0.95</v>
+      </c>
+      <c r="AT36">
+        <v>2.67</v>
+      </c>
+      <c r="AU36">
+        <v>13</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
         <v>5</v>
       </c>
-      <c r="V36">
-        <v>1.8</v>
-      </c>
-      <c r="W36">
-        <v>1.91</v>
-      </c>
-      <c r="X36">
-        <v>3.5</v>
-      </c>
-      <c r="Y36">
-        <v>1.29</v>
-      </c>
-      <c r="Z36">
-        <v>1.15</v>
-      </c>
-      <c r="AA36">
-        <v>9</v>
-      </c>
-      <c r="AB36">
-        <v>16</v>
-      </c>
-      <c r="AC36">
-        <v>1.01</v>
-      </c>
-      <c r="AD36">
-        <v>36</v>
-      </c>
-      <c r="AE36">
-        <v>1.05</v>
-      </c>
-      <c r="AF36">
-        <v>7.2</v>
-      </c>
-      <c r="AG36">
-        <v>1.3</v>
-      </c>
-      <c r="AH36">
-        <v>3.2</v>
-      </c>
-      <c r="AI36">
-        <v>1.91</v>
-      </c>
-      <c r="AJ36">
-        <v>1.91</v>
-      </c>
-      <c r="AK36">
-        <v>1.01</v>
-      </c>
-      <c r="AL36">
-        <v>1.06</v>
-      </c>
-      <c r="AM36">
-        <v>5.85</v>
-      </c>
-      <c r="AN36">
-        <v>3</v>
-      </c>
-      <c r="AO36">
-        <v>1.5</v>
-      </c>
-      <c r="AP36">
-        <v>3</v>
-      </c>
-      <c r="AQ36">
-        <v>1</v>
-      </c>
-      <c r="AR36">
-        <v>2.65</v>
-      </c>
-      <c r="AS36">
-        <v>1</v>
-      </c>
-      <c r="AT36">
-        <v>3.65</v>
-      </c>
-      <c r="AU36">
+      <c r="AX36">
+        <v>1</v>
+      </c>
+      <c r="AY36">
+        <v>24</v>
+      </c>
+      <c r="AZ36">
+        <v>6</v>
+      </c>
+      <c r="BA36">
+        <v>8</v>
+      </c>
+      <c r="BB36">
+        <v>4</v>
+      </c>
+      <c r="BC36">
         <v>12</v>
       </c>
-      <c r="AV36">
-        <v>2</v>
-      </c>
-      <c r="AW36">
-        <v>8</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>20</v>
-      </c>
-      <c r="AZ36">
-        <v>2</v>
-      </c>
-      <c r="BA36">
-        <v>15</v>
-      </c>
-      <c r="BB36">
-        <v>3</v>
-      </c>
-      <c r="BC36">
-        <v>18</v>
-      </c>
       <c r="BD36">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="BE36">
         <v>9.5</v>
       </c>
       <c r="BF36">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="BG36">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BH36">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="BI36">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="BJ36">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BK36">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="BL36">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="BM36">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="BN36">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BO36">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="BP36">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8450,10 +8450,10 @@
         <v>3</v>
       </c>
       <c r="AY37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -8656,10 +8656,10 @@
         <v>5</v>
       </c>
       <c r="AY38">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA38">
         <v>3</v>
@@ -8862,10 +8862,10 @@
         <v>7</v>
       </c>
       <c r="AY39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA39">
         <v>5</v>
@@ -9068,10 +9068,10 @@
         <v>9</v>
       </c>
       <c r="AY40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ40">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9142,7 +9142,7 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
         <v>83</v>
@@ -9274,10 +9274,10 @@
         <v>3</v>
       </c>
       <c r="AY41">
+        <v>14</v>
+      </c>
+      <c r="AZ41">
         <v>12</v>
-      </c>
-      <c r="AZ41">
-        <v>6</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9480,10 +9480,10 @@
         <v>3</v>
       </c>
       <c r="AY42">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA42">
         <v>10</v>
@@ -9686,10 +9686,10 @@
         <v>3</v>
       </c>
       <c r="AY43">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA43">
         <v>6</v>
@@ -9892,7 +9892,7 @@
         <v>3</v>
       </c>
       <c r="AY44">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ44">
         <v>5</v>
@@ -9966,7 +9966,7 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s">
         <v>82</v>
@@ -10098,10 +10098,10 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ45">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA45">
         <v>10</v>
@@ -10157,7 +10157,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7466101</v>
+        <v>7466100</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10166,49 +10166,49 @@
         <v>69</v>
       </c>
       <c r="E46" s="2">
-        <v>45555.875</v>
+        <v>45556.47916666666</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M46">
         <v>2</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P46" t="s">
         <v>155</v>
       </c>
       <c r="Q46">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R46">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S46">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="T46">
         <v>1.33</v>
@@ -10229,70 +10229,70 @@
         <v>1.11</v>
       </c>
       <c r="Z46">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="AA46">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB46">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="AC46">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD46">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE46">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AF46">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="AG46">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AH46">
+        <v>2.2</v>
+      </c>
+      <c r="AI46">
+        <v>1.8</v>
+      </c>
+      <c r="AJ46">
         <v>1.95</v>
       </c>
-      <c r="AI46">
-        <v>1.62</v>
-      </c>
-      <c r="AJ46">
-        <v>2.2</v>
-      </c>
       <c r="AK46">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="AL46">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AM46">
-        <v>1.32</v>
+        <v>2.4</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ46">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AS46">
-        <v>1.18</v>
+        <v>0.84</v>
       </c>
       <c r="AT46">
-        <v>2.33</v>
+        <v>1.92</v>
       </c>
       <c r="AU46">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV46">
         <v>4</v>
@@ -10301,61 +10301,61 @@
         <v>5</v>
       </c>
       <c r="AX46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY46">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD46">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
       <c r="BE46">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF46">
-        <v>1.82</v>
+        <v>3.3</v>
       </c>
       <c r="BG46">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH46">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="BI46">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BJ46">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="BK46">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="BL46">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="BM46">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="BN46">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="BO46">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="BP46">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10363,7 +10363,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7466102</v>
+        <v>7466101</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10372,49 +10372,49 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45555.875</v>
+        <v>45556.57291666666</v>
       </c>
       <c r="F47">
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P47" t="s">
         <v>156</v>
       </c>
       <c r="Q47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R47">
         <v>2.3</v>
       </c>
       <c r="S47">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T47">
         <v>1.33</v>
@@ -10423,43 +10423,43 @@
         <v>3.25</v>
       </c>
       <c r="V47">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W47">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X47">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y47">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z47">
+        <v>3.3</v>
+      </c>
+      <c r="AA47">
+        <v>3.5</v>
+      </c>
+      <c r="AB47">
+        <v>2.05</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>11</v>
+      </c>
+      <c r="AE47">
+        <v>1.2</v>
+      </c>
+      <c r="AF47">
         <v>4</v>
       </c>
-      <c r="AA47">
-        <v>3.75</v>
-      </c>
-      <c r="AB47">
-        <v>1.78</v>
-      </c>
-      <c r="AC47">
-        <v>1.03</v>
-      </c>
-      <c r="AD47">
-        <v>15</v>
-      </c>
-      <c r="AE47">
-        <v>1.21</v>
-      </c>
-      <c r="AF47">
-        <v>4.25</v>
-      </c>
       <c r="AG47">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH47">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AI47">
         <v>1.62</v>
@@ -10468,100 +10468,100 @@
         <v>2.2</v>
       </c>
       <c r="AK47">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="AL47">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM47">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AN47">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AR47">
-        <v>1.91</v>
+        <v>1.15</v>
       </c>
       <c r="AS47">
+        <v>1.18</v>
+      </c>
+      <c r="AT47">
+        <v>2.33</v>
+      </c>
+      <c r="AU47">
+        <v>11</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>6</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>28</v>
+      </c>
+      <c r="AZ47">
+        <v>15</v>
+      </c>
+      <c r="BA47">
+        <v>6</v>
+      </c>
+      <c r="BB47">
+        <v>2</v>
+      </c>
+      <c r="BC47">
+        <v>8</v>
+      </c>
+      <c r="BD47">
+        <v>2.17</v>
+      </c>
+      <c r="BE47">
+        <v>6.75</v>
+      </c>
+      <c r="BF47">
+        <v>1.82</v>
+      </c>
+      <c r="BG47">
+        <v>1.21</v>
+      </c>
+      <c r="BH47">
+        <v>3.8</v>
+      </c>
+      <c r="BI47">
+        <v>1.38</v>
+      </c>
+      <c r="BJ47">
+        <v>2.7</v>
+      </c>
+      <c r="BK47">
         <v>1.65</v>
       </c>
-      <c r="AT47">
-        <v>3.56</v>
-      </c>
-      <c r="AU47">
-        <v>3</v>
-      </c>
-      <c r="AV47">
-        <v>4</v>
-      </c>
-      <c r="AW47">
-        <v>2</v>
-      </c>
-      <c r="AX47">
-        <v>4</v>
-      </c>
-      <c r="AY47">
-        <v>5</v>
-      </c>
-      <c r="AZ47">
-        <v>8</v>
-      </c>
-      <c r="BA47">
-        <v>7</v>
-      </c>
-      <c r="BB47">
-        <v>2</v>
-      </c>
-      <c r="BC47">
-        <v>9</v>
-      </c>
-      <c r="BD47">
-        <v>1.98</v>
-      </c>
-      <c r="BE47">
-        <v>6.4</v>
-      </c>
-      <c r="BF47">
-        <v>1.98</v>
-      </c>
-      <c r="BG47">
-        <v>1.2</v>
-      </c>
-      <c r="BH47">
-        <v>3.95</v>
-      </c>
-      <c r="BI47">
-        <v>1.36</v>
-      </c>
-      <c r="BJ47">
-        <v>2.8</v>
-      </c>
-      <c r="BK47">
-        <v>1.58</v>
-      </c>
       <c r="BL47">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BM47">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="BN47">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="BO47">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BP47">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10569,7 +10569,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7466103</v>
+        <v>7466102</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10578,55 +10578,55 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45555.875</v>
+        <v>45556.625</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="P48" t="s">
         <v>157</v>
       </c>
       <c r="Q48">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="R48">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S48">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="T48">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U48">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V48">
         <v>2.5</v>
@@ -10641,25 +10641,25 @@
         <v>1.13</v>
       </c>
       <c r="Z48">
-        <v>1.62</v>
+        <v>4</v>
       </c>
       <c r="AA48">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AB48">
-        <v>4.5</v>
+        <v>1.78</v>
       </c>
       <c r="AC48">
         <v>1.03</v>
       </c>
       <c r="AD48">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE48">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AF48">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="AG48">
         <v>1.65</v>
@@ -10668,55 +10668,55 @@
         <v>2.1</v>
       </c>
       <c r="AI48">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ48">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK48">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="AL48">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AM48">
-        <v>2.4</v>
+        <v>1.28</v>
       </c>
       <c r="AN48">
         <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
       </c>
       <c r="AR48">
-        <v>1.18</v>
+        <v>1.91</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="AT48">
-        <v>2.18</v>
+        <v>3.56</v>
       </c>
       <c r="AU48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW48">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY48">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ48">
         <v>9</v>
@@ -10725,49 +10725,49 @@
         <v>7</v>
       </c>
       <c r="BB48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD48">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="BE48">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF48">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="BG48">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="BH48">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="BI48">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="BJ48">
-        <v>3.55</v>
+        <v>2.8</v>
       </c>
       <c r="BK48">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="BL48">
-        <v>2.63</v>
+        <v>2.18</v>
       </c>
       <c r="BM48">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="BN48">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="BO48">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="BP48">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10775,7 +10775,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7466100</v>
+        <v>7466103</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10784,103 +10784,103 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45556.47916666666</v>
+        <v>45556.66666666666</v>
       </c>
       <c r="F49">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>2</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>2</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O49" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="P49" t="s">
         <v>158</v>
       </c>
       <c r="Q49">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R49">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S49">
         <v>5</v>
       </c>
       <c r="T49">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U49">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V49">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W49">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X49">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y49">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z49">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AA49">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AB49">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AC49">
         <v>1.03</v>
       </c>
       <c r="AD49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE49">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AF49">
-        <v>3.92</v>
+        <v>4.45</v>
       </c>
       <c r="AG49">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AH49">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AI49">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ49">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK49">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AL49">
         <v>1.19</v>
@@ -10889,91 +10889,91 @@
         <v>2.4</v>
       </c>
       <c r="AN49">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AS49">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="AU49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW49">
+        <v>8</v>
+      </c>
+      <c r="AX49">
         <v>5</v>
       </c>
-      <c r="AX49">
-        <v>3</v>
-      </c>
       <c r="AY49">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AZ49">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA49">
         <v>7</v>
       </c>
       <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>1.53</v>
+      </c>
+      <c r="BE49">
         <v>7</v>
       </c>
-      <c r="BC49">
-        <v>14</v>
-      </c>
-      <c r="BD49">
-        <v>1.4</v>
-      </c>
-      <c r="BE49">
-        <v>7.5</v>
-      </c>
       <c r="BF49">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BG49">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="BH49">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="BI49">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BJ49">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="BK49">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BL49">
-        <v>2.43</v>
+        <v>2.63</v>
       </c>
       <c r="BM49">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="BN49">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="BO49">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="BP49">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10981,7 +10981,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7466107</v>
+        <v>7466104</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10990,16 +10990,16 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45556.875</v>
+        <v>45557.30208333334</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11011,13 +11011,13 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O50" t="s">
         <v>126</v>
@@ -11026,160 +11026,160 @@
         <v>159</v>
       </c>
       <c r="Q50">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="R50">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="S50">
-        <v>1.62</v>
+        <v>3.25</v>
       </c>
       <c r="T50">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="U50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="W50">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="X50">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="Y50">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>11.5</v>
+        <v>2.1</v>
       </c>
       <c r="AA50">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB50">
-        <v>1.24</v>
+        <v>3.2</v>
       </c>
       <c r="AC50">
         <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>26</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE50">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AF50">
-        <v>5.25</v>
+        <v>3.64</v>
       </c>
       <c r="AG50">
-        <v>1.36</v>
+        <v>1.86</v>
       </c>
       <c r="AH50">
-        <v>2.99</v>
+        <v>1.94</v>
       </c>
       <c r="AI50">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AJ50">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AK50">
-        <v>3.76</v>
+        <v>1.46</v>
       </c>
       <c r="AL50">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AM50">
-        <v>1.06</v>
+        <v>1.55</v>
       </c>
       <c r="AN50">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AQ50">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="AS50">
-        <v>2.43</v>
+        <v>1.52</v>
       </c>
       <c r="AT50">
-        <v>4.08</v>
+        <v>3.68</v>
       </c>
       <c r="AU50">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY50">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AZ50">
+        <v>3</v>
+      </c>
+      <c r="BA50">
         <v>9</v>
       </c>
-      <c r="BA50">
-        <v>5</v>
-      </c>
       <c r="BB50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD50">
-        <v>5.6</v>
+        <v>1.84</v>
       </c>
       <c r="BE50">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF50">
-        <v>1.16</v>
+        <v>2.15</v>
       </c>
       <c r="BG50">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH50">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="BI50">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BJ50">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BK50">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="BL50">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="BM50">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="BN50">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="BO50">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BP50">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11187,7 +11187,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7466106</v>
+        <v>7466105</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11196,190 +11196,190 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45556.875</v>
+        <v>45557.39583333334</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O51" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="Q51">
-        <v>1.44</v>
+        <v>5.5</v>
       </c>
       <c r="R51">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="S51">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="T51">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="U51">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="V51">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="W51">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="X51">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Y51">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="Z51">
-        <v>1.11</v>
+        <v>5</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>4.4</v>
       </c>
       <c r="AB51">
-        <v>26</v>
+        <v>1.58</v>
       </c>
       <c r="AC51">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD51">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AE51">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="AF51">
-        <v>5.75</v>
+        <v>4.25</v>
       </c>
       <c r="AG51">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AH51">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="AI51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AJ51">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AK51">
-        <v>1.01</v>
+        <v>2.55</v>
       </c>
       <c r="AL51">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AM51">
-        <v>5.45</v>
+        <v>1.14</v>
       </c>
       <c r="AN51">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR51">
-        <v>2.23</v>
+        <v>0.82</v>
       </c>
       <c r="AS51">
-        <v>0.82</v>
+        <v>1.73</v>
       </c>
       <c r="AT51">
+        <v>2.55</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>9</v>
+      </c>
+      <c r="AW51">
+        <v>8</v>
+      </c>
+      <c r="AX51">
+        <v>4</v>
+      </c>
+      <c r="AY51">
+        <v>17</v>
+      </c>
+      <c r="AZ51">
+        <v>17</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>12</v>
+      </c>
+      <c r="BD51">
         <v>3.05</v>
       </c>
-      <c r="AU51">
-        <v>4</v>
-      </c>
-      <c r="AV51">
-        <v>2</v>
-      </c>
-      <c r="AW51">
-        <v>12</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>16</v>
-      </c>
-      <c r="AZ51">
-        <v>3</v>
-      </c>
-      <c r="BA51">
-        <v>5</v>
-      </c>
-      <c r="BB51">
-        <v>2</v>
-      </c>
-      <c r="BC51">
-        <v>7</v>
-      </c>
-      <c r="BD51">
-        <v>1.1</v>
-      </c>
       <c r="BE51">
-        <v>13</v>
+        <v>6.75</v>
       </c>
       <c r="BF51">
-        <v>8.75</v>
+        <v>1.45</v>
       </c>
       <c r="BG51">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="BH51">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="BI51">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BJ51">
         <v>2.65</v>
       </c>
       <c r="BK51">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="BL51">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BM51">
         <v>2.02</v>
       </c>
       <c r="BN51">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="BO51">
         <v>2.55</v>
@@ -11393,7 +11393,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7466104</v>
+        <v>7466106</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11402,169 +11402,169 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45556.875</v>
+        <v>45557.39583333334</v>
       </c>
       <c r="F52">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>2</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="Q52">
-        <v>3.1</v>
+        <v>1.44</v>
       </c>
       <c r="R52">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="S52">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="T52">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="U52">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="V52">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="W52">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="X52">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Y52">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="Z52">
-        <v>2.1</v>
+        <v>1.11</v>
       </c>
       <c r="AA52">
-        <v>3.7</v>
+        <v>10</v>
       </c>
       <c r="AB52">
-        <v>3.2</v>
+        <v>26</v>
       </c>
       <c r="AC52">
         <v>1.01</v>
       </c>
       <c r="AD52">
-        <v>9.699999999999999</v>
+        <v>29</v>
       </c>
       <c r="AE52">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AF52">
-        <v>3.64</v>
+        <v>5.75</v>
       </c>
       <c r="AG52">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AH52">
-        <v>1.94</v>
+        <v>3.15</v>
       </c>
       <c r="AI52">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AJ52">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AK52">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="AL52">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AM52">
-        <v>1.55</v>
+        <v>5.45</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AR52">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="AS52">
-        <v>1.52</v>
+        <v>0.82</v>
       </c>
       <c r="AT52">
-        <v>3.68</v>
+        <v>3.05</v>
       </c>
       <c r="AU52">
         <v>6</v>
       </c>
       <c r="AV52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AX52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY52">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA52">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC52">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD52">
-        <v>1.84</v>
+        <v>1.1</v>
       </c>
       <c r="BE52">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="BF52">
-        <v>2.15</v>
+        <v>8.75</v>
       </c>
       <c r="BG52">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="BH52">
         <v>3.7</v>
@@ -11573,19 +11573,19 @@
         <v>1.4</v>
       </c>
       <c r="BJ52">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="BK52">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="BL52">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="BM52">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="BN52">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="BO52">
         <v>2.55</v>
@@ -11599,7 +11599,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7466105</v>
+        <v>7466107</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11608,196 +11608,196 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45556.875</v>
+        <v>45557.48958333334</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>2</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O53" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="P53" t="s">
         <v>161</v>
       </c>
       <c r="Q53">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="R53">
+        <v>2.88</v>
+      </c>
+      <c r="S53">
+        <v>1.62</v>
+      </c>
+      <c r="T53">
+        <v>1.22</v>
+      </c>
+      <c r="U53">
+        <v>4</v>
+      </c>
+      <c r="V53">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <v>1.73</v>
+      </c>
+      <c r="X53">
+        <v>4.33</v>
+      </c>
+      <c r="Y53">
+        <v>1.2</v>
+      </c>
+      <c r="Z53">
+        <v>11.5</v>
+      </c>
+      <c r="AA53">
+        <v>6.5</v>
+      </c>
+      <c r="AB53">
+        <v>1.24</v>
+      </c>
+      <c r="AC53">
+        <v>1.01</v>
+      </c>
+      <c r="AD53">
+        <v>26</v>
+      </c>
+      <c r="AE53">
+        <v>1.08</v>
+      </c>
+      <c r="AF53">
+        <v>5.25</v>
+      </c>
+      <c r="AG53">
+        <v>1.36</v>
+      </c>
+      <c r="AH53">
+        <v>2.99</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.91</v>
+      </c>
+      <c r="AK53">
+        <v>3.76</v>
+      </c>
+      <c r="AL53">
+        <v>1.12</v>
+      </c>
+      <c r="AM53">
+        <v>1.06</v>
+      </c>
+      <c r="AN53">
+        <v>1.5</v>
+      </c>
+      <c r="AO53">
+        <v>3</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>3</v>
+      </c>
+      <c r="AR53">
+        <v>1.65</v>
+      </c>
+      <c r="AS53">
+        <v>2.43</v>
+      </c>
+      <c r="AT53">
+        <v>4.08</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>8</v>
+      </c>
+      <c r="AW53">
+        <v>1</v>
+      </c>
+      <c r="AX53">
+        <v>5</v>
+      </c>
+      <c r="AY53">
+        <v>9</v>
+      </c>
+      <c r="AZ53">
+        <v>15</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>6</v>
+      </c>
+      <c r="BC53">
+        <v>11</v>
+      </c>
+      <c r="BD53">
+        <v>5.6</v>
+      </c>
+      <c r="BE53">
+        <v>9.5</v>
+      </c>
+      <c r="BF53">
+        <v>1.16</v>
+      </c>
+      <c r="BG53">
+        <v>1.2</v>
+      </c>
+      <c r="BH53">
+        <v>3.9</v>
+      </c>
+      <c r="BI53">
+        <v>1.36</v>
+      </c>
+      <c r="BJ53">
+        <v>2.8</v>
+      </c>
+      <c r="BK53">
+        <v>1.58</v>
+      </c>
+      <c r="BL53">
+        <v>2.18</v>
+      </c>
+      <c r="BM53">
+        <v>1.92</v>
+      </c>
+      <c r="BN53">
+        <v>1.77</v>
+      </c>
+      <c r="BO53">
         <v>2.4</v>
       </c>
-      <c r="S53">
-        <v>2.1</v>
-      </c>
-      <c r="T53">
-        <v>1.3</v>
-      </c>
-      <c r="U53">
-        <v>3.4</v>
-      </c>
-      <c r="V53">
-        <v>2.5</v>
-      </c>
-      <c r="W53">
-        <v>1.5</v>
-      </c>
-      <c r="X53">
-        <v>6</v>
-      </c>
-      <c r="Y53">
-        <v>1.13</v>
-      </c>
-      <c r="Z53">
-        <v>5</v>
-      </c>
-      <c r="AA53">
-        <v>4.4</v>
-      </c>
-      <c r="AB53">
-        <v>1.58</v>
-      </c>
-      <c r="AC53">
-        <v>1.03</v>
-      </c>
-      <c r="AD53">
-        <v>15</v>
-      </c>
-      <c r="AE53">
-        <v>1.21</v>
-      </c>
-      <c r="AF53">
-        <v>4.25</v>
-      </c>
-      <c r="AG53">
-        <v>1.61</v>
-      </c>
-      <c r="AH53">
-        <v>2.32</v>
-      </c>
-      <c r="AI53">
-        <v>1.8</v>
-      </c>
-      <c r="AJ53">
-        <v>1.95</v>
-      </c>
-      <c r="AK53">
-        <v>2.55</v>
-      </c>
-      <c r="AL53">
-        <v>1.17</v>
-      </c>
-      <c r="AM53">
-        <v>1.14</v>
-      </c>
-      <c r="AN53">
-        <v>0.33</v>
-      </c>
-      <c r="AO53">
-        <v>1.5</v>
-      </c>
-      <c r="AP53">
-        <v>0.25</v>
-      </c>
-      <c r="AQ53">
-        <v>2</v>
-      </c>
-      <c r="AR53">
-        <v>0.82</v>
-      </c>
-      <c r="AS53">
-        <v>1.73</v>
-      </c>
-      <c r="AT53">
-        <v>2.55</v>
-      </c>
-      <c r="AU53">
-        <v>6</v>
-      </c>
-      <c r="AV53">
-        <v>7</v>
-      </c>
-      <c r="AW53">
-        <v>6</v>
-      </c>
-      <c r="AX53">
-        <v>2</v>
-      </c>
-      <c r="AY53">
-        <v>12</v>
-      </c>
-      <c r="AZ53">
-        <v>9</v>
-      </c>
-      <c r="BA53">
-        <v>7</v>
-      </c>
-      <c r="BB53">
-        <v>5</v>
-      </c>
-      <c r="BC53">
-        <v>12</v>
-      </c>
-      <c r="BD53">
-        <v>3.05</v>
-      </c>
-      <c r="BE53">
-        <v>6.75</v>
-      </c>
-      <c r="BF53">
-        <v>1.45</v>
-      </c>
-      <c r="BG53">
-        <v>1.23</v>
-      </c>
-      <c r="BH53">
-        <v>3.65</v>
-      </c>
-      <c r="BI53">
-        <v>1.41</v>
-      </c>
-      <c r="BJ53">
-        <v>2.65</v>
-      </c>
-      <c r="BK53">
-        <v>1.66</v>
-      </c>
-      <c r="BL53">
-        <v>2.07</v>
-      </c>
-      <c r="BM53">
-        <v>2.02</v>
-      </c>
-      <c r="BN53">
-        <v>1.68</v>
-      </c>
-      <c r="BO53">
-        <v>2.55</v>
-      </c>
       <c r="BP53">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11814,7 +11814,7 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45561.875</v>
+        <v>45562.625</v>
       </c>
       <c r="F54">
         <v>7</v>
@@ -11940,22 +11940,22 @@
         <v>2.59</v>
       </c>
       <c r="AU54">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW54">
         <v>6</v>
       </c>
       <c r="AX54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY54">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ54">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA54">
         <v>9</v>
@@ -12011,7 +12011,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7466110</v>
+        <v>7466112</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12020,145 +12020,145 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45562.875</v>
+        <v>45563.47916666666</v>
       </c>
       <c r="F55">
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="P55" t="s">
         <v>163</v>
       </c>
       <c r="Q55">
+        <v>7.5</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>1.62</v>
+      </c>
+      <c r="T55">
+        <v>1.2</v>
+      </c>
+      <c r="U55">
+        <v>4.33</v>
+      </c>
+      <c r="V55">
+        <v>1.91</v>
+      </c>
+      <c r="W55">
+        <v>1.8</v>
+      </c>
+      <c r="X55">
+        <v>4</v>
+      </c>
+      <c r="Y55">
+        <v>1.22</v>
+      </c>
+      <c r="Z55">
+        <v>7.6</v>
+      </c>
+      <c r="AA55">
+        <v>6.55</v>
+      </c>
+      <c r="AB55">
+        <v>1.29</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>34</v>
+      </c>
+      <c r="AE55">
+        <v>1.06</v>
+      </c>
+      <c r="AF55">
+        <v>5.75</v>
+      </c>
+      <c r="AG55">
+        <v>1.33</v>
+      </c>
+      <c r="AH55">
+        <v>3.15</v>
+      </c>
+      <c r="AI55">
+        <v>1.75</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>3.75</v>
+      </c>
+      <c r="AL55">
+        <v>1.12</v>
+      </c>
+      <c r="AM55">
+        <v>1.05</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>3</v>
+      </c>
+      <c r="AP55">
+        <v>1.5</v>
+      </c>
+      <c r="AQ55">
+        <v>3</v>
+      </c>
+      <c r="AR55">
+        <v>1.25</v>
+      </c>
+      <c r="AS55">
+        <v>2.26</v>
+      </c>
+      <c r="AT55">
+        <v>3.51</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
         <v>5</v>
       </c>
-      <c r="R55">
-        <v>2.5</v>
-      </c>
-      <c r="S55">
-        <v>2.05</v>
-      </c>
-      <c r="T55">
-        <v>1.29</v>
-      </c>
-      <c r="U55">
-        <v>3.5</v>
-      </c>
-      <c r="V55">
-        <v>2.25</v>
-      </c>
-      <c r="W55">
-        <v>1.57</v>
-      </c>
-      <c r="X55">
-        <v>5.5</v>
-      </c>
-      <c r="Y55">
-        <v>1.14</v>
-      </c>
-      <c r="Z55">
-        <v>5.8</v>
-      </c>
-      <c r="AA55">
-        <v>4.5</v>
-      </c>
-      <c r="AB55">
-        <v>1.49</v>
-      </c>
-      <c r="AC55">
-        <v>1.03</v>
-      </c>
-      <c r="AD55">
-        <v>19.25</v>
-      </c>
-      <c r="AE55">
-        <v>1.12</v>
-      </c>
-      <c r="AF55">
-        <v>4.45</v>
-      </c>
-      <c r="AG55">
-        <v>1.6</v>
-      </c>
-      <c r="AH55">
-        <v>2.33</v>
-      </c>
-      <c r="AI55">
-        <v>1.62</v>
-      </c>
-      <c r="AJ55">
-        <v>2.2</v>
-      </c>
-      <c r="AK55">
-        <v>2.38</v>
-      </c>
-      <c r="AL55">
-        <v>1.21</v>
-      </c>
-      <c r="AM55">
-        <v>1.16</v>
-      </c>
-      <c r="AN55">
-        <v>1</v>
-      </c>
-      <c r="AO55">
-        <v>1.67</v>
-      </c>
-      <c r="AP55">
-        <v>1</v>
-      </c>
-      <c r="AQ55">
-        <v>1.5</v>
-      </c>
-      <c r="AR55">
-        <v>1.18</v>
-      </c>
-      <c r="AS55">
-        <v>1.84</v>
-      </c>
-      <c r="AT55">
-        <v>3.02</v>
-      </c>
-      <c r="AU55">
-        <v>4</v>
-      </c>
-      <c r="AV55">
+      <c r="AX55">
         <v>6</v>
       </c>
-      <c r="AW55">
-        <v>3</v>
-      </c>
-      <c r="AX55">
-        <v>7</v>
-      </c>
       <c r="AY55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ55">
         <v>13</v>
@@ -12167,49 +12167,49 @@
         <v>3</v>
       </c>
       <c r="BB55">
+        <v>6</v>
+      </c>
+      <c r="BC55">
         <v>9</v>
       </c>
-      <c r="BC55">
-        <v>12</v>
-      </c>
       <c r="BD55">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="BE55">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF55">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="BG55">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="BH55">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI55">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="BJ55">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BK55">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="BL55">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="BM55">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="BN55">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="BO55">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="BP55">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12217,7 +12217,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7466111</v>
+        <v>7466110</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12226,25 +12226,25 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45562.875</v>
+        <v>45563.57291666666</v>
       </c>
       <c r="F56">
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -12256,166 +12256,166 @@
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="P56" t="s">
         <v>164</v>
       </c>
       <c r="Q56">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="R56">
+        <v>2.5</v>
+      </c>
+      <c r="S56">
+        <v>2.05</v>
+      </c>
+      <c r="T56">
+        <v>1.29</v>
+      </c>
+      <c r="U56">
+        <v>3.5</v>
+      </c>
+      <c r="V56">
+        <v>2.25</v>
+      </c>
+      <c r="W56">
+        <v>1.57</v>
+      </c>
+      <c r="X56">
+        <v>5.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.14</v>
+      </c>
+      <c r="Z56">
+        <v>5.8</v>
+      </c>
+      <c r="AA56">
+        <v>4.5</v>
+      </c>
+      <c r="AB56">
+        <v>1.49</v>
+      </c>
+      <c r="AC56">
+        <v>1.03</v>
+      </c>
+      <c r="AD56">
+        <v>19.25</v>
+      </c>
+      <c r="AE56">
+        <v>1.12</v>
+      </c>
+      <c r="AF56">
+        <v>4.45</v>
+      </c>
+      <c r="AG56">
+        <v>1.6</v>
+      </c>
+      <c r="AH56">
+        <v>2.33</v>
+      </c>
+      <c r="AI56">
+        <v>1.62</v>
+      </c>
+      <c r="AJ56">
         <v>2.2</v>
       </c>
-      <c r="S56">
-        <v>4.75</v>
-      </c>
-      <c r="T56">
-        <v>1.36</v>
-      </c>
-      <c r="U56">
-        <v>3</v>
-      </c>
-      <c r="V56">
-        <v>2.75</v>
-      </c>
-      <c r="W56">
-        <v>1.4</v>
-      </c>
-      <c r="X56">
+      <c r="AK56">
+        <v>2.38</v>
+      </c>
+      <c r="AL56">
+        <v>1.21</v>
+      </c>
+      <c r="AM56">
+        <v>1.16</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
+        <v>1.67</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
+        <v>1.5</v>
+      </c>
+      <c r="AR56">
+        <v>1.55</v>
+      </c>
+      <c r="AS56">
+        <v>1.84</v>
+      </c>
+      <c r="AT56">
+        <v>3.39</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>7</v>
+      </c>
+      <c r="AW56">
+        <v>5</v>
+      </c>
+      <c r="AX56">
         <v>8</v>
       </c>
-      <c r="Y56">
-        <v>1.08</v>
-      </c>
-      <c r="Z56">
-        <v>1.83</v>
-      </c>
-      <c r="AA56">
-        <v>3.7</v>
-      </c>
-      <c r="AB56">
-        <v>4.25</v>
-      </c>
-      <c r="AC56">
-        <v>1.02</v>
-      </c>
-      <c r="AD56">
-        <v>10.5</v>
-      </c>
-      <c r="AE56">
-        <v>1.25</v>
-      </c>
-      <c r="AF56">
-        <v>3.6</v>
-      </c>
-      <c r="AG56">
-        <v>1.86</v>
-      </c>
-      <c r="AH56">
-        <v>1.89</v>
-      </c>
-      <c r="AI56">
-        <v>1.8</v>
-      </c>
-      <c r="AJ56">
-        <v>1.95</v>
-      </c>
-      <c r="AK56">
-        <v>1.18</v>
-      </c>
-      <c r="AL56">
-        <v>1.27</v>
-      </c>
-      <c r="AM56">
-        <v>1.95</v>
-      </c>
-      <c r="AN56">
-        <v>0.67</v>
-      </c>
-      <c r="AO56">
-        <v>1</v>
-      </c>
-      <c r="AP56">
-        <v>0.75</v>
-      </c>
-      <c r="AQ56">
-        <v>1</v>
-      </c>
-      <c r="AR56">
+      <c r="AY56">
+        <v>11</v>
+      </c>
+      <c r="AZ56">
+        <v>18</v>
+      </c>
+      <c r="BA56">
+        <v>3</v>
+      </c>
+      <c r="BB56">
+        <v>9</v>
+      </c>
+      <c r="BC56">
+        <v>12</v>
+      </c>
+      <c r="BD56">
+        <v>2.9</v>
+      </c>
+      <c r="BE56">
+        <v>7</v>
+      </c>
+      <c r="BF56">
         <v>1.49</v>
       </c>
-      <c r="AS56">
-        <v>0.99</v>
-      </c>
-      <c r="AT56">
+      <c r="BG56">
+        <v>1.21</v>
+      </c>
+      <c r="BH56">
+        <v>3.8</v>
+      </c>
+      <c r="BI56">
+        <v>1.37</v>
+      </c>
+      <c r="BJ56">
+        <v>2.8</v>
+      </c>
+      <c r="BK56">
+        <v>1.63</v>
+      </c>
+      <c r="BL56">
+        <v>2.12</v>
+      </c>
+      <c r="BM56">
+        <v>1.98</v>
+      </c>
+      <c r="BN56">
+        <v>1.82</v>
+      </c>
+      <c r="BO56">
         <v>2.48</v>
       </c>
-      <c r="AU56">
-        <v>6</v>
-      </c>
-      <c r="AV56">
-        <v>6</v>
-      </c>
-      <c r="AW56">
-        <v>10</v>
-      </c>
-      <c r="AX56">
-        <v>3</v>
-      </c>
-      <c r="AY56">
-        <v>16</v>
-      </c>
-      <c r="AZ56">
-        <v>9</v>
-      </c>
-      <c r="BA56">
-        <v>9</v>
-      </c>
-      <c r="BB56">
-        <v>5</v>
-      </c>
-      <c r="BC56">
-        <v>14</v>
-      </c>
-      <c r="BD56">
-        <v>1.64</v>
-      </c>
-      <c r="BE56">
-        <v>8.5</v>
-      </c>
-      <c r="BF56">
-        <v>2.64</v>
-      </c>
-      <c r="BG56">
-        <v>1.28</v>
-      </c>
-      <c r="BH56">
-        <v>3.25</v>
-      </c>
-      <c r="BI56">
-        <v>1.48</v>
-      </c>
-      <c r="BJ56">
-        <v>2.45</v>
-      </c>
-      <c r="BK56">
-        <v>1.77</v>
-      </c>
-      <c r="BL56">
-        <v>1.92</v>
-      </c>
-      <c r="BM56">
-        <v>2.2</v>
-      </c>
-      <c r="BN56">
-        <v>1.57</v>
-      </c>
-      <c r="BO56">
-        <v>2.8</v>
-      </c>
       <c r="BP56">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12423,7 +12423,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7466112</v>
+        <v>7466111</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12432,196 +12432,196 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45562.875</v>
+        <v>45563.66666666666</v>
       </c>
       <c r="F57">
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="P57" t="s">
         <v>165</v>
       </c>
       <c r="Q57">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="R57">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="S57">
-        <v>1.62</v>
+        <v>4.75</v>
       </c>
       <c r="T57">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="U57">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="V57">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="W57">
+        <v>1.4</v>
+      </c>
+      <c r="X57">
+        <v>8</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
+        <v>1.83</v>
+      </c>
+      <c r="AA57">
+        <v>3.7</v>
+      </c>
+      <c r="AB57">
+        <v>4.25</v>
+      </c>
+      <c r="AC57">
+        <v>1.02</v>
+      </c>
+      <c r="AD57">
+        <v>10.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.25</v>
+      </c>
+      <c r="AF57">
+        <v>3.6</v>
+      </c>
+      <c r="AG57">
+        <v>1.86</v>
+      </c>
+      <c r="AH57">
+        <v>1.89</v>
+      </c>
+      <c r="AI57">
         <v>1.8</v>
       </c>
-      <c r="X57">
-        <v>4</v>
-      </c>
-      <c r="Y57">
-        <v>1.22</v>
-      </c>
-      <c r="Z57">
-        <v>7.6</v>
-      </c>
-      <c r="AA57">
-        <v>6.55</v>
-      </c>
-      <c r="AB57">
-        <v>1.29</v>
-      </c>
-      <c r="AC57">
-        <v>1.01</v>
-      </c>
-      <c r="AD57">
-        <v>34</v>
-      </c>
-      <c r="AE57">
-        <v>1.06</v>
-      </c>
-      <c r="AF57">
-        <v>5.75</v>
-      </c>
-      <c r="AG57">
-        <v>1.33</v>
-      </c>
-      <c r="AH57">
-        <v>3.15</v>
-      </c>
-      <c r="AI57">
-        <v>1.75</v>
-      </c>
       <c r="AJ57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK57">
-        <v>3.75</v>
+        <v>1.18</v>
       </c>
       <c r="AL57">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AM57">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AO57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR57">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="AS57">
-        <v>2.43</v>
+        <v>0.99</v>
       </c>
       <c r="AT57">
-        <v>3.68</v>
+        <v>2.48</v>
       </c>
       <c r="AU57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY57">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AZ57">
+        <v>14</v>
+      </c>
+      <c r="BA57">
         <v>9</v>
       </c>
-      <c r="BA57">
-        <v>3</v>
-      </c>
       <c r="BB57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC57">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD57">
-        <v>4.1</v>
+        <v>1.64</v>
       </c>
       <c r="BE57">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF57">
+        <v>2.64</v>
+      </c>
+      <c r="BG57">
         <v>1.28</v>
       </c>
-      <c r="BG57">
-        <v>1.25</v>
-      </c>
       <c r="BH57">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="BI57">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BJ57">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BK57">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="BL57">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="BM57">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="BN57">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="BO57">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BP57">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12629,7 +12629,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7466109</v>
+        <v>7466113</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12638,16 +12638,16 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45563.875</v>
+        <v>45564.30208333334</v>
       </c>
       <c r="F58">
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -12674,160 +12674,160 @@
         <v>91</v>
       </c>
       <c r="Q58">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="R58">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="S58">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="T58">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>2.63</v>
+      </c>
+      <c r="W58">
+        <v>1.44</v>
+      </c>
+      <c r="X58">
+        <v>7</v>
+      </c>
+      <c r="Y58">
+        <v>1.1</v>
+      </c>
+      <c r="Z58">
+        <v>1.91</v>
+      </c>
+      <c r="AA58">
+        <v>3.7</v>
+      </c>
+      <c r="AB58">
+        <v>3.75</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.2</v>
+      </c>
+      <c r="AF58">
         <v>4</v>
       </c>
-      <c r="V58">
-        <v>2</v>
-      </c>
-      <c r="W58">
+      <c r="AG58">
         <v>1.73</v>
       </c>
-      <c r="X58">
-        <v>4.33</v>
-      </c>
-      <c r="Y58">
-        <v>1.2</v>
-      </c>
-      <c r="Z58">
-        <v>1.33</v>
-      </c>
-      <c r="AA58">
-        <v>5.75</v>
-      </c>
-      <c r="AB58">
-        <v>8.5</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>29</v>
-      </c>
-      <c r="AE58">
-        <v>1.11</v>
-      </c>
-      <c r="AF58">
-        <v>6.28</v>
-      </c>
-      <c r="AG58">
-        <v>1.4</v>
-      </c>
       <c r="AH58">
+        <v>2</v>
+      </c>
+      <c r="AI58">
+        <v>1.67</v>
+      </c>
+      <c r="AJ58">
+        <v>2.1</v>
+      </c>
+      <c r="AK58">
+        <v>1.25</v>
+      </c>
+      <c r="AL58">
+        <v>1.28</v>
+      </c>
+      <c r="AM58">
+        <v>1.77</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>0.5</v>
+      </c>
+      <c r="AP58">
+        <v>1.5</v>
+      </c>
+      <c r="AQ58">
+        <v>0.33</v>
+      </c>
+      <c r="AR58">
+        <v>1.08</v>
+      </c>
+      <c r="AS58">
+        <v>1.15</v>
+      </c>
+      <c r="AT58">
+        <v>2.23</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>7</v>
+      </c>
+      <c r="AW58">
+        <v>5</v>
+      </c>
+      <c r="AX58">
+        <v>6</v>
+      </c>
+      <c r="AY58">
+        <v>11</v>
+      </c>
+      <c r="AZ58">
+        <v>17</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>8</v>
+      </c>
+      <c r="BC58">
+        <v>14</v>
+      </c>
+      <c r="BD58">
+        <v>1.82</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>2.33</v>
+      </c>
+      <c r="BG58">
+        <v>1.26</v>
+      </c>
+      <c r="BH58">
+        <v>3.4</v>
+      </c>
+      <c r="BI58">
+        <v>1.46</v>
+      </c>
+      <c r="BJ58">
+        <v>2.48</v>
+      </c>
+      <c r="BK58">
+        <v>1.75</v>
+      </c>
+      <c r="BL58">
+        <v>1.95</v>
+      </c>
+      <c r="BM58">
+        <v>2.17</v>
+      </c>
+      <c r="BN58">
+        <v>1.61</v>
+      </c>
+      <c r="BO58">
         <v>2.75</v>
       </c>
-      <c r="AI58">
-        <v>1.95</v>
-      </c>
-      <c r="AJ58">
-        <v>1.8</v>
-      </c>
-      <c r="AK58">
-        <v>1.01</v>
-      </c>
-      <c r="AL58">
-        <v>1.08</v>
-      </c>
-      <c r="AM58">
-        <v>4.33</v>
-      </c>
-      <c r="AN58">
-        <v>1.67</v>
-      </c>
-      <c r="AO58">
-        <v>0</v>
-      </c>
-      <c r="AP58">
-        <v>2</v>
-      </c>
-      <c r="AQ58">
-        <v>0</v>
-      </c>
-      <c r="AR58">
-        <v>2.11</v>
-      </c>
-      <c r="AS58">
-        <v>0.82</v>
-      </c>
-      <c r="AT58">
-        <v>2.93</v>
-      </c>
-      <c r="AU58">
-        <v>5</v>
-      </c>
-      <c r="AV58">
-        <v>4</v>
-      </c>
-      <c r="AW58">
-        <v>3</v>
-      </c>
-      <c r="AX58">
-        <v>3</v>
-      </c>
-      <c r="AY58">
-        <v>8</v>
-      </c>
-      <c r="AZ58">
-        <v>7</v>
-      </c>
-      <c r="BA58">
-        <v>5</v>
-      </c>
-      <c r="BB58">
-        <v>3</v>
-      </c>
-      <c r="BC58">
-        <v>8</v>
-      </c>
-      <c r="BD58">
-        <v>1.19</v>
-      </c>
-      <c r="BE58">
-        <v>11</v>
-      </c>
-      <c r="BF58">
-        <v>5.67</v>
-      </c>
-      <c r="BG58">
-        <v>1.29</v>
-      </c>
-      <c r="BH58">
-        <v>3.2</v>
-      </c>
-      <c r="BI58">
-        <v>1.45</v>
-      </c>
-      <c r="BJ58">
-        <v>2.38</v>
-      </c>
-      <c r="BK58">
-        <v>1.8</v>
-      </c>
-      <c r="BL58">
-        <v>1.88</v>
-      </c>
-      <c r="BM58">
-        <v>2.2</v>
-      </c>
-      <c r="BN58">
-        <v>1.65</v>
-      </c>
-      <c r="BO58">
-        <v>2.92</v>
-      </c>
       <c r="BP58">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12835,7 +12835,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7466113</v>
+        <v>7466109</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12844,16 +12844,16 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45563.875</v>
+        <v>45564.39583333334</v>
       </c>
       <c r="F59">
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -12880,160 +12880,160 @@
         <v>91</v>
       </c>
       <c r="Q59">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="R59">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="S59">
+        <v>8.5</v>
+      </c>
+      <c r="T59">
+        <v>1.22</v>
+      </c>
+      <c r="U59">
         <v>4</v>
       </c>
-      <c r="T59">
-        <v>1.36</v>
-      </c>
-      <c r="U59">
-        <v>3</v>
-      </c>
       <c r="V59">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="X59">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="Y59">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Z59">
-        <v>1.91</v>
+        <v>1.33</v>
       </c>
       <c r="AA59">
-        <v>3.7</v>
+        <v>5.75</v>
       </c>
       <c r="AB59">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>29</v>
+      </c>
+      <c r="AE59">
+        <v>1.11</v>
+      </c>
+      <c r="AF59">
+        <v>6.28</v>
+      </c>
+      <c r="AG59">
+        <v>1.4</v>
+      </c>
+      <c r="AH59">
+        <v>2.75</v>
+      </c>
+      <c r="AI59">
+        <v>1.95</v>
+      </c>
+      <c r="AJ59">
+        <v>1.8</v>
+      </c>
+      <c r="AK59">
         <v>1.01</v>
       </c>
-      <c r="AD59">
-        <v>11</v>
-      </c>
-      <c r="AE59">
-        <v>1.2</v>
-      </c>
-      <c r="AF59">
-        <v>4</v>
-      </c>
-      <c r="AG59">
-        <v>1.73</v>
-      </c>
-      <c r="AH59">
-        <v>2</v>
-      </c>
-      <c r="AI59">
+      <c r="AL59">
+        <v>1.08</v>
+      </c>
+      <c r="AM59">
+        <v>4.33</v>
+      </c>
+      <c r="AN59">
         <v>1.67</v>
       </c>
-      <c r="AJ59">
-        <v>2.1</v>
-      </c>
-      <c r="AK59">
-        <v>1.25</v>
-      </c>
-      <c r="AL59">
-        <v>1.28</v>
-      </c>
-      <c r="AM59">
-        <v>1.77</v>
-      </c>
-      <c r="AN59">
-        <v>1</v>
-      </c>
       <c r="AO59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AR59">
-        <v>1.08</v>
+        <v>2.11</v>
       </c>
       <c r="AS59">
-        <v>1.15</v>
+        <v>0.73</v>
       </c>
       <c r="AT59">
-        <v>2.23</v>
+        <v>2.84</v>
       </c>
       <c r="AU59">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV59">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW59">
         <v>4</v>
       </c>
       <c r="AX59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY59">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB59">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC59">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD59">
-        <v>1.82</v>
+        <v>1.19</v>
       </c>
       <c r="BE59">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BF59">
-        <v>2.33</v>
+        <v>5.67</v>
       </c>
       <c r="BG59">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="BH59">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BI59">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BJ59">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="BK59">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="BL59">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BM59">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="BN59">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BO59">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="BP59">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13050,7 +13050,7 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45563.875</v>
+        <v>45564.39583333334</v>
       </c>
       <c r="F60">
         <v>7</v>
@@ -13179,7 +13179,7 @@
         <v>2</v>
       </c>
       <c r="AV60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW60">
         <v>4</v>
@@ -13188,10 +13188,10 @@
         <v>5</v>
       </c>
       <c r="AY60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ60">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BA60">
         <v>7</v>
@@ -13256,7 +13256,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45563.875</v>
+        <v>45564.48958333334</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -13373,31 +13373,31 @@
         <v>1.33</v>
       </c>
       <c r="AR61">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="AT61">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AU61">
         <v>2</v>
       </c>
       <c r="AV61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW61">
         <v>0</v>
       </c>
       <c r="AX61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ61">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="BA61">
         <v>2</v>
@@ -13462,7 +13462,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45563.875</v>
+        <v>45564.625</v>
       </c>
       <c r="F62">
         <v>7</v>
@@ -13495,7 +13495,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13588,22 +13588,22 @@
         <v>3.93</v>
       </c>
       <c r="AU62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW62">
+        <v>11</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>23</v>
+      </c>
+      <c r="AZ62">
         <v>9</v>
-      </c>
-      <c r="AX62">
-        <v>1</v>
-      </c>
-      <c r="AY62">
-        <v>14</v>
-      </c>
-      <c r="AZ62">
-        <v>3</v>
       </c>
       <c r="BA62">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -876,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1422,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ5">
         <v>2.5</v>
@@ -5127,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -5748,7 +5748,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6569,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ28">
         <v>1.33</v>
@@ -10280,7 +10280,7 @@
         <v>3</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.08</v>
@@ -11307,7 +11307,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -13652,6 +13652,212 @@
       </c>
       <c r="BP62">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7466118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q63">
+        <v>3.4</v>
+      </c>
+      <c r="R63">
+        <v>2.1</v>
+      </c>
+      <c r="S63">
+        <v>3.1</v>
+      </c>
+      <c r="T63">
+        <v>1.4</v>
+      </c>
+      <c r="U63">
+        <v>2.75</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
+        <v>2.7</v>
+      </c>
+      <c r="AA63">
+        <v>3.6</v>
+      </c>
+      <c r="AB63">
+        <v>2.48</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>7.8</v>
+      </c>
+      <c r="AE63">
+        <v>1.26</v>
+      </c>
+      <c r="AF63">
+        <v>3.14</v>
+      </c>
+      <c r="AG63">
+        <v>1.97</v>
+      </c>
+      <c r="AH63">
+        <v>1.89</v>
+      </c>
+      <c r="AI63">
+        <v>1.7</v>
+      </c>
+      <c r="AJ63">
+        <v>2.05</v>
+      </c>
+      <c r="AK63">
+        <v>1.58</v>
+      </c>
+      <c r="AL63">
+        <v>1.28</v>
+      </c>
+      <c r="AM63">
+        <v>1.44</v>
+      </c>
+      <c r="AN63">
+        <v>0.25</v>
+      </c>
+      <c r="AO63">
+        <v>0.67</v>
+      </c>
+      <c r="AP63">
+        <v>0.2</v>
+      </c>
+      <c r="AQ63">
+        <v>1.25</v>
+      </c>
+      <c r="AR63">
+        <v>1.02</v>
+      </c>
+      <c r="AS63">
+        <v>0.87</v>
+      </c>
+      <c r="AT63">
+        <v>1.89</v>
+      </c>
+      <c r="AU63">
+        <v>8</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63">
+        <v>10</v>
+      </c>
+      <c r="AX63">
+        <v>1</v>
+      </c>
+      <c r="AY63">
+        <v>23</v>
+      </c>
+      <c r="AZ63">
+        <v>5</v>
+      </c>
+      <c r="BA63">
+        <v>6</v>
+      </c>
+      <c r="BB63">
+        <v>5</v>
+      </c>
+      <c r="BC63">
+        <v>11</v>
+      </c>
+      <c r="BD63">
+        <v>1.42</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>3.75</v>
+      </c>
+      <c r="BG63">
+        <v>1.16</v>
+      </c>
+      <c r="BH63">
+        <v>4.3</v>
+      </c>
+      <c r="BI63">
+        <v>1.36</v>
+      </c>
+      <c r="BJ63">
+        <v>3</v>
+      </c>
+      <c r="BK63">
+        <v>1.62</v>
+      </c>
+      <c r="BL63">
+        <v>2.3</v>
+      </c>
+      <c r="BM63">
+        <v>1.96</v>
+      </c>
+      <c r="BN63">
+        <v>1.78</v>
+      </c>
+      <c r="BO63">
+        <v>2.5</v>
+      </c>
+      <c r="BP63">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,18 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['34', '37']</t>
+  </si>
+  <si>
+    <t>['28', '51', '52']</t>
+  </si>
+  <si>
+    <t>['55', '74', '89', '90+6']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -515,6 +527,15 @@
   </si>
   <si>
     <t>['76', '90+4']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['2', '80']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,7 +1156,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1547,7 +1568,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1753,7 +1774,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1959,7 +1980,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2246,7 +2267,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2577,7 +2598,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2655,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3401,7 +3422,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3482,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3688,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3813,7 +3834,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4019,7 +4040,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4225,7 +4246,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4715,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5049,7 +5070,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5255,7 +5276,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5333,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ22">
         <v>2.33</v>
@@ -5873,7 +5894,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6157,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6285,7 +6306,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6491,7 +6512,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6697,7 +6718,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6778,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>2.19</v>
@@ -7109,7 +7130,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7190,7 +7211,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>0.77</v>
@@ -7315,7 +7336,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7602,7 +7623,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>0.7</v>
@@ -8014,7 +8035,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
         <v>2.65</v>
@@ -8345,7 +8366,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8629,7 +8650,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8757,7 +8778,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8963,7 +8984,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9993,7 +10014,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10199,7 +10220,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10405,7 +10426,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10486,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10611,7 +10632,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10689,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -10817,7 +10838,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -10898,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.18</v>
@@ -11023,7 +11044,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11229,7 +11250,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11641,7 +11662,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11847,7 +11868,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12053,7 +12074,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12259,7 +12280,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12465,7 +12486,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -13289,7 +13310,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13495,7 +13516,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13668,7 +13689,7 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F63">
         <v>8</v>
@@ -13797,19 +13818,19 @@
         <v>8</v>
       </c>
       <c r="AV63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY63">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AZ63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA63">
         <v>6</v>
@@ -13858,6 +13879,830 @@
       </c>
       <c r="BP63">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7466117</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45570.57291666666</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>134</v>
+      </c>
+      <c r="P64" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q64">
+        <v>3.5</v>
+      </c>
+      <c r="R64">
+        <v>2.2</v>
+      </c>
+      <c r="S64">
+        <v>2.88</v>
+      </c>
+      <c r="T64">
+        <v>1.36</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>2.63</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>3</v>
+      </c>
+      <c r="AA64">
+        <v>3.5</v>
+      </c>
+      <c r="AB64">
+        <v>2.2</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>9</v>
+      </c>
+      <c r="AE64">
+        <v>1.21</v>
+      </c>
+      <c r="AF64">
+        <v>3.5</v>
+      </c>
+      <c r="AG64">
+        <v>1.82</v>
+      </c>
+      <c r="AH64">
+        <v>2</v>
+      </c>
+      <c r="AI64">
+        <v>1.62</v>
+      </c>
+      <c r="AJ64">
+        <v>2.2</v>
+      </c>
+      <c r="AK64">
+        <v>1.65</v>
+      </c>
+      <c r="AL64">
+        <v>1.29</v>
+      </c>
+      <c r="AM64">
+        <v>1.38</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>2.25</v>
+      </c>
+      <c r="AQ64">
+        <v>0.75</v>
+      </c>
+      <c r="AR64">
+        <v>0.92</v>
+      </c>
+      <c r="AS64">
+        <v>0.82</v>
+      </c>
+      <c r="AT64">
+        <v>1.74</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>19</v>
+      </c>
+      <c r="AZ64">
+        <v>13</v>
+      </c>
+      <c r="BA64">
+        <v>8</v>
+      </c>
+      <c r="BB64">
+        <v>3</v>
+      </c>
+      <c r="BC64">
+        <v>11</v>
+      </c>
+      <c r="BD64">
+        <v>1.95</v>
+      </c>
+      <c r="BE64">
+        <v>6.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.02</v>
+      </c>
+      <c r="BG64">
+        <v>1.19</v>
+      </c>
+      <c r="BH64">
+        <v>4.1</v>
+      </c>
+      <c r="BI64">
+        <v>1.33</v>
+      </c>
+      <c r="BJ64">
+        <v>2.95</v>
+      </c>
+      <c r="BK64">
+        <v>1.55</v>
+      </c>
+      <c r="BL64">
+        <v>2.25</v>
+      </c>
+      <c r="BM64">
+        <v>1.89</v>
+      </c>
+      <c r="BN64">
+        <v>1.8</v>
+      </c>
+      <c r="BO64">
+        <v>2.35</v>
+      </c>
+      <c r="BP64">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7466120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45570.625</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>135</v>
+      </c>
+      <c r="P65" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q65">
+        <v>1.53</v>
+      </c>
+      <c r="R65">
+        <v>3.2</v>
+      </c>
+      <c r="S65">
+        <v>9</v>
+      </c>
+      <c r="T65">
+        <v>1.18</v>
+      </c>
+      <c r="U65">
+        <v>4.5</v>
+      </c>
+      <c r="V65">
+        <v>1.83</v>
+      </c>
+      <c r="W65">
+        <v>1.83</v>
+      </c>
+      <c r="X65">
+        <v>3.75</v>
+      </c>
+      <c r="Y65">
+        <v>1.25</v>
+      </c>
+      <c r="Z65">
+        <v>1.15</v>
+      </c>
+      <c r="AA65">
+        <v>7.5</v>
+      </c>
+      <c r="AB65">
+        <v>15</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>36</v>
+      </c>
+      <c r="AE65">
+        <v>1.09</v>
+      </c>
+      <c r="AF65">
+        <v>7</v>
+      </c>
+      <c r="AG65">
+        <v>1.32</v>
+      </c>
+      <c r="AH65">
+        <v>3.21</v>
+      </c>
+      <c r="AI65">
+        <v>1.8</v>
+      </c>
+      <c r="AJ65">
+        <v>1.95</v>
+      </c>
+      <c r="AK65">
+        <v>1.02</v>
+      </c>
+      <c r="AL65">
+        <v>1.08</v>
+      </c>
+      <c r="AM65">
+        <v>4.9</v>
+      </c>
+      <c r="AN65">
+        <v>3</v>
+      </c>
+      <c r="AO65">
+        <v>2.33</v>
+      </c>
+      <c r="AP65">
+        <v>3</v>
+      </c>
+      <c r="AQ65">
+        <v>1.75</v>
+      </c>
+      <c r="AR65">
+        <v>2.79</v>
+      </c>
+      <c r="AS65">
+        <v>1.31</v>
+      </c>
+      <c r="AT65">
+        <v>4.1</v>
+      </c>
+      <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
+        <v>5</v>
+      </c>
+      <c r="AY65">
+        <v>18</v>
+      </c>
+      <c r="AZ65">
+        <v>15</v>
+      </c>
+      <c r="BA65">
+        <v>3</v>
+      </c>
+      <c r="BB65">
+        <v>8</v>
+      </c>
+      <c r="BC65">
+        <v>11</v>
+      </c>
+      <c r="BD65">
+        <v>1.08</v>
+      </c>
+      <c r="BE65">
+        <v>12</v>
+      </c>
+      <c r="BF65">
+        <v>8</v>
+      </c>
+      <c r="BG65">
+        <v>1.2</v>
+      </c>
+      <c r="BH65">
+        <v>3.9</v>
+      </c>
+      <c r="BI65">
+        <v>1.37</v>
+      </c>
+      <c r="BJ65">
+        <v>2.8</v>
+      </c>
+      <c r="BK65">
+        <v>1.6</v>
+      </c>
+      <c r="BL65">
+        <v>2.17</v>
+      </c>
+      <c r="BM65">
+        <v>1.96</v>
+      </c>
+      <c r="BN65">
+        <v>1.74</v>
+      </c>
+      <c r="BO65">
+        <v>2.43</v>
+      </c>
+      <c r="BP65">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7466121</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45570.66666666666</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q66">
+        <v>1.83</v>
+      </c>
+      <c r="R66">
+        <v>2.63</v>
+      </c>
+      <c r="S66">
+        <v>6.5</v>
+      </c>
+      <c r="T66">
+        <v>1.25</v>
+      </c>
+      <c r="U66">
+        <v>3.75</v>
+      </c>
+      <c r="V66">
+        <v>2.2</v>
+      </c>
+      <c r="W66">
+        <v>1.62</v>
+      </c>
+      <c r="X66">
+        <v>5</v>
+      </c>
+      <c r="Y66">
+        <v>1.17</v>
+      </c>
+      <c r="Z66">
+        <v>1.36</v>
+      </c>
+      <c r="AA66">
+        <v>4.8</v>
+      </c>
+      <c r="AB66">
+        <v>8.5</v>
+      </c>
+      <c r="AC66">
+        <v>1.04</v>
+      </c>
+      <c r="AD66">
+        <v>10</v>
+      </c>
+      <c r="AE66">
+        <v>1.1</v>
+      </c>
+      <c r="AF66">
+        <v>4.85</v>
+      </c>
+      <c r="AG66">
+        <v>1.56</v>
+      </c>
+      <c r="AH66">
+        <v>2.28</v>
+      </c>
+      <c r="AI66">
+        <v>1.75</v>
+      </c>
+      <c r="AJ66">
+        <v>2</v>
+      </c>
+      <c r="AK66">
+        <v>1.08</v>
+      </c>
+      <c r="AL66">
+        <v>1.12</v>
+      </c>
+      <c r="AM66">
+        <v>3</v>
+      </c>
+      <c r="AN66">
+        <v>3</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>3</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>1.08</v>
+      </c>
+      <c r="AS66">
+        <v>0.92</v>
+      </c>
+      <c r="AT66">
+        <v>2</v>
+      </c>
+      <c r="AU66">
+        <v>9</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>13</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>24</v>
+      </c>
+      <c r="AZ66">
+        <v>5</v>
+      </c>
+      <c r="BA66">
+        <v>7</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>7</v>
+      </c>
+      <c r="BD66">
+        <v>1.07</v>
+      </c>
+      <c r="BE66">
+        <v>12</v>
+      </c>
+      <c r="BF66">
+        <v>8</v>
+      </c>
+      <c r="BG66">
+        <v>1.17</v>
+      </c>
+      <c r="BH66">
+        <v>4.35</v>
+      </c>
+      <c r="BI66">
+        <v>1.3</v>
+      </c>
+      <c r="BJ66">
+        <v>3.15</v>
+      </c>
+      <c r="BK66">
+        <v>1.5</v>
+      </c>
+      <c r="BL66">
+        <v>2.4</v>
+      </c>
+      <c r="BM66">
+        <v>1.77</v>
+      </c>
+      <c r="BN66">
+        <v>1.92</v>
+      </c>
+      <c r="BO66">
+        <v>2.17</v>
+      </c>
+      <c r="BP66">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7466123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45571.30208333334</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>137</v>
+      </c>
+      <c r="P67" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q67">
+        <v>2.2</v>
+      </c>
+      <c r="R67">
+        <v>2.38</v>
+      </c>
+      <c r="S67">
+        <v>4.75</v>
+      </c>
+      <c r="T67">
+        <v>1.3</v>
+      </c>
+      <c r="U67">
+        <v>3.4</v>
+      </c>
+      <c r="V67">
+        <v>2.5</v>
+      </c>
+      <c r="W67">
+        <v>1.5</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1.13</v>
+      </c>
+      <c r="Z67">
+        <v>1.67</v>
+      </c>
+      <c r="AA67">
+        <v>3.8</v>
+      </c>
+      <c r="AB67">
+        <v>5</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>1.16</v>
+      </c>
+      <c r="AF67">
+        <v>3.92</v>
+      </c>
+      <c r="AG67">
+        <v>1.65</v>
+      </c>
+      <c r="AH67">
+        <v>2.1</v>
+      </c>
+      <c r="AI67">
+        <v>1.67</v>
+      </c>
+      <c r="AJ67">
+        <v>2.1</v>
+      </c>
+      <c r="AK67">
+        <v>1.17</v>
+      </c>
+      <c r="AL67">
+        <v>1.22</v>
+      </c>
+      <c r="AM67">
+        <v>2.2</v>
+      </c>
+      <c r="AN67">
+        <v>1.33</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.75</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1.65</v>
+      </c>
+      <c r="AS67">
+        <v>1.07</v>
+      </c>
+      <c r="AT67">
+        <v>2.72</v>
+      </c>
+      <c r="AU67">
+        <v>10</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>19</v>
+      </c>
+      <c r="AZ67">
+        <v>9</v>
+      </c>
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>8</v>
+      </c>
+      <c r="BD67">
+        <v>1.3</v>
+      </c>
+      <c r="BE67">
+        <v>10</v>
+      </c>
+      <c r="BF67">
+        <v>4.42</v>
+      </c>
+      <c r="BG67">
+        <v>1.15</v>
+      </c>
+      <c r="BH67">
+        <v>4.6</v>
+      </c>
+      <c r="BI67">
+        <v>1.27</v>
+      </c>
+      <c r="BJ67">
+        <v>3.3</v>
+      </c>
+      <c r="BK67">
+        <v>1.47</v>
+      </c>
+      <c r="BL67">
+        <v>2.48</v>
+      </c>
+      <c r="BM67">
+        <v>1.77</v>
+      </c>
+      <c r="BN67">
+        <v>1.95</v>
+      </c>
+      <c r="BO67">
+        <v>2.12</v>
+      </c>
+      <c r="BP67">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,15 @@
     <t>['55', '74', '89', '90+6']</t>
   </si>
   <si>
+    <t>['28', '43']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['21', '90+1', '90+4']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -529,13 +538,13 @@
     <t>['76', '90+4']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['2', '80']</t>
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1165,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1440,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -1568,7 +1577,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1649,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1774,7 +1783,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1855,7 +1864,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1980,7 +1989,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2473,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2598,7 +2607,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3088,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.33</v>
@@ -3294,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -3422,7 +3431,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3834,7 +3843,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3915,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4040,7 +4049,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4246,7 +4255,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4945,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -5070,7 +5079,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5276,7 +5285,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5563,7 +5572,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5894,7 +5903,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6306,7 +6315,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6387,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.81</v>
@@ -6512,7 +6521,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6593,7 +6602,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0.73</v>
@@ -6718,7 +6727,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6796,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -7002,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -7130,7 +7139,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7336,7 +7345,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7417,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.07</v>
@@ -8241,7 +8250,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8366,7 +8375,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8778,7 +8787,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8984,7 +8993,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10014,7 +10023,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10095,7 +10104,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.06</v>
@@ -10220,7 +10229,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10426,7 +10435,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10632,7 +10641,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10838,7 +10847,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11044,7 +11053,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11122,10 +11131,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>2.16</v>
@@ -11250,7 +11259,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11331,7 +11340,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
         <v>0.82</v>
@@ -11534,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11662,7 +11671,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11740,7 +11749,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>3</v>
@@ -11868,7 +11877,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12074,7 +12083,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12280,7 +12289,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12486,7 +12495,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -13310,7 +13319,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13516,7 +13525,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13689,10 +13698,10 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
         <v>73</v>
@@ -13818,19 +13827,19 @@
         <v>8</v>
       </c>
       <c r="AV63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY63">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA63">
         <v>6</v>
@@ -14104,7 +14113,7 @@
         <v>45570.625</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G65" t="s">
         <v>74</v>
@@ -14134,7 +14143,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="Q65">
         <v>1.53</v>
@@ -14340,7 +14349,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14513,7 +14522,7 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45571.30208333334</v>
+        <v>45570.875</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -14546,7 +14555,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14639,22 +14648,22 @@
         <v>2.72</v>
       </c>
       <c r="AU67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY67">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ67">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA67">
         <v>3</v>
@@ -14703,6 +14712,830 @@
       </c>
       <c r="BP67">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7467149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45571.39583333334</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s">
+        <v>81</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q68">
+        <v>2.2</v>
+      </c>
+      <c r="R68">
+        <v>2.4</v>
+      </c>
+      <c r="S68">
+        <v>4.75</v>
+      </c>
+      <c r="T68">
+        <v>1.3</v>
+      </c>
+      <c r="U68">
+        <v>3.4</v>
+      </c>
+      <c r="V68">
+        <v>2.38</v>
+      </c>
+      <c r="W68">
+        <v>1.53</v>
+      </c>
+      <c r="X68">
+        <v>6</v>
+      </c>
+      <c r="Y68">
+        <v>1.13</v>
+      </c>
+      <c r="Z68">
+        <v>1.55</v>
+      </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
+      <c r="AB68">
+        <v>5.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.03</v>
+      </c>
+      <c r="AD68">
+        <v>11</v>
+      </c>
+      <c r="AE68">
+        <v>1.2</v>
+      </c>
+      <c r="AF68">
+        <v>4.5</v>
+      </c>
+      <c r="AG68">
+        <v>1.62</v>
+      </c>
+      <c r="AH68">
+        <v>2.2</v>
+      </c>
+      <c r="AI68">
+        <v>1.67</v>
+      </c>
+      <c r="AJ68">
+        <v>2.1</v>
+      </c>
+      <c r="AK68">
+        <v>1.18</v>
+      </c>
+      <c r="AL68">
+        <v>1.18</v>
+      </c>
+      <c r="AM68">
+        <v>2.15</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>2</v>
+      </c>
+      <c r="AP68">
+        <v>2.33</v>
+      </c>
+      <c r="AQ68">
+        <v>1.5</v>
+      </c>
+      <c r="AR68">
+        <v>2.17</v>
+      </c>
+      <c r="AS68">
+        <v>1.75</v>
+      </c>
+      <c r="AT68">
+        <v>3.92</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>6</v>
+      </c>
+      <c r="AW68">
+        <v>5</v>
+      </c>
+      <c r="AX68">
+        <v>2</v>
+      </c>
+      <c r="AY68">
+        <v>9</v>
+      </c>
+      <c r="AZ68">
+        <v>8</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>1.55</v>
+      </c>
+      <c r="BE68">
+        <v>8.5</v>
+      </c>
+      <c r="BF68">
+        <v>2.91</v>
+      </c>
+      <c r="BG68">
+        <v>1.18</v>
+      </c>
+      <c r="BH68">
+        <v>4.1</v>
+      </c>
+      <c r="BI68">
+        <v>1.32</v>
+      </c>
+      <c r="BJ68">
+        <v>3.05</v>
+      </c>
+      <c r="BK68">
+        <v>1.53</v>
+      </c>
+      <c r="BL68">
+        <v>2.3</v>
+      </c>
+      <c r="BM68">
+        <v>1.95</v>
+      </c>
+      <c r="BN68">
+        <v>1.77</v>
+      </c>
+      <c r="BO68">
+        <v>2.3</v>
+      </c>
+      <c r="BP68">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7466119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45571.39583333334</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>139</v>
+      </c>
+      <c r="P69" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q69">
+        <v>2.25</v>
+      </c>
+      <c r="R69">
+        <v>2.5</v>
+      </c>
+      <c r="S69">
+        <v>4.5</v>
+      </c>
+      <c r="T69">
+        <v>1.29</v>
+      </c>
+      <c r="U69">
+        <v>3.5</v>
+      </c>
+      <c r="V69">
+        <v>2.25</v>
+      </c>
+      <c r="W69">
+        <v>1.57</v>
+      </c>
+      <c r="X69">
+        <v>5.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.14</v>
+      </c>
+      <c r="Z69">
+        <v>1.73</v>
+      </c>
+      <c r="AA69">
+        <v>4</v>
+      </c>
+      <c r="AB69">
+        <v>4.33</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>13</v>
+      </c>
+      <c r="AE69">
+        <v>1.11</v>
+      </c>
+      <c r="AF69">
+        <v>5.5</v>
+      </c>
+      <c r="AG69">
+        <v>1.53</v>
+      </c>
+      <c r="AH69">
+        <v>2.35</v>
+      </c>
+      <c r="AI69">
+        <v>1.57</v>
+      </c>
+      <c r="AJ69">
+        <v>2.25</v>
+      </c>
+      <c r="AK69">
+        <v>1.2</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>2.18</v>
+      </c>
+      <c r="AN69">
+        <v>2.33</v>
+      </c>
+      <c r="AO69">
+        <v>0.33</v>
+      </c>
+      <c r="AP69">
+        <v>2</v>
+      </c>
+      <c r="AQ69">
+        <v>0.5</v>
+      </c>
+      <c r="AR69">
+        <v>2.09</v>
+      </c>
+      <c r="AS69">
+        <v>0.85</v>
+      </c>
+      <c r="AT69">
+        <v>2.94</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>6</v>
+      </c>
+      <c r="AX69">
+        <v>4</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>8</v>
+      </c>
+      <c r="BA69">
+        <v>8</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>1.26</v>
+      </c>
+      <c r="BE69">
+        <v>10</v>
+      </c>
+      <c r="BF69">
+        <v>4.64</v>
+      </c>
+      <c r="BG69">
+        <v>1.19</v>
+      </c>
+      <c r="BH69">
+        <v>4.1</v>
+      </c>
+      <c r="BI69">
+        <v>1.34</v>
+      </c>
+      <c r="BJ69">
+        <v>2.9</v>
+      </c>
+      <c r="BK69">
+        <v>1.57</v>
+      </c>
+      <c r="BL69">
+        <v>2</v>
+      </c>
+      <c r="BM69">
+        <v>1.95</v>
+      </c>
+      <c r="BN69">
+        <v>1.7</v>
+      </c>
+      <c r="BO69">
+        <v>2.35</v>
+      </c>
+      <c r="BP69">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7466122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45571.48958333334</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>140</v>
+      </c>
+      <c r="P70" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q70">
+        <v>1.83</v>
+      </c>
+      <c r="R70">
+        <v>2.6</v>
+      </c>
+      <c r="S70">
+        <v>6.5</v>
+      </c>
+      <c r="T70">
+        <v>1.29</v>
+      </c>
+      <c r="U70">
+        <v>3.5</v>
+      </c>
+      <c r="V70">
+        <v>2.25</v>
+      </c>
+      <c r="W70">
+        <v>1.57</v>
+      </c>
+      <c r="X70">
+        <v>5.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.14</v>
+      </c>
+      <c r="Z70">
+        <v>1.41</v>
+      </c>
+      <c r="AA70">
+        <v>4.9</v>
+      </c>
+      <c r="AB70">
+        <v>7.2</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>13</v>
+      </c>
+      <c r="AE70">
+        <v>1.13</v>
+      </c>
+      <c r="AF70">
+        <v>4.33</v>
+      </c>
+      <c r="AG70">
+        <v>1.56</v>
+      </c>
+      <c r="AH70">
+        <v>2.35</v>
+      </c>
+      <c r="AI70">
+        <v>1.8</v>
+      </c>
+      <c r="AJ70">
+        <v>1.95</v>
+      </c>
+      <c r="AK70">
+        <v>1.08</v>
+      </c>
+      <c r="AL70">
+        <v>1.17</v>
+      </c>
+      <c r="AM70">
+        <v>3.08</v>
+      </c>
+      <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
+        <v>1.33</v>
+      </c>
+      <c r="AP70">
+        <v>3</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>2.32</v>
+      </c>
+      <c r="AS70">
+        <v>1.19</v>
+      </c>
+      <c r="AT70">
+        <v>3.51</v>
+      </c>
+      <c r="AU70">
+        <v>9</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>18</v>
+      </c>
+      <c r="AZ70">
+        <v>14</v>
+      </c>
+      <c r="BA70">
+        <v>5</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
+        <v>7</v>
+      </c>
+      <c r="BD70">
+        <v>1.37</v>
+      </c>
+      <c r="BE70">
+        <v>9</v>
+      </c>
+      <c r="BF70">
+        <v>3.7</v>
+      </c>
+      <c r="BG70">
+        <v>1.27</v>
+      </c>
+      <c r="BH70">
+        <v>3.3</v>
+      </c>
+      <c r="BI70">
+        <v>1.47</v>
+      </c>
+      <c r="BJ70">
+        <v>2.43</v>
+      </c>
+      <c r="BK70">
+        <v>1.8</v>
+      </c>
+      <c r="BL70">
+        <v>1.91</v>
+      </c>
+      <c r="BM70">
+        <v>2.23</v>
+      </c>
+      <c r="BN70">
+        <v>1.57</v>
+      </c>
+      <c r="BO70">
+        <v>2.88</v>
+      </c>
+      <c r="BP70">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7466124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45571.625</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71">
+        <v>5.5</v>
+      </c>
+      <c r="R71">
+        <v>2.3</v>
+      </c>
+      <c r="S71">
+        <v>2.2</v>
+      </c>
+      <c r="T71">
+        <v>1.36</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <v>2.63</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>7</v>
+      </c>
+      <c r="Y71">
+        <v>1.1</v>
+      </c>
+      <c r="Z71">
+        <v>5.6</v>
+      </c>
+      <c r="AA71">
+        <v>4.1</v>
+      </c>
+      <c r="AB71">
+        <v>1.59</v>
+      </c>
+      <c r="AC71">
+        <v>1.01</v>
+      </c>
+      <c r="AD71">
+        <v>11</v>
+      </c>
+      <c r="AE71">
+        <v>1.22</v>
+      </c>
+      <c r="AF71">
+        <v>3.8</v>
+      </c>
+      <c r="AG71">
+        <v>1.78</v>
+      </c>
+      <c r="AH71">
+        <v>1.98</v>
+      </c>
+      <c r="AI71">
+        <v>1.8</v>
+      </c>
+      <c r="AJ71">
+        <v>1.95</v>
+      </c>
+      <c r="AK71">
+        <v>2.33</v>
+      </c>
+      <c r="AL71">
+        <v>1.24</v>
+      </c>
+      <c r="AM71">
+        <v>1.15</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>2.5</v>
+      </c>
+      <c r="AP71">
+        <v>1.5</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>1.43</v>
+      </c>
+      <c r="AS71">
+        <v>1.63</v>
+      </c>
+      <c r="AT71">
+        <v>3.06</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>4</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>10</v>
+      </c>
+      <c r="AZ71">
+        <v>11</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>3.15</v>
+      </c>
+      <c r="BE71">
+        <v>7</v>
+      </c>
+      <c r="BF71">
+        <v>1.43</v>
+      </c>
+      <c r="BG71">
+        <v>1.24</v>
+      </c>
+      <c r="BH71">
+        <v>3.55</v>
+      </c>
+      <c r="BI71">
+        <v>1.44</v>
+      </c>
+      <c r="BJ71">
+        <v>2.55</v>
+      </c>
+      <c r="BK71">
+        <v>1.7</v>
+      </c>
+      <c r="BL71">
+        <v>2.05</v>
+      </c>
+      <c r="BM71">
+        <v>2</v>
+      </c>
+      <c r="BN71">
+        <v>1.73</v>
+      </c>
+      <c r="BO71">
+        <v>2.65</v>
+      </c>
+      <c r="BP71">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14522,10 +14522,10 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45570.875</v>
+        <v>45571.30208333334</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G67" t="s">
         <v>77</v>
@@ -14648,22 +14648,22 @@
         <v>2.72</v>
       </c>
       <c r="AU67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY67">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ67">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA67">
         <v>3</v>
@@ -14937,7 +14937,7 @@
         <v>45571.39583333334</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G69" t="s">
         <v>80</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2273,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3091,25 +3091,25 @@
         <v>2</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AU11">
         <v>10</v>
@@ -3300,22 +3300,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AU12">
         <v>8</v>
@@ -3503,25 +3503,25 @@
         <v>2.55</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -3709,7 +3709,7 @@
         <v>2.75</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -3918,22 +3918,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP15">
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AU15">
         <v>8</v>
@@ -4121,25 +4121,25 @@
         <v>1.02</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ16">
         <v>3</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4330,22 +4330,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AU17">
         <v>3</v>
@@ -4533,25 +4533,25 @@
         <v>1.36</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -4742,22 +4742,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -4951,19 +4951,19 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
       <c r="AS20">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5157,19 +5157,19 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AQ21">
         <v>3</v>
       </c>
       <c r="AR21">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="AS21">
-        <v>2.27</v>
+        <v>2.56</v>
       </c>
       <c r="AT21">
-        <v>3.23</v>
+        <v>3.61</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5357,25 +5357,25 @@
         <v>1.22</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>2.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
       </c>
       <c r="AS22">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="AT22">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU22">
         <v>4</v>
@@ -5569,19 +5569,19 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23">
         <v>2</v>
       </c>
       <c r="AR23">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AS23">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AT23">
-        <v>2.89</v>
+        <v>3.23</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -5769,25 +5769,25 @@
         <v>1.57</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="AS24">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AT24">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -5978,22 +5978,22 @@
         <v>1</v>
       </c>
       <c r="AO25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AR25">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AS25">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="AU25">
         <v>7</v>
@@ -6187,19 +6187,19 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ26">
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="AS26">
-        <v>1.03</v>
+        <v>1.42</v>
       </c>
       <c r="AT26">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -6399,13 +6399,13 @@
         <v>2</v>
       </c>
       <c r="AR27">
-        <v>1.81</v>
+        <v>1.21</v>
       </c>
       <c r="AS27">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AT27">
-        <v>3.09</v>
+        <v>2.67</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6596,22 +6596,22 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP28">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AS28">
-        <v>1.74</v>
+        <v>1.29</v>
       </c>
       <c r="AT28">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -6802,22 +6802,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
-        <v>2.19</v>
+        <v>1.64</v>
       </c>
       <c r="AS29">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AT29">
-        <v>2.99</v>
+        <v>2.69</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7005,25 +7005,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="AS30">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="AT30">
-        <v>3.19</v>
+        <v>2.46</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7211,25 +7211,25 @@
         <v>1.47</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO31">
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS31">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AT31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7417,25 +7417,25 @@
         <v>1.4</v>
       </c>
       <c r="AN32">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="AS32">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7626,22 +7626,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="AS33">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AT33">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7832,22 +7832,22 @@
         <v>3</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34">
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR34">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="AS34">
-        <v>0.86</v>
+        <v>1.56</v>
       </c>
       <c r="AT34">
-        <v>3.71</v>
+        <v>4.13</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8044,16 +8044,16 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR35">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AT35">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="AU35">
         <v>12</v>
@@ -8241,25 +8241,25 @@
         <v>3.75</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
       </c>
       <c r="AS36">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="AT36">
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
       <c r="AU36">
         <v>13</v>
@@ -8450,22 +8450,22 @@
         <v>2</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AR37">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AS37">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="AT37">
-        <v>2.96</v>
+        <v>3.31</v>
       </c>
       <c r="AU37">
         <v>6</v>
@@ -8653,25 +8653,25 @@
         <v>1.4</v>
       </c>
       <c r="AN38">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>0.83</v>
       </c>
       <c r="AS38">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="AT38">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -8859,25 +8859,25 @@
         <v>2.8</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP39">
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR39">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AS39">
-        <v>0.89</v>
+        <v>1.74</v>
       </c>
       <c r="AT39">
-        <v>2.71</v>
+        <v>3.41</v>
       </c>
       <c r="AU39">
         <v>20</v>
@@ -9065,25 +9065,25 @@
         <v>1.74</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP40">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AS40">
-        <v>0.82</v>
+        <v>1.37</v>
       </c>
       <c r="AT40">
-        <v>2.03</v>
+        <v>2.57</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9271,22 +9271,22 @@
         <v>1.9</v>
       </c>
       <c r="AN41">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO41">
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AS41">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="AT41">
         <v>1.99</v>
@@ -9480,22 +9480,22 @@
         <v>0.5</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR42">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AS42">
-        <v>1.14</v>
+        <v>0.9</v>
       </c>
       <c r="AT42">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9683,25 +9683,25 @@
         <v>2.8</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43">
-        <v>2.19</v>
+        <v>1.96</v>
       </c>
       <c r="AS43">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AT43">
-        <v>3.44</v>
+        <v>3.67</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -9889,25 +9889,25 @@
         <v>2.7</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO44">
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AS44">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AT44">
-        <v>2.63</v>
+        <v>2.97</v>
       </c>
       <c r="AU44">
         <v>15</v>
@@ -10095,25 +10095,25 @@
         <v>1.12</v>
       </c>
       <c r="AN45">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO45">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>2</v>
       </c>
       <c r="AR45">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
       <c r="AS45">
-        <v>1.63</v>
+        <v>2.01</v>
       </c>
       <c r="AT45">
-        <v>2.69</v>
+        <v>2.94</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10301,25 +10301,25 @@
         <v>2.4</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
+        <v>1.22</v>
+      </c>
+      <c r="AS46">
         <v>1.08</v>
       </c>
-      <c r="AS46">
-        <v>0.84</v>
-      </c>
       <c r="AT46">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="AU46">
         <v>3</v>
@@ -10510,22 +10510,22 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AP47">
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="AS47">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AT47">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AU47">
         <v>11</v>
@@ -10713,25 +10713,25 @@
         <v>1.28</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AR48">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="AS48">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="AT48">
-        <v>3.56</v>
+        <v>3.46</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -10919,25 +10919,25 @@
         <v>2.4</v>
       </c>
       <c r="AN49">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO49">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR49">
-        <v>1.18</v>
+        <v>0.97</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT49">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11125,25 +11125,25 @@
         <v>1.55</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR50">
-        <v>2.16</v>
+        <v>1.6</v>
       </c>
       <c r="AS50">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="AT50">
-        <v>3.68</v>
+        <v>2.91</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11331,25 +11331,25 @@
         <v>1.14</v>
       </c>
       <c r="AN51">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AO51">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP51">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="AS51">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="AT51">
-        <v>2.55</v>
+        <v>2.91</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11537,25 +11537,25 @@
         <v>5.45</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="AS52">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AT52">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="AU52">
         <v>6</v>
@@ -11743,25 +11743,25 @@
         <v>1.06</v>
       </c>
       <c r="AN53">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO53">
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
         <v>3</v>
       </c>
       <c r="AR53">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="AS53">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="AT53">
-        <v>4.08</v>
+        <v>3.91</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -11949,25 +11949,25 @@
         <v>1.48</v>
       </c>
       <c r="AN54">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AS54">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AT54">
-        <v>2.59</v>
+        <v>2.87</v>
       </c>
       <c r="AU54">
         <v>10</v>
@@ -12155,25 +12155,25 @@
         <v>1.05</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO55">
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55">
         <v>3</v>
       </c>
       <c r="AR55">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AS55">
-        <v>2.26</v>
+        <v>2.53</v>
       </c>
       <c r="AT55">
-        <v>3.51</v>
+        <v>3.59</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12364,22 +12364,22 @@
         <v>1</v>
       </c>
       <c r="AO56">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AR56">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="AS56">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="AT56">
-        <v>3.39</v>
+        <v>3.16</v>
       </c>
       <c r="AU56">
         <v>5</v>
@@ -12567,25 +12567,25 @@
         <v>1.95</v>
       </c>
       <c r="AN57">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO57">
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AS57">
-        <v>0.99</v>
+        <v>1.21</v>
       </c>
       <c r="AT57">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -12773,25 +12773,25 @@
         <v>1.77</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO58">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR58">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AS58">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AT58">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -12979,25 +12979,25 @@
         <v>4.33</v>
       </c>
       <c r="AN59">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AR59">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="AS59">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="AT59">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13185,25 +13185,25 @@
         <v>1.72</v>
       </c>
       <c r="AN60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>2.17</v>
+        <v>2.51</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -13394,22 +13394,22 @@
         <v>0</v>
       </c>
       <c r="AO61">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP61">
         <v>0</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AR61">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AS61">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="AT61">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -13597,25 +13597,25 @@
         <v>2.4</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AP62">
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AR62">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="AS62">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AT62">
-        <v>3.93</v>
+        <v>3.14</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13803,25 +13803,25 @@
         <v>1.44</v>
       </c>
       <c r="AN63">
+        <v>0.29</v>
+      </c>
+      <c r="AO63">
+        <v>1.14</v>
+      </c>
+      <c r="AP63">
         <v>0.25</v>
       </c>
-      <c r="AO63">
-        <v>0.67</v>
-      </c>
-      <c r="AP63">
-        <v>0.2</v>
-      </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR63">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="AS63">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="AT63">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="AU63">
         <v>8</v>
@@ -14009,25 +14009,25 @@
         <v>1.38</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>0.86</v>
       </c>
       <c r="AO64">
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>1.13</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR64">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AS64">
-        <v>0.82</v>
+        <v>1.18</v>
       </c>
       <c r="AT64">
-        <v>1.74</v>
+        <v>2.01</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14218,22 +14218,22 @@
         <v>3</v>
       </c>
       <c r="AO65">
-        <v>2.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP65">
         <v>3</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="AS65">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="AT65">
-        <v>4.1</v>
+        <v>3.87</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14421,25 +14421,25 @@
         <v>3</v>
       </c>
       <c r="AN66">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AO66">
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ66">
         <v>0</v>
       </c>
       <c r="AR66">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AS66">
-        <v>0.92</v>
+        <v>1.1</v>
       </c>
       <c r="AT66">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14627,25 +14627,25 @@
         <v>2.2</v>
       </c>
       <c r="AN67">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO67">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="AS67">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="AT67">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AU67">
         <v>10</v>
@@ -14833,25 +14833,25 @@
         <v>2.15</v>
       </c>
       <c r="AN68">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO68">
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR68">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AT68">
-        <v>3.92</v>
+        <v>3.84</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15039,25 +15039,25 @@
         <v>2.18</v>
       </c>
       <c r="AN69">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR69">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="AS69">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT69">
-        <v>2.94</v>
+        <v>2.64</v>
       </c>
       <c r="AU69">
         <v>5</v>
@@ -15245,25 +15245,25 @@
         <v>3.08</v>
       </c>
       <c r="AN70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO70">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP70">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="AS70">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT70">
-        <v>3.51</v>
+        <v>3.02</v>
       </c>
       <c r="AU70">
         <v>9</v>
@@ -15454,22 +15454,22 @@
         <v>1</v>
       </c>
       <c r="AO71">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
         <v>2</v>
       </c>
       <c r="AR71">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AS71">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="AT71">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="AU71">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,9 @@
     <t>['21', '90+1', '90+4']</t>
   </si>
   <si>
+    <t>['49', '55']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -545,6 +548,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['8', '10']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1171,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1243,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1449,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1577,7 +1583,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1655,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1783,7 +1789,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1861,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -1989,7 +1995,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2273,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2479,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2607,7 +2613,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2685,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2891,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3091,25 +3097,25 @@
         <v>2</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>10</v>
@@ -3300,22 +3306,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AR12">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>8</v>
@@ -3431,7 +3437,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3503,25 +3509,25 @@
         <v>2.55</v>
       </c>
       <c r="AN13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
         <v>1.75</v>
       </c>
-      <c r="AQ13">
-        <v>1.25</v>
-      </c>
       <c r="AR13">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -3709,7 +3715,7 @@
         <v>2.75</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3718,16 +3724,16 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>7</v>
@@ -3843,7 +3849,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3918,22 +3924,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP15">
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>8</v>
@@ -4049,7 +4055,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4121,25 +4127,25 @@
         <v>1.02</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>3</v>
       </c>
       <c r="AR16">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4255,7 +4261,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4330,22 +4336,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>3</v>
@@ -4533,25 +4539,25 @@
         <v>1.36</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -4742,22 +4748,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -4951,19 +4957,19 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AT20">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -5079,7 +5085,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5157,19 +5163,19 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ21">
         <v>3</v>
       </c>
       <c r="AR21">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="AS21">
-        <v>2.56</v>
+        <v>2.27</v>
       </c>
       <c r="AT21">
-        <v>3.61</v>
+        <v>3.23</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5285,7 +5291,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5357,25 +5363,25 @@
         <v>1.22</v>
       </c>
       <c r="AN22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ22">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
       </c>
       <c r="AS22">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AT22">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AU22">
         <v>4</v>
@@ -5569,19 +5575,19 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>2</v>
       </c>
       <c r="AR23">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AS23">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AT23">
-        <v>3.23</v>
+        <v>2.89</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -5769,25 +5775,25 @@
         <v>1.57</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="AS24">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AT24">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -5903,7 +5909,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5978,22 +5984,22 @@
         <v>1</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ25">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AT25">
-        <v>3.11</v>
+        <v>2.85</v>
       </c>
       <c r="AU25">
         <v>7</v>
@@ -6187,19 +6193,19 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="AS26">
-        <v>1.42</v>
+        <v>1.03</v>
       </c>
       <c r="AT26">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="AU26">
         <v>7</v>
@@ -6315,7 +6321,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6390,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -6399,13 +6405,13 @@
         <v>2</v>
       </c>
       <c r="AR27">
-        <v>1.21</v>
+        <v>1.81</v>
       </c>
       <c r="AS27">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AT27">
-        <v>2.67</v>
+        <v>3.09</v>
       </c>
       <c r="AU27">
         <v>2</v>
@@ -6521,7 +6527,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6596,22 +6602,22 @@
         <v>0</v>
       </c>
       <c r="AO28">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AS28">
-        <v>1.29</v>
+        <v>1.74</v>
       </c>
       <c r="AT28">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="AU28">
         <v>3</v>
@@ -6727,7 +6733,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6802,22 +6808,22 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
-        <v>1.64</v>
+        <v>2.19</v>
       </c>
       <c r="AS29">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AT29">
-        <v>2.69</v>
+        <v>2.99</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7005,25 +7011,25 @@
         <v>2.15</v>
       </c>
       <c r="AN30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>1.64</v>
+        <v>2.4</v>
       </c>
       <c r="AS30">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AT30">
-        <v>2.46</v>
+        <v>3.19</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7139,7 +7145,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7211,25 +7217,25 @@
         <v>1.47</v>
       </c>
       <c r="AN31">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO31">
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AS31">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -7345,7 +7351,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7417,25 +7423,25 @@
         <v>1.4</v>
       </c>
       <c r="AN32">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT32">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7626,22 +7632,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="AS33">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AT33">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7832,22 +7838,22 @@
         <v>3</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34">
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
-        <v>2.57</v>
+        <v>2.85</v>
       </c>
       <c r="AS34">
-        <v>1.56</v>
+        <v>0.86</v>
       </c>
       <c r="AT34">
-        <v>4.13</v>
+        <v>3.71</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8044,16 +8050,16 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AS35">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT35">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="AU35">
         <v>12</v>
@@ -8241,25 +8247,25 @@
         <v>3.75</v>
       </c>
       <c r="AN36">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
       </c>
       <c r="AS36">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="AT36">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
       <c r="AU36">
         <v>13</v>
@@ -8375,7 +8381,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8450,22 +8456,22 @@
         <v>2</v>
       </c>
       <c r="AO37">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AS37">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="AT37">
-        <v>3.31</v>
+        <v>2.96</v>
       </c>
       <c r="AU37">
         <v>6</v>
@@ -8653,25 +8659,25 @@
         <v>1.4</v>
       </c>
       <c r="AN38">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>0.83</v>
       </c>
       <c r="AS38">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="AT38">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -8787,7 +8793,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8859,25 +8865,25 @@
         <v>2.8</v>
       </c>
       <c r="AN39">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO39">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP39">
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR39">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="AS39">
-        <v>1.74</v>
+        <v>0.89</v>
       </c>
       <c r="AT39">
-        <v>3.41</v>
+        <v>2.71</v>
       </c>
       <c r="AU39">
         <v>20</v>
@@ -8993,7 +8999,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9065,25 +9071,25 @@
         <v>1.74</v>
       </c>
       <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0.8</v>
+      </c>
+      <c r="AQ40">
         <v>1.5</v>
       </c>
-      <c r="AO40">
-        <v>0.75</v>
-      </c>
-      <c r="AP40">
-        <v>1.25</v>
-      </c>
-      <c r="AQ40">
-        <v>1.63</v>
-      </c>
       <c r="AR40">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AS40">
-        <v>1.37</v>
+        <v>0.82</v>
       </c>
       <c r="AT40">
-        <v>2.57</v>
+        <v>2.03</v>
       </c>
       <c r="AU40">
         <v>8</v>
@@ -9271,22 +9277,22 @@
         <v>1.9</v>
       </c>
       <c r="AN41">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AS41">
-        <v>1.03</v>
+        <v>0.91</v>
       </c>
       <c r="AT41">
         <v>1.99</v>
@@ -9480,22 +9486,22 @@
         <v>0.5</v>
       </c>
       <c r="AO42">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AS42">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="AT42">
-        <v>2.01</v>
+        <v>2.37</v>
       </c>
       <c r="AU42">
         <v>3</v>
@@ -9683,25 +9689,25 @@
         <v>2.8</v>
       </c>
       <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>2.19</v>
+      </c>
+      <c r="AS43">
         <v>1.25</v>
       </c>
-      <c r="AO43">
-        <v>1</v>
-      </c>
-      <c r="AP43">
-        <v>1.75</v>
-      </c>
-      <c r="AQ43">
-        <v>1</v>
-      </c>
-      <c r="AR43">
-        <v>1.96</v>
-      </c>
-      <c r="AS43">
-        <v>1.71</v>
-      </c>
       <c r="AT43">
-        <v>3.67</v>
+        <v>3.44</v>
       </c>
       <c r="AU43">
         <v>10</v>
@@ -9889,25 +9895,25 @@
         <v>2.7</v>
       </c>
       <c r="AN44">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO44">
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AS44">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AT44">
-        <v>2.97</v>
+        <v>2.63</v>
       </c>
       <c r="AU44">
         <v>15</v>
@@ -10023,7 +10029,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10095,25 +10101,25 @@
         <v>1.12</v>
       </c>
       <c r="AN45">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>2</v>
       </c>
       <c r="AR45">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AS45">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="AT45">
-        <v>2.94</v>
+        <v>2.69</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10229,7 +10235,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10301,25 +10307,25 @@
         <v>2.4</v>
       </c>
       <c r="AN46">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO46">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AQ46">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AS46">
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="AT46">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="AU46">
         <v>3</v>
@@ -10435,7 +10441,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10510,22 +10516,22 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AP47">
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR47">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="AS47">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AT47">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AU47">
         <v>11</v>
@@ -10641,7 +10647,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10713,25 +10719,25 @@
         <v>1.28</v>
       </c>
       <c r="AN48">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="AS48">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="AT48">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="AU48">
         <v>5</v>
@@ -10847,7 +10853,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -10919,25 +10925,25 @@
         <v>2.4</v>
       </c>
       <c r="AN49">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO49">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR49">
-        <v>0.97</v>
+        <v>1.18</v>
       </c>
       <c r="AS49">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AT49">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11053,7 +11059,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11125,25 +11131,25 @@
         <v>1.55</v>
       </c>
       <c r="AN50">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR50">
-        <v>1.6</v>
+        <v>2.16</v>
       </c>
       <c r="AS50">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="AT50">
-        <v>2.91</v>
+        <v>3.68</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11259,7 +11265,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11331,25 +11337,25 @@
         <v>1.14</v>
       </c>
       <c r="AN51">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AO51">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="AS51">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="AT51">
-        <v>2.91</v>
+        <v>2.55</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11537,25 +11543,25 @@
         <v>5.45</v>
       </c>
       <c r="AN52">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AR52">
-        <v>1.93</v>
+        <v>2.23</v>
       </c>
       <c r="AS52">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT52">
-        <v>2.81</v>
+        <v>3.05</v>
       </c>
       <c r="AU52">
         <v>6</v>
@@ -11671,7 +11677,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11743,25 +11749,25 @@
         <v>1.06</v>
       </c>
       <c r="AN53">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO53">
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>3</v>
       </c>
       <c r="AR53">
-        <v>1.26</v>
+        <v>1.65</v>
       </c>
       <c r="AS53">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="AT53">
-        <v>3.91</v>
+        <v>4.08</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -11877,7 +11883,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -11949,25 +11955,25 @@
         <v>1.48</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO54">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54">
+        <v>1.37</v>
+      </c>
+      <c r="AS54">
         <v>1.22</v>
       </c>
-      <c r="AS54">
-        <v>1.65</v>
-      </c>
       <c r="AT54">
-        <v>2.87</v>
+        <v>2.59</v>
       </c>
       <c r="AU54">
         <v>10</v>
@@ -12083,7 +12089,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12155,25 +12161,25 @@
         <v>1.05</v>
       </c>
       <c r="AN55">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO55">
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55">
         <v>3</v>
       </c>
       <c r="AR55">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AS55">
-        <v>2.53</v>
+        <v>2.26</v>
       </c>
       <c r="AT55">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12289,7 +12295,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12364,22 +12370,22 @@
         <v>1</v>
       </c>
       <c r="AO56">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="AS56">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="AT56">
-        <v>3.16</v>
+        <v>3.39</v>
       </c>
       <c r="AU56">
         <v>5</v>
@@ -12495,7 +12501,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -12567,25 +12573,25 @@
         <v>1.95</v>
       </c>
       <c r="AN57">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO57">
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR57">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AS57">
-        <v>1.21</v>
+        <v>0.99</v>
       </c>
       <c r="AT57">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="AU57">
         <v>7</v>
@@ -12773,25 +12779,25 @@
         <v>1.77</v>
       </c>
       <c r="AN58">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AS58">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AT58">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -12979,25 +12985,25 @@
         <v>4.33</v>
       </c>
       <c r="AN59">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AR59">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="AS59">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="AT59">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="AU59">
         <v>6</v>
@@ -13185,25 +13191,25 @@
         <v>1.72</v>
       </c>
       <c r="AN60">
+        <v>1.67</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1.25</v>
+      </c>
+      <c r="AQ60">
         <v>1.5</v>
       </c>
-      <c r="AO60">
+      <c r="AR60">
         <v>1.17</v>
       </c>
-      <c r="AP60">
-        <v>1.13</v>
-      </c>
-      <c r="AQ60">
-        <v>1.63</v>
-      </c>
-      <c r="AR60">
-        <v>1.18</v>
-      </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>2.51</v>
+        <v>2.17</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -13319,7 +13325,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13394,22 +13400,22 @@
         <v>0</v>
       </c>
       <c r="AO61">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP61">
         <v>0</v>
       </c>
       <c r="AQ61">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AT61">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -13525,7 +13531,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13597,25 +13603,25 @@
         <v>2.4</v>
       </c>
       <c r="AN62">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AO62">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AP62">
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AR62">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="AS62">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT62">
-        <v>3.14</v>
+        <v>3.93</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13803,25 +13809,25 @@
         <v>1.44</v>
       </c>
       <c r="AN63">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AO63">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ63">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="AS63">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="AT63">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="AU63">
         <v>8</v>
@@ -14009,25 +14015,25 @@
         <v>1.38</v>
       </c>
       <c r="AN64">
-        <v>0.86</v>
+        <v>2</v>
       </c>
       <c r="AO64">
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AS64">
-        <v>1.18</v>
+        <v>0.82</v>
       </c>
       <c r="AT64">
-        <v>2.01</v>
+        <v>1.74</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14218,22 +14224,22 @@
         <v>3</v>
       </c>
       <c r="AO65">
-        <v>1.43</v>
+        <v>2.33</v>
       </c>
       <c r="AP65">
         <v>3</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR65">
-        <v>2.38</v>
+        <v>2.79</v>
       </c>
       <c r="AS65">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="AT65">
-        <v>3.87</v>
+        <v>4.1</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14349,7 +14355,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14421,25 +14427,25 @@
         <v>3</v>
       </c>
       <c r="AN66">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AO66">
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AQ66">
         <v>0</v>
       </c>
       <c r="AR66">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AS66">
-        <v>1.1</v>
+        <v>0.92</v>
       </c>
       <c r="AT66">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="AU66">
         <v>9</v>
@@ -14555,7 +14561,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14627,25 +14633,25 @@
         <v>2.2</v>
       </c>
       <c r="AN67">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO67">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR67">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="AS67">
-        <v>1.34</v>
+        <v>1.07</v>
       </c>
       <c r="AT67">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="AU67">
         <v>10</v>
@@ -14761,7 +14767,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -14833,25 +14839,25 @@
         <v>2.15</v>
       </c>
       <c r="AN68">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO68">
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AQ68">
+        <v>1.5</v>
+      </c>
+      <c r="AR68">
+        <v>2.17</v>
+      </c>
+      <c r="AS68">
         <v>1.75</v>
       </c>
-      <c r="AR68">
-        <v>1.96</v>
-      </c>
-      <c r="AS68">
-        <v>1.88</v>
-      </c>
       <c r="AT68">
-        <v>3.84</v>
+        <v>3.92</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15039,25 +15045,25 @@
         <v>2.18</v>
       </c>
       <c r="AN69">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
-        <v>1.64</v>
+        <v>2.09</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AT69">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="AU69">
         <v>5</v>
@@ -15173,7 +15179,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15245,25 +15251,25 @@
         <v>3.08</v>
       </c>
       <c r="AN70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO70">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="AS70">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AT70">
-        <v>3.02</v>
+        <v>3.51</v>
       </c>
       <c r="AU70">
         <v>9</v>
@@ -15454,22 +15460,22 @@
         <v>1</v>
       </c>
       <c r="AO71">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>2</v>
       </c>
       <c r="AR71">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AS71">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="AT71">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15536,6 +15542,212 @@
       </c>
       <c r="BP71">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7466125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45584.47916666666</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q72">
+        <v>2.1</v>
+      </c>
+      <c r="R72">
+        <v>2.4</v>
+      </c>
+      <c r="S72">
+        <v>5.5</v>
+      </c>
+      <c r="T72">
+        <v>1.33</v>
+      </c>
+      <c r="U72">
+        <v>3.25</v>
+      </c>
+      <c r="V72">
+        <v>2.5</v>
+      </c>
+      <c r="W72">
+        <v>1.5</v>
+      </c>
+      <c r="X72">
+        <v>6.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>1.57</v>
+      </c>
+      <c r="AA72">
+        <v>4.2</v>
+      </c>
+      <c r="AB72">
+        <v>5.25</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1.7</v>
+      </c>
+      <c r="AH72">
+        <v>2.05</v>
+      </c>
+      <c r="AI72">
+        <v>1.8</v>
+      </c>
+      <c r="AJ72">
+        <v>1.95</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0.75</v>
+      </c>
+      <c r="AO72">
+        <v>0.33</v>
+      </c>
+      <c r="AP72">
+        <v>0.8</v>
+      </c>
+      <c r="AQ72">
+        <v>0.5</v>
+      </c>
+      <c r="AR72">
+        <v>1.63</v>
+      </c>
+      <c r="AS72">
+        <v>1.33</v>
+      </c>
+      <c r="AT72">
+        <v>2.96</v>
+      </c>
+      <c r="AU72">
+        <v>8</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>20</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>3</v>
+      </c>
+      <c r="BC72">
+        <v>8</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,7 +439,7 @@
     <t>['21', '90+1', '90+4']</t>
   </si>
   <si>
-    <t>['49', '55']</t>
+    <t>['12', '28', '76']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -550,7 +550,13 @@
     <t>['79']</t>
   </si>
   <si>
-    <t>['8', '10']</t>
+    <t>['25', '34', '63', '82']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['54', '78']</t>
   </si>
 </sst>
 </file>
@@ -912,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2279,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -3106,7 +3112,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3312,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4133,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4339,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4545,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -4754,7 +4760,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5372,7 +5378,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
@@ -5575,7 +5581,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5781,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -5987,7 +5993,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ25">
         <v>1.5</v>
@@ -7020,7 +7026,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
         <v>2.4</v>
@@ -7223,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7635,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8459,7 +8465,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -9077,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9283,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9489,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10107,7 +10113,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10728,7 +10734,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.91</v>
@@ -11552,7 +11558,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>2.23</v>
@@ -11961,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12167,7 +12173,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
         <v>3</v>
@@ -12579,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12785,10 +12791,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -12994,7 +13000,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR59">
         <v>2.11</v>
@@ -13197,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13406,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13612,7 +13618,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR62">
         <v>2.58</v>
@@ -15549,7 +15555,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7466125</v>
+        <v>7466130</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15558,196 +15564,814 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45584.47916666666</v>
+        <v>45585.30208333334</v>
       </c>
       <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>91</v>
+      </c>
+      <c r="P72" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>2.05</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>1.44</v>
+      </c>
+      <c r="U72">
+        <v>2.63</v>
+      </c>
+      <c r="V72">
+        <v>3.25</v>
+      </c>
+      <c r="W72">
+        <v>1.33</v>
+      </c>
+      <c r="X72">
         <v>9</v>
       </c>
-      <c r="G72" t="s">
-        <v>75</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="Y72">
+        <v>1.07</v>
+      </c>
+      <c r="Z72">
+        <v>2.31</v>
+      </c>
+      <c r="AA72">
+        <v>3.6</v>
+      </c>
+      <c r="AB72">
+        <v>2.7</v>
+      </c>
+      <c r="AC72">
+        <v>1.04</v>
+      </c>
+      <c r="AD72">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE72">
+        <v>1.32</v>
+      </c>
+      <c r="AF72">
+        <v>3.26</v>
+      </c>
+      <c r="AG72">
+        <v>1.63</v>
+      </c>
+      <c r="AH72">
+        <v>2.09</v>
+      </c>
+      <c r="AI72">
+        <v>1.95</v>
+      </c>
+      <c r="AJ72">
+        <v>1.8</v>
+      </c>
+      <c r="AK72">
+        <v>1.36</v>
+      </c>
+      <c r="AL72">
+        <v>1.28</v>
+      </c>
+      <c r="AM72">
+        <v>1.68</v>
+      </c>
+      <c r="AN72">
+        <v>1.5</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>1.4</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>1.05</v>
+      </c>
+      <c r="AS72">
+        <v>1.05</v>
+      </c>
+      <c r="AT72">
+        <v>2.1</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>12</v>
+      </c>
+      <c r="AY72">
+        <v>6</v>
+      </c>
+      <c r="AZ72">
+        <v>24</v>
+      </c>
+      <c r="BA72">
+        <v>2</v>
+      </c>
+      <c r="BB72">
+        <v>10</v>
+      </c>
+      <c r="BC72">
+        <v>12</v>
+      </c>
+      <c r="BD72">
+        <v>1.85</v>
+      </c>
+      <c r="BE72">
+        <v>6.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.45</v>
+      </c>
+      <c r="BG72">
+        <v>1.26</v>
+      </c>
+      <c r="BH72">
+        <v>3.6</v>
+      </c>
+      <c r="BI72">
+        <v>1.45</v>
+      </c>
+      <c r="BJ72">
+        <v>2.65</v>
+      </c>
+      <c r="BK72">
+        <v>1.75</v>
+      </c>
+      <c r="BL72">
+        <v>2.05</v>
+      </c>
+      <c r="BM72">
+        <v>2.2</v>
+      </c>
+      <c r="BN72">
+        <v>1.63</v>
+      </c>
+      <c r="BO72">
+        <v>2.85</v>
+      </c>
+      <c r="BP72">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7466132</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45585.39583333334</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>7</v>
+      </c>
+      <c r="O73" t="s">
+        <v>141</v>
+      </c>
+      <c r="P73" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q73">
+        <v>6.5</v>
+      </c>
+      <c r="R73">
+        <v>2.6</v>
+      </c>
+      <c r="S73">
+        <v>1.83</v>
+      </c>
+      <c r="T73">
+        <v>1.25</v>
+      </c>
+      <c r="U73">
+        <v>3.75</v>
+      </c>
+      <c r="V73">
+        <v>2.2</v>
+      </c>
+      <c r="W73">
+        <v>1.62</v>
+      </c>
+      <c r="X73">
+        <v>5</v>
+      </c>
+      <c r="Y73">
+        <v>1.17</v>
+      </c>
+      <c r="Z73">
+        <v>7.03</v>
+      </c>
+      <c r="AA73">
+        <v>5.2</v>
+      </c>
+      <c r="AB73">
+        <v>1.35</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>21</v>
+      </c>
+      <c r="AE73">
+        <v>1.14</v>
+      </c>
+      <c r="AF73">
+        <v>5.31</v>
+      </c>
+      <c r="AG73">
+        <v>1.48</v>
+      </c>
+      <c r="AH73">
+        <v>2.54</v>
+      </c>
+      <c r="AI73">
+        <v>1.75</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>2.8</v>
+      </c>
+      <c r="AL73">
+        <v>1.15</v>
+      </c>
+      <c r="AM73">
+        <v>1.1</v>
+      </c>
+      <c r="AN73">
+        <v>1.25</v>
+      </c>
+      <c r="AO73">
+        <v>1.33</v>
+      </c>
+      <c r="AP73">
+        <v>1</v>
+      </c>
+      <c r="AQ73">
+        <v>1.75</v>
+      </c>
+      <c r="AR73">
+        <v>1.54</v>
+      </c>
+      <c r="AS73">
+        <v>1.61</v>
+      </c>
+      <c r="AT73">
+        <v>3.15</v>
+      </c>
+      <c r="AU73">
+        <v>7</v>
+      </c>
+      <c r="AV73">
+        <v>7</v>
+      </c>
+      <c r="AW73">
+        <v>4</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>15</v>
+      </c>
+      <c r="AZ73">
+        <v>19</v>
+      </c>
+      <c r="BA73">
+        <v>3</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>3</v>
+      </c>
+      <c r="BD73">
+        <v>6</v>
+      </c>
+      <c r="BE73">
+        <v>10</v>
+      </c>
+      <c r="BF73">
+        <v>1.2</v>
+      </c>
+      <c r="BG73">
+        <v>1.14</v>
+      </c>
+      <c r="BH73">
+        <v>4.2</v>
+      </c>
+      <c r="BI73">
+        <v>1.36</v>
+      </c>
+      <c r="BJ73">
+        <v>3</v>
+      </c>
+      <c r="BK73">
+        <v>1.62</v>
+      </c>
+      <c r="BL73">
+        <v>2.3</v>
+      </c>
+      <c r="BM73">
+        <v>1.96</v>
+      </c>
+      <c r="BN73">
+        <v>1.78</v>
+      </c>
+      <c r="BO73">
+        <v>2.5</v>
+      </c>
+      <c r="BP73">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>2</v>
-      </c>
-      <c r="K72">
-        <v>2</v>
-      </c>
-      <c r="L72">
-        <v>2</v>
-      </c>
-      <c r="M72">
-        <v>2</v>
-      </c>
-      <c r="N72">
+      <c r="B74">
+        <v>7466131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45585.39583333334</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>91</v>
+      </c>
+      <c r="P74" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q74">
+        <v>3.6</v>
+      </c>
+      <c r="R74">
+        <v>2.2</v>
+      </c>
+      <c r="S74">
+        <v>2.88</v>
+      </c>
+      <c r="T74">
+        <v>1.36</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>2.63</v>
+      </c>
+      <c r="W74">
+        <v>1.44</v>
+      </c>
+      <c r="X74">
+        <v>7</v>
+      </c>
+      <c r="Y74">
+        <v>1.1</v>
+      </c>
+      <c r="Z74">
+        <v>3.07</v>
+      </c>
+      <c r="AA74">
+        <v>3.6</v>
+      </c>
+      <c r="AB74">
+        <v>2.12</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>13</v>
+      </c>
+      <c r="AE74">
+        <v>1.24</v>
+      </c>
+      <c r="AF74">
+        <v>3.92</v>
+      </c>
+      <c r="AG74">
+        <v>1.61</v>
+      </c>
+      <c r="AH74">
+        <v>2.13</v>
+      </c>
+      <c r="AI74">
+        <v>1.67</v>
+      </c>
+      <c r="AJ74">
+        <v>2.1</v>
+      </c>
+      <c r="AK74">
+        <v>1.8</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.32</v>
+      </c>
+      <c r="AN74">
+        <v>1.25</v>
+      </c>
+      <c r="AO74">
+        <v>2.33</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>2.5</v>
+      </c>
+      <c r="AR74">
+        <v>1.07</v>
+      </c>
+      <c r="AS74">
+        <v>1.19</v>
+      </c>
+      <c r="AT74">
+        <v>2.26</v>
+      </c>
+      <c r="AU74">
         <v>4</v>
       </c>
-      <c r="O72" t="s">
-        <v>141</v>
-      </c>
-      <c r="P72" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q72">
-        <v>2.1</v>
-      </c>
-      <c r="R72">
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
+        <v>9</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>16</v>
+      </c>
+      <c r="AZ74">
+        <v>11</v>
+      </c>
+      <c r="BA74">
+        <v>4</v>
+      </c>
+      <c r="BB74">
+        <v>5</v>
+      </c>
+      <c r="BC74">
+        <v>9</v>
+      </c>
+      <c r="BD74">
+        <v>2.25</v>
+      </c>
+      <c r="BE74">
+        <v>6.5</v>
+      </c>
+      <c r="BF74">
+        <v>2</v>
+      </c>
+      <c r="BG74">
+        <v>1.15</v>
+      </c>
+      <c r="BH74">
+        <v>4.05</v>
+      </c>
+      <c r="BI74">
+        <v>1.38</v>
+      </c>
+      <c r="BJ74">
+        <v>2.9</v>
+      </c>
+      <c r="BK74">
+        <v>1.63</v>
+      </c>
+      <c r="BL74">
+        <v>2.2</v>
+      </c>
+      <c r="BM74">
+        <v>2</v>
+      </c>
+      <c r="BN74">
+        <v>1.75</v>
+      </c>
+      <c r="BO74">
+        <v>2.55</v>
+      </c>
+      <c r="BP74">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7466133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45585.48958333334</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s">
+        <v>87</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>134</v>
+      </c>
+      <c r="P75" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q75">
+        <v>2.6</v>
+      </c>
+      <c r="R75">
+        <v>2.25</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1.36</v>
+      </c>
+      <c r="U75">
+        <v>3</v>
+      </c>
+      <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>7</v>
+      </c>
+      <c r="Y75">
+        <v>1.1</v>
+      </c>
+      <c r="Z75">
+        <v>1.91</v>
+      </c>
+      <c r="AA75">
+        <v>3.7</v>
+      </c>
+      <c r="AB75">
+        <v>3.7</v>
+      </c>
+      <c r="AC75">
+        <v>1.04</v>
+      </c>
+      <c r="AD75">
+        <v>13</v>
+      </c>
+      <c r="AE75">
+        <v>1.24</v>
+      </c>
+      <c r="AF75">
+        <v>3.89</v>
+      </c>
+      <c r="AG75">
+        <v>1.73</v>
+      </c>
+      <c r="AH75">
+        <v>2</v>
+      </c>
+      <c r="AI75">
+        <v>1.7</v>
+      </c>
+      <c r="AJ75">
+        <v>2.05</v>
+      </c>
+      <c r="AK75">
+        <v>1.28</v>
+      </c>
+      <c r="AL75">
+        <v>1.24</v>
+      </c>
+      <c r="AM75">
+        <v>1.88</v>
+      </c>
+      <c r="AN75">
+        <v>1.5</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>1.2</v>
+      </c>
+      <c r="AQ75">
+        <v>0.6</v>
+      </c>
+      <c r="AR75">
+        <v>1.12</v>
+      </c>
+      <c r="AS75">
+        <v>0.76</v>
+      </c>
+      <c r="AT75">
+        <v>1.88</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>6</v>
+      </c>
+      <c r="AW75">
+        <v>3</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>11</v>
+      </c>
+      <c r="AZ75">
+        <v>13</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>4</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>1.9</v>
+      </c>
+      <c r="BE75">
+        <v>6.5</v>
+      </c>
+      <c r="BF75">
         <v>2.4</v>
       </c>
-      <c r="S72">
-        <v>5.5</v>
-      </c>
-      <c r="T72">
-        <v>1.33</v>
-      </c>
-      <c r="U72">
-        <v>3.25</v>
-      </c>
-      <c r="V72">
-        <v>2.5</v>
-      </c>
-      <c r="W72">
-        <v>1.5</v>
-      </c>
-      <c r="X72">
-        <v>6.5</v>
-      </c>
-      <c r="Y72">
-        <v>1.11</v>
-      </c>
-      <c r="Z72">
-        <v>1.57</v>
-      </c>
-      <c r="AA72">
-        <v>4.2</v>
-      </c>
-      <c r="AB72">
-        <v>5.25</v>
-      </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <v>1.7</v>
-      </c>
-      <c r="AH72">
+      <c r="BG75">
+        <v>1.25</v>
+      </c>
+      <c r="BH75">
+        <v>3.75</v>
+      </c>
+      <c r="BI75">
+        <v>1.44</v>
+      </c>
+      <c r="BJ75">
+        <v>2.65</v>
+      </c>
+      <c r="BK75">
+        <v>1.75</v>
+      </c>
+      <c r="BL75">
         <v>2.05</v>
       </c>
-      <c r="AI72">
-        <v>1.8</v>
-      </c>
-      <c r="AJ72">
-        <v>1.95</v>
-      </c>
-      <c r="AK72">
-        <v>0</v>
-      </c>
-      <c r="AL72">
-        <v>0</v>
-      </c>
-      <c r="AM72">
-        <v>0</v>
-      </c>
-      <c r="AN72">
-        <v>0.75</v>
-      </c>
-      <c r="AO72">
-        <v>0.33</v>
-      </c>
-      <c r="AP72">
-        <v>0.8</v>
-      </c>
-      <c r="AQ72">
-        <v>0.5</v>
-      </c>
-      <c r="AR72">
-        <v>1.63</v>
-      </c>
-      <c r="AS72">
-        <v>1.33</v>
-      </c>
-      <c r="AT72">
-        <v>2.96</v>
-      </c>
-      <c r="AU72">
-        <v>8</v>
-      </c>
-      <c r="AV72">
-        <v>4</v>
-      </c>
-      <c r="AW72">
-        <v>7</v>
-      </c>
-      <c r="AX72">
-        <v>4</v>
-      </c>
-      <c r="AY72">
-        <v>20</v>
-      </c>
-      <c r="AZ72">
-        <v>10</v>
-      </c>
-      <c r="BA72">
-        <v>5</v>
-      </c>
-      <c r="BB72">
-        <v>3</v>
-      </c>
-      <c r="BC72">
-        <v>8</v>
-      </c>
-      <c r="BD72">
-        <v>0</v>
-      </c>
-      <c r="BE72">
-        <v>0</v>
-      </c>
-      <c r="BF72">
-        <v>0</v>
-      </c>
-      <c r="BG72">
-        <v>0</v>
-      </c>
-      <c r="BH72">
-        <v>0</v>
-      </c>
-      <c r="BI72">
-        <v>0</v>
-      </c>
-      <c r="BJ72">
-        <v>0</v>
-      </c>
-      <c r="BK72">
-        <v>0</v>
-      </c>
-      <c r="BL72">
-        <v>0</v>
-      </c>
-      <c r="BM72">
-        <v>0</v>
-      </c>
-      <c r="BN72">
-        <v>0</v>
-      </c>
-      <c r="BO72">
-        <v>0</v>
-      </c>
-      <c r="BP72">
-        <v>0</v>
+      <c r="BM75">
+        <v>2.15</v>
+      </c>
+      <c r="BN75">
+        <v>1.65</v>
+      </c>
+      <c r="BO75">
+        <v>2.8</v>
+      </c>
+      <c r="BP75">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,18 @@
     <t>['21', '90+1', '90+4']</t>
   </si>
   <si>
+    <t>['49', '55']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['3', '53', '65']</t>
+  </si>
+  <si>
+    <t>['23', '47']</t>
+  </si>
+  <si>
     <t>['12', '28', '76']</t>
   </si>
   <si>
@@ -550,13 +562,25 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['8', '10']</t>
+  </si>
+  <si>
+    <t>['15', '22']</t>
+  </si>
+  <si>
+    <t>['11', '90+1']</t>
+  </si>
+  <si>
+    <t>['15', '22', '44', '58', '77']</t>
+  </si>
+  <si>
+    <t>['54', '78']</t>
+  </si>
+  <si>
     <t>['25', '34', '63', '82']</t>
   </si>
   <si>
     <t>['20']</t>
-  </si>
-  <si>
-    <t>['54', '78']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1201,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1589,7 +1613,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1667,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1795,7 +1819,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2001,7 +2025,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2285,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2619,7 +2643,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2697,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3112,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3443,7 +3467,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3727,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -3855,7 +3879,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3933,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4061,7 +4085,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4267,7 +4291,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4348,7 +4372,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4963,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5091,7 +5115,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5297,7 +5321,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5915,7 +5939,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5993,10 +6017,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR25">
         <v>1.08</v>
@@ -6199,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6327,7 +6351,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6405,7 +6429,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -6533,7 +6557,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6739,7 +6763,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7151,7 +7175,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7357,7 +7381,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7438,7 +7462,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.07</v>
@@ -8387,7 +8411,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8468,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -8799,7 +8823,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8877,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9005,7 +9029,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9083,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9498,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10035,7 +10059,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10241,7 +10265,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10447,7 +10471,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10525,7 +10549,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ47">
         <v>1.75</v>
@@ -10653,7 +10677,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10731,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>1.75</v>
@@ -10859,7 +10883,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -10937,7 +10961,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11065,7 +11089,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11271,7 +11295,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11352,7 +11376,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>0.82</v>
@@ -11683,7 +11707,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11889,7 +11913,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12095,7 +12119,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12301,7 +12325,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12379,10 +12403,10 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR56">
         <v>1.55</v>
@@ -12507,7 +12531,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -12585,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12794,7 +12818,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13331,7 +13355,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13409,7 +13433,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AQ61">
         <v>1.75</v>
@@ -13537,7 +13561,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13615,7 +13639,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>2.5</v>
@@ -14361,7 +14385,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14567,7 +14591,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14645,7 +14669,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14773,7 +14797,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -14854,7 +14878,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR68">
         <v>2.17</v>
@@ -15185,7 +15209,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15555,7 +15579,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7466130</v>
+        <v>7466125</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15564,196 +15588,196 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45585.30208333334</v>
+        <v>45584.47916666666</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O72" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R72">
+        <v>2.4</v>
+      </c>
+      <c r="S72">
+        <v>5.5</v>
+      </c>
+      <c r="T72">
+        <v>1.33</v>
+      </c>
+      <c r="U72">
+        <v>3.25</v>
+      </c>
+      <c r="V72">
+        <v>2.5</v>
+      </c>
+      <c r="W72">
+        <v>1.5</v>
+      </c>
+      <c r="X72">
+        <v>6.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>1.57</v>
+      </c>
+      <c r="AA72">
+        <v>4.2</v>
+      </c>
+      <c r="AB72">
+        <v>5.25</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1.7</v>
+      </c>
+      <c r="AH72">
         <v>2.05</v>
       </c>
-      <c r="S72">
+      <c r="AI72">
+        <v>1.8</v>
+      </c>
+      <c r="AJ72">
+        <v>1.95</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0.75</v>
+      </c>
+      <c r="AO72">
+        <v>0.33</v>
+      </c>
+      <c r="AP72">
+        <v>0.8</v>
+      </c>
+      <c r="AQ72">
+        <v>0.5</v>
+      </c>
+      <c r="AR72">
+        <v>1.63</v>
+      </c>
+      <c r="AS72">
+        <v>1.33</v>
+      </c>
+      <c r="AT72">
+        <v>2.96</v>
+      </c>
+      <c r="AU72">
+        <v>8</v>
+      </c>
+      <c r="AV72">
         <v>4</v>
       </c>
-      <c r="T72">
-        <v>1.44</v>
-      </c>
-      <c r="U72">
-        <v>2.63</v>
-      </c>
-      <c r="V72">
-        <v>3.25</v>
-      </c>
-      <c r="W72">
-        <v>1.33</v>
-      </c>
-      <c r="X72">
-        <v>9</v>
-      </c>
-      <c r="Y72">
-        <v>1.07</v>
-      </c>
-      <c r="Z72">
-        <v>2.31</v>
-      </c>
-      <c r="AA72">
-        <v>3.6</v>
-      </c>
-      <c r="AB72">
-        <v>2.7</v>
-      </c>
-      <c r="AC72">
-        <v>1.04</v>
-      </c>
-      <c r="AD72">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="AE72">
-        <v>1.32</v>
-      </c>
-      <c r="AF72">
-        <v>3.26</v>
-      </c>
-      <c r="AG72">
-        <v>1.63</v>
-      </c>
-      <c r="AH72">
-        <v>2.09</v>
-      </c>
-      <c r="AI72">
-        <v>1.95</v>
-      </c>
-      <c r="AJ72">
-        <v>1.8</v>
-      </c>
-      <c r="AK72">
-        <v>1.36</v>
-      </c>
-      <c r="AL72">
-        <v>1.28</v>
-      </c>
-      <c r="AM72">
-        <v>1.68</v>
-      </c>
-      <c r="AN72">
-        <v>1.5</v>
-      </c>
-      <c r="AO72">
-        <v>1</v>
-      </c>
-      <c r="AP72">
-        <v>1.4</v>
-      </c>
-      <c r="AQ72">
-        <v>1</v>
-      </c>
-      <c r="AR72">
-        <v>1.05</v>
-      </c>
-      <c r="AS72">
-        <v>1.05</v>
-      </c>
-      <c r="AT72">
-        <v>2.1</v>
-      </c>
-      <c r="AU72">
-        <v>0</v>
-      </c>
-      <c r="AV72">
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>20</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
         <v>5</v>
       </c>
-      <c r="AW72">
-        <v>5</v>
-      </c>
-      <c r="AX72">
-        <v>12</v>
-      </c>
-      <c r="AY72">
-        <v>6</v>
-      </c>
-      <c r="AZ72">
-        <v>24</v>
-      </c>
-      <c r="BA72">
-        <v>2</v>
-      </c>
       <c r="BB72">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BC72">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD72">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BE72">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="BF72">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BG72">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="BH72">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="BI72">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BJ72">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BK72">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BL72">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BM72">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BN72">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BO72">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="BP72">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15761,7 +15785,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7466132</v>
+        <v>7466126</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15770,196 +15794,196 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45585.39583333334</v>
+        <v>45584.57291666666</v>
       </c>
       <c r="F73">
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>2</v>
       </c>
       <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q73">
         <v>4</v>
       </c>
-      <c r="L73">
-        <v>3</v>
-      </c>
-      <c r="M73">
+      <c r="R73">
+        <v>2.4</v>
+      </c>
+      <c r="S73">
+        <v>2.38</v>
+      </c>
+      <c r="T73">
+        <v>1.29</v>
+      </c>
+      <c r="U73">
+        <v>3.5</v>
+      </c>
+      <c r="V73">
+        <v>2.38</v>
+      </c>
+      <c r="W73">
+        <v>1.53</v>
+      </c>
+      <c r="X73">
+        <v>5.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.14</v>
+      </c>
+      <c r="Z73">
+        <v>3.3</v>
+      </c>
+      <c r="AA73">
+        <v>3.8</v>
+      </c>
+      <c r="AB73">
+        <v>2.1</v>
+      </c>
+      <c r="AC73">
+        <v>1.02</v>
+      </c>
+      <c r="AD73">
+        <v>17</v>
+      </c>
+      <c r="AE73">
+        <v>1.18</v>
+      </c>
+      <c r="AF73">
+        <v>4.65</v>
+      </c>
+      <c r="AG73">
+        <v>1.6</v>
+      </c>
+      <c r="AH73">
+        <v>2.2</v>
+      </c>
+      <c r="AI73">
+        <v>1.57</v>
+      </c>
+      <c r="AJ73">
+        <v>2.25</v>
+      </c>
+      <c r="AK73">
+        <v>1.96</v>
+      </c>
+      <c r="AL73">
+        <v>1.22</v>
+      </c>
+      <c r="AM73">
+        <v>1.26</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>3</v>
+      </c>
+      <c r="AP73">
+        <v>1.5</v>
+      </c>
+      <c r="AQ73">
+        <v>3</v>
+      </c>
+      <c r="AR73">
+        <v>2.44</v>
+      </c>
+      <c r="AS73">
+        <v>2.07</v>
+      </c>
+      <c r="AT73">
+        <v>4.51</v>
+      </c>
+      <c r="AU73">
+        <v>3</v>
+      </c>
+      <c r="AV73">
+        <v>6</v>
+      </c>
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
         <v>4</v>
       </c>
-      <c r="N73">
-        <v>7</v>
-      </c>
-      <c r="O73" t="s">
-        <v>141</v>
-      </c>
-      <c r="P73" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q73">
+      <c r="AY73">
+        <v>6</v>
+      </c>
+      <c r="AZ73">
+        <v>18</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>3</v>
+      </c>
+      <c r="BD73">
+        <v>2.9</v>
+      </c>
+      <c r="BE73">
         <v>6.5</v>
       </c>
-      <c r="R73">
-        <v>2.6</v>
-      </c>
-      <c r="S73">
-        <v>1.83</v>
-      </c>
-      <c r="T73">
-        <v>1.25</v>
-      </c>
-      <c r="U73">
-        <v>3.75</v>
-      </c>
-      <c r="V73">
-        <v>2.2</v>
-      </c>
-      <c r="W73">
-        <v>1.62</v>
-      </c>
-      <c r="X73">
-        <v>5</v>
-      </c>
-      <c r="Y73">
-        <v>1.17</v>
-      </c>
-      <c r="Z73">
-        <v>7.03</v>
-      </c>
-      <c r="AA73">
-        <v>5.2</v>
-      </c>
-      <c r="AB73">
-        <v>1.35</v>
-      </c>
-      <c r="AC73">
-        <v>1.01</v>
-      </c>
-      <c r="AD73">
-        <v>21</v>
-      </c>
-      <c r="AE73">
-        <v>1.14</v>
-      </c>
-      <c r="AF73">
-        <v>5.31</v>
-      </c>
-      <c r="AG73">
-        <v>1.48</v>
-      </c>
-      <c r="AH73">
-        <v>2.54</v>
-      </c>
-      <c r="AI73">
-        <v>1.75</v>
-      </c>
-      <c r="AJ73">
-        <v>2</v>
-      </c>
-      <c r="AK73">
+      <c r="BF73">
+        <v>1.5</v>
+      </c>
+      <c r="BG73">
+        <v>1.43</v>
+      </c>
+      <c r="BH73">
+        <v>2.55</v>
+      </c>
+      <c r="BI73">
+        <v>1.72</v>
+      </c>
+      <c r="BJ73">
+        <v>1.98</v>
+      </c>
+      <c r="BK73">
+        <v>2.17</v>
+      </c>
+      <c r="BL73">
+        <v>1.6</v>
+      </c>
+      <c r="BM73">
         <v>2.8</v>
       </c>
-      <c r="AL73">
-        <v>1.15</v>
-      </c>
-      <c r="AM73">
-        <v>1.1</v>
-      </c>
-      <c r="AN73">
-        <v>1.25</v>
-      </c>
-      <c r="AO73">
-        <v>1.33</v>
-      </c>
-      <c r="AP73">
-        <v>1</v>
-      </c>
-      <c r="AQ73">
-        <v>1.75</v>
-      </c>
-      <c r="AR73">
-        <v>1.54</v>
-      </c>
-      <c r="AS73">
-        <v>1.61</v>
-      </c>
-      <c r="AT73">
-        <v>3.15</v>
-      </c>
-      <c r="AU73">
-        <v>7</v>
-      </c>
-      <c r="AV73">
-        <v>7</v>
-      </c>
-      <c r="AW73">
-        <v>4</v>
-      </c>
-      <c r="AX73">
-        <v>7</v>
-      </c>
-      <c r="AY73">
-        <v>15</v>
-      </c>
-      <c r="AZ73">
-        <v>19</v>
-      </c>
-      <c r="BA73">
-        <v>3</v>
-      </c>
-      <c r="BB73">
-        <v>0</v>
-      </c>
-      <c r="BC73">
-        <v>3</v>
-      </c>
-      <c r="BD73">
-        <v>6</v>
-      </c>
-      <c r="BE73">
-        <v>10</v>
-      </c>
-      <c r="BF73">
-        <v>1.2</v>
-      </c>
-      <c r="BG73">
-        <v>1.14</v>
-      </c>
-      <c r="BH73">
-        <v>4.2</v>
-      </c>
-      <c r="BI73">
+      <c r="BN73">
         <v>1.36</v>
       </c>
-      <c r="BJ73">
-        <v>3</v>
-      </c>
-      <c r="BK73">
-        <v>1.62</v>
-      </c>
-      <c r="BL73">
-        <v>2.3</v>
-      </c>
-      <c r="BM73">
-        <v>1.96</v>
-      </c>
-      <c r="BN73">
-        <v>1.78</v>
-      </c>
       <c r="BO73">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="BP73">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -15967,7 +15991,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7466131</v>
+        <v>7466127</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -15976,196 +16000,196 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45585.39583333334</v>
+        <v>45584.625</v>
       </c>
       <c r="F74">
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H74" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74" t="s">
+        <v>143</v>
+      </c>
+      <c r="P74" t="s">
         <v>91</v>
       </c>
-      <c r="P74" t="s">
-        <v>179</v>
-      </c>
       <c r="Q74">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="R74">
+        <v>2.38</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <v>1.3</v>
+      </c>
+      <c r="U74">
+        <v>3.4</v>
+      </c>
+      <c r="V74">
+        <v>2.5</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>1.13</v>
+      </c>
+      <c r="Z74">
+        <v>1.92</v>
+      </c>
+      <c r="AA74">
+        <v>3.8</v>
+      </c>
+      <c r="AB74">
+        <v>3.56</v>
+      </c>
+      <c r="AC74">
+        <v>1.03</v>
+      </c>
+      <c r="AD74">
+        <v>17</v>
+      </c>
+      <c r="AE74">
+        <v>1.19</v>
+      </c>
+      <c r="AF74">
+        <v>4.45</v>
+      </c>
+      <c r="AG74">
+        <v>1.6</v>
+      </c>
+      <c r="AH74">
+        <v>2.25</v>
+      </c>
+      <c r="AI74">
+        <v>1.62</v>
+      </c>
+      <c r="AJ74">
         <v>2.2</v>
       </c>
-      <c r="S74">
-        <v>2.88</v>
-      </c>
-      <c r="T74">
-        <v>1.36</v>
-      </c>
-      <c r="U74">
-        <v>3</v>
-      </c>
-      <c r="V74">
-        <v>2.63</v>
-      </c>
-      <c r="W74">
+      <c r="AK74">
+        <v>1.28</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>1.92</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>1.4</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
         <v>1.44</v>
       </c>
-      <c r="X74">
-        <v>7</v>
-      </c>
-      <c r="Y74">
-        <v>1.1</v>
-      </c>
-      <c r="Z74">
-        <v>3.07</v>
-      </c>
-      <c r="AA74">
-        <v>3.6</v>
-      </c>
-      <c r="AB74">
-        <v>2.12</v>
-      </c>
-      <c r="AC74">
-        <v>1.04</v>
-      </c>
-      <c r="AD74">
+      <c r="AS74">
+        <v>1.29</v>
+      </c>
+      <c r="AT74">
+        <v>2.73</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
         <v>13</v>
       </c>
-      <c r="AE74">
-        <v>1.24</v>
-      </c>
-      <c r="AF74">
-        <v>3.92</v>
-      </c>
-      <c r="AG74">
-        <v>1.61</v>
-      </c>
-      <c r="AH74">
-        <v>2.13</v>
-      </c>
-      <c r="AI74">
-        <v>1.67</v>
-      </c>
-      <c r="AJ74">
-        <v>2.1</v>
-      </c>
-      <c r="AK74">
-        <v>1.8</v>
-      </c>
-      <c r="AL74">
-        <v>1.25</v>
-      </c>
-      <c r="AM74">
-        <v>1.32</v>
-      </c>
-      <c r="AN74">
-        <v>1.25</v>
-      </c>
-      <c r="AO74">
-        <v>2.33</v>
-      </c>
-      <c r="AP74">
-        <v>1</v>
-      </c>
-      <c r="AQ74">
-        <v>2.5</v>
-      </c>
-      <c r="AR74">
-        <v>1.07</v>
-      </c>
-      <c r="AS74">
-        <v>1.19</v>
-      </c>
-      <c r="AT74">
-        <v>2.26</v>
-      </c>
-      <c r="AU74">
-        <v>4</v>
-      </c>
-      <c r="AV74">
-        <v>4</v>
-      </c>
-      <c r="AW74">
+      <c r="AZ74">
         <v>9</v>
-      </c>
-      <c r="AX74">
-        <v>4</v>
-      </c>
-      <c r="AY74">
-        <v>16</v>
-      </c>
-      <c r="AZ74">
-        <v>11</v>
       </c>
       <c r="BA74">
         <v>4</v>
       </c>
       <c r="BB74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC74">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD74">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="BE74">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF74">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="BG74">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BH74">
-        <v>4.05</v>
+        <v>4.8</v>
       </c>
       <c r="BI74">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="BJ74">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BK74">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="BL74">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="BM74">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="BN74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="BO74">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="BP74">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16173,7 +16197,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7466133</v>
+        <v>7466128</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16182,196 +16206,1226 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45585.48958333334</v>
+        <v>45584.625</v>
       </c>
       <c r="F75">
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <v>2</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O75" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q75">
+        <v>6.5</v>
+      </c>
+      <c r="R75">
         <v>2.6</v>
       </c>
-      <c r="R75">
+      <c r="S75">
+        <v>1.91</v>
+      </c>
+      <c r="T75">
+        <v>1.25</v>
+      </c>
+      <c r="U75">
+        <v>3.75</v>
+      </c>
+      <c r="V75">
         <v>2.25</v>
       </c>
-      <c r="S75">
+      <c r="W75">
+        <v>1.57</v>
+      </c>
+      <c r="X75">
+        <v>5.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.14</v>
+      </c>
+      <c r="Z75">
+        <v>6.78</v>
+      </c>
+      <c r="AA75">
+        <v>5.05</v>
+      </c>
+      <c r="AB75">
+        <v>1.39</v>
+      </c>
+      <c r="AC75">
+        <v>1.02</v>
+      </c>
+      <c r="AD75">
+        <v>19</v>
+      </c>
+      <c r="AE75">
+        <v>1.16</v>
+      </c>
+      <c r="AF75">
+        <v>4.87</v>
+      </c>
+      <c r="AG75">
+        <v>1.51</v>
+      </c>
+      <c r="AH75">
+        <v>2.46</v>
+      </c>
+      <c r="AI75">
+        <v>1.75</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>3.2</v>
+      </c>
+      <c r="AL75">
+        <v>1.13</v>
+      </c>
+      <c r="AM75">
+        <v>1.06</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>1.5</v>
+      </c>
+      <c r="AP75">
+        <v>0.2</v>
+      </c>
+      <c r="AQ75">
+        <v>1.4</v>
+      </c>
+      <c r="AR75">
+        <v>1.24</v>
+      </c>
+      <c r="AS75">
+        <v>1.61</v>
+      </c>
+      <c r="AT75">
+        <v>2.85</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>8</v>
+      </c>
+      <c r="AW75">
         <v>4</v>
       </c>
-      <c r="T75">
-        <v>1.36</v>
-      </c>
-      <c r="U75">
-        <v>3</v>
-      </c>
-      <c r="V75">
-        <v>2.63</v>
-      </c>
-      <c r="W75">
-        <v>1.44</v>
-      </c>
-      <c r="X75">
-        <v>7</v>
-      </c>
-      <c r="Y75">
-        <v>1.1</v>
-      </c>
-      <c r="Z75">
-        <v>1.91</v>
-      </c>
-      <c r="AA75">
-        <v>3.7</v>
-      </c>
-      <c r="AB75">
-        <v>3.7</v>
-      </c>
-      <c r="AC75">
-        <v>1.04</v>
-      </c>
-      <c r="AD75">
+      <c r="AX75">
+        <v>8</v>
+      </c>
+      <c r="AY75">
+        <v>10</v>
+      </c>
+      <c r="AZ75">
+        <v>17</v>
+      </c>
+      <c r="BA75">
+        <v>3</v>
+      </c>
+      <c r="BB75">
+        <v>10</v>
+      </c>
+      <c r="BC75">
         <v>13</v>
       </c>
-      <c r="AE75">
-        <v>1.24</v>
-      </c>
-      <c r="AF75">
-        <v>3.89</v>
-      </c>
-      <c r="AG75">
-        <v>1.73</v>
-      </c>
-      <c r="AH75">
-        <v>2</v>
-      </c>
-      <c r="AI75">
-        <v>1.7</v>
-      </c>
-      <c r="AJ75">
-        <v>2.05</v>
-      </c>
-      <c r="AK75">
-        <v>1.28</v>
-      </c>
-      <c r="AL75">
-        <v>1.24</v>
-      </c>
-      <c r="AM75">
-        <v>1.88</v>
-      </c>
-      <c r="AN75">
-        <v>1.5</v>
-      </c>
-      <c r="AO75">
-        <v>0</v>
-      </c>
-      <c r="AP75">
-        <v>1.2</v>
-      </c>
-      <c r="AQ75">
-        <v>0.6</v>
-      </c>
-      <c r="AR75">
-        <v>1.12</v>
-      </c>
-      <c r="AS75">
-        <v>0.76</v>
-      </c>
-      <c r="AT75">
-        <v>1.88</v>
-      </c>
-      <c r="AU75">
-        <v>4</v>
-      </c>
-      <c r="AV75">
-        <v>6</v>
-      </c>
-      <c r="AW75">
-        <v>3</v>
-      </c>
-      <c r="AX75">
-        <v>4</v>
-      </c>
-      <c r="AY75">
-        <v>11</v>
-      </c>
-      <c r="AZ75">
-        <v>13</v>
-      </c>
-      <c r="BA75">
-        <v>7</v>
-      </c>
-      <c r="BB75">
-        <v>4</v>
-      </c>
-      <c r="BC75">
-        <v>11</v>
-      </c>
       <c r="BD75">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="BE75">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF75">
-        <v>2.4</v>
+        <v>1.22</v>
       </c>
       <c r="BG75">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH75">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="BI75">
         <v>1.44</v>
       </c>
       <c r="BJ75">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BK75">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="BL75">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="BM75">
         <v>2.15</v>
       </c>
       <c r="BN75">
+        <v>1.61</v>
+      </c>
+      <c r="BO75">
+        <v>2.7</v>
+      </c>
+      <c r="BP75">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7466129</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45584.66666666666</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>6</v>
+      </c>
+      <c r="O76" t="s">
+        <v>134</v>
+      </c>
+      <c r="P76" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>2.38</v>
+      </c>
+      <c r="S76">
+        <v>2.2</v>
+      </c>
+      <c r="T76">
+        <v>1.3</v>
+      </c>
+      <c r="U76">
+        <v>3.4</v>
+      </c>
+      <c r="V76">
+        <v>2.5</v>
+      </c>
+      <c r="W76">
+        <v>1.5</v>
+      </c>
+      <c r="X76">
+        <v>6</v>
+      </c>
+      <c r="Y76">
+        <v>1.13</v>
+      </c>
+      <c r="Z76">
+        <v>4.84</v>
+      </c>
+      <c r="AA76">
+        <v>4.15</v>
+      </c>
+      <c r="AB76">
+        <v>1.62</v>
+      </c>
+      <c r="AC76">
+        <v>1.03</v>
+      </c>
+      <c r="AD76">
+        <v>15</v>
+      </c>
+      <c r="AE76">
+        <v>1.21</v>
+      </c>
+      <c r="AF76">
+        <v>4.25</v>
+      </c>
+      <c r="AG76">
+        <v>1.62</v>
+      </c>
+      <c r="AH76">
+        <v>2.21</v>
+      </c>
+      <c r="AI76">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>2.35</v>
+      </c>
+      <c r="AL76">
+        <v>1.19</v>
+      </c>
+      <c r="AM76">
+        <v>1.17</v>
+      </c>
+      <c r="AN76">
+        <v>1.75</v>
+      </c>
+      <c r="AO76">
+        <v>1.5</v>
+      </c>
+      <c r="AP76">
+        <v>1.4</v>
+      </c>
+      <c r="AQ76">
+        <v>1.8</v>
+      </c>
+      <c r="AR76">
+        <v>1.77</v>
+      </c>
+      <c r="AS76">
+        <v>1.86</v>
+      </c>
+      <c r="AT76">
+        <v>3.63</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>8</v>
+      </c>
+      <c r="AW76">
+        <v>2</v>
+      </c>
+      <c r="AX76">
+        <v>10</v>
+      </c>
+      <c r="AY76">
+        <v>9</v>
+      </c>
+      <c r="AZ76">
+        <v>24</v>
+      </c>
+      <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>8</v>
+      </c>
+      <c r="BD76">
+        <v>3.15</v>
+      </c>
+      <c r="BE76">
+        <v>7</v>
+      </c>
+      <c r="BF76">
+        <v>1.44</v>
+      </c>
+      <c r="BG76">
+        <v>1.29</v>
+      </c>
+      <c r="BH76">
+        <v>3.15</v>
+      </c>
+      <c r="BI76">
+        <v>1.5</v>
+      </c>
+      <c r="BJ76">
+        <v>2.38</v>
+      </c>
+      <c r="BK76">
+        <v>1.81</v>
+      </c>
+      <c r="BL76">
+        <v>1.88</v>
+      </c>
+      <c r="BM76">
+        <v>2.28</v>
+      </c>
+      <c r="BN76">
+        <v>1.55</v>
+      </c>
+      <c r="BO76">
+        <v>2.9</v>
+      </c>
+      <c r="BP76">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7466133</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45584.875</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s">
+        <v>87</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>134</v>
+      </c>
+      <c r="P77" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q77">
+        <v>2.6</v>
+      </c>
+      <c r="R77">
+        <v>2.25</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>1.36</v>
+      </c>
+      <c r="U77">
+        <v>3</v>
+      </c>
+      <c r="V77">
+        <v>2.63</v>
+      </c>
+      <c r="W77">
+        <v>1.44</v>
+      </c>
+      <c r="X77">
+        <v>7</v>
+      </c>
+      <c r="Y77">
+        <v>1.1</v>
+      </c>
+      <c r="Z77">
+        <v>1.91</v>
+      </c>
+      <c r="AA77">
+        <v>3.7</v>
+      </c>
+      <c r="AB77">
+        <v>3.7</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>13</v>
+      </c>
+      <c r="AE77">
+        <v>1.24</v>
+      </c>
+      <c r="AF77">
+        <v>3.89</v>
+      </c>
+      <c r="AG77">
+        <v>1.73</v>
+      </c>
+      <c r="AH77">
+        <v>2</v>
+      </c>
+      <c r="AI77">
+        <v>1.7</v>
+      </c>
+      <c r="AJ77">
+        <v>2.05</v>
+      </c>
+      <c r="AK77">
+        <v>1.28</v>
+      </c>
+      <c r="AL77">
+        <v>1.24</v>
+      </c>
+      <c r="AM77">
+        <v>1.88</v>
+      </c>
+      <c r="AN77">
+        <v>1.5</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>1.2</v>
+      </c>
+      <c r="AQ77">
+        <v>0.6</v>
+      </c>
+      <c r="AR77">
+        <v>1.12</v>
+      </c>
+      <c r="AS77">
+        <v>0.76</v>
+      </c>
+      <c r="AT77">
+        <v>1.88</v>
+      </c>
+      <c r="AU77">
+        <v>4</v>
+      </c>
+      <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
+        <v>3</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>11</v>
+      </c>
+      <c r="AZ77">
+        <v>13</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>11</v>
+      </c>
+      <c r="BD77">
+        <v>1.9</v>
+      </c>
+      <c r="BE77">
+        <v>6.5</v>
+      </c>
+      <c r="BF77">
+        <v>2.4</v>
+      </c>
+      <c r="BG77">
+        <v>1.25</v>
+      </c>
+      <c r="BH77">
+        <v>3.75</v>
+      </c>
+      <c r="BI77">
+        <v>1.44</v>
+      </c>
+      <c r="BJ77">
+        <v>2.65</v>
+      </c>
+      <c r="BK77">
+        <v>1.75</v>
+      </c>
+      <c r="BL77">
+        <v>2.05</v>
+      </c>
+      <c r="BM77">
+        <v>2.15</v>
+      </c>
+      <c r="BN77">
         <v>1.65</v>
       </c>
-      <c r="BO75">
+      <c r="BO77">
         <v>2.8</v>
       </c>
-      <c r="BP75">
+      <c r="BP77">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7466132</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45584.875</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>7</v>
+      </c>
+      <c r="O78" t="s">
+        <v>145</v>
+      </c>
+      <c r="P78" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q78">
+        <v>6.5</v>
+      </c>
+      <c r="R78">
+        <v>2.6</v>
+      </c>
+      <c r="S78">
+        <v>1.83</v>
+      </c>
+      <c r="T78">
+        <v>1.25</v>
+      </c>
+      <c r="U78">
+        <v>3.75</v>
+      </c>
+      <c r="V78">
+        <v>2.2</v>
+      </c>
+      <c r="W78">
+        <v>1.62</v>
+      </c>
+      <c r="X78">
+        <v>5</v>
+      </c>
+      <c r="Y78">
+        <v>1.17</v>
+      </c>
+      <c r="Z78">
+        <v>7.03</v>
+      </c>
+      <c r="AA78">
+        <v>5.2</v>
+      </c>
+      <c r="AB78">
+        <v>1.35</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>21</v>
+      </c>
+      <c r="AE78">
+        <v>1.14</v>
+      </c>
+      <c r="AF78">
+        <v>5.31</v>
+      </c>
+      <c r="AG78">
+        <v>1.48</v>
+      </c>
+      <c r="AH78">
+        <v>2.54</v>
+      </c>
+      <c r="AI78">
+        <v>1.75</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AK78">
+        <v>2.8</v>
+      </c>
+      <c r="AL78">
+        <v>1.15</v>
+      </c>
+      <c r="AM78">
+        <v>1.1</v>
+      </c>
+      <c r="AN78">
+        <v>1.25</v>
+      </c>
+      <c r="AO78">
+        <v>1.33</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>1.75</v>
+      </c>
+      <c r="AR78">
+        <v>1.54</v>
+      </c>
+      <c r="AS78">
+        <v>1.61</v>
+      </c>
+      <c r="AT78">
+        <v>3.15</v>
+      </c>
+      <c r="AU78">
+        <v>7</v>
+      </c>
+      <c r="AV78">
+        <v>7</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>15</v>
+      </c>
+      <c r="AZ78">
+        <v>19</v>
+      </c>
+      <c r="BA78">
+        <v>3</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>3</v>
+      </c>
+      <c r="BD78">
+        <v>6</v>
+      </c>
+      <c r="BE78">
+        <v>10</v>
+      </c>
+      <c r="BF78">
+        <v>1.2</v>
+      </c>
+      <c r="BG78">
+        <v>1.14</v>
+      </c>
+      <c r="BH78">
+        <v>4.2</v>
+      </c>
+      <c r="BI78">
+        <v>1.36</v>
+      </c>
+      <c r="BJ78">
+        <v>3</v>
+      </c>
+      <c r="BK78">
+        <v>1.62</v>
+      </c>
+      <c r="BL78">
+        <v>2.3</v>
+      </c>
+      <c r="BM78">
+        <v>1.96</v>
+      </c>
+      <c r="BN78">
+        <v>1.78</v>
+      </c>
+      <c r="BO78">
+        <v>2.5</v>
+      </c>
+      <c r="BP78">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7466130</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45584.875</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>91</v>
+      </c>
+      <c r="P79" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>2.05</v>
+      </c>
+      <c r="S79">
+        <v>4</v>
+      </c>
+      <c r="T79">
+        <v>1.44</v>
+      </c>
+      <c r="U79">
+        <v>2.63</v>
+      </c>
+      <c r="V79">
+        <v>3.25</v>
+      </c>
+      <c r="W79">
+        <v>1.33</v>
+      </c>
+      <c r="X79">
+        <v>9</v>
+      </c>
+      <c r="Y79">
+        <v>1.07</v>
+      </c>
+      <c r="Z79">
+        <v>2.31</v>
+      </c>
+      <c r="AA79">
+        <v>3.6</v>
+      </c>
+      <c r="AB79">
+        <v>2.7</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE79">
+        <v>1.32</v>
+      </c>
+      <c r="AF79">
+        <v>3.26</v>
+      </c>
+      <c r="AG79">
+        <v>1.63</v>
+      </c>
+      <c r="AH79">
+        <v>2.09</v>
+      </c>
+      <c r="AI79">
+        <v>1.95</v>
+      </c>
+      <c r="AJ79">
+        <v>1.8</v>
+      </c>
+      <c r="AK79">
+        <v>1.36</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.68</v>
+      </c>
+      <c r="AN79">
+        <v>1.5</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>1.4</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>1.05</v>
+      </c>
+      <c r="AS79">
+        <v>1.05</v>
+      </c>
+      <c r="AT79">
+        <v>2.1</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>12</v>
+      </c>
+      <c r="AY79">
+        <v>6</v>
+      </c>
+      <c r="AZ79">
+        <v>24</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>10</v>
+      </c>
+      <c r="BC79">
+        <v>12</v>
+      </c>
+      <c r="BD79">
+        <v>1.85</v>
+      </c>
+      <c r="BE79">
+        <v>6.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.45</v>
+      </c>
+      <c r="BG79">
+        <v>1.26</v>
+      </c>
+      <c r="BH79">
+        <v>3.6</v>
+      </c>
+      <c r="BI79">
+        <v>1.45</v>
+      </c>
+      <c r="BJ79">
+        <v>2.65</v>
+      </c>
+      <c r="BK79">
+        <v>1.75</v>
+      </c>
+      <c r="BL79">
+        <v>2.05</v>
+      </c>
+      <c r="BM79">
+        <v>2.2</v>
+      </c>
+      <c r="BN79">
+        <v>1.63</v>
+      </c>
+      <c r="BO79">
+        <v>2.85</v>
+      </c>
+      <c r="BP79">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7466131</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45584.875</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>70</v>
+      </c>
+      <c r="H80" t="s">
+        <v>76</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>91</v>
+      </c>
+      <c r="P80" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q80">
+        <v>3.6</v>
+      </c>
+      <c r="R80">
+        <v>2.2</v>
+      </c>
+      <c r="S80">
+        <v>2.88</v>
+      </c>
+      <c r="T80">
+        <v>1.36</v>
+      </c>
+      <c r="U80">
+        <v>3</v>
+      </c>
+      <c r="V80">
+        <v>2.63</v>
+      </c>
+      <c r="W80">
+        <v>1.44</v>
+      </c>
+      <c r="X80">
+        <v>7</v>
+      </c>
+      <c r="Y80">
+        <v>1.1</v>
+      </c>
+      <c r="Z80">
+        <v>3.07</v>
+      </c>
+      <c r="AA80">
+        <v>3.6</v>
+      </c>
+      <c r="AB80">
+        <v>2.12</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>13</v>
+      </c>
+      <c r="AE80">
+        <v>1.24</v>
+      </c>
+      <c r="AF80">
+        <v>3.92</v>
+      </c>
+      <c r="AG80">
+        <v>1.61</v>
+      </c>
+      <c r="AH80">
+        <v>2.13</v>
+      </c>
+      <c r="AI80">
+        <v>1.67</v>
+      </c>
+      <c r="AJ80">
+        <v>2.1</v>
+      </c>
+      <c r="AK80">
+        <v>1.8</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.32</v>
+      </c>
+      <c r="AN80">
+        <v>1.25</v>
+      </c>
+      <c r="AO80">
+        <v>2.33</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>2.5</v>
+      </c>
+      <c r="AR80">
+        <v>1.07</v>
+      </c>
+      <c r="AS80">
+        <v>1.19</v>
+      </c>
+      <c r="AT80">
+        <v>2.26</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>9</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>16</v>
+      </c>
+      <c r="AZ80">
+        <v>11</v>
+      </c>
+      <c r="BA80">
+        <v>4</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>9</v>
+      </c>
+      <c r="BD80">
+        <v>2.25</v>
+      </c>
+      <c r="BE80">
+        <v>6.5</v>
+      </c>
+      <c r="BF80">
+        <v>2</v>
+      </c>
+      <c r="BG80">
+        <v>1.15</v>
+      </c>
+      <c r="BH80">
+        <v>4.05</v>
+      </c>
+      <c r="BI80">
+        <v>1.38</v>
+      </c>
+      <c r="BJ80">
+        <v>2.9</v>
+      </c>
+      <c r="BK80">
+        <v>1.63</v>
+      </c>
+      <c r="BL80">
+        <v>2.2</v>
+      </c>
+      <c r="BM80">
+        <v>2</v>
+      </c>
+      <c r="BN80">
+        <v>1.75</v>
+      </c>
+      <c r="BO80">
+        <v>2.55</v>
+      </c>
+      <c r="BP80">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -574,13 +574,13 @@
     <t>['15', '22', '44', '58', '77']</t>
   </si>
   <si>
+    <t>['25', '34', '63', '82']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['54', '78']</t>
-  </si>
-  <si>
-    <t>['25', '34', '63', '82']</t>
-  </si>
-  <si>
-    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -16609,7 +16609,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7466133</v>
+        <v>7466130</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16618,16 +16618,16 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45584.875</v>
+        <v>45585.30208333334</v>
       </c>
       <c r="F77">
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -16639,154 +16639,154 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="Q77">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="R77">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S77">
         <v>4</v>
       </c>
       <c r="T77">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U77">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V77">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="W77">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="X77">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y77">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z77">
-        <v>1.91</v>
+        <v>2.31</v>
       </c>
       <c r="AA77">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AB77">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="AC77">
         <v>1.04</v>
       </c>
       <c r="AD77">
-        <v>13</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AE77">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AF77">
-        <v>3.89</v>
+        <v>3.26</v>
       </c>
       <c r="AG77">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AH77">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AI77">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AJ77">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK77">
+        <v>1.36</v>
+      </c>
+      <c r="AL77">
         <v>1.28</v>
       </c>
-      <c r="AL77">
-        <v>1.24</v>
-      </c>
       <c r="AM77">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="AN77">
         <v>1.5</v>
       </c>
       <c r="AO77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="AS77">
-        <v>0.76</v>
+        <v>1.05</v>
       </c>
       <c r="AT77">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
         <v>4</v>
       </c>
-      <c r="AV77">
-        <v>6</v>
-      </c>
       <c r="AW77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX77">
+        <v>11</v>
+      </c>
+      <c r="AY77">
         <v>4</v>
       </c>
-      <c r="AY77">
-        <v>11</v>
-      </c>
       <c r="AZ77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB77">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC77">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BE77">
         <v>6.5</v>
       </c>
       <c r="BF77">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BG77">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH77">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="BI77">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="BJ77">
         <v>2.65</v>
@@ -16798,13 +16798,13 @@
         <v>2.05</v>
       </c>
       <c r="BM77">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="BN77">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="BO77">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="BP77">
         <v>1.4</v>
@@ -16824,10 +16824,10 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45584.875</v>
+        <v>45585.39583333334</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
         <v>84</v>
@@ -16857,7 +16857,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -16950,22 +16950,22 @@
         <v>3.15</v>
       </c>
       <c r="AU78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY78">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AZ78">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="BA78">
         <v>3</v>
@@ -17021,7 +17021,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7466130</v>
+        <v>7466131</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17030,196 +17030,196 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45584.875</v>
+        <v>45585.39583333334</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="s">
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S79">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T79">
+        <v>1.36</v>
+      </c>
+      <c r="U79">
+        <v>3</v>
+      </c>
+      <c r="V79">
+        <v>2.63</v>
+      </c>
+      <c r="W79">
         <v>1.44</v>
       </c>
-      <c r="U79">
-        <v>2.63</v>
-      </c>
-      <c r="V79">
-        <v>3.25</v>
-      </c>
-      <c r="W79">
-        <v>1.33</v>
-      </c>
       <c r="X79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y79">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z79">
-        <v>2.31</v>
+        <v>3.07</v>
       </c>
       <c r="AA79">
         <v>3.6</v>
       </c>
       <c r="AB79">
-        <v>2.7</v>
+        <v>2.12</v>
       </c>
       <c r="AC79">
         <v>1.04</v>
       </c>
       <c r="AD79">
-        <v>9.449999999999999</v>
+        <v>13</v>
       </c>
       <c r="AE79">
+        <v>1.24</v>
+      </c>
+      <c r="AF79">
+        <v>3.92</v>
+      </c>
+      <c r="AG79">
+        <v>1.61</v>
+      </c>
+      <c r="AH79">
+        <v>2.13</v>
+      </c>
+      <c r="AI79">
+        <v>1.67</v>
+      </c>
+      <c r="AJ79">
+        <v>2.1</v>
+      </c>
+      <c r="AK79">
+        <v>1.8</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
         <v>1.32</v>
       </c>
-      <c r="AF79">
-        <v>3.26</v>
-      </c>
-      <c r="AG79">
-        <v>1.63</v>
-      </c>
-      <c r="AH79">
-        <v>2.09</v>
-      </c>
-      <c r="AI79">
-        <v>1.95</v>
-      </c>
-      <c r="AJ79">
-        <v>1.8</v>
-      </c>
-      <c r="AK79">
-        <v>1.36</v>
-      </c>
-      <c r="AL79">
-        <v>1.28</v>
-      </c>
-      <c r="AM79">
-        <v>1.68</v>
-      </c>
       <c r="AN79">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO79">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AR79">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AS79">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="AT79">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="AU79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>6</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
+        <v>11</v>
+      </c>
+      <c r="AZ79">
+        <v>7</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
         <v>5</v>
       </c>
-      <c r="AW79">
-        <v>5</v>
-      </c>
-      <c r="AX79">
-        <v>12</v>
-      </c>
-      <c r="AY79">
-        <v>6</v>
-      </c>
-      <c r="AZ79">
-        <v>24</v>
-      </c>
-      <c r="BA79">
-        <v>2</v>
-      </c>
-      <c r="BB79">
-        <v>10</v>
-      </c>
       <c r="BC79">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD79">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="BE79">
         <v>6.5</v>
       </c>
       <c r="BF79">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BG79">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="BH79">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="BI79">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BJ79">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BK79">
+        <v>1.63</v>
+      </c>
+      <c r="BL79">
+        <v>2.2</v>
+      </c>
+      <c r="BM79">
+        <v>2</v>
+      </c>
+      <c r="BN79">
         <v>1.75</v>
       </c>
-      <c r="BL79">
-        <v>2.05</v>
-      </c>
-      <c r="BM79">
-        <v>2.2</v>
-      </c>
-      <c r="BN79">
-        <v>1.63</v>
-      </c>
       <c r="BO79">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="BP79">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17227,7 +17227,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7466131</v>
+        <v>7466133</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17236,49 +17236,49 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45584.875</v>
+        <v>45585.48958333334</v>
       </c>
       <c r="F80">
         <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O80" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="P80" t="s">
         <v>188</v>
       </c>
       <c r="Q80">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="R80">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S80">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="T80">
         <v>1.36</v>
@@ -17299,13 +17299,13 @@
         <v>1.1</v>
       </c>
       <c r="Z80">
-        <v>3.07</v>
+        <v>1.91</v>
       </c>
       <c r="AA80">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB80">
-        <v>2.12</v>
+        <v>3.7</v>
       </c>
       <c r="AC80">
         <v>1.04</v>
@@ -17317,115 +17317,115 @@
         <v>1.24</v>
       </c>
       <c r="AF80">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
       <c r="AG80">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AH80">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AI80">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ80">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK80">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="AL80">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AM80">
-        <v>1.32</v>
+        <v>1.88</v>
       </c>
       <c r="AN80">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO80">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ80">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR80">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AS80">
-        <v>1.19</v>
+        <v>0.76</v>
       </c>
       <c r="AT80">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="AU80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV80">
         <v>4</v>
       </c>
       <c r="AW80">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX80">
+        <v>2</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
+        <v>6</v>
+      </c>
+      <c r="BA80">
+        <v>7</v>
+      </c>
+      <c r="BB80">
         <v>4</v>
       </c>
-      <c r="AY80">
-        <v>16</v>
-      </c>
-      <c r="AZ80">
+      <c r="BC80">
         <v>11</v>
       </c>
-      <c r="BA80">
-        <v>4</v>
-      </c>
-      <c r="BB80">
-        <v>5</v>
-      </c>
-      <c r="BC80">
-        <v>9</v>
-      </c>
       <c r="BD80">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="BE80">
         <v>6.5</v>
       </c>
       <c r="BF80">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="BG80">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="BH80">
-        <v>4.05</v>
+        <v>3.75</v>
       </c>
       <c r="BI80">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="BJ80">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BK80">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="BL80">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BM80">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BN80">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="BO80">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BP80">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,9 @@
     <t>['12', '28', '76']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -557,9 +560,6 @@
   </si>
   <si>
     <t>['41']</t>
-  </si>
-  <si>
-    <t>['79']</t>
   </si>
   <si>
     <t>['8', '10']</t>
@@ -942,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1201,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1613,7 +1613,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1819,7 +1819,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2025,7 +2025,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2643,7 +2643,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3467,7 +3467,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3754,7 +3754,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4085,7 +4085,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4291,7 +4291,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5115,7 +5115,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5193,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -5321,7 +5321,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5939,7 +5939,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6351,7 +6351,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6557,7 +6557,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6635,7 +6635,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6763,7 +6763,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6844,7 +6844,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
         <v>2.19</v>
@@ -7175,7 +7175,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7381,7 +7381,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8080,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR35">
         <v>2.65</v>
@@ -8411,7 +8411,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8823,7 +8823,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9029,7 +9029,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10059,7 +10059,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10265,7 +10265,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10471,7 +10471,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10677,7 +10677,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10883,7 +10883,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11089,7 +11089,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11295,7 +11295,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11373,7 +11373,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51">
         <v>1.4</v>
@@ -11707,7 +11707,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11913,7 +11913,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12119,7 +12119,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12325,7 +12325,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12531,7 +12531,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -13355,7 +13355,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13561,7 +13561,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13845,7 +13845,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63">
         <v>1.25</v>
@@ -14054,7 +14054,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -14385,7 +14385,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14591,7 +14591,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14797,7 +14797,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15209,7 +15209,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -17426,6 +17426,212 @@
       </c>
       <c r="BP80">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7466134</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>146</v>
+      </c>
+      <c r="P81" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q81">
+        <v>3.75</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>2.75</v>
+      </c>
+      <c r="T81">
+        <v>1.36</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>7</v>
+      </c>
+      <c r="Y81">
+        <v>1.1</v>
+      </c>
+      <c r="Z81">
+        <v>3.25</v>
+      </c>
+      <c r="AA81">
+        <v>3.45</v>
+      </c>
+      <c r="AB81">
+        <v>2.18</v>
+      </c>
+      <c r="AC81">
+        <v>1.05</v>
+      </c>
+      <c r="AD81">
+        <v>12</v>
+      </c>
+      <c r="AE81">
+        <v>1.28</v>
+      </c>
+      <c r="AF81">
+        <v>3.52</v>
+      </c>
+      <c r="AG81">
+        <v>1.86</v>
+      </c>
+      <c r="AH81">
+        <v>1.9</v>
+      </c>
+      <c r="AI81">
+        <v>1.7</v>
+      </c>
+      <c r="AJ81">
+        <v>2.05</v>
+      </c>
+      <c r="AK81">
+        <v>1.65</v>
+      </c>
+      <c r="AL81">
+        <v>1.26</v>
+      </c>
+      <c r="AM81">
+        <v>1.4</v>
+      </c>
+      <c r="AN81">
+        <v>0.2</v>
+      </c>
+      <c r="AO81">
+        <v>0.75</v>
+      </c>
+      <c r="AP81">
+        <v>0.67</v>
+      </c>
+      <c r="AQ81">
+        <v>0.6</v>
+      </c>
+      <c r="AR81">
+        <v>1.25</v>
+      </c>
+      <c r="AS81">
+        <v>0.9</v>
+      </c>
+      <c r="AT81">
+        <v>2.15</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
+        <v>7</v>
+      </c>
+      <c r="AY81">
+        <v>12</v>
+      </c>
+      <c r="AZ81">
+        <v>16</v>
+      </c>
+      <c r="BA81">
+        <v>4</v>
+      </c>
+      <c r="BB81">
+        <v>8</v>
+      </c>
+      <c r="BC81">
+        <v>12</v>
+      </c>
+      <c r="BD81">
+        <v>1.72</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>2.32</v>
+      </c>
+      <c r="BG81">
+        <v>1.16</v>
+      </c>
+      <c r="BH81">
+        <v>4.4</v>
+      </c>
+      <c r="BI81">
+        <v>1.29</v>
+      </c>
+      <c r="BJ81">
+        <v>3.15</v>
+      </c>
+      <c r="BK81">
+        <v>1.5</v>
+      </c>
+      <c r="BL81">
+        <v>2.4</v>
+      </c>
+      <c r="BM81">
+        <v>1.78</v>
+      </c>
+      <c r="BN81">
+        <v>1.91</v>
+      </c>
+      <c r="BO81">
+        <v>2.2</v>
+      </c>
+      <c r="BP81">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -942,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1204,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1613,7 +1616,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1819,7 +1822,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2025,7 +2028,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2643,7 +2646,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3133,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3467,7 +3470,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3879,7 +3882,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3960,7 +3963,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4085,7 +4088,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4291,7 +4294,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5115,7 +5118,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5321,7 +5324,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5939,7 +5942,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6351,7 +6354,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6557,7 +6560,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6638,7 +6641,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>0.73</v>
@@ -6763,7 +6766,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6841,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29">
         <v>0.6</v>
@@ -7175,7 +7178,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7381,7 +7384,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8411,7 +8414,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8823,7 +8826,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9029,7 +9032,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10059,7 +10062,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10265,7 +10268,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10471,7 +10474,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10677,7 +10680,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10883,7 +10886,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11089,7 +11092,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11170,7 +11173,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR50">
         <v>2.16</v>
@@ -11295,7 +11298,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11707,7 +11710,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11785,7 +11788,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ53">
         <v>3</v>
@@ -11913,7 +11916,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12119,7 +12122,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12325,7 +12328,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12531,7 +12534,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -13355,7 +13358,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13561,7 +13564,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14385,7 +14388,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14591,7 +14594,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15209,7 +15212,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15290,7 +15293,7 @@
         <v>3</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR70">
         <v>2.32</v>
@@ -15493,7 +15496,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71">
         <v>2</v>
@@ -15621,7 +15624,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15827,7 +15830,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16239,7 +16242,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16445,7 +16448,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16857,7 +16860,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17063,7 +17066,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17269,7 +17272,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17632,6 +17635,212 @@
       </c>
       <c r="BP81">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7466135</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45591.47916666666</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P82" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q82">
+        <v>2.88</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>3.75</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>2.6</v>
+      </c>
+      <c r="AA82">
+        <v>3.5</v>
+      </c>
+      <c r="AB82">
+        <v>2.6</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE82">
+        <v>1.31</v>
+      </c>
+      <c r="AF82">
+        <v>3.32</v>
+      </c>
+      <c r="AG82">
+        <v>1.77</v>
+      </c>
+      <c r="AH82">
+        <v>1.93</v>
+      </c>
+      <c r="AI82">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.95</v>
+      </c>
+      <c r="AK82">
+        <v>1.36</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.65</v>
+      </c>
+      <c r="AN82">
+        <v>1.5</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>1.8</v>
+      </c>
+      <c r="AQ82">
+        <v>0.8</v>
+      </c>
+      <c r="AR82">
+        <v>1.34</v>
+      </c>
+      <c r="AS82">
+        <v>1.16</v>
+      </c>
+      <c r="AT82">
+        <v>2.5</v>
+      </c>
+      <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>4</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>10</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>1.61</v>
+      </c>
+      <c r="BE82">
+        <v>6.75</v>
+      </c>
+      <c r="BF82">
+        <v>2.55</v>
+      </c>
+      <c r="BG82">
+        <v>1.2</v>
+      </c>
+      <c r="BH82">
+        <v>3.95</v>
+      </c>
+      <c r="BI82">
+        <v>1.35</v>
+      </c>
+      <c r="BJ82">
+        <v>2.88</v>
+      </c>
+      <c r="BK82">
+        <v>1.58</v>
+      </c>
+      <c r="BL82">
+        <v>2.18</v>
+      </c>
+      <c r="BM82">
+        <v>1.94</v>
+      </c>
+      <c r="BN82">
+        <v>1.76</v>
+      </c>
+      <c r="BO82">
+        <v>2.4</v>
+      </c>
+      <c r="BP82">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,9 +457,18 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['13', '37', '60', '90']</t>
+  </si>
+  <si>
     <t>['86']</t>
   </si>
   <si>
+    <t>['9', '40', '50', '58', '71', '89']</t>
+  </si>
+  <si>
+    <t>['4', '58']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -584,6 +593,9 @@
   </si>
   <si>
     <t>['54', '78']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1216,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1616,7 +1628,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1822,7 +1834,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2028,7 +2040,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2521,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2646,7 +2658,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3342,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
         <v>2.5</v>
@@ -3470,7 +3482,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3551,7 +3563,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3882,7 +3894,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4088,7 +4100,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4294,7 +4306,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4784,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ19">
         <v>1.75</v>
@@ -4993,7 +5005,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -5118,7 +5130,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5324,7 +5336,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5402,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ22">
         <v>2.5</v>
@@ -5942,7 +5954,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6354,7 +6366,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6560,7 +6572,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6766,7 +6778,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7050,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -7178,7 +7190,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7259,7 +7271,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>0.77</v>
@@ -7384,7 +7396,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8289,7 +8301,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8414,7 +8426,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8698,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8826,7 +8838,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9032,7 +9044,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10062,7 +10074,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10268,7 +10280,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10474,7 +10486,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10555,7 +10567,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ47">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10680,7 +10692,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10886,7 +10898,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11092,7 +11104,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11170,7 +11182,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ50">
         <v>0.8</v>
@@ -11298,7 +11310,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11710,7 +11722,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11916,7 +11928,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12122,7 +12134,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12328,7 +12340,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12534,7 +12546,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -13358,7 +13370,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13564,7 +13576,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14054,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
         <v>0.6</v>
@@ -14263,7 +14275,7 @@
         <v>3</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR65">
         <v>2.79</v>
@@ -14388,7 +14400,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14594,7 +14606,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15084,10 +15096,10 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR69">
         <v>2.09</v>
@@ -15212,7 +15224,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15624,7 +15636,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15830,7 +15842,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16242,7 +16254,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16448,7 +16460,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16860,7 +16872,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17066,7 +17078,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17272,7 +17284,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17445,7 +17457,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -17642,7 +17654,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7466135</v>
+        <v>7466136</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17651,195 +17663,813 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45591.47916666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F82">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O82" t="s">
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="Q82">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R82">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S82">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T82">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V82">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W82">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X82">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y82">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z82">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AA82">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB82">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="AC82">
         <v>1.04</v>
       </c>
       <c r="AD82">
-        <v>9.449999999999999</v>
+        <v>13</v>
       </c>
       <c r="AE82">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AF82">
-        <v>3.32</v>
+        <v>3.67</v>
       </c>
       <c r="AG82">
         <v>1.77</v>
       </c>
       <c r="AH82">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AI82">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ82">
+        <v>2.05</v>
+      </c>
+      <c r="AK82">
+        <v>1.28</v>
+      </c>
+      <c r="AL82">
+        <v>1.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.85</v>
+      </c>
+      <c r="AN82">
+        <v>2.25</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>2.4</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>1.12</v>
+      </c>
+      <c r="AS82">
+        <v>0.83</v>
+      </c>
+      <c r="AT82">
         <v>1.95</v>
       </c>
-      <c r="AK82">
-        <v>1.36</v>
-      </c>
-      <c r="AL82">
-        <v>1.28</v>
-      </c>
-      <c r="AM82">
-        <v>1.65</v>
-      </c>
-      <c r="AN82">
-        <v>1.5</v>
-      </c>
-      <c r="AO82">
-        <v>1</v>
-      </c>
-      <c r="AP82">
-        <v>1.8</v>
-      </c>
-      <c r="AQ82">
-        <v>0.8</v>
-      </c>
-      <c r="AR82">
-        <v>1.34</v>
-      </c>
-      <c r="AS82">
-        <v>1.16</v>
-      </c>
-      <c r="AT82">
-        <v>2.5</v>
-      </c>
       <c r="AU82">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AV82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY82">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AZ82">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA82">
         <v>6</v>
       </c>
       <c r="BB82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD82">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="BE82">
         <v>6.75</v>
       </c>
       <c r="BF82">
+        <v>2.5</v>
+      </c>
+      <c r="BG82">
+        <v>1.17</v>
+      </c>
+      <c r="BH82">
+        <v>4.35</v>
+      </c>
+      <c r="BI82">
+        <v>1.3</v>
+      </c>
+      <c r="BJ82">
+        <v>3.15</v>
+      </c>
+      <c r="BK82">
+        <v>1.49</v>
+      </c>
+      <c r="BL82">
+        <v>2.4</v>
+      </c>
+      <c r="BM82">
+        <v>1.85</v>
+      </c>
+      <c r="BN82">
+        <v>1.85</v>
+      </c>
+      <c r="BO82">
+        <v>2.18</v>
+      </c>
+      <c r="BP82">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7466135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45591.47916666666</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>148</v>
+      </c>
+      <c r="P83" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q83">
+        <v>2.88</v>
+      </c>
+      <c r="R83">
+        <v>2.1</v>
+      </c>
+      <c r="S83">
+        <v>3.75</v>
+      </c>
+      <c r="T83">
+        <v>1.4</v>
+      </c>
+      <c r="U83">
+        <v>2.75</v>
+      </c>
+      <c r="V83">
+        <v>3</v>
+      </c>
+      <c r="W83">
+        <v>1.36</v>
+      </c>
+      <c r="X83">
+        <v>9</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>2.6</v>
+      </c>
+      <c r="AA83">
+        <v>3.5</v>
+      </c>
+      <c r="AB83">
+        <v>2.6</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AE83">
+        <v>1.31</v>
+      </c>
+      <c r="AF83">
+        <v>3.32</v>
+      </c>
+      <c r="AG83">
+        <v>1.77</v>
+      </c>
+      <c r="AH83">
+        <v>1.93</v>
+      </c>
+      <c r="AI83">
+        <v>1.8</v>
+      </c>
+      <c r="AJ83">
+        <v>1.95</v>
+      </c>
+      <c r="AK83">
+        <v>1.36</v>
+      </c>
+      <c r="AL83">
+        <v>1.28</v>
+      </c>
+      <c r="AM83">
+        <v>1.65</v>
+      </c>
+      <c r="AN83">
+        <v>1.5</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>1.8</v>
+      </c>
+      <c r="AQ83">
+        <v>0.8</v>
+      </c>
+      <c r="AR83">
+        <v>1.34</v>
+      </c>
+      <c r="AS83">
+        <v>1.16</v>
+      </c>
+      <c r="AT83">
+        <v>2.5</v>
+      </c>
+      <c r="AU83">
+        <v>4</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
+        <v>3</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>11</v>
+      </c>
+      <c r="BA83">
+        <v>6</v>
+      </c>
+      <c r="BB83">
+        <v>3</v>
+      </c>
+      <c r="BC83">
+        <v>9</v>
+      </c>
+      <c r="BD83">
+        <v>1.61</v>
+      </c>
+      <c r="BE83">
+        <v>6.75</v>
+      </c>
+      <c r="BF83">
         <v>2.55</v>
       </c>
-      <c r="BG82">
+      <c r="BG83">
         <v>1.2</v>
       </c>
-      <c r="BH82">
+      <c r="BH83">
         <v>3.95</v>
       </c>
-      <c r="BI82">
+      <c r="BI83">
         <v>1.35</v>
       </c>
-      <c r="BJ82">
+      <c r="BJ83">
         <v>2.88</v>
       </c>
-      <c r="BK82">
+      <c r="BK83">
         <v>1.58</v>
       </c>
-      <c r="BL82">
+      <c r="BL83">
         <v>2.18</v>
       </c>
-      <c r="BM82">
+      <c r="BM83">
         <v>1.94</v>
       </c>
-      <c r="BN82">
+      <c r="BN83">
         <v>1.76</v>
       </c>
-      <c r="BO82">
+      <c r="BO83">
         <v>2.4</v>
       </c>
-      <c r="BP82">
+      <c r="BP83">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7466137</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45591.57291666666</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>6</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84" t="s">
+        <v>149</v>
+      </c>
+      <c r="P84" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q84">
+        <v>1.33</v>
+      </c>
+      <c r="R84">
+        <v>4</v>
+      </c>
+      <c r="S84">
+        <v>13</v>
+      </c>
+      <c r="T84">
+        <v>1.13</v>
+      </c>
+      <c r="U84">
+        <v>6</v>
+      </c>
+      <c r="V84">
+        <v>1.62</v>
+      </c>
+      <c r="W84">
+        <v>2.2</v>
+      </c>
+      <c r="X84">
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <v>1.36</v>
+      </c>
+      <c r="Z84">
+        <v>1.12</v>
+      </c>
+      <c r="AA84">
+        <v>10.5</v>
+      </c>
+      <c r="AB84">
+        <v>18.5</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>1.04</v>
+      </c>
+      <c r="AF84">
+        <v>11</v>
+      </c>
+      <c r="AG84">
+        <v>1.2</v>
+      </c>
+      <c r="AH84">
+        <v>4.23</v>
+      </c>
+      <c r="AI84">
+        <v>1.95</v>
+      </c>
+      <c r="AJ84">
+        <v>1.8</v>
+      </c>
+      <c r="AK84">
+        <v>1.01</v>
+      </c>
+      <c r="AL84">
+        <v>1.04</v>
+      </c>
+      <c r="AM84">
+        <v>7.5</v>
+      </c>
+      <c r="AN84">
+        <v>3</v>
+      </c>
+      <c r="AO84">
+        <v>0.5</v>
+      </c>
+      <c r="AP84">
+        <v>3</v>
+      </c>
+      <c r="AQ84">
+        <v>0.4</v>
+      </c>
+      <c r="AR84">
+        <v>2.49</v>
+      </c>
+      <c r="AS84">
+        <v>0.86</v>
+      </c>
+      <c r="AT84">
+        <v>3.35</v>
+      </c>
+      <c r="AU84">
+        <v>10</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>6</v>
+      </c>
+      <c r="AX84">
+        <v>1</v>
+      </c>
+      <c r="AY84">
+        <v>22</v>
+      </c>
+      <c r="AZ84">
+        <v>5</v>
+      </c>
+      <c r="BA84">
+        <v>9</v>
+      </c>
+      <c r="BB84">
+        <v>4</v>
+      </c>
+      <c r="BC84">
+        <v>13</v>
+      </c>
+      <c r="BD84">
+        <v>1.03</v>
+      </c>
+      <c r="BE84">
+        <v>18</v>
+      </c>
+      <c r="BF84">
+        <v>16</v>
+      </c>
+      <c r="BG84">
+        <v>1.3</v>
+      </c>
+      <c r="BH84">
+        <v>3.15</v>
+      </c>
+      <c r="BI84">
+        <v>1.5</v>
+      </c>
+      <c r="BJ84">
+        <v>2.33</v>
+      </c>
+      <c r="BK84">
+        <v>1.83</v>
+      </c>
+      <c r="BL84">
+        <v>1.85</v>
+      </c>
+      <c r="BM84">
+        <v>2.05</v>
+      </c>
+      <c r="BN84">
+        <v>1.7</v>
+      </c>
+      <c r="BO84">
+        <v>2.9</v>
+      </c>
+      <c r="BP84">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7466138</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45591.66666666666</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>150</v>
+      </c>
+      <c r="P85" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q85">
+        <v>3</v>
+      </c>
+      <c r="R85">
+        <v>2.3</v>
+      </c>
+      <c r="S85">
+        <v>3.2</v>
+      </c>
+      <c r="T85">
+        <v>1.33</v>
+      </c>
+      <c r="U85">
+        <v>3.25</v>
+      </c>
+      <c r="V85">
+        <v>2.5</v>
+      </c>
+      <c r="W85">
+        <v>1.5</v>
+      </c>
+      <c r="X85">
+        <v>6</v>
+      </c>
+      <c r="Y85">
+        <v>1.13</v>
+      </c>
+      <c r="Z85">
+        <v>2.5</v>
+      </c>
+      <c r="AA85">
+        <v>3.6</v>
+      </c>
+      <c r="AB85">
+        <v>2.68</v>
+      </c>
+      <c r="AC85">
+        <v>1.03</v>
+      </c>
+      <c r="AD85">
+        <v>15</v>
+      </c>
+      <c r="AE85">
+        <v>1.21</v>
+      </c>
+      <c r="AF85">
+        <v>4.25</v>
+      </c>
+      <c r="AG85">
+        <v>1.68</v>
+      </c>
+      <c r="AH85">
+        <v>2.2</v>
+      </c>
+      <c r="AI85">
+        <v>1.53</v>
+      </c>
+      <c r="AJ85">
+        <v>2.38</v>
+      </c>
+      <c r="AK85">
+        <v>1.5</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.55</v>
+      </c>
+      <c r="AN85">
+        <v>2</v>
+      </c>
+      <c r="AO85">
+        <v>1.75</v>
+      </c>
+      <c r="AP85">
+        <v>2.2</v>
+      </c>
+      <c r="AQ85">
+        <v>1.4</v>
+      </c>
+      <c r="AR85">
+        <v>1.93</v>
+      </c>
+      <c r="AS85">
+        <v>1.33</v>
+      </c>
+      <c r="AT85">
+        <v>3.26</v>
+      </c>
+      <c r="AU85">
+        <v>7</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
+        <v>2</v>
+      </c>
+      <c r="AY85">
+        <v>15</v>
+      </c>
+      <c r="AZ85">
+        <v>9</v>
+      </c>
+      <c r="BA85">
+        <v>6</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>1.58</v>
+      </c>
+      <c r="BE85">
+        <v>6.75</v>
+      </c>
+      <c r="BF85">
+        <v>2.65</v>
+      </c>
+      <c r="BG85">
+        <v>1.19</v>
+      </c>
+      <c r="BH85">
+        <v>3.9</v>
+      </c>
+      <c r="BI85">
+        <v>1.36</v>
+      </c>
+      <c r="BJ85">
+        <v>2.8</v>
+      </c>
+      <c r="BK85">
+        <v>1.58</v>
+      </c>
+      <c r="BL85">
+        <v>2.17</v>
+      </c>
+      <c r="BM85">
+        <v>1.95</v>
+      </c>
+      <c r="BN85">
+        <v>1.77</v>
+      </c>
+      <c r="BO85">
+        <v>2.4</v>
+      </c>
+      <c r="BP85">
         <v>1.49</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,18 +457,27 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['9', '40', '50', '58', '71', '89']</t>
+  </si>
+  <si>
     <t>['13', '37', '60', '90']</t>
   </si>
   <si>
-    <t>['86']</t>
-  </si>
-  <si>
-    <t>['9', '40', '50', '58', '71', '89']</t>
-  </si>
-  <si>
     <t>['4', '58']</t>
   </si>
   <si>
+    <t>['38', '42', '59', '77', '90+3']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['35', '49']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -596,6 +605,12 @@
   </si>
   <si>
     <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['12', '54']</t>
+  </si>
+  <si>
+    <t>['51', '85']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1231,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1503,7 +1518,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1628,7 +1643,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1834,7 +1849,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2040,7 +2055,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2327,7 +2342,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2530,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8">
         <v>0.4</v>
@@ -2658,7 +2673,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3482,7 +3497,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3560,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ13">
         <v>1.4</v>
@@ -3766,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -3894,7 +3909,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4100,7 +4115,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4306,7 +4321,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4387,7 +4402,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4593,7 +4608,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5130,7 +5145,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5336,7 +5351,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5829,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -5954,7 +5969,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6035,7 +6050,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.08</v>
@@ -6366,7 +6381,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6572,7 +6587,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6778,7 +6793,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7190,7 +7205,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7396,7 +7411,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7474,7 +7489,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ32">
         <v>1.4</v>
@@ -7683,7 +7698,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>0.7</v>
@@ -7889,7 +7904,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>2.85</v>
@@ -8298,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36">
         <v>0.4</v>
@@ -8426,7 +8441,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8507,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -8838,7 +8853,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8916,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9044,7 +9059,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9125,7 +9140,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.21</v>
@@ -9740,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -10074,7 +10089,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10280,7 +10295,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10358,10 +10373,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.08</v>
@@ -10486,7 +10501,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10692,7 +10707,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10898,7 +10913,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -10979,7 +10994,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
         <v>1.18</v>
@@ -11104,7 +11119,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11310,7 +11325,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11722,7 +11737,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11928,7 +11943,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12134,7 +12149,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12340,7 +12355,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12421,7 +12436,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.55</v>
@@ -12546,7 +12561,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -13036,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ59">
         <v>0.6</v>
@@ -13245,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.17</v>
@@ -13370,7 +13385,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13576,7 +13591,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13654,7 +13669,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ62">
         <v>2.5</v>
@@ -13863,7 +13878,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.02</v>
@@ -14400,7 +14415,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14478,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ66">
         <v>0</v>
@@ -14606,7 +14621,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14687,7 +14702,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15224,7 +15239,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15636,7 +15651,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15842,7 +15857,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15920,7 +15935,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
         <v>3</v>
@@ -16254,7 +16269,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16460,7 +16475,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16541,7 +16556,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.77</v>
@@ -16872,7 +16887,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17078,7 +17093,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17284,7 +17299,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17457,10 +17472,10 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G81" t="s">
         <v>73</v>
@@ -17586,19 +17601,19 @@
         <v>4</v>
       </c>
       <c r="AV81">
+        <v>6</v>
+      </c>
+      <c r="AW81">
+        <v>4</v>
+      </c>
+      <c r="AX81">
         <v>5</v>
       </c>
-      <c r="AW81">
-        <v>5</v>
-      </c>
-      <c r="AX81">
-        <v>7</v>
-      </c>
       <c r="AY81">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ81">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA81">
         <v>4</v>
@@ -17654,7 +17669,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7466136</v>
+        <v>7466135</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17663,196 +17678,196 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45590.875</v>
+        <v>45591.47916666666</v>
       </c>
       <c r="F82">
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="Q82">
+        <v>2.88</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>3.75</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>9</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
         <v>2.6</v>
       </c>
-      <c r="R82">
-        <v>2.25</v>
-      </c>
-      <c r="S82">
-        <v>4</v>
-      </c>
-      <c r="T82">
-        <v>1.36</v>
-      </c>
-      <c r="U82">
-        <v>3</v>
-      </c>
-      <c r="V82">
-        <v>2.63</v>
-      </c>
-      <c r="W82">
-        <v>1.44</v>
-      </c>
-      <c r="X82">
-        <v>7</v>
-      </c>
-      <c r="Y82">
-        <v>1.1</v>
-      </c>
-      <c r="Z82">
-        <v>2</v>
-      </c>
       <c r="AA82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB82">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="AC82">
         <v>1.04</v>
       </c>
       <c r="AD82">
-        <v>13</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AE82">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AF82">
-        <v>3.67</v>
+        <v>3.32</v>
       </c>
       <c r="AG82">
         <v>1.77</v>
       </c>
       <c r="AH82">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AI82">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ82">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK82">
+        <v>1.36</v>
+      </c>
+      <c r="AL82">
         <v>1.28</v>
       </c>
-      <c r="AL82">
-        <v>1.25</v>
-      </c>
       <c r="AM82">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AN82">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ82">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AR82">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="AS82">
-        <v>0.83</v>
+        <v>1.16</v>
       </c>
       <c r="AT82">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="AU82">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AV82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY82">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AZ82">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA82">
         <v>6</v>
       </c>
       <c r="BB82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD82">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="BE82">
         <v>6.75</v>
       </c>
       <c r="BF82">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="BG82">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH82">
-        <v>4.35</v>
+        <v>3.95</v>
       </c>
       <c r="BI82">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="BJ82">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="BK82">
+        <v>1.58</v>
+      </c>
+      <c r="BL82">
+        <v>2.18</v>
+      </c>
+      <c r="BM82">
+        <v>1.94</v>
+      </c>
+      <c r="BN82">
+        <v>1.76</v>
+      </c>
+      <c r="BO82">
+        <v>2.4</v>
+      </c>
+      <c r="BP82">
         <v>1.49</v>
-      </c>
-      <c r="BL82">
-        <v>2.4</v>
-      </c>
-      <c r="BM82">
-        <v>1.85</v>
-      </c>
-      <c r="BN82">
-        <v>1.85</v>
-      </c>
-      <c r="BO82">
-        <v>2.18</v>
-      </c>
-      <c r="BP82">
-        <v>1.58</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17860,7 +17875,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7466135</v>
+        <v>7466137</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17869,34 +17884,34 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45591.47916666666</v>
+        <v>45591.57291666666</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H83" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O83" t="s">
         <v>148</v>
@@ -17905,160 +17920,160 @@
         <v>91</v>
       </c>
       <c r="Q83">
-        <v>2.88</v>
+        <v>1.33</v>
       </c>
       <c r="R83">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="S83">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="T83">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="U83">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="V83">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="W83">
+        <v>2.2</v>
+      </c>
+      <c r="X83">
+        <v>3</v>
+      </c>
+      <c r="Y83">
         <v>1.36</v>
       </c>
-      <c r="X83">
+      <c r="Z83">
+        <v>1.12</v>
+      </c>
+      <c r="AA83">
+        <v>10.5</v>
+      </c>
+      <c r="AB83">
+        <v>18.5</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>1.04</v>
+      </c>
+      <c r="AF83">
+        <v>11</v>
+      </c>
+      <c r="AG83">
+        <v>1.2</v>
+      </c>
+      <c r="AH83">
+        <v>4.23</v>
+      </c>
+      <c r="AI83">
+        <v>1.95</v>
+      </c>
+      <c r="AJ83">
+        <v>1.8</v>
+      </c>
+      <c r="AK83">
+        <v>1.01</v>
+      </c>
+      <c r="AL83">
+        <v>1.04</v>
+      </c>
+      <c r="AM83">
+        <v>7.5</v>
+      </c>
+      <c r="AN83">
+        <v>3</v>
+      </c>
+      <c r="AO83">
+        <v>0.5</v>
+      </c>
+      <c r="AP83">
+        <v>3</v>
+      </c>
+      <c r="AQ83">
+        <v>0.4</v>
+      </c>
+      <c r="AR83">
+        <v>2.49</v>
+      </c>
+      <c r="AS83">
+        <v>0.86</v>
+      </c>
+      <c r="AT83">
+        <v>3.35</v>
+      </c>
+      <c r="AU83">
+        <v>10</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>6</v>
+      </c>
+      <c r="AX83">
+        <v>1</v>
+      </c>
+      <c r="AY83">
+        <v>22</v>
+      </c>
+      <c r="AZ83">
+        <v>5</v>
+      </c>
+      <c r="BA83">
         <v>9</v>
       </c>
-      <c r="Y83">
-        <v>1.07</v>
-      </c>
-      <c r="Z83">
-        <v>2.6</v>
-      </c>
-      <c r="AA83">
-        <v>3.5</v>
-      </c>
-      <c r="AB83">
-        <v>2.6</v>
-      </c>
-      <c r="AC83">
-        <v>1.04</v>
-      </c>
-      <c r="AD83">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="AE83">
-        <v>1.31</v>
-      </c>
-      <c r="AF83">
-        <v>3.32</v>
-      </c>
-      <c r="AG83">
-        <v>1.77</v>
-      </c>
-      <c r="AH83">
-        <v>1.93</v>
-      </c>
-      <c r="AI83">
-        <v>1.8</v>
-      </c>
-      <c r="AJ83">
-        <v>1.95</v>
-      </c>
-      <c r="AK83">
-        <v>1.36</v>
-      </c>
-      <c r="AL83">
-        <v>1.28</v>
-      </c>
-      <c r="AM83">
-        <v>1.65</v>
-      </c>
-      <c r="AN83">
+      <c r="BB83">
+        <v>4</v>
+      </c>
+      <c r="BC83">
+        <v>13</v>
+      </c>
+      <c r="BD83">
+        <v>1.03</v>
+      </c>
+      <c r="BE83">
+        <v>18</v>
+      </c>
+      <c r="BF83">
+        <v>16</v>
+      </c>
+      <c r="BG83">
+        <v>1.3</v>
+      </c>
+      <c r="BH83">
+        <v>3.15</v>
+      </c>
+      <c r="BI83">
         <v>1.5</v>
       </c>
-      <c r="AO83">
-        <v>1</v>
-      </c>
-      <c r="AP83">
-        <v>1.8</v>
-      </c>
-      <c r="AQ83">
-        <v>0.8</v>
-      </c>
-      <c r="AR83">
-        <v>1.34</v>
-      </c>
-      <c r="AS83">
-        <v>1.16</v>
-      </c>
-      <c r="AT83">
-        <v>2.5</v>
-      </c>
-      <c r="AU83">
-        <v>4</v>
-      </c>
-      <c r="AV83">
-        <v>4</v>
-      </c>
-      <c r="AW83">
-        <v>3</v>
-      </c>
-      <c r="AX83">
-        <v>4</v>
-      </c>
-      <c r="AY83">
-        <v>10</v>
-      </c>
-      <c r="AZ83">
-        <v>11</v>
-      </c>
-      <c r="BA83">
-        <v>6</v>
-      </c>
-      <c r="BB83">
-        <v>3</v>
-      </c>
-      <c r="BC83">
-        <v>9</v>
-      </c>
-      <c r="BD83">
-        <v>1.61</v>
-      </c>
-      <c r="BE83">
-        <v>6.75</v>
-      </c>
-      <c r="BF83">
-        <v>2.55</v>
-      </c>
-      <c r="BG83">
-        <v>1.2</v>
-      </c>
-      <c r="BH83">
-        <v>3.95</v>
-      </c>
-      <c r="BI83">
+      <c r="BJ83">
+        <v>2.33</v>
+      </c>
+      <c r="BK83">
+        <v>1.83</v>
+      </c>
+      <c r="BL83">
+        <v>1.85</v>
+      </c>
+      <c r="BM83">
+        <v>2.05</v>
+      </c>
+      <c r="BN83">
+        <v>1.7</v>
+      </c>
+      <c r="BO83">
+        <v>2.9</v>
+      </c>
+      <c r="BP83">
         <v>1.35</v>
-      </c>
-      <c r="BJ83">
-        <v>2.88</v>
-      </c>
-      <c r="BK83">
-        <v>1.58</v>
-      </c>
-      <c r="BL83">
-        <v>2.18</v>
-      </c>
-      <c r="BM83">
-        <v>1.94</v>
-      </c>
-      <c r="BN83">
-        <v>1.76</v>
-      </c>
-      <c r="BO83">
-        <v>2.4</v>
-      </c>
-      <c r="BP83">
-        <v>1.49</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18066,7 +18081,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7466137</v>
+        <v>7466136</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18075,133 +18090,133 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45591.57291666666</v>
+        <v>45591.625</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O84" t="s">
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="Q84">
-        <v>1.33</v>
+        <v>2.6</v>
       </c>
       <c r="R84">
+        <v>2.25</v>
+      </c>
+      <c r="S84">
         <v>4</v>
       </c>
-      <c r="S84">
+      <c r="T84">
+        <v>1.36</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>2.63</v>
+      </c>
+      <c r="W84">
+        <v>1.44</v>
+      </c>
+      <c r="X84">
+        <v>7</v>
+      </c>
+      <c r="Y84">
+        <v>1.1</v>
+      </c>
+      <c r="Z84">
+        <v>2</v>
+      </c>
+      <c r="AA84">
+        <v>3.6</v>
+      </c>
+      <c r="AB84">
+        <v>3.65</v>
+      </c>
+      <c r="AC84">
+        <v>1.04</v>
+      </c>
+      <c r="AD84">
         <v>13</v>
       </c>
-      <c r="T84">
-        <v>1.13</v>
-      </c>
-      <c r="U84">
-        <v>6</v>
-      </c>
-      <c r="V84">
-        <v>1.62</v>
-      </c>
-      <c r="W84">
-        <v>2.2</v>
-      </c>
-      <c r="X84">
-        <v>3</v>
-      </c>
-      <c r="Y84">
-        <v>1.36</v>
-      </c>
-      <c r="Z84">
+      <c r="AE84">
+        <v>1.26</v>
+      </c>
+      <c r="AF84">
+        <v>3.67</v>
+      </c>
+      <c r="AG84">
+        <v>1.77</v>
+      </c>
+      <c r="AH84">
+        <v>2.05</v>
+      </c>
+      <c r="AI84">
+        <v>1.7</v>
+      </c>
+      <c r="AJ84">
+        <v>2.05</v>
+      </c>
+      <c r="AK84">
+        <v>1.28</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.85</v>
+      </c>
+      <c r="AN84">
+        <v>2.25</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>2.4</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
         <v>1.12</v>
       </c>
-      <c r="AA84">
-        <v>10.5</v>
-      </c>
-      <c r="AB84">
-        <v>18.5</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84">
-        <v>0</v>
-      </c>
-      <c r="AE84">
-        <v>1.04</v>
-      </c>
-      <c r="AF84">
-        <v>11</v>
-      </c>
-      <c r="AG84">
-        <v>1.2</v>
-      </c>
-      <c r="AH84">
-        <v>4.23</v>
-      </c>
-      <c r="AI84">
+      <c r="AS84">
+        <v>0.83</v>
+      </c>
+      <c r="AT84">
         <v>1.95</v>
       </c>
-      <c r="AJ84">
-        <v>1.8</v>
-      </c>
-      <c r="AK84">
-        <v>1.01</v>
-      </c>
-      <c r="AL84">
-        <v>1.04</v>
-      </c>
-      <c r="AM84">
-        <v>7.5</v>
-      </c>
-      <c r="AN84">
-        <v>3</v>
-      </c>
-      <c r="AO84">
-        <v>0.5</v>
-      </c>
-      <c r="AP84">
-        <v>3</v>
-      </c>
-      <c r="AQ84">
-        <v>0.4</v>
-      </c>
-      <c r="AR84">
-        <v>2.49</v>
-      </c>
-      <c r="AS84">
-        <v>0.86</v>
-      </c>
-      <c r="AT84">
-        <v>3.35</v>
-      </c>
       <c r="AU84">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV84">
         <v>3</v>
@@ -18210,61 +18225,61 @@
         <v>6</v>
       </c>
       <c r="AX84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY84">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ84">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA84">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC84">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD84">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="BE84">
-        <v>18</v>
+        <v>6.75</v>
       </c>
       <c r="BF84">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="BG84">
+        <v>1.17</v>
+      </c>
+      <c r="BH84">
+        <v>4.35</v>
+      </c>
+      <c r="BI84">
         <v>1.3</v>
       </c>
-      <c r="BH84">
+      <c r="BJ84">
         <v>3.15</v>
       </c>
-      <c r="BI84">
-        <v>1.5</v>
-      </c>
-      <c r="BJ84">
-        <v>2.33</v>
-      </c>
       <c r="BK84">
-        <v>1.83</v>
+        <v>1.49</v>
       </c>
       <c r="BL84">
+        <v>2.4</v>
+      </c>
+      <c r="BM84">
         <v>1.85</v>
       </c>
-      <c r="BM84">
-        <v>2.05</v>
-      </c>
       <c r="BN84">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BO84">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="BP84">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18471,6 +18486,830 @@
       </c>
       <c r="BP85">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7466139</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>91</v>
+      </c>
+      <c r="P86" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>2.3</v>
+      </c>
+      <c r="S86">
+        <v>2.5</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.5</v>
+      </c>
+      <c r="W86">
+        <v>1.5</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.11</v>
+      </c>
+      <c r="Z86">
+        <v>3.6</v>
+      </c>
+      <c r="AA86">
+        <v>3.7</v>
+      </c>
+      <c r="AB86">
+        <v>1.88</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>15</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4.08</v>
+      </c>
+      <c r="AG86">
+        <v>1.7</v>
+      </c>
+      <c r="AH86">
+        <v>2.16</v>
+      </c>
+      <c r="AI86">
+        <v>1.62</v>
+      </c>
+      <c r="AJ86">
+        <v>2.2</v>
+      </c>
+      <c r="AK86">
+        <v>1.92</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.28</v>
+      </c>
+      <c r="AN86">
+        <v>3</v>
+      </c>
+      <c r="AO86">
+        <v>1.8</v>
+      </c>
+      <c r="AP86">
+        <v>2.4</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>1.47</v>
+      </c>
+      <c r="AS86">
+        <v>1.91</v>
+      </c>
+      <c r="AT86">
+        <v>3.38</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>8</v>
+      </c>
+      <c r="AW86">
+        <v>3</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>6</v>
+      </c>
+      <c r="AZ86">
+        <v>14</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>8</v>
+      </c>
+      <c r="BC86">
+        <v>10</v>
+      </c>
+      <c r="BD86">
+        <v>2.05</v>
+      </c>
+      <c r="BE86">
+        <v>6.75</v>
+      </c>
+      <c r="BF86">
+        <v>1.92</v>
+      </c>
+      <c r="BG86">
+        <v>1.21</v>
+      </c>
+      <c r="BH86">
+        <v>3.8</v>
+      </c>
+      <c r="BI86">
+        <v>1.38</v>
+      </c>
+      <c r="BJ86">
+        <v>2.7</v>
+      </c>
+      <c r="BK86">
+        <v>1.64</v>
+      </c>
+      <c r="BL86">
+        <v>2.1</v>
+      </c>
+      <c r="BM86">
+        <v>1.95</v>
+      </c>
+      <c r="BN86">
+        <v>1.73</v>
+      </c>
+      <c r="BO86">
+        <v>2.55</v>
+      </c>
+      <c r="BP86">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7466141</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45592.4375</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>5</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>151</v>
+      </c>
+      <c r="P87" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q87">
+        <v>1.62</v>
+      </c>
+      <c r="R87">
+        <v>2.88</v>
+      </c>
+      <c r="S87">
+        <v>8.5</v>
+      </c>
+      <c r="T87">
+        <v>1.22</v>
+      </c>
+      <c r="U87">
+        <v>4</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
+      <c r="W87">
+        <v>1.73</v>
+      </c>
+      <c r="X87">
+        <v>4.33</v>
+      </c>
+      <c r="Y87">
+        <v>1.2</v>
+      </c>
+      <c r="Z87">
+        <v>1.22</v>
+      </c>
+      <c r="AA87">
+        <v>6.3</v>
+      </c>
+      <c r="AB87">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>26</v>
+      </c>
+      <c r="AE87">
+        <v>1.11</v>
+      </c>
+      <c r="AF87">
+        <v>6.28</v>
+      </c>
+      <c r="AG87">
+        <v>1.53</v>
+      </c>
+      <c r="AH87">
+        <v>2.35</v>
+      </c>
+      <c r="AI87">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87">
+        <v>1.95</v>
+      </c>
+      <c r="AK87">
+        <v>1.01</v>
+      </c>
+      <c r="AL87">
+        <v>1.09</v>
+      </c>
+      <c r="AM87">
+        <v>4.2</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AP87">
+        <v>2.2</v>
+      </c>
+      <c r="AQ87">
+        <v>0.8</v>
+      </c>
+      <c r="AR87">
+        <v>1.97</v>
+      </c>
+      <c r="AS87">
+        <v>1.03</v>
+      </c>
+      <c r="AT87">
+        <v>3</v>
+      </c>
+      <c r="AU87">
+        <v>10</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>22</v>
+      </c>
+      <c r="AZ87">
+        <v>5</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
+        <v>7</v>
+      </c>
+      <c r="BD87">
+        <v>1.11</v>
+      </c>
+      <c r="BE87">
+        <v>10.5</v>
+      </c>
+      <c r="BF87">
+        <v>6.4</v>
+      </c>
+      <c r="BG87">
+        <v>1.19</v>
+      </c>
+      <c r="BH87">
+        <v>4.1</v>
+      </c>
+      <c r="BI87">
+        <v>1.32</v>
+      </c>
+      <c r="BJ87">
+        <v>3</v>
+      </c>
+      <c r="BK87">
+        <v>1.54</v>
+      </c>
+      <c r="BL87">
+        <v>2.3</v>
+      </c>
+      <c r="BM87">
+        <v>1.8</v>
+      </c>
+      <c r="BN87">
+        <v>1.91</v>
+      </c>
+      <c r="BO87">
+        <v>2.25</v>
+      </c>
+      <c r="BP87">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7466142</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45592.53125</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s">
+        <v>86</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>152</v>
+      </c>
+      <c r="P88" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q88">
+        <v>1.8</v>
+      </c>
+      <c r="R88">
+        <v>2.6</v>
+      </c>
+      <c r="S88">
+        <v>7</v>
+      </c>
+      <c r="T88">
+        <v>1.29</v>
+      </c>
+      <c r="U88">
+        <v>3.5</v>
+      </c>
+      <c r="V88">
+        <v>2.25</v>
+      </c>
+      <c r="W88">
+        <v>1.57</v>
+      </c>
+      <c r="X88">
+        <v>5.5</v>
+      </c>
+      <c r="Y88">
+        <v>1.14</v>
+      </c>
+      <c r="Z88">
+        <v>1.34</v>
+      </c>
+      <c r="AA88">
+        <v>5.33</v>
+      </c>
+      <c r="AB88">
+        <v>8.57</v>
+      </c>
+      <c r="AC88">
+        <v>1.02</v>
+      </c>
+      <c r="AD88">
+        <v>19</v>
+      </c>
+      <c r="AE88">
+        <v>1.16</v>
+      </c>
+      <c r="AF88">
+        <v>4.87</v>
+      </c>
+      <c r="AG88">
+        <v>1.48</v>
+      </c>
+      <c r="AH88">
+        <v>2.54</v>
+      </c>
+      <c r="AI88">
+        <v>1.95</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.06</v>
+      </c>
+      <c r="AL88">
+        <v>1.12</v>
+      </c>
+      <c r="AM88">
+        <v>3.3</v>
+      </c>
+      <c r="AN88">
+        <v>3</v>
+      </c>
+      <c r="AO88">
+        <v>1.25</v>
+      </c>
+      <c r="AP88">
+        <v>3</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>2.16</v>
+      </c>
+      <c r="AS88">
+        <v>0.8</v>
+      </c>
+      <c r="AT88">
+        <v>2.96</v>
+      </c>
+      <c r="AU88">
+        <v>8</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
+        <v>4</v>
+      </c>
+      <c r="AX88">
+        <v>1</v>
+      </c>
+      <c r="AY88">
+        <v>14</v>
+      </c>
+      <c r="AZ88">
+        <v>4</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>5</v>
+      </c>
+      <c r="BD88">
+        <v>1.36</v>
+      </c>
+      <c r="BE88">
+        <v>7.5</v>
+      </c>
+      <c r="BF88">
+        <v>3.4</v>
+      </c>
+      <c r="BG88">
+        <v>1.23</v>
+      </c>
+      <c r="BH88">
+        <v>3.65</v>
+      </c>
+      <c r="BI88">
+        <v>1.41</v>
+      </c>
+      <c r="BJ88">
+        <v>2.65</v>
+      </c>
+      <c r="BK88">
+        <v>1.66</v>
+      </c>
+      <c r="BL88">
+        <v>2.06</v>
+      </c>
+      <c r="BM88">
+        <v>1.95</v>
+      </c>
+      <c r="BN88">
+        <v>1.7</v>
+      </c>
+      <c r="BO88">
+        <v>2.55</v>
+      </c>
+      <c r="BP88">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7466140</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45592.66666666666</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89" t="s">
+        <v>77</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>153</v>
+      </c>
+      <c r="P89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q89">
+        <v>2.05</v>
+      </c>
+      <c r="R89">
+        <v>2.4</v>
+      </c>
+      <c r="S89">
+        <v>5.5</v>
+      </c>
+      <c r="T89">
+        <v>1.3</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.5</v>
+      </c>
+      <c r="W89">
+        <v>1.5</v>
+      </c>
+      <c r="X89">
+        <v>6</v>
+      </c>
+      <c r="Y89">
+        <v>1.13</v>
+      </c>
+      <c r="Z89">
+        <v>1.55</v>
+      </c>
+      <c r="AA89">
+        <v>4.42</v>
+      </c>
+      <c r="AB89">
+        <v>5.6</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>17</v>
+      </c>
+      <c r="AE89">
+        <v>1.19</v>
+      </c>
+      <c r="AF89">
+        <v>4.45</v>
+      </c>
+      <c r="AG89">
+        <v>1.66</v>
+      </c>
+      <c r="AH89">
+        <v>2.14</v>
+      </c>
+      <c r="AI89">
+        <v>1.75</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.14</v>
+      </c>
+      <c r="AL89">
+        <v>1.17</v>
+      </c>
+      <c r="AM89">
+        <v>2.55</v>
+      </c>
+      <c r="AN89">
+        <v>1.5</v>
+      </c>
+      <c r="AO89">
+        <v>1.5</v>
+      </c>
+      <c r="AP89">
+        <v>1.4</v>
+      </c>
+      <c r="AQ89">
+        <v>1.4</v>
+      </c>
+      <c r="AR89">
+        <v>2.01</v>
+      </c>
+      <c r="AS89">
+        <v>1.06</v>
+      </c>
+      <c r="AT89">
+        <v>3.07</v>
+      </c>
+      <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>6</v>
+      </c>
+      <c r="AY89">
+        <v>14</v>
+      </c>
+      <c r="AZ89">
+        <v>11</v>
+      </c>
+      <c r="BA89">
+        <v>4</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>10</v>
+      </c>
+      <c r="BD89">
+        <v>1.49</v>
+      </c>
+      <c r="BE89">
+        <v>6.75</v>
+      </c>
+      <c r="BF89">
+        <v>2.9</v>
+      </c>
+      <c r="BG89">
+        <v>1.24</v>
+      </c>
+      <c r="BH89">
+        <v>3.55</v>
+      </c>
+      <c r="BI89">
+        <v>1.44</v>
+      </c>
+      <c r="BJ89">
+        <v>2.55</v>
+      </c>
+      <c r="BK89">
+        <v>1.71</v>
+      </c>
+      <c r="BL89">
+        <v>2</v>
+      </c>
+      <c r="BM89">
+        <v>1.95</v>
+      </c>
+      <c r="BN89">
+        <v>1.7</v>
+      </c>
+      <c r="BO89">
+        <v>2.65</v>
+      </c>
+      <c r="BP89">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -472,10 +472,10 @@
     <t>['38', '42', '59', '77', '90+3']</t>
   </si>
   <si>
+    <t>['35', '49']</t>
+  </si>
+  <si>
     <t>['6']</t>
-  </si>
-  <si>
-    <t>['35', '49']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -18493,7 +18493,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7466139</v>
+        <v>7466141</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18505,193 +18505,193 @@
         <v>45591.875</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O86" t="s">
+        <v>151</v>
+      </c>
+      <c r="P86" t="s">
         <v>91</v>
       </c>
-      <c r="P86" t="s">
-        <v>197</v>
-      </c>
       <c r="Q86">
+        <v>1.62</v>
+      </c>
+      <c r="R86">
+        <v>2.88</v>
+      </c>
+      <c r="S86">
+        <v>8.5</v>
+      </c>
+      <c r="T86">
+        <v>1.22</v>
+      </c>
+      <c r="U86">
         <v>4</v>
       </c>
-      <c r="R86">
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>1.73</v>
+      </c>
+      <c r="X86">
+        <v>4.33</v>
+      </c>
+      <c r="Y86">
+        <v>1.2</v>
+      </c>
+      <c r="Z86">
+        <v>1.22</v>
+      </c>
+      <c r="AA86">
+        <v>6.3</v>
+      </c>
+      <c r="AB86">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
+        <v>26</v>
+      </c>
+      <c r="AE86">
+        <v>1.11</v>
+      </c>
+      <c r="AF86">
+        <v>6.28</v>
+      </c>
+      <c r="AG86">
+        <v>1.53</v>
+      </c>
+      <c r="AH86">
+        <v>2.35</v>
+      </c>
+      <c r="AI86">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86">
+        <v>1.95</v>
+      </c>
+      <c r="AK86">
+        <v>1.01</v>
+      </c>
+      <c r="AL86">
+        <v>1.09</v>
+      </c>
+      <c r="AM86">
+        <v>4.2</v>
+      </c>
+      <c r="AN86">
+        <v>2</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AP86">
+        <v>2.2</v>
+      </c>
+      <c r="AQ86">
+        <v>0.8</v>
+      </c>
+      <c r="AR86">
+        <v>1.97</v>
+      </c>
+      <c r="AS86">
+        <v>1.03</v>
+      </c>
+      <c r="AT86">
+        <v>3</v>
+      </c>
+      <c r="AU86">
+        <v>10</v>
+      </c>
+      <c r="AV86">
+        <v>2</v>
+      </c>
+      <c r="AW86">
+        <v>6</v>
+      </c>
+      <c r="AX86">
+        <v>2</v>
+      </c>
+      <c r="AY86">
+        <v>22</v>
+      </c>
+      <c r="AZ86">
+        <v>5</v>
+      </c>
+      <c r="BA86">
+        <v>5</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>7</v>
+      </c>
+      <c r="BD86">
+        <v>1.11</v>
+      </c>
+      <c r="BE86">
+        <v>10.5</v>
+      </c>
+      <c r="BF86">
+        <v>6.4</v>
+      </c>
+      <c r="BG86">
+        <v>1.19</v>
+      </c>
+      <c r="BH86">
+        <v>4.1</v>
+      </c>
+      <c r="BI86">
+        <v>1.32</v>
+      </c>
+      <c r="BJ86">
+        <v>3</v>
+      </c>
+      <c r="BK86">
+        <v>1.54</v>
+      </c>
+      <c r="BL86">
         <v>2.3</v>
       </c>
-      <c r="S86">
-        <v>2.5</v>
-      </c>
-      <c r="T86">
-        <v>1.33</v>
-      </c>
-      <c r="U86">
-        <v>3.25</v>
-      </c>
-      <c r="V86">
-        <v>2.5</v>
-      </c>
-      <c r="W86">
-        <v>1.5</v>
-      </c>
-      <c r="X86">
-        <v>6.5</v>
-      </c>
-      <c r="Y86">
-        <v>1.11</v>
-      </c>
-      <c r="Z86">
-        <v>3.6</v>
-      </c>
-      <c r="AA86">
-        <v>3.7</v>
-      </c>
-      <c r="AB86">
-        <v>1.88</v>
-      </c>
-      <c r="AC86">
-        <v>1.03</v>
-      </c>
-      <c r="AD86">
-        <v>15</v>
-      </c>
-      <c r="AE86">
-        <v>1.22</v>
-      </c>
-      <c r="AF86">
-        <v>4.08</v>
-      </c>
-      <c r="AG86">
-        <v>1.7</v>
-      </c>
-      <c r="AH86">
-        <v>2.16</v>
-      </c>
-      <c r="AI86">
-        <v>1.62</v>
-      </c>
-      <c r="AJ86">
-        <v>2.2</v>
-      </c>
-      <c r="AK86">
-        <v>1.92</v>
-      </c>
-      <c r="AL86">
-        <v>1.22</v>
-      </c>
-      <c r="AM86">
-        <v>1.28</v>
-      </c>
-      <c r="AN86">
-        <v>3</v>
-      </c>
-      <c r="AO86">
+      <c r="BM86">
         <v>1.8</v>
       </c>
-      <c r="AP86">
-        <v>2.4</v>
-      </c>
-      <c r="AQ86">
-        <v>2</v>
-      </c>
-      <c r="AR86">
-        <v>1.47</v>
-      </c>
-      <c r="AS86">
+      <c r="BN86">
         <v>1.91</v>
       </c>
-      <c r="AT86">
-        <v>3.38</v>
-      </c>
-      <c r="AU86">
-        <v>3</v>
-      </c>
-      <c r="AV86">
-        <v>8</v>
-      </c>
-      <c r="AW86">
-        <v>3</v>
-      </c>
-      <c r="AX86">
-        <v>5</v>
-      </c>
-      <c r="AY86">
-        <v>6</v>
-      </c>
-      <c r="AZ86">
-        <v>14</v>
-      </c>
-      <c r="BA86">
-        <v>2</v>
-      </c>
-      <c r="BB86">
-        <v>8</v>
-      </c>
-      <c r="BC86">
-        <v>10</v>
-      </c>
-      <c r="BD86">
-        <v>2.05</v>
-      </c>
-      <c r="BE86">
-        <v>6.75</v>
-      </c>
-      <c r="BF86">
-        <v>1.92</v>
-      </c>
-      <c r="BG86">
-        <v>1.21</v>
-      </c>
-      <c r="BH86">
-        <v>3.8</v>
-      </c>
-      <c r="BI86">
-        <v>1.38</v>
-      </c>
-      <c r="BJ86">
-        <v>2.7</v>
-      </c>
-      <c r="BK86">
-        <v>1.64</v>
-      </c>
-      <c r="BL86">
-        <v>2.1</v>
-      </c>
-      <c r="BM86">
-        <v>1.95</v>
-      </c>
-      <c r="BN86">
-        <v>1.73</v>
-      </c>
       <c r="BO86">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="BP86">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18699,7 +18699,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7466141</v>
+        <v>7466139</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18708,196 +18708,196 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45592.4375</v>
+        <v>45591.875</v>
       </c>
       <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>91</v>
+      </c>
+      <c r="P87" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q87">
+        <v>4</v>
+      </c>
+      <c r="R87">
+        <v>2.3</v>
+      </c>
+      <c r="S87">
+        <v>2.5</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>3.25</v>
+      </c>
+      <c r="V87">
+        <v>2.5</v>
+      </c>
+      <c r="W87">
+        <v>1.5</v>
+      </c>
+      <c r="X87">
+        <v>6.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>3.6</v>
+      </c>
+      <c r="AA87">
+        <v>3.7</v>
+      </c>
+      <c r="AB87">
+        <v>1.88</v>
+      </c>
+      <c r="AC87">
+        <v>1.03</v>
+      </c>
+      <c r="AD87">
+        <v>15</v>
+      </c>
+      <c r="AE87">
+        <v>1.22</v>
+      </c>
+      <c r="AF87">
+        <v>4.08</v>
+      </c>
+      <c r="AG87">
+        <v>1.7</v>
+      </c>
+      <c r="AH87">
+        <v>2.16</v>
+      </c>
+      <c r="AI87">
+        <v>1.62</v>
+      </c>
+      <c r="AJ87">
+        <v>2.2</v>
+      </c>
+      <c r="AK87">
+        <v>1.92</v>
+      </c>
+      <c r="AL87">
+        <v>1.22</v>
+      </c>
+      <c r="AM87">
+        <v>1.28</v>
+      </c>
+      <c r="AN87">
+        <v>3</v>
+      </c>
+      <c r="AO87">
+        <v>1.8</v>
+      </c>
+      <c r="AP87">
+        <v>2.4</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>1.47</v>
+      </c>
+      <c r="AS87">
+        <v>1.91</v>
+      </c>
+      <c r="AT87">
+        <v>3.38</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>8</v>
+      </c>
+      <c r="AW87">
+        <v>3</v>
+      </c>
+      <c r="AX87">
+        <v>5</v>
+      </c>
+      <c r="AY87">
+        <v>6</v>
+      </c>
+      <c r="AZ87">
+        <v>14</v>
+      </c>
+      <c r="BA87">
+        <v>2</v>
+      </c>
+      <c r="BB87">
+        <v>8</v>
+      </c>
+      <c r="BC87">
         <v>10</v>
       </c>
-      <c r="G87" t="s">
-        <v>81</v>
-      </c>
-      <c r="H87" t="s">
-        <v>84</v>
-      </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>5</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>5</v>
-      </c>
-      <c r="O87" t="s">
-        <v>151</v>
-      </c>
-      <c r="P87" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q87">
-        <v>1.62</v>
-      </c>
-      <c r="R87">
-        <v>2.88</v>
-      </c>
-      <c r="S87">
-        <v>8.5</v>
-      </c>
-      <c r="T87">
-        <v>1.22</v>
-      </c>
-      <c r="U87">
-        <v>4</v>
-      </c>
-      <c r="V87">
-        <v>2</v>
-      </c>
-      <c r="W87">
+      <c r="BD87">
+        <v>2.05</v>
+      </c>
+      <c r="BE87">
+        <v>6.75</v>
+      </c>
+      <c r="BF87">
+        <v>1.92</v>
+      </c>
+      <c r="BG87">
+        <v>1.21</v>
+      </c>
+      <c r="BH87">
+        <v>3.8</v>
+      </c>
+      <c r="BI87">
+        <v>1.38</v>
+      </c>
+      <c r="BJ87">
+        <v>2.7</v>
+      </c>
+      <c r="BK87">
+        <v>1.64</v>
+      </c>
+      <c r="BL87">
+        <v>2.1</v>
+      </c>
+      <c r="BM87">
+        <v>1.95</v>
+      </c>
+      <c r="BN87">
         <v>1.73</v>
       </c>
-      <c r="X87">
-        <v>4.33</v>
-      </c>
-      <c r="Y87">
-        <v>1.2</v>
-      </c>
-      <c r="Z87">
-        <v>1.22</v>
-      </c>
-      <c r="AA87">
-        <v>6.3</v>
-      </c>
-      <c r="AB87">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AC87">
-        <v>1.01</v>
-      </c>
-      <c r="AD87">
-        <v>26</v>
-      </c>
-      <c r="AE87">
-        <v>1.11</v>
-      </c>
-      <c r="AF87">
-        <v>6.28</v>
-      </c>
-      <c r="AG87">
-        <v>1.53</v>
-      </c>
-      <c r="AH87">
-        <v>2.35</v>
-      </c>
-      <c r="AI87">
-        <v>1.8</v>
-      </c>
-      <c r="AJ87">
-        <v>1.95</v>
-      </c>
-      <c r="AK87">
-        <v>1.01</v>
-      </c>
-      <c r="AL87">
-        <v>1.09</v>
-      </c>
-      <c r="AM87">
-        <v>4.2</v>
-      </c>
-      <c r="AN87">
-        <v>2</v>
-      </c>
-      <c r="AO87">
-        <v>1</v>
-      </c>
-      <c r="AP87">
-        <v>2.2</v>
-      </c>
-      <c r="AQ87">
-        <v>0.8</v>
-      </c>
-      <c r="AR87">
-        <v>1.97</v>
-      </c>
-      <c r="AS87">
-        <v>1.03</v>
-      </c>
-      <c r="AT87">
-        <v>3</v>
-      </c>
-      <c r="AU87">
-        <v>10</v>
-      </c>
-      <c r="AV87">
-        <v>2</v>
-      </c>
-      <c r="AW87">
-        <v>6</v>
-      </c>
-      <c r="AX87">
-        <v>2</v>
-      </c>
-      <c r="AY87">
-        <v>22</v>
-      </c>
-      <c r="AZ87">
-        <v>5</v>
-      </c>
-      <c r="BA87">
-        <v>5</v>
-      </c>
-      <c r="BB87">
-        <v>2</v>
-      </c>
-      <c r="BC87">
-        <v>7</v>
-      </c>
-      <c r="BD87">
-        <v>1.11</v>
-      </c>
-      <c r="BE87">
-        <v>10.5</v>
-      </c>
-      <c r="BF87">
-        <v>6.4</v>
-      </c>
-      <c r="BG87">
-        <v>1.19</v>
-      </c>
-      <c r="BH87">
-        <v>4.1</v>
-      </c>
-      <c r="BI87">
-        <v>1.32</v>
-      </c>
-      <c r="BJ87">
-        <v>3</v>
-      </c>
-      <c r="BK87">
-        <v>1.54</v>
-      </c>
-      <c r="BL87">
-        <v>2.3</v>
-      </c>
-      <c r="BM87">
-        <v>1.8</v>
-      </c>
-      <c r="BN87">
-        <v>1.91</v>
-      </c>
       <c r="BO87">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="BP87">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18905,7 +18905,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7466142</v>
+        <v>7466140</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18914,16 +18914,16 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45592.53125</v>
+        <v>45591.875</v>
       </c>
       <c r="F88">
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -18935,163 +18935,163 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O88" t="s">
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="Q88">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R88">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S88">
+        <v>5.5</v>
+      </c>
+      <c r="T88">
+        <v>1.3</v>
+      </c>
+      <c r="U88">
+        <v>3.4</v>
+      </c>
+      <c r="V88">
+        <v>2.5</v>
+      </c>
+      <c r="W88">
+        <v>1.5</v>
+      </c>
+      <c r="X88">
+        <v>6</v>
+      </c>
+      <c r="Y88">
+        <v>1.13</v>
+      </c>
+      <c r="Z88">
+        <v>1.55</v>
+      </c>
+      <c r="AA88">
+        <v>4.42</v>
+      </c>
+      <c r="AB88">
+        <v>5.6</v>
+      </c>
+      <c r="AC88">
+        <v>1.03</v>
+      </c>
+      <c r="AD88">
+        <v>17</v>
+      </c>
+      <c r="AE88">
+        <v>1.19</v>
+      </c>
+      <c r="AF88">
+        <v>4.45</v>
+      </c>
+      <c r="AG88">
+        <v>1.66</v>
+      </c>
+      <c r="AH88">
+        <v>2.14</v>
+      </c>
+      <c r="AI88">
+        <v>1.75</v>
+      </c>
+      <c r="AJ88">
+        <v>2</v>
+      </c>
+      <c r="AK88">
+        <v>1.14</v>
+      </c>
+      <c r="AL88">
+        <v>1.17</v>
+      </c>
+      <c r="AM88">
+        <v>2.55</v>
+      </c>
+      <c r="AN88">
+        <v>1.5</v>
+      </c>
+      <c r="AO88">
+        <v>1.5</v>
+      </c>
+      <c r="AP88">
+        <v>1.4</v>
+      </c>
+      <c r="AQ88">
+        <v>1.4</v>
+      </c>
+      <c r="AR88">
+        <v>2.01</v>
+      </c>
+      <c r="AS88">
+        <v>1.06</v>
+      </c>
+      <c r="AT88">
+        <v>3.07</v>
+      </c>
+      <c r="AU88">
         <v>7</v>
       </c>
-      <c r="T88">
-        <v>1.29</v>
-      </c>
-      <c r="U88">
-        <v>3.5</v>
-      </c>
-      <c r="V88">
-        <v>2.25</v>
-      </c>
-      <c r="W88">
-        <v>1.57</v>
-      </c>
-      <c r="X88">
-        <v>5.5</v>
-      </c>
-      <c r="Y88">
-        <v>1.14</v>
-      </c>
-      <c r="Z88">
-        <v>1.34</v>
-      </c>
-      <c r="AA88">
-        <v>5.33</v>
-      </c>
-      <c r="AB88">
-        <v>8.57</v>
-      </c>
-      <c r="AC88">
-        <v>1.02</v>
-      </c>
-      <c r="AD88">
-        <v>19</v>
-      </c>
-      <c r="AE88">
-        <v>1.16</v>
-      </c>
-      <c r="AF88">
-        <v>4.87</v>
-      </c>
-      <c r="AG88">
-        <v>1.48</v>
-      </c>
-      <c r="AH88">
-        <v>2.54</v>
-      </c>
-      <c r="AI88">
-        <v>1.95</v>
-      </c>
-      <c r="AJ88">
-        <v>1.8</v>
-      </c>
-      <c r="AK88">
-        <v>1.06</v>
-      </c>
-      <c r="AL88">
-        <v>1.12</v>
-      </c>
-      <c r="AM88">
-        <v>3.3</v>
-      </c>
-      <c r="AN88">
-        <v>3</v>
-      </c>
-      <c r="AO88">
-        <v>1.25</v>
-      </c>
-      <c r="AP88">
-        <v>3</v>
-      </c>
-      <c r="AQ88">
-        <v>1</v>
-      </c>
-      <c r="AR88">
-        <v>2.16</v>
-      </c>
-      <c r="AS88">
-        <v>0.8</v>
-      </c>
-      <c r="AT88">
-        <v>2.96</v>
-      </c>
-      <c r="AU88">
-        <v>8</v>
-      </c>
       <c r="AV88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW88">
         <v>4</v>
       </c>
       <c r="AX88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY88">
         <v>14</v>
       </c>
       <c r="AZ88">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA88">
         <v>4</v>
       </c>
       <c r="BB88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD88">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="BE88">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF88">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BG88">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BH88">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="BI88">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BJ88">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BK88">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="BL88">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BM88">
         <v>1.95</v>
@@ -19100,10 +19100,10 @@
         <v>1.7</v>
       </c>
       <c r="BO88">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BP88">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19111,7 +19111,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7466140</v>
+        <v>7466142</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19120,16 +19120,16 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45592.66666666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F89">
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -19141,163 +19141,163 @@
         <v>1</v>
       </c>
       <c r="L89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O89" t="s">
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="Q89">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R89">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S89">
+        <v>7</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.5</v>
+      </c>
+      <c r="V89">
+        <v>2.25</v>
+      </c>
+      <c r="W89">
+        <v>1.57</v>
+      </c>
+      <c r="X89">
         <v>5.5</v>
       </c>
-      <c r="T89">
-        <v>1.3</v>
-      </c>
-      <c r="U89">
-        <v>3.4</v>
-      </c>
-      <c r="V89">
-        <v>2.5</v>
-      </c>
-      <c r="W89">
-        <v>1.5</v>
-      </c>
-      <c r="X89">
-        <v>6</v>
-      </c>
       <c r="Y89">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z89">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AA89">
-        <v>4.42</v>
+        <v>5.33</v>
       </c>
       <c r="AB89">
-        <v>5.6</v>
+        <v>8.57</v>
       </c>
       <c r="AC89">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD89">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE89">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AF89">
-        <v>4.45</v>
+        <v>4.87</v>
       </c>
       <c r="AG89">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="AH89">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="AI89">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK89">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AL89">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AM89">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="AN89">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO89">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="AQ89">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR89">
-        <v>2.01</v>
+        <v>2.16</v>
       </c>
       <c r="AS89">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="AT89">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="AU89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW89">
         <v>4</v>
       </c>
       <c r="AX89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY89">
         <v>14</v>
       </c>
       <c r="AZ89">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA89">
         <v>4</v>
       </c>
       <c r="BB89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD89">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="BE89">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF89">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BG89">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="BH89">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="BI89">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="BJ89">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BK89">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="BL89">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BM89">
         <v>1.95</v>
@@ -19306,10 +19306,10 @@
         <v>1.7</v>
       </c>
       <c r="BO89">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BP89">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -472,10 +472,10 @@
     <t>['38', '42', '59', '77', '90+3']</t>
   </si>
   <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['35', '49']</t>
-  </si>
-  <si>
-    <t>['6']</t>
   </si>
   <si>
     <t>['48']</t>
@@ -18493,7 +18493,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7466141</v>
+        <v>7466139</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18502,196 +18502,196 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45591.875</v>
+        <v>45592.34375</v>
       </c>
       <c r="F86">
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H86" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>91</v>
+      </c>
+      <c r="P86" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>2.3</v>
+      </c>
+      <c r="S86">
+        <v>2.5</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.5</v>
+      </c>
+      <c r="W86">
+        <v>1.5</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.11</v>
+      </c>
+      <c r="Z86">
+        <v>3.6</v>
+      </c>
+      <c r="AA86">
+        <v>3.7</v>
+      </c>
+      <c r="AB86">
+        <v>1.88</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>15</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4.08</v>
+      </c>
+      <c r="AG86">
+        <v>1.7</v>
+      </c>
+      <c r="AH86">
+        <v>2.16</v>
+      </c>
+      <c r="AI86">
+        <v>1.62</v>
+      </c>
+      <c r="AJ86">
+        <v>2.2</v>
+      </c>
+      <c r="AK86">
+        <v>1.92</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.28</v>
+      </c>
+      <c r="AN86">
+        <v>3</v>
+      </c>
+      <c r="AO86">
+        <v>1.8</v>
+      </c>
+      <c r="AP86">
+        <v>2.4</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>1.47</v>
+      </c>
+      <c r="AS86">
+        <v>1.91</v>
+      </c>
+      <c r="AT86">
+        <v>3.38</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>8</v>
+      </c>
+      <c r="AW86">
+        <v>3</v>
+      </c>
+      <c r="AX86">
         <v>5</v>
       </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>5</v>
-      </c>
-      <c r="O86" t="s">
-        <v>151</v>
-      </c>
-      <c r="P86" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q86">
-        <v>1.62</v>
-      </c>
-      <c r="R86">
-        <v>2.88</v>
-      </c>
-      <c r="S86">
-        <v>8.5</v>
-      </c>
-      <c r="T86">
-        <v>1.22</v>
-      </c>
-      <c r="U86">
-        <v>4</v>
-      </c>
-      <c r="V86">
-        <v>2</v>
-      </c>
-      <c r="W86">
+      <c r="AY86">
+        <v>6</v>
+      </c>
+      <c r="AZ86">
+        <v>14</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>8</v>
+      </c>
+      <c r="BC86">
+        <v>10</v>
+      </c>
+      <c r="BD86">
+        <v>2.05</v>
+      </c>
+      <c r="BE86">
+        <v>6.75</v>
+      </c>
+      <c r="BF86">
+        <v>1.92</v>
+      </c>
+      <c r="BG86">
+        <v>1.21</v>
+      </c>
+      <c r="BH86">
+        <v>3.8</v>
+      </c>
+      <c r="BI86">
+        <v>1.38</v>
+      </c>
+      <c r="BJ86">
+        <v>2.7</v>
+      </c>
+      <c r="BK86">
+        <v>1.64</v>
+      </c>
+      <c r="BL86">
+        <v>2.1</v>
+      </c>
+      <c r="BM86">
+        <v>1.95</v>
+      </c>
+      <c r="BN86">
         <v>1.73</v>
       </c>
-      <c r="X86">
-        <v>4.33</v>
-      </c>
-      <c r="Y86">
-        <v>1.2</v>
-      </c>
-      <c r="Z86">
-        <v>1.22</v>
-      </c>
-      <c r="AA86">
-        <v>6.3</v>
-      </c>
-      <c r="AB86">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AC86">
-        <v>1.01</v>
-      </c>
-      <c r="AD86">
-        <v>26</v>
-      </c>
-      <c r="AE86">
-        <v>1.11</v>
-      </c>
-      <c r="AF86">
-        <v>6.28</v>
-      </c>
-      <c r="AG86">
-        <v>1.53</v>
-      </c>
-      <c r="AH86">
-        <v>2.35</v>
-      </c>
-      <c r="AI86">
-        <v>1.8</v>
-      </c>
-      <c r="AJ86">
-        <v>1.95</v>
-      </c>
-      <c r="AK86">
-        <v>1.01</v>
-      </c>
-      <c r="AL86">
-        <v>1.09</v>
-      </c>
-      <c r="AM86">
-        <v>4.2</v>
-      </c>
-      <c r="AN86">
-        <v>2</v>
-      </c>
-      <c r="AO86">
-        <v>1</v>
-      </c>
-      <c r="AP86">
-        <v>2.2</v>
-      </c>
-      <c r="AQ86">
-        <v>0.8</v>
-      </c>
-      <c r="AR86">
-        <v>1.97</v>
-      </c>
-      <c r="AS86">
-        <v>1.03</v>
-      </c>
-      <c r="AT86">
-        <v>3</v>
-      </c>
-      <c r="AU86">
-        <v>10</v>
-      </c>
-      <c r="AV86">
-        <v>2</v>
-      </c>
-      <c r="AW86">
-        <v>6</v>
-      </c>
-      <c r="AX86">
-        <v>2</v>
-      </c>
-      <c r="AY86">
-        <v>22</v>
-      </c>
-      <c r="AZ86">
-        <v>5</v>
-      </c>
-      <c r="BA86">
-        <v>5</v>
-      </c>
-      <c r="BB86">
-        <v>2</v>
-      </c>
-      <c r="BC86">
-        <v>7</v>
-      </c>
-      <c r="BD86">
-        <v>1.11</v>
-      </c>
-      <c r="BE86">
-        <v>10.5</v>
-      </c>
-      <c r="BF86">
-        <v>6.4</v>
-      </c>
-      <c r="BG86">
-        <v>1.19</v>
-      </c>
-      <c r="BH86">
-        <v>4.1</v>
-      </c>
-      <c r="BI86">
-        <v>1.32</v>
-      </c>
-      <c r="BJ86">
-        <v>3</v>
-      </c>
-      <c r="BK86">
-        <v>1.54</v>
-      </c>
-      <c r="BL86">
-        <v>2.3</v>
-      </c>
-      <c r="BM86">
-        <v>1.8</v>
-      </c>
-      <c r="BN86">
-        <v>1.91</v>
-      </c>
       <c r="BO86">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="BP86">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18699,7 +18699,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7466139</v>
+        <v>7466141</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18708,196 +18708,196 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45591.875</v>
+        <v>45592.4375</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O87" t="s">
+        <v>151</v>
+      </c>
+      <c r="P87" t="s">
         <v>91</v>
       </c>
-      <c r="P87" t="s">
-        <v>197</v>
-      </c>
       <c r="Q87">
+        <v>1.62</v>
+      </c>
+      <c r="R87">
+        <v>2.88</v>
+      </c>
+      <c r="S87">
+        <v>8.5</v>
+      </c>
+      <c r="T87">
+        <v>1.22</v>
+      </c>
+      <c r="U87">
         <v>4</v>
       </c>
-      <c r="R87">
+      <c r="V87">
+        <v>2</v>
+      </c>
+      <c r="W87">
+        <v>1.73</v>
+      </c>
+      <c r="X87">
+        <v>4.33</v>
+      </c>
+      <c r="Y87">
+        <v>1.2</v>
+      </c>
+      <c r="Z87">
+        <v>1.22</v>
+      </c>
+      <c r="AA87">
+        <v>6.3</v>
+      </c>
+      <c r="AB87">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>26</v>
+      </c>
+      <c r="AE87">
+        <v>1.11</v>
+      </c>
+      <c r="AF87">
+        <v>6.28</v>
+      </c>
+      <c r="AG87">
+        <v>1.53</v>
+      </c>
+      <c r="AH87">
+        <v>2.35</v>
+      </c>
+      <c r="AI87">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87">
+        <v>1.95</v>
+      </c>
+      <c r="AK87">
+        <v>1.01</v>
+      </c>
+      <c r="AL87">
+        <v>1.09</v>
+      </c>
+      <c r="AM87">
+        <v>4.2</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AP87">
+        <v>2.2</v>
+      </c>
+      <c r="AQ87">
+        <v>0.8</v>
+      </c>
+      <c r="AR87">
+        <v>1.97</v>
+      </c>
+      <c r="AS87">
+        <v>1.03</v>
+      </c>
+      <c r="AT87">
+        <v>3</v>
+      </c>
+      <c r="AU87">
+        <v>10</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>22</v>
+      </c>
+      <c r="AZ87">
+        <v>5</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
+        <v>7</v>
+      </c>
+      <c r="BD87">
+        <v>1.11</v>
+      </c>
+      <c r="BE87">
+        <v>10.5</v>
+      </c>
+      <c r="BF87">
+        <v>6.4</v>
+      </c>
+      <c r="BG87">
+        <v>1.19</v>
+      </c>
+      <c r="BH87">
+        <v>4.1</v>
+      </c>
+      <c r="BI87">
+        <v>1.32</v>
+      </c>
+      <c r="BJ87">
+        <v>3</v>
+      </c>
+      <c r="BK87">
+        <v>1.54</v>
+      </c>
+      <c r="BL87">
         <v>2.3</v>
       </c>
-      <c r="S87">
-        <v>2.5</v>
-      </c>
-      <c r="T87">
-        <v>1.33</v>
-      </c>
-      <c r="U87">
-        <v>3.25</v>
-      </c>
-      <c r="V87">
-        <v>2.5</v>
-      </c>
-      <c r="W87">
-        <v>1.5</v>
-      </c>
-      <c r="X87">
-        <v>6.5</v>
-      </c>
-      <c r="Y87">
-        <v>1.11</v>
-      </c>
-      <c r="Z87">
-        <v>3.6</v>
-      </c>
-      <c r="AA87">
-        <v>3.7</v>
-      </c>
-      <c r="AB87">
-        <v>1.88</v>
-      </c>
-      <c r="AC87">
-        <v>1.03</v>
-      </c>
-      <c r="AD87">
-        <v>15</v>
-      </c>
-      <c r="AE87">
-        <v>1.22</v>
-      </c>
-      <c r="AF87">
-        <v>4.08</v>
-      </c>
-      <c r="AG87">
-        <v>1.7</v>
-      </c>
-      <c r="AH87">
-        <v>2.16</v>
-      </c>
-      <c r="AI87">
-        <v>1.62</v>
-      </c>
-      <c r="AJ87">
-        <v>2.2</v>
-      </c>
-      <c r="AK87">
-        <v>1.92</v>
-      </c>
-      <c r="AL87">
-        <v>1.22</v>
-      </c>
-      <c r="AM87">
-        <v>1.28</v>
-      </c>
-      <c r="AN87">
-        <v>3</v>
-      </c>
-      <c r="AO87">
+      <c r="BM87">
         <v>1.8</v>
       </c>
-      <c r="AP87">
-        <v>2.4</v>
-      </c>
-      <c r="AQ87">
-        <v>2</v>
-      </c>
-      <c r="AR87">
-        <v>1.47</v>
-      </c>
-      <c r="AS87">
+      <c r="BN87">
         <v>1.91</v>
       </c>
-      <c r="AT87">
-        <v>3.38</v>
-      </c>
-      <c r="AU87">
-        <v>3</v>
-      </c>
-      <c r="AV87">
-        <v>8</v>
-      </c>
-      <c r="AW87">
-        <v>3</v>
-      </c>
-      <c r="AX87">
-        <v>5</v>
-      </c>
-      <c r="AY87">
-        <v>6</v>
-      </c>
-      <c r="AZ87">
-        <v>14</v>
-      </c>
-      <c r="BA87">
-        <v>2</v>
-      </c>
-      <c r="BB87">
-        <v>8</v>
-      </c>
-      <c r="BC87">
-        <v>10</v>
-      </c>
-      <c r="BD87">
-        <v>2.05</v>
-      </c>
-      <c r="BE87">
-        <v>6.75</v>
-      </c>
-      <c r="BF87">
-        <v>1.92</v>
-      </c>
-      <c r="BG87">
-        <v>1.21</v>
-      </c>
-      <c r="BH87">
-        <v>3.8</v>
-      </c>
-      <c r="BI87">
-        <v>1.38</v>
-      </c>
-      <c r="BJ87">
-        <v>2.7</v>
-      </c>
-      <c r="BK87">
-        <v>1.64</v>
-      </c>
-      <c r="BL87">
-        <v>2.1</v>
-      </c>
-      <c r="BM87">
-        <v>1.95</v>
-      </c>
-      <c r="BN87">
-        <v>1.73</v>
-      </c>
       <c r="BO87">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="BP87">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18905,7 +18905,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7466140</v>
+        <v>7466142</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18914,16 +18914,16 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45591.875</v>
+        <v>45592.53125</v>
       </c>
       <c r="F88">
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -18935,163 +18935,163 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O88" t="s">
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="Q88">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R88">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S88">
+        <v>7</v>
+      </c>
+      <c r="T88">
+        <v>1.29</v>
+      </c>
+      <c r="U88">
+        <v>3.5</v>
+      </c>
+      <c r="V88">
+        <v>2.25</v>
+      </c>
+      <c r="W88">
+        <v>1.57</v>
+      </c>
+      <c r="X88">
         <v>5.5</v>
       </c>
-      <c r="T88">
-        <v>1.3</v>
-      </c>
-      <c r="U88">
-        <v>3.4</v>
-      </c>
-      <c r="V88">
-        <v>2.5</v>
-      </c>
-      <c r="W88">
-        <v>1.5</v>
-      </c>
-      <c r="X88">
-        <v>6</v>
-      </c>
       <c r="Y88">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z88">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="AA88">
-        <v>4.42</v>
+        <v>5.33</v>
       </c>
       <c r="AB88">
-        <v>5.6</v>
+        <v>8.57</v>
       </c>
       <c r="AC88">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD88">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE88">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AF88">
-        <v>4.45</v>
+        <v>4.87</v>
       </c>
       <c r="AG88">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="AH88">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="AI88">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK88">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AL88">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AM88">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="AN88">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO88">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="AQ88">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR88">
-        <v>2.01</v>
+        <v>2.16</v>
       </c>
       <c r="AS88">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="AT88">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="AU88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW88">
         <v>4</v>
       </c>
       <c r="AX88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY88">
         <v>14</v>
       </c>
       <c r="AZ88">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA88">
         <v>4</v>
       </c>
       <c r="BB88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC88">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD88">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="BE88">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF88">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BG88">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="BH88">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="BI88">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="BJ88">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BK88">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="BL88">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BM88">
         <v>1.95</v>
@@ -19100,10 +19100,10 @@
         <v>1.7</v>
       </c>
       <c r="BO88">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BP88">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19111,7 +19111,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7466142</v>
+        <v>7466140</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19120,16 +19120,16 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45591.875</v>
+        <v>45592.66666666666</v>
       </c>
       <c r="F89">
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -19141,163 +19141,163 @@
         <v>1</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O89" t="s">
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="Q89">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R89">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S89">
+        <v>5.5</v>
+      </c>
+      <c r="T89">
+        <v>1.3</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.5</v>
+      </c>
+      <c r="W89">
+        <v>1.5</v>
+      </c>
+      <c r="X89">
+        <v>6</v>
+      </c>
+      <c r="Y89">
+        <v>1.13</v>
+      </c>
+      <c r="Z89">
+        <v>1.55</v>
+      </c>
+      <c r="AA89">
+        <v>4.42</v>
+      </c>
+      <c r="AB89">
+        <v>5.6</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>17</v>
+      </c>
+      <c r="AE89">
+        <v>1.19</v>
+      </c>
+      <c r="AF89">
+        <v>4.45</v>
+      </c>
+      <c r="AG89">
+        <v>1.66</v>
+      </c>
+      <c r="AH89">
+        <v>2.14</v>
+      </c>
+      <c r="AI89">
+        <v>1.75</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.14</v>
+      </c>
+      <c r="AL89">
+        <v>1.17</v>
+      </c>
+      <c r="AM89">
+        <v>2.55</v>
+      </c>
+      <c r="AN89">
+        <v>1.5</v>
+      </c>
+      <c r="AO89">
+        <v>1.5</v>
+      </c>
+      <c r="AP89">
+        <v>1.4</v>
+      </c>
+      <c r="AQ89">
+        <v>1.4</v>
+      </c>
+      <c r="AR89">
+        <v>2.01</v>
+      </c>
+      <c r="AS89">
+        <v>1.06</v>
+      </c>
+      <c r="AT89">
+        <v>3.07</v>
+      </c>
+      <c r="AU89">
         <v>7</v>
       </c>
-      <c r="T89">
-        <v>1.29</v>
-      </c>
-      <c r="U89">
-        <v>3.5</v>
-      </c>
-      <c r="V89">
-        <v>2.25</v>
-      </c>
-      <c r="W89">
-        <v>1.57</v>
-      </c>
-      <c r="X89">
-        <v>5.5</v>
-      </c>
-      <c r="Y89">
-        <v>1.14</v>
-      </c>
-      <c r="Z89">
-        <v>1.34</v>
-      </c>
-      <c r="AA89">
-        <v>5.33</v>
-      </c>
-      <c r="AB89">
-        <v>8.57</v>
-      </c>
-      <c r="AC89">
-        <v>1.02</v>
-      </c>
-      <c r="AD89">
-        <v>19</v>
-      </c>
-      <c r="AE89">
-        <v>1.16</v>
-      </c>
-      <c r="AF89">
-        <v>4.87</v>
-      </c>
-      <c r="AG89">
-        <v>1.48</v>
-      </c>
-      <c r="AH89">
-        <v>2.54</v>
-      </c>
-      <c r="AI89">
-        <v>1.95</v>
-      </c>
-      <c r="AJ89">
-        <v>1.8</v>
-      </c>
-      <c r="AK89">
-        <v>1.06</v>
-      </c>
-      <c r="AL89">
-        <v>1.12</v>
-      </c>
-      <c r="AM89">
-        <v>3.3</v>
-      </c>
-      <c r="AN89">
-        <v>3</v>
-      </c>
-      <c r="AO89">
-        <v>1.25</v>
-      </c>
-      <c r="AP89">
-        <v>3</v>
-      </c>
-      <c r="AQ89">
-        <v>1</v>
-      </c>
-      <c r="AR89">
-        <v>2.16</v>
-      </c>
-      <c r="AS89">
-        <v>0.8</v>
-      </c>
-      <c r="AT89">
-        <v>2.96</v>
-      </c>
-      <c r="AU89">
-        <v>8</v>
-      </c>
       <c r="AV89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW89">
         <v>4</v>
       </c>
       <c r="AX89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY89">
         <v>14</v>
       </c>
       <c r="AZ89">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA89">
         <v>4</v>
       </c>
       <c r="BB89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC89">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD89">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="BE89">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF89">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BG89">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="BH89">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="BI89">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BJ89">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BK89">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="BL89">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BM89">
         <v>1.95</v>
@@ -19306,10 +19306,10 @@
         <v>1.7</v>
       </c>
       <c r="BO89">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BP89">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>['51', '85']</t>
+  </si>
+  <si>
+    <t>['6', '25']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -4814,7 +4817,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -10788,7 +10791,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.91</v>
@@ -11609,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>0.6</v>
@@ -13466,7 +13469,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -14905,7 +14908,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
         <v>1.4</v>
@@ -16968,7 +16971,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -19310,6 +19313,212 @@
       </c>
       <c r="BP89">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7466087</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45595.58333333334</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>78</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P90" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>2.63</v>
+      </c>
+      <c r="S90">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>1.22</v>
+      </c>
+      <c r="U90">
+        <v>4</v>
+      </c>
+      <c r="V90">
+        <v>2.1</v>
+      </c>
+      <c r="W90">
+        <v>1.67</v>
+      </c>
+      <c r="X90">
+        <v>4.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.18</v>
+      </c>
+      <c r="Z90">
+        <v>2.17</v>
+      </c>
+      <c r="AA90">
+        <v>3.61</v>
+      </c>
+      <c r="AB90">
+        <v>3.2</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>22</v>
+      </c>
+      <c r="AE90">
+        <v>1.1</v>
+      </c>
+      <c r="AF90">
+        <v>5.35</v>
+      </c>
+      <c r="AG90">
+        <v>1.58</v>
+      </c>
+      <c r="AH90">
+        <v>2.38</v>
+      </c>
+      <c r="AI90">
+        <v>1.53</v>
+      </c>
+      <c r="AJ90">
+        <v>2.38</v>
+      </c>
+      <c r="AK90">
+        <v>1.15</v>
+      </c>
+      <c r="AL90">
+        <v>1.15</v>
+      </c>
+      <c r="AM90">
+        <v>2.45</v>
+      </c>
+      <c r="AN90">
+        <v>2.33</v>
+      </c>
+      <c r="AO90">
+        <v>1.75</v>
+      </c>
+      <c r="AP90">
+        <v>1.75</v>
+      </c>
+      <c r="AQ90">
+        <v>2</v>
+      </c>
+      <c r="AR90">
+        <v>1.77</v>
+      </c>
+      <c r="AS90">
+        <v>1.51</v>
+      </c>
+      <c r="AT90">
+        <v>3.28</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>9</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>16</v>
+      </c>
+      <c r="AZ90">
+        <v>9</v>
+      </c>
+      <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>7</v>
+      </c>
+      <c r="BD90">
+        <v>1.32</v>
+      </c>
+      <c r="BE90">
+        <v>7</v>
+      </c>
+      <c r="BF90">
+        <v>3.8</v>
+      </c>
+      <c r="BG90">
+        <v>1.24</v>
+      </c>
+      <c r="BH90">
+        <v>3.55</v>
+      </c>
+      <c r="BI90">
+        <v>1.43</v>
+      </c>
+      <c r="BJ90">
+        <v>2.6</v>
+      </c>
+      <c r="BK90">
+        <v>1.68</v>
+      </c>
+      <c r="BL90">
+        <v>2.02</v>
+      </c>
+      <c r="BM90">
+        <v>2.07</v>
+      </c>
+      <c r="BN90">
+        <v>1.66</v>
+      </c>
+      <c r="BO90">
+        <v>2.63</v>
+      </c>
+      <c r="BP90">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,30 @@
     <t>['35', '49']</t>
   </si>
   <si>
+    <t>['39', '63']</t>
+  </si>
+  <si>
+    <t>['43', '66', '74']</t>
+  </si>
+  <si>
+    <t>['10', '67', '73']</t>
+  </si>
+  <si>
+    <t>['61', '63', '82']</t>
+  </si>
+  <si>
+    <t>['47', '67']</t>
+  </si>
+  <si>
+    <t>['6', '26', '32', '52', '74', '86']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['41', '58']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -491,9 +515,6 @@
   </si>
   <si>
     <t>['57', '73']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['11', '77']</t>
@@ -614,6 +635,21 @@
   </si>
   <si>
     <t>['6', '25']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['18', '54']</t>
+  </si>
+  <si>
+    <t>['43', '89']</t>
+  </si>
+  <si>
+    <t>['20', '25']</t>
+  </si>
+  <si>
+    <t>['15', '85', '88', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1270,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1315,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1518,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1646,7 +1682,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1724,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1852,7 +1888,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1933,7 +1969,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2058,7 +2094,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2342,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2551,7 +2587,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2676,7 +2712,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2754,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3166,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3375,7 +3411,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3500,7 +3536,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3912,7 +3948,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -3990,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4118,7 +4154,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4196,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4324,7 +4360,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4608,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -5020,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -5148,7 +5184,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5229,7 +5265,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR21">
         <v>0.96</v>
@@ -5354,7 +5390,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5435,7 +5471,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ22">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
@@ -5641,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -5844,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5972,7 +6008,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6050,7 +6086,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6256,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6384,7 +6420,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6462,10 +6498,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>1.81</v>
@@ -6590,7 +6626,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6671,7 +6707,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>0.73</v>
@@ -6796,7 +6832,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6874,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.6</v>
@@ -7083,7 +7119,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>2.4</v>
@@ -7208,7 +7244,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7286,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>1.4</v>
@@ -7414,7 +7450,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7495,7 +7531,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.07</v>
@@ -8319,7 +8355,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ36">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -8444,7 +8480,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8856,7 +8892,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9062,7 +9098,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9140,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -9346,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9552,10 +9588,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10092,7 +10128,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10173,7 +10209,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.06</v>
@@ -10298,7 +10334,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10504,7 +10540,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10582,7 +10618,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ47">
         <v>1.4</v>
@@ -10710,7 +10746,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10788,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -10916,7 +10952,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -10994,7 +11030,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
         <v>0.8</v>
@@ -11122,7 +11158,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11203,7 +11239,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR50">
         <v>2.16</v>
@@ -11328,7 +11364,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11409,7 +11445,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ51">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>0.82</v>
@@ -11612,10 +11648,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>2.23</v>
@@ -11740,7 +11776,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11818,10 +11854,10 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -11946,7 +11982,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12024,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12152,7 +12188,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12230,10 +12266,10 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR55">
         <v>1.25</v>
@@ -12358,7 +12394,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12436,7 +12472,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12564,7 +12600,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -12642,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12851,7 +12887,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13057,7 +13093,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ59">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>2.11</v>
@@ -13388,7 +13424,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13466,7 +13502,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ61">
         <v>2</v>
@@ -13594,7 +13630,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13675,7 +13711,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ62">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR62">
         <v>2.58</v>
@@ -14418,7 +14454,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14624,7 +14660,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14702,7 +14738,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67">
         <v>0.8</v>
@@ -14908,10 +14944,10 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>2.17</v>
@@ -15117,7 +15153,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ69">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>2.09</v>
@@ -15242,7 +15278,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15323,7 +15359,7 @@
         <v>3</v>
       </c>
       <c r="AQ70">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR70">
         <v>2.32</v>
@@ -15526,10 +15562,10 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.43</v>
@@ -15654,7 +15690,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15732,10 +15768,10 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ72">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -15860,7 +15896,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15941,7 +15977,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR73">
         <v>2.44</v>
@@ -16144,7 +16180,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>0</v>
@@ -16272,7 +16308,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16350,10 +16386,10 @@
         <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -16478,7 +16514,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16556,7 +16592,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -16762,7 +16798,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16890,7 +16926,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -16968,7 +17004,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17096,7 +17132,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17177,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17302,7 +17338,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17383,7 +17419,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ80">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -17792,10 +17828,10 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18001,7 +18037,7 @@
         <v>3</v>
       </c>
       <c r="AQ83">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>2.49</v>
@@ -18126,7 +18162,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18538,7 +18574,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19156,7 +19192,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19362,7 +19398,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19440,7 +19476,7 @@
         <v>1.75</v>
       </c>
       <c r="AP90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>2</v>
@@ -19519,6 +19555,1860 @@
       </c>
       <c r="BP90">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7466145</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45598.52083333334</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>91</v>
+      </c>
+      <c r="P91" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q91">
+        <v>5.5</v>
+      </c>
+      <c r="R91">
+        <v>2.25</v>
+      </c>
+      <c r="S91">
+        <v>2.25</v>
+      </c>
+      <c r="T91">
+        <v>1.36</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <v>2.75</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>8</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>3.05</v>
+      </c>
+      <c r="AA91">
+        <v>3.1</v>
+      </c>
+      <c r="AB91">
+        <v>2.22</v>
+      </c>
+      <c r="AC91">
+        <v>1.05</v>
+      </c>
+      <c r="AD91">
+        <v>12</v>
+      </c>
+      <c r="AE91">
+        <v>1.26</v>
+      </c>
+      <c r="AF91">
+        <v>3.67</v>
+      </c>
+      <c r="AG91">
+        <v>1.92</v>
+      </c>
+      <c r="AH91">
+        <v>1.73</v>
+      </c>
+      <c r="AI91">
+        <v>1.91</v>
+      </c>
+      <c r="AJ91">
+        <v>1.91</v>
+      </c>
+      <c r="AK91">
+        <v>2.25</v>
+      </c>
+      <c r="AL91">
+        <v>1.22</v>
+      </c>
+      <c r="AM91">
+        <v>1.17</v>
+      </c>
+      <c r="AN91">
+        <v>1.4</v>
+      </c>
+      <c r="AO91">
+        <v>1.4</v>
+      </c>
+      <c r="AP91">
+        <v>1.17</v>
+      </c>
+      <c r="AQ91">
+        <v>1.67</v>
+      </c>
+      <c r="AR91">
+        <v>1.05</v>
+      </c>
+      <c r="AS91">
+        <v>1.71</v>
+      </c>
+      <c r="AT91">
+        <v>2.76</v>
+      </c>
+      <c r="AU91">
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <v>7</v>
+      </c>
+      <c r="AW91">
+        <v>6</v>
+      </c>
+      <c r="AX91">
+        <v>6</v>
+      </c>
+      <c r="AY91">
+        <v>9</v>
+      </c>
+      <c r="AZ91">
+        <v>20</v>
+      </c>
+      <c r="BA91">
+        <v>4</v>
+      </c>
+      <c r="BB91">
+        <v>6</v>
+      </c>
+      <c r="BC91">
+        <v>10</v>
+      </c>
+      <c r="BD91">
+        <v>4.1</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>1.27</v>
+      </c>
+      <c r="BG91">
+        <v>1.23</v>
+      </c>
+      <c r="BH91">
+        <v>3.65</v>
+      </c>
+      <c r="BI91">
+        <v>1.4</v>
+      </c>
+      <c r="BJ91">
+        <v>2.65</v>
+      </c>
+      <c r="BK91">
+        <v>1.66</v>
+      </c>
+      <c r="BL91">
+        <v>2.07</v>
+      </c>
+      <c r="BM91">
+        <v>2.02</v>
+      </c>
+      <c r="BN91">
+        <v>1.68</v>
+      </c>
+      <c r="BO91">
+        <v>2.55</v>
+      </c>
+      <c r="BP91">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7466144</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45598.61458333334</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" t="s">
+        <v>87</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>154</v>
+      </c>
+      <c r="P92" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>3.5</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>2.08</v>
+      </c>
+      <c r="AA92">
+        <v>3.35</v>
+      </c>
+      <c r="AB92">
+        <v>3.12</v>
+      </c>
+      <c r="AC92">
+        <v>1.04</v>
+      </c>
+      <c r="AD92">
+        <v>13</v>
+      </c>
+      <c r="AE92">
+        <v>1.24</v>
+      </c>
+      <c r="AF92">
+        <v>3.89</v>
+      </c>
+      <c r="AG92">
+        <v>1.83</v>
+      </c>
+      <c r="AH92">
+        <v>1.98</v>
+      </c>
+      <c r="AI92">
+        <v>1.7</v>
+      </c>
+      <c r="AJ92">
+        <v>2.05</v>
+      </c>
+      <c r="AK92">
+        <v>1.42</v>
+      </c>
+      <c r="AL92">
+        <v>1.26</v>
+      </c>
+      <c r="AM92">
+        <v>1.63</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
+        <v>0.6</v>
+      </c>
+      <c r="AP92">
+        <v>1.33</v>
+      </c>
+      <c r="AQ92">
+        <v>0.5</v>
+      </c>
+      <c r="AR92">
+        <v>1.39</v>
+      </c>
+      <c r="AS92">
+        <v>0.8</v>
+      </c>
+      <c r="AT92">
+        <v>2.19</v>
+      </c>
+      <c r="AU92">
+        <v>4</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>12</v>
+      </c>
+      <c r="BA92">
+        <v>2</v>
+      </c>
+      <c r="BB92">
+        <v>5</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>1.74</v>
+      </c>
+      <c r="BE92">
+        <v>6.75</v>
+      </c>
+      <c r="BF92">
+        <v>2.32</v>
+      </c>
+      <c r="BG92">
+        <v>1.27</v>
+      </c>
+      <c r="BH92">
+        <v>3.3</v>
+      </c>
+      <c r="BI92">
+        <v>1.48</v>
+      </c>
+      <c r="BJ92">
+        <v>2.43</v>
+      </c>
+      <c r="BK92">
+        <v>1.78</v>
+      </c>
+      <c r="BL92">
+        <v>1.91</v>
+      </c>
+      <c r="BM92">
+        <v>2.2</v>
+      </c>
+      <c r="BN92">
+        <v>1.58</v>
+      </c>
+      <c r="BO92">
+        <v>2.8</v>
+      </c>
+      <c r="BP92">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7466146</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45598.61458333334</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93" t="s">
+        <v>155</v>
+      </c>
+      <c r="P93" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q93">
+        <v>3.6</v>
+      </c>
+      <c r="R93">
+        <v>2.4</v>
+      </c>
+      <c r="S93">
+        <v>2.6</v>
+      </c>
+      <c r="T93">
+        <v>1.29</v>
+      </c>
+      <c r="U93">
+        <v>3.5</v>
+      </c>
+      <c r="V93">
+        <v>2.25</v>
+      </c>
+      <c r="W93">
+        <v>1.57</v>
+      </c>
+      <c r="X93">
+        <v>5.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.14</v>
+      </c>
+      <c r="Z93">
+        <v>2.75</v>
+      </c>
+      <c r="AA93">
+        <v>3.52</v>
+      </c>
+      <c r="AB93">
+        <v>2.21</v>
+      </c>
+      <c r="AC93">
+        <v>1.02</v>
+      </c>
+      <c r="AD93">
+        <v>19</v>
+      </c>
+      <c r="AE93">
+        <v>1.16</v>
+      </c>
+      <c r="AF93">
+        <v>4.87</v>
+      </c>
+      <c r="AG93">
+        <v>1.5</v>
+      </c>
+      <c r="AH93">
+        <v>2.4</v>
+      </c>
+      <c r="AI93">
+        <v>1.5</v>
+      </c>
+      <c r="AJ93">
+        <v>2.5</v>
+      </c>
+      <c r="AK93">
+        <v>1.75</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>1.36</v>
+      </c>
+      <c r="AN93">
+        <v>3</v>
+      </c>
+      <c r="AO93">
+        <v>3</v>
+      </c>
+      <c r="AP93">
+        <v>3</v>
+      </c>
+      <c r="AQ93">
+        <v>2.5</v>
+      </c>
+      <c r="AR93">
+        <v>2.04</v>
+      </c>
+      <c r="AS93">
+        <v>1.99</v>
+      </c>
+      <c r="AT93">
+        <v>4.03</v>
+      </c>
+      <c r="AU93">
+        <v>9</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>5</v>
+      </c>
+      <c r="AY93">
+        <v>22</v>
+      </c>
+      <c r="AZ93">
+        <v>13</v>
+      </c>
+      <c r="BA93">
+        <v>6</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>7</v>
+      </c>
+      <c r="BD93">
+        <v>2.43</v>
+      </c>
+      <c r="BE93">
+        <v>6.4</v>
+      </c>
+      <c r="BF93">
+        <v>1.68</v>
+      </c>
+      <c r="BG93">
+        <v>1.32</v>
+      </c>
+      <c r="BH93">
+        <v>3.05</v>
+      </c>
+      <c r="BI93">
+        <v>1.55</v>
+      </c>
+      <c r="BJ93">
+        <v>2.25</v>
+      </c>
+      <c r="BK93">
+        <v>1.9</v>
+      </c>
+      <c r="BL93">
+        <v>1.79</v>
+      </c>
+      <c r="BM93">
+        <v>2.4</v>
+      </c>
+      <c r="BN93">
+        <v>1.49</v>
+      </c>
+      <c r="BO93">
+        <v>3.15</v>
+      </c>
+      <c r="BP93">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7466147</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45598.70833333334</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>156</v>
+      </c>
+      <c r="P94" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q94">
+        <v>2.75</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>3.75</v>
+      </c>
+      <c r="T94">
+        <v>1.4</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>2.75</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>8</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>2.12</v>
+      </c>
+      <c r="AA94">
+        <v>3.33</v>
+      </c>
+      <c r="AB94">
+        <v>3.05</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>13</v>
+      </c>
+      <c r="AE94">
+        <v>1.24</v>
+      </c>
+      <c r="AF94">
+        <v>3.92</v>
+      </c>
+      <c r="AG94">
+        <v>1.89</v>
+      </c>
+      <c r="AH94">
+        <v>1.92</v>
+      </c>
+      <c r="AI94">
+        <v>1.7</v>
+      </c>
+      <c r="AJ94">
+        <v>2.05</v>
+      </c>
+      <c r="AK94">
+        <v>1.38</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.7</v>
+      </c>
+      <c r="AN94">
+        <v>1.8</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>2</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>1.29</v>
+      </c>
+      <c r="AS94">
+        <v>1.21</v>
+      </c>
+      <c r="AT94">
+        <v>2.5</v>
+      </c>
+      <c r="AU94">
+        <v>4</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>4</v>
+      </c>
+      <c r="AY94">
+        <v>7</v>
+      </c>
+      <c r="AZ94">
+        <v>12</v>
+      </c>
+      <c r="BA94">
+        <v>1</v>
+      </c>
+      <c r="BB94">
+        <v>8</v>
+      </c>
+      <c r="BC94">
+        <v>9</v>
+      </c>
+      <c r="BD94">
+        <v>1.67</v>
+      </c>
+      <c r="BE94">
+        <v>6.75</v>
+      </c>
+      <c r="BF94">
+        <v>2.4</v>
+      </c>
+      <c r="BG94">
+        <v>1.15</v>
+      </c>
+      <c r="BH94">
+        <v>4.6</v>
+      </c>
+      <c r="BI94">
+        <v>1.26</v>
+      </c>
+      <c r="BJ94">
+        <v>3.4</v>
+      </c>
+      <c r="BK94">
+        <v>1.46</v>
+      </c>
+      <c r="BL94">
+        <v>2.5</v>
+      </c>
+      <c r="BM94">
+        <v>1.72</v>
+      </c>
+      <c r="BN94">
+        <v>1.98</v>
+      </c>
+      <c r="BO94">
+        <v>2.08</v>
+      </c>
+      <c r="BP94">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7466143</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45598.70833333334</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>71</v>
+      </c>
+      <c r="H95" t="s">
+        <v>82</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+      <c r="O95" t="s">
+        <v>157</v>
+      </c>
+      <c r="P95" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q95">
+        <v>2.05</v>
+      </c>
+      <c r="R95">
+        <v>2.5</v>
+      </c>
+      <c r="S95">
+        <v>5.5</v>
+      </c>
+      <c r="T95">
+        <v>1.29</v>
+      </c>
+      <c r="U95">
+        <v>3.5</v>
+      </c>
+      <c r="V95">
+        <v>2.25</v>
+      </c>
+      <c r="W95">
+        <v>1.57</v>
+      </c>
+      <c r="X95">
+        <v>5.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.14</v>
+      </c>
+      <c r="Z95">
+        <v>1.51</v>
+      </c>
+      <c r="AA95">
+        <v>3.77</v>
+      </c>
+      <c r="AB95">
+        <v>5.84</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>17</v>
+      </c>
+      <c r="AE95">
+        <v>1.18</v>
+      </c>
+      <c r="AF95">
+        <v>4.65</v>
+      </c>
+      <c r="AG95">
+        <v>1.56</v>
+      </c>
+      <c r="AH95">
+        <v>2.22</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.1</v>
+      </c>
+      <c r="AK95">
+        <v>1.14</v>
+      </c>
+      <c r="AL95">
+        <v>1.18</v>
+      </c>
+      <c r="AM95">
+        <v>2.5</v>
+      </c>
+      <c r="AN95">
+        <v>1.75</v>
+      </c>
+      <c r="AO95">
+        <v>2</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
+        <v>1.67</v>
+      </c>
+      <c r="AR95">
+        <v>1.67</v>
+      </c>
+      <c r="AS95">
+        <v>1.56</v>
+      </c>
+      <c r="AT95">
+        <v>3.23</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>6</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>10</v>
+      </c>
+      <c r="BA95">
+        <v>10</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>10</v>
+      </c>
+      <c r="BD95">
+        <v>1.38</v>
+      </c>
+      <c r="BE95">
+        <v>7</v>
+      </c>
+      <c r="BF95">
+        <v>3.4</v>
+      </c>
+      <c r="BG95">
+        <v>1.23</v>
+      </c>
+      <c r="BH95">
+        <v>3.65</v>
+      </c>
+      <c r="BI95">
+        <v>1.41</v>
+      </c>
+      <c r="BJ95">
+        <v>2.65</v>
+      </c>
+      <c r="BK95">
+        <v>1.66</v>
+      </c>
+      <c r="BL95">
+        <v>2.06</v>
+      </c>
+      <c r="BM95">
+        <v>2.04</v>
+      </c>
+      <c r="BN95">
+        <v>1.67</v>
+      </c>
+      <c r="BO95">
+        <v>2.55</v>
+      </c>
+      <c r="BP95">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7466148</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45599.34375</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s">
+        <v>85</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q96">
+        <v>2.2</v>
+      </c>
+      <c r="R96">
+        <v>2.4</v>
+      </c>
+      <c r="S96">
+        <v>5</v>
+      </c>
+      <c r="T96">
+        <v>1.3</v>
+      </c>
+      <c r="U96">
+        <v>3.4</v>
+      </c>
+      <c r="V96">
+        <v>2.5</v>
+      </c>
+      <c r="W96">
+        <v>1.5</v>
+      </c>
+      <c r="X96">
+        <v>6</v>
+      </c>
+      <c r="Y96">
+        <v>1.13</v>
+      </c>
+      <c r="Z96">
+        <v>1.77</v>
+      </c>
+      <c r="AA96">
+        <v>3.7</v>
+      </c>
+      <c r="AB96">
+        <v>4.5</v>
+      </c>
+      <c r="AC96">
+        <v>1.03</v>
+      </c>
+      <c r="AD96">
+        <v>15</v>
+      </c>
+      <c r="AE96">
+        <v>1.19</v>
+      </c>
+      <c r="AF96">
+        <v>4.45</v>
+      </c>
+      <c r="AG96">
+        <v>1.7</v>
+      </c>
+      <c r="AH96">
+        <v>2</v>
+      </c>
+      <c r="AI96">
+        <v>1.7</v>
+      </c>
+      <c r="AJ96">
+        <v>2.05</v>
+      </c>
+      <c r="AK96">
+        <v>1.17</v>
+      </c>
+      <c r="AL96">
+        <v>1.2</v>
+      </c>
+      <c r="AM96">
+        <v>2.3</v>
+      </c>
+      <c r="AN96">
+        <v>1.4</v>
+      </c>
+      <c r="AO96">
+        <v>0.4</v>
+      </c>
+      <c r="AP96">
+        <v>1.33</v>
+      </c>
+      <c r="AQ96">
+        <v>0.5</v>
+      </c>
+      <c r="AR96">
+        <v>1.62</v>
+      </c>
+      <c r="AS96">
+        <v>0.8</v>
+      </c>
+      <c r="AT96">
+        <v>2.42</v>
+      </c>
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>5</v>
+      </c>
+      <c r="AW96">
+        <v>3</v>
+      </c>
+      <c r="AX96">
+        <v>2</v>
+      </c>
+      <c r="AY96">
+        <v>18</v>
+      </c>
+      <c r="AZ96">
+        <v>7</v>
+      </c>
+      <c r="BA96">
+        <v>9</v>
+      </c>
+      <c r="BB96">
+        <v>5</v>
+      </c>
+      <c r="BC96">
+        <v>14</v>
+      </c>
+      <c r="BD96">
+        <v>1.25</v>
+      </c>
+      <c r="BE96">
+        <v>8.5</v>
+      </c>
+      <c r="BF96">
+        <v>4.8</v>
+      </c>
+      <c r="BG96">
+        <v>1.12</v>
+      </c>
+      <c r="BH96">
+        <v>4.5</v>
+      </c>
+      <c r="BI96">
+        <v>1.32</v>
+      </c>
+      <c r="BJ96">
+        <v>3.05</v>
+      </c>
+      <c r="BK96">
+        <v>1.52</v>
+      </c>
+      <c r="BL96">
+        <v>2.28</v>
+      </c>
+      <c r="BM96">
+        <v>1.88</v>
+      </c>
+      <c r="BN96">
+        <v>1.8</v>
+      </c>
+      <c r="BO96">
+        <v>2.4</v>
+      </c>
+      <c r="BP96">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7466149</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45599.4375</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>6</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>6</v>
+      </c>
+      <c r="O97" t="s">
+        <v>159</v>
+      </c>
+      <c r="P97" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q97">
+        <v>2.5</v>
+      </c>
+      <c r="R97">
+        <v>2.2</v>
+      </c>
+      <c r="S97">
+        <v>4.5</v>
+      </c>
+      <c r="T97">
+        <v>1.4</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>2.75</v>
+      </c>
+      <c r="W97">
+        <v>1.4</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>1.95</v>
+      </c>
+      <c r="AA97">
+        <v>3.4</v>
+      </c>
+      <c r="AB97">
+        <v>3.9</v>
+      </c>
+      <c r="AC97">
+        <v>1.05</v>
+      </c>
+      <c r="AD97">
+        <v>11</v>
+      </c>
+      <c r="AE97">
+        <v>1.28</v>
+      </c>
+      <c r="AF97">
+        <v>3.52</v>
+      </c>
+      <c r="AG97">
+        <v>1.85</v>
+      </c>
+      <c r="AH97">
+        <v>1.82</v>
+      </c>
+      <c r="AI97">
+        <v>1.75</v>
+      </c>
+      <c r="AJ97">
+        <v>2</v>
+      </c>
+      <c r="AK97">
+        <v>1.24</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.96</v>
+      </c>
+      <c r="AN97">
+        <v>1.4</v>
+      </c>
+      <c r="AO97">
+        <v>0.8</v>
+      </c>
+      <c r="AP97">
+        <v>1.67</v>
+      </c>
+      <c r="AQ97">
+        <v>0.67</v>
+      </c>
+      <c r="AR97">
+        <v>1.38</v>
+      </c>
+      <c r="AS97">
+        <v>1.14</v>
+      </c>
+      <c r="AT97">
+        <v>2.52</v>
+      </c>
+      <c r="AU97">
+        <v>7</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>7</v>
+      </c>
+      <c r="AX97">
+        <v>2</v>
+      </c>
+      <c r="AY97">
+        <v>15</v>
+      </c>
+      <c r="AZ97">
+        <v>7</v>
+      </c>
+      <c r="BA97">
+        <v>1</v>
+      </c>
+      <c r="BB97">
+        <v>4</v>
+      </c>
+      <c r="BC97">
+        <v>5</v>
+      </c>
+      <c r="BD97">
+        <v>1.7</v>
+      </c>
+      <c r="BE97">
+        <v>6.5</v>
+      </c>
+      <c r="BF97">
+        <v>2.55</v>
+      </c>
+      <c r="BG97">
+        <v>1.13</v>
+      </c>
+      <c r="BH97">
+        <v>4.3</v>
+      </c>
+      <c r="BI97">
+        <v>1.3</v>
+      </c>
+      <c r="BJ97">
+        <v>3.15</v>
+      </c>
+      <c r="BK97">
+        <v>1.52</v>
+      </c>
+      <c r="BL97">
+        <v>2.35</v>
+      </c>
+      <c r="BM97">
+        <v>1.85</v>
+      </c>
+      <c r="BN97">
+        <v>1.82</v>
+      </c>
+      <c r="BO97">
+        <v>2.32</v>
+      </c>
+      <c r="BP97">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7466150</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45599.4375</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98" t="s">
+        <v>160</v>
+      </c>
+      <c r="P98" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q98">
+        <v>3.1</v>
+      </c>
+      <c r="R98">
+        <v>2.2</v>
+      </c>
+      <c r="S98">
+        <v>3.4</v>
+      </c>
+      <c r="T98">
+        <v>1.36</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>2.75</v>
+      </c>
+      <c r="W98">
+        <v>1.4</v>
+      </c>
+      <c r="X98">
+        <v>7</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>2.55</v>
+      </c>
+      <c r="AA98">
+        <v>3.4</v>
+      </c>
+      <c r="AB98">
+        <v>2.7</v>
+      </c>
+      <c r="AC98">
+        <v>1.04</v>
+      </c>
+      <c r="AD98">
+        <v>12</v>
+      </c>
+      <c r="AE98">
+        <v>1.26</v>
+      </c>
+      <c r="AF98">
+        <v>3.67</v>
+      </c>
+      <c r="AG98">
+        <v>1.78</v>
+      </c>
+      <c r="AH98">
+        <v>1.9</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.52</v>
+      </c>
+      <c r="AL98">
+        <v>1.26</v>
+      </c>
+      <c r="AM98">
+        <v>1.5</v>
+      </c>
+      <c r="AN98">
+        <v>0.8</v>
+      </c>
+      <c r="AO98">
+        <v>2.5</v>
+      </c>
+      <c r="AP98">
+        <v>0.67</v>
+      </c>
+      <c r="AQ98">
+        <v>2.6</v>
+      </c>
+      <c r="AR98">
+        <v>1.7</v>
+      </c>
+      <c r="AS98">
+        <v>1.14</v>
+      </c>
+      <c r="AT98">
+        <v>2.84</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>5</v>
+      </c>
+      <c r="AW98">
+        <v>4</v>
+      </c>
+      <c r="AX98">
+        <v>7</v>
+      </c>
+      <c r="AY98">
+        <v>11</v>
+      </c>
+      <c r="AZ98">
+        <v>15</v>
+      </c>
+      <c r="BA98">
+        <v>4</v>
+      </c>
+      <c r="BB98">
+        <v>4</v>
+      </c>
+      <c r="BC98">
+        <v>8</v>
+      </c>
+      <c r="BD98">
+        <v>2.25</v>
+      </c>
+      <c r="BE98">
+        <v>6.1</v>
+      </c>
+      <c r="BF98">
+        <v>1.92</v>
+      </c>
+      <c r="BG98">
+        <v>1.11</v>
+      </c>
+      <c r="BH98">
+        <v>4.7</v>
+      </c>
+      <c r="BI98">
+        <v>1.29</v>
+      </c>
+      <c r="BJ98">
+        <v>3.25</v>
+      </c>
+      <c r="BK98">
+        <v>1.5</v>
+      </c>
+      <c r="BL98">
+        <v>2.4</v>
+      </c>
+      <c r="BM98">
+        <v>1.8</v>
+      </c>
+      <c r="BN98">
+        <v>1.88</v>
+      </c>
+      <c r="BO98">
+        <v>2.25</v>
+      </c>
+      <c r="BP98">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7466151</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45599.53125</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>83</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>161</v>
+      </c>
+      <c r="P99" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q99">
+        <v>3.25</v>
+      </c>
+      <c r="R99">
+        <v>2.25</v>
+      </c>
+      <c r="S99">
+        <v>3</v>
+      </c>
+      <c r="T99">
+        <v>1.36</v>
+      </c>
+      <c r="U99">
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <v>2.63</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>7</v>
+      </c>
+      <c r="Y99">
+        <v>1.1</v>
+      </c>
+      <c r="Z99">
+        <v>2.1</v>
+      </c>
+      <c r="AA99">
+        <v>3.48</v>
+      </c>
+      <c r="AB99">
+        <v>3.46</v>
+      </c>
+      <c r="AC99">
+        <v>1.05</v>
+      </c>
+      <c r="AD99">
+        <v>12</v>
+      </c>
+      <c r="AE99">
+        <v>1.26</v>
+      </c>
+      <c r="AF99">
+        <v>3.67</v>
+      </c>
+      <c r="AG99">
+        <v>1.67</v>
+      </c>
+      <c r="AH99">
+        <v>2.05</v>
+      </c>
+      <c r="AI99">
+        <v>1.62</v>
+      </c>
+      <c r="AJ99">
+        <v>2.2</v>
+      </c>
+      <c r="AK99">
+        <v>1.53</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.48</v>
+      </c>
+      <c r="AN99">
+        <v>0.2</v>
+      </c>
+      <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
+        <v>0.67</v>
+      </c>
+      <c r="AQ99">
+        <v>0.4</v>
+      </c>
+      <c r="AR99">
+        <v>1.21</v>
+      </c>
+      <c r="AS99">
+        <v>1.24</v>
+      </c>
+      <c r="AT99">
+        <v>2.45</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>0</v>
+      </c>
+      <c r="AW99">
+        <v>6</v>
+      </c>
+      <c r="AX99">
+        <v>6</v>
+      </c>
+      <c r="AY99">
+        <v>12</v>
+      </c>
+      <c r="AZ99">
+        <v>9</v>
+      </c>
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>8</v>
+      </c>
+      <c r="BD99">
+        <v>2.25</v>
+      </c>
+      <c r="BE99">
+        <v>6.1</v>
+      </c>
+      <c r="BF99">
+        <v>1.92</v>
+      </c>
+      <c r="BG99">
+        <v>1.12</v>
+      </c>
+      <c r="BH99">
+        <v>4.45</v>
+      </c>
+      <c r="BI99">
+        <v>1.38</v>
+      </c>
+      <c r="BJ99">
+        <v>2.75</v>
+      </c>
+      <c r="BK99">
+        <v>1.62</v>
+      </c>
+      <c r="BL99">
+        <v>2.1</v>
+      </c>
+      <c r="BM99">
+        <v>2.02</v>
+      </c>
+      <c r="BN99">
+        <v>1.7</v>
+      </c>
+      <c r="BO99">
+        <v>2.6</v>
+      </c>
+      <c r="BP99">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['41', '58']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -536,9 +539,6 @@
   </si>
   <si>
     <t>['31', '36', '87']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['35', '40', '88']</t>
@@ -1011,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1270,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1682,7 +1682,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1888,7 +1888,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2094,7 +2094,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2381,7 +2381,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2712,7 +2712,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3948,7 +3948,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4154,7 +4154,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4360,7 +4360,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5184,7 +5184,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5390,7 +5390,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6008,7 +6008,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6420,7 +6420,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6626,7 +6626,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -7528,7 +7528,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7737,7 +7737,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>0.7</v>
@@ -10412,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11033,7 +11033,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.18</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ66">
         <v>0</v>
@@ -14741,7 +14741,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -18652,7 +18652,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -18861,7 +18861,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.97</v>
@@ -21409,6 +21409,212 @@
       </c>
       <c r="BP99">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7466152</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>162</v>
+      </c>
+      <c r="P100" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q100">
+        <v>1.91</v>
+      </c>
+      <c r="R100">
+        <v>2.5</v>
+      </c>
+      <c r="S100">
+        <v>6.5</v>
+      </c>
+      <c r="T100">
+        <v>1.3</v>
+      </c>
+      <c r="U100">
+        <v>3.4</v>
+      </c>
+      <c r="V100">
+        <v>2.5</v>
+      </c>
+      <c r="W100">
+        <v>1.5</v>
+      </c>
+      <c r="X100">
+        <v>6</v>
+      </c>
+      <c r="Y100">
+        <v>1.13</v>
+      </c>
+      <c r="Z100">
+        <v>1.29</v>
+      </c>
+      <c r="AA100">
+        <v>7</v>
+      </c>
+      <c r="AB100">
+        <v>5.13</v>
+      </c>
+      <c r="AC100">
+        <v>1.03</v>
+      </c>
+      <c r="AD100">
+        <v>15</v>
+      </c>
+      <c r="AE100">
+        <v>1.19</v>
+      </c>
+      <c r="AF100">
+        <v>4.45</v>
+      </c>
+      <c r="AG100">
+        <v>1.65</v>
+      </c>
+      <c r="AH100">
+        <v>2.1</v>
+      </c>
+      <c r="AI100">
+        <v>1.91</v>
+      </c>
+      <c r="AJ100">
+        <v>1.91</v>
+      </c>
+      <c r="AK100">
+        <v>1.09</v>
+      </c>
+      <c r="AL100">
+        <v>1.15</v>
+      </c>
+      <c r="AM100">
+        <v>2.85</v>
+      </c>
+      <c r="AN100">
+        <v>2.4</v>
+      </c>
+      <c r="AO100">
+        <v>0.8</v>
+      </c>
+      <c r="AP100">
+        <v>2.5</v>
+      </c>
+      <c r="AQ100">
+        <v>0.67</v>
+      </c>
+      <c r="AR100">
+        <v>1.37</v>
+      </c>
+      <c r="AS100">
+        <v>0.95</v>
+      </c>
+      <c r="AT100">
+        <v>2.32</v>
+      </c>
+      <c r="AU100">
+        <v>7</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>21</v>
+      </c>
+      <c r="AZ100">
+        <v>11</v>
+      </c>
+      <c r="BA100">
+        <v>4</v>
+      </c>
+      <c r="BB100">
+        <v>8</v>
+      </c>
+      <c r="BC100">
+        <v>12</v>
+      </c>
+      <c r="BD100">
+        <v>1.25</v>
+      </c>
+      <c r="BE100">
+        <v>8.5</v>
+      </c>
+      <c r="BF100">
+        <v>4.1</v>
+      </c>
+      <c r="BG100">
+        <v>1.1</v>
+      </c>
+      <c r="BH100">
+        <v>5.6</v>
+      </c>
+      <c r="BI100">
+        <v>1.19</v>
+      </c>
+      <c r="BJ100">
+        <v>4</v>
+      </c>
+      <c r="BK100">
+        <v>1.33</v>
+      </c>
+      <c r="BL100">
+        <v>2.95</v>
+      </c>
+      <c r="BM100">
+        <v>1.8</v>
+      </c>
+      <c r="BN100">
+        <v>2</v>
+      </c>
+      <c r="BO100">
+        <v>1.82</v>
+      </c>
+      <c r="BP100">
+        <v>1.86</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,12 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['53', '57', '67']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -592,9 +598,6 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>['31']</t>
-  </si>
-  <si>
     <t>['76', '90+4']</t>
   </si>
   <si>
@@ -650,6 +653,12 @@
   </si>
   <si>
     <t>['15', '85', '88', '90+5']</t>
+  </si>
+  <si>
+    <t>['21', '33', '65']</t>
+  </si>
+  <si>
+    <t>['68', '74', '90']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1279,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1348,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1682,7 +1691,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1888,7 +1897,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -2094,7 +2103,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2712,7 +2721,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -2793,7 +2802,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3617,7 +3626,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3823,7 +3832,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3948,7 +3957,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4026,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4154,7 +4163,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4235,7 +4244,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4360,7 +4369,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4438,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4850,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -5184,7 +5193,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5265,7 +5274,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR21">
         <v>0.96</v>
@@ -5390,7 +5399,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5468,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>2.6</v>
@@ -5674,7 +5683,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>1.67</v>
@@ -6008,7 +6017,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6420,7 +6429,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6498,7 +6507,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ27">
         <v>1.67</v>
@@ -6832,7 +6841,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6913,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>2.19</v>
@@ -7244,7 +7253,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7325,7 +7334,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>0.77</v>
@@ -7450,7 +7459,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7734,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -8149,7 +8158,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.65</v>
@@ -8480,7 +8489,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8558,7 +8567,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8764,10 +8773,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR38">
         <v>0.83</v>
@@ -8892,7 +8901,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -9098,7 +9107,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10003,7 +10012,7 @@
         <v>3</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
         <v>1.45</v>
@@ -10128,7 +10137,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10206,7 +10215,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -10334,7 +10343,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10540,7 +10549,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10618,10 +10627,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ47">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -10746,7 +10755,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10952,7 +10961,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11158,7 +11167,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11364,7 +11373,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11776,7 +11785,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11857,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -11982,7 +11991,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12188,7 +12197,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12269,7 +12278,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR55">
         <v>1.25</v>
@@ -12394,7 +12403,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12600,7 +12609,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>2.4</v>
@@ -12681,7 +12690,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -12884,7 +12893,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.4</v>
@@ -13296,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.4</v>
@@ -13424,7 +13433,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13502,7 +13511,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ61">
         <v>2</v>
@@ -13630,7 +13639,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14120,10 +14129,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -14329,7 +14338,7 @@
         <v>3</v>
       </c>
       <c r="AQ65">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR65">
         <v>2.79</v>
@@ -14454,7 +14463,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14660,7 +14669,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15278,7 +15287,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15690,7 +15699,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15896,7 +15905,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15977,7 +15986,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR73">
         <v>2.44</v>
@@ -16308,7 +16317,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16386,7 +16395,7 @@
         <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ75">
         <v>1.67</v>
@@ -16514,7 +16523,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16801,7 +16810,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -16926,7 +16935,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17132,7 +17141,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17210,7 +17219,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>2.6</v>
@@ -17338,7 +17347,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17416,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>0.5</v>
@@ -17625,7 +17634,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ81">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18162,7 +18171,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18240,7 +18249,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>0</v>
@@ -18449,7 +18458,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ85">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR85">
         <v>1.93</v>
@@ -18574,7 +18583,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19192,7 +19201,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19398,7 +19407,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19604,7 +19613,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -20016,7 +20025,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20097,7 +20106,7 @@
         <v>3</v>
       </c>
       <c r="AQ93">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR93">
         <v>2.04</v>
@@ -20428,7 +20437,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20634,7 +20643,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21046,7 +21055,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21330,7 +21339,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ99">
         <v>0.4</v>
@@ -21425,7 +21434,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F100">
         <v>12</v>
@@ -21615,6 +21624,830 @@
       </c>
       <c r="BP100">
         <v>1.86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7466153</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45605.52083333334</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>163</v>
+      </c>
+      <c r="P101" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q101">
+        <v>3.25</v>
+      </c>
+      <c r="R101">
+        <v>2.2</v>
+      </c>
+      <c r="S101">
+        <v>3.2</v>
+      </c>
+      <c r="T101">
+        <v>1.4</v>
+      </c>
+      <c r="U101">
+        <v>2.75</v>
+      </c>
+      <c r="V101">
+        <v>2.75</v>
+      </c>
+      <c r="W101">
+        <v>1.4</v>
+      </c>
+      <c r="X101">
+        <v>8</v>
+      </c>
+      <c r="Y101">
+        <v>1.08</v>
+      </c>
+      <c r="Z101">
+        <v>2.8</v>
+      </c>
+      <c r="AA101">
+        <v>3.3</v>
+      </c>
+      <c r="AB101">
+        <v>2.45</v>
+      </c>
+      <c r="AC101">
+        <v>1.05</v>
+      </c>
+      <c r="AD101">
+        <v>9</v>
+      </c>
+      <c r="AE101">
+        <v>1.3</v>
+      </c>
+      <c r="AF101">
+        <v>3.45</v>
+      </c>
+      <c r="AG101">
+        <v>1.87</v>
+      </c>
+      <c r="AH101">
+        <v>1.87</v>
+      </c>
+      <c r="AI101">
+        <v>1.7</v>
+      </c>
+      <c r="AJ101">
+        <v>2.05</v>
+      </c>
+      <c r="AK101">
+        <v>1.48</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.48</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>1.4</v>
+      </c>
+      <c r="AP101">
+        <v>1.33</v>
+      </c>
+      <c r="AQ101">
+        <v>1.17</v>
+      </c>
+      <c r="AR101">
+        <v>1.12</v>
+      </c>
+      <c r="AS101">
+        <v>1.3</v>
+      </c>
+      <c r="AT101">
+        <v>2.42</v>
+      </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>2</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>9</v>
+      </c>
+      <c r="AZ101">
+        <v>12</v>
+      </c>
+      <c r="BA101">
+        <v>4</v>
+      </c>
+      <c r="BB101">
+        <v>5</v>
+      </c>
+      <c r="BC101">
+        <v>9</v>
+      </c>
+      <c r="BD101">
+        <v>1.79</v>
+      </c>
+      <c r="BE101">
+        <v>6.5</v>
+      </c>
+      <c r="BF101">
+        <v>2.23</v>
+      </c>
+      <c r="BG101">
+        <v>1.17</v>
+      </c>
+      <c r="BH101">
+        <v>4.35</v>
+      </c>
+      <c r="BI101">
+        <v>1.3</v>
+      </c>
+      <c r="BJ101">
+        <v>3.15</v>
+      </c>
+      <c r="BK101">
+        <v>1.5</v>
+      </c>
+      <c r="BL101">
+        <v>2.38</v>
+      </c>
+      <c r="BM101">
+        <v>2</v>
+      </c>
+      <c r="BN101">
+        <v>1.8</v>
+      </c>
+      <c r="BO101">
+        <v>2.23</v>
+      </c>
+      <c r="BP101">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7466154</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45605.61458333334</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>85</v>
+      </c>
+      <c r="H102" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102" t="s">
+        <v>164</v>
+      </c>
+      <c r="P102" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q102">
+        <v>3.25</v>
+      </c>
+      <c r="R102">
+        <v>2.1</v>
+      </c>
+      <c r="S102">
+        <v>3.25</v>
+      </c>
+      <c r="T102">
+        <v>1.4</v>
+      </c>
+      <c r="U102">
+        <v>2.75</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>1.36</v>
+      </c>
+      <c r="X102">
+        <v>8</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>2.36</v>
+      </c>
+      <c r="AA102">
+        <v>3.44</v>
+      </c>
+      <c r="AB102">
+        <v>2.96</v>
+      </c>
+      <c r="AC102">
+        <v>1.05</v>
+      </c>
+      <c r="AD102">
+        <v>11</v>
+      </c>
+      <c r="AE102">
+        <v>1.28</v>
+      </c>
+      <c r="AF102">
+        <v>3.52</v>
+      </c>
+      <c r="AG102">
+        <v>2.02</v>
+      </c>
+      <c r="AH102">
+        <v>1.76</v>
+      </c>
+      <c r="AI102">
+        <v>1.75</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>1.53</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.47</v>
+      </c>
+      <c r="AN102">
+        <v>1.2</v>
+      </c>
+      <c r="AO102">
+        <v>1</v>
+      </c>
+      <c r="AP102">
+        <v>1.5</v>
+      </c>
+      <c r="AQ102">
+        <v>0.83</v>
+      </c>
+      <c r="AR102">
+        <v>1.15</v>
+      </c>
+      <c r="AS102">
+        <v>1.05</v>
+      </c>
+      <c r="AT102">
+        <v>2.2</v>
+      </c>
+      <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
+        <v>6</v>
+      </c>
+      <c r="AW102">
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <v>6</v>
+      </c>
+      <c r="AY102">
+        <v>15</v>
+      </c>
+      <c r="AZ102">
+        <v>15</v>
+      </c>
+      <c r="BA102">
+        <v>5</v>
+      </c>
+      <c r="BB102">
+        <v>7</v>
+      </c>
+      <c r="BC102">
+        <v>12</v>
+      </c>
+      <c r="BD102">
+        <v>2.05</v>
+      </c>
+      <c r="BE102">
+        <v>6.4</v>
+      </c>
+      <c r="BF102">
+        <v>1.95</v>
+      </c>
+      <c r="BG102">
+        <v>1.25</v>
+      </c>
+      <c r="BH102">
+        <v>3.45</v>
+      </c>
+      <c r="BI102">
+        <v>1.44</v>
+      </c>
+      <c r="BJ102">
+        <v>2.55</v>
+      </c>
+      <c r="BK102">
+        <v>1.72</v>
+      </c>
+      <c r="BL102">
+        <v>1.98</v>
+      </c>
+      <c r="BM102">
+        <v>2.1</v>
+      </c>
+      <c r="BN102">
+        <v>1.64</v>
+      </c>
+      <c r="BO102">
+        <v>2.65</v>
+      </c>
+      <c r="BP102">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7466155</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45605.66666666666</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>87</v>
+      </c>
+      <c r="H103" t="s">
+        <v>74</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>91</v>
+      </c>
+      <c r="P103" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q103">
+        <v>7.5</v>
+      </c>
+      <c r="R103">
+        <v>2.75</v>
+      </c>
+      <c r="S103">
+        <v>1.73</v>
+      </c>
+      <c r="T103">
+        <v>1.22</v>
+      </c>
+      <c r="U103">
+        <v>4</v>
+      </c>
+      <c r="V103">
+        <v>2.1</v>
+      </c>
+      <c r="W103">
+        <v>1.67</v>
+      </c>
+      <c r="X103">
+        <v>4.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.18</v>
+      </c>
+      <c r="Z103">
+        <v>9</v>
+      </c>
+      <c r="AA103">
+        <v>5.65</v>
+      </c>
+      <c r="AB103">
+        <v>1.31</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>17</v>
+      </c>
+      <c r="AE103">
+        <v>1.13</v>
+      </c>
+      <c r="AF103">
+        <v>5.75</v>
+      </c>
+      <c r="AG103">
+        <v>1.4</v>
+      </c>
+      <c r="AH103">
+        <v>2.75</v>
+      </c>
+      <c r="AI103">
+        <v>1.8</v>
+      </c>
+      <c r="AJ103">
+        <v>1.95</v>
+      </c>
+      <c r="AK103">
+        <v>3.35</v>
+      </c>
+      <c r="AL103">
+        <v>1.1</v>
+      </c>
+      <c r="AM103">
+        <v>1.06</v>
+      </c>
+      <c r="AN103">
+        <v>2.4</v>
+      </c>
+      <c r="AO103">
+        <v>2.5</v>
+      </c>
+      <c r="AP103">
+        <v>2</v>
+      </c>
+      <c r="AQ103">
+        <v>2.57</v>
+      </c>
+      <c r="AR103">
+        <v>1.38</v>
+      </c>
+      <c r="AS103">
+        <v>1.87</v>
+      </c>
+      <c r="AT103">
+        <v>3.25</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>11</v>
+      </c>
+      <c r="AW103">
+        <v>6</v>
+      </c>
+      <c r="AX103">
+        <v>3</v>
+      </c>
+      <c r="AY103">
+        <v>12</v>
+      </c>
+      <c r="AZ103">
+        <v>21</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>9</v>
+      </c>
+      <c r="BC103">
+        <v>14</v>
+      </c>
+      <c r="BD103">
+        <v>4.1</v>
+      </c>
+      <c r="BE103">
+        <v>7.5</v>
+      </c>
+      <c r="BF103">
+        <v>1.27</v>
+      </c>
+      <c r="BG103">
+        <v>1.25</v>
+      </c>
+      <c r="BH103">
+        <v>3.45</v>
+      </c>
+      <c r="BI103">
+        <v>1.44</v>
+      </c>
+      <c r="BJ103">
+        <v>2.55</v>
+      </c>
+      <c r="BK103">
+        <v>1.73</v>
+      </c>
+      <c r="BL103">
+        <v>1.97</v>
+      </c>
+      <c r="BM103">
+        <v>2.15</v>
+      </c>
+      <c r="BN103">
+        <v>1.61</v>
+      </c>
+      <c r="BO103">
+        <v>2.7</v>
+      </c>
+      <c r="BP103">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7466156</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45605.70833333334</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>83</v>
+      </c>
+      <c r="H104" t="s">
+        <v>72</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>91</v>
+      </c>
+      <c r="P104" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q104">
+        <v>4.33</v>
+      </c>
+      <c r="R104">
+        <v>2.3</v>
+      </c>
+      <c r="S104">
+        <v>2.4</v>
+      </c>
+      <c r="T104">
+        <v>1.33</v>
+      </c>
+      <c r="U104">
+        <v>3.25</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>6.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.11</v>
+      </c>
+      <c r="Z104">
+        <v>5.25</v>
+      </c>
+      <c r="AA104">
+        <v>4.33</v>
+      </c>
+      <c r="AB104">
+        <v>1.59</v>
+      </c>
+      <c r="AC104">
+        <v>1.04</v>
+      </c>
+      <c r="AD104">
+        <v>10</v>
+      </c>
+      <c r="AE104">
+        <v>1.22</v>
+      </c>
+      <c r="AF104">
+        <v>4.2</v>
+      </c>
+      <c r="AG104">
+        <v>1.67</v>
+      </c>
+      <c r="AH104">
+        <v>2.1</v>
+      </c>
+      <c r="AI104">
+        <v>1.67</v>
+      </c>
+      <c r="AJ104">
+        <v>2.1</v>
+      </c>
+      <c r="AK104">
+        <v>2.05</v>
+      </c>
+      <c r="AL104">
+        <v>1.22</v>
+      </c>
+      <c r="AM104">
+        <v>1.2</v>
+      </c>
+      <c r="AN104">
+        <v>0.67</v>
+      </c>
+      <c r="AO104">
+        <v>0.6</v>
+      </c>
+      <c r="AP104">
+        <v>0.57</v>
+      </c>
+      <c r="AQ104">
+        <v>1</v>
+      </c>
+      <c r="AR104">
+        <v>1.2</v>
+      </c>
+      <c r="AS104">
+        <v>1</v>
+      </c>
+      <c r="AT104">
+        <v>2.2</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>9</v>
+      </c>
+      <c r="AW104">
+        <v>2</v>
+      </c>
+      <c r="AX104">
+        <v>6</v>
+      </c>
+      <c r="AY104">
+        <v>11</v>
+      </c>
+      <c r="AZ104">
+        <v>21</v>
+      </c>
+      <c r="BA104">
+        <v>4</v>
+      </c>
+      <c r="BB104">
+        <v>10</v>
+      </c>
+      <c r="BC104">
+        <v>14</v>
+      </c>
+      <c r="BD104">
+        <v>1.85</v>
+      </c>
+      <c r="BE104">
+        <v>6.5</v>
+      </c>
+      <c r="BF104">
+        <v>2.15</v>
+      </c>
+      <c r="BG104">
+        <v>1.18</v>
+      </c>
+      <c r="BH104">
+        <v>4.1</v>
+      </c>
+      <c r="BI104">
+        <v>1.33</v>
+      </c>
+      <c r="BJ104">
+        <v>2.95</v>
+      </c>
+      <c r="BK104">
+        <v>1.55</v>
+      </c>
+      <c r="BL104">
+        <v>2.25</v>
+      </c>
+      <c r="BM104">
+        <v>1.92</v>
+      </c>
+      <c r="BN104">
+        <v>1.88</v>
+      </c>
+      <c r="BO104">
+        <v>2.33</v>
+      </c>
+      <c r="BP104">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,12 @@
     <t>['53', '57', '67']</t>
   </si>
   <si>
+    <t>['42', '65']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -659,6 +665,15 @@
   </si>
   <si>
     <t>['68', '74', '90']</t>
+  </si>
+  <si>
+    <t>['3', '10', '70', '78']</t>
+  </si>
+  <si>
+    <t>['59', '67']</t>
+  </si>
+  <si>
+    <t>['37', '41']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1279,7 +1294,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>2.2</v>
@@ -1566,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1691,7 +1706,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1897,7 +1912,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>5.5</v>
@@ -1975,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ5">
         <v>1.67</v>
@@ -2103,7 +2118,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2721,7 +2736,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3417,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>2.6</v>
@@ -3623,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -3829,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3957,7 +3972,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4163,7 +4178,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4369,7 +4384,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4450,7 +4465,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4656,7 +4671,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4862,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5193,7 +5208,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5271,7 +5286,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ21">
         <v>2.57</v>
@@ -5399,7 +5414,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -5892,7 +5907,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6017,7 +6032,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6098,7 +6113,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR25">
         <v>1.08</v>
@@ -6429,7 +6444,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -6713,7 +6728,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -6841,7 +6856,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7125,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7253,7 +7268,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7459,7 +7474,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7952,7 +7967,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR34">
         <v>2.85</v>
@@ -8361,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.5</v>
@@ -8489,7 +8504,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8570,7 +8585,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -8901,7 +8916,7 @@
         <v>118</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>1.95</v>
@@ -8979,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9107,7 +9122,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9188,7 +9203,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.21</v>
@@ -9803,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -10137,7 +10152,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10343,7 +10358,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10424,7 +10439,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.08</v>
@@ -10549,7 +10564,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10755,7 +10770,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10836,7 +10851,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR48">
         <v>1.91</v>
@@ -10961,7 +10976,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11167,7 +11182,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11245,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ50">
         <v>0.67</v>
@@ -11373,7 +11388,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11451,7 +11466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -11785,7 +11800,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -11991,7 +12006,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12197,7 +12212,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12403,7 +12418,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12484,7 +12499,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR56">
         <v>1.55</v>
@@ -13099,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
         <v>0.5</v>
@@ -13308,7 +13323,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
         <v>1.17</v>
@@ -13433,7 +13448,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -13514,7 +13529,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -13639,7 +13654,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -13717,7 +13732,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ62">
         <v>2.6</v>
@@ -13923,10 +13938,10 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.02</v>
@@ -14463,7 +14478,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -14669,7 +14684,7 @@
         <v>137</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15159,7 +15174,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15287,7 +15302,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15699,7 +15714,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -15905,7 +15920,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15983,7 +15998,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ73">
         <v>2.57</v>
@@ -16317,7 +16332,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>6.5</v>
@@ -16523,7 +16538,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16604,7 +16619,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR76">
         <v>1.77</v>
@@ -16935,7 +16950,7 @@
         <v>145</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>6.5</v>
@@ -17016,7 +17031,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17141,7 +17156,7 @@
         <v>91</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17347,7 +17362,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17631,7 +17646,7 @@
         <v>0.75</v>
       </c>
       <c r="AP81">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18171,7 +18186,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18455,7 +18470,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ85">
         <v>1.17</v>
@@ -18583,7 +18598,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18664,7 +18679,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -18867,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>0.67</v>
@@ -19076,7 +19091,7 @@
         <v>3</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>2.16</v>
@@ -19201,7 +19216,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19279,10 +19294,10 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ89">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>2.01</v>
@@ -19407,7 +19422,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19488,7 +19503,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR90">
         <v>1.77</v>
@@ -19613,7 +19628,7 @@
         <v>91</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>5.5</v>
@@ -20025,7 +20040,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20437,7 +20452,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -20643,7 +20658,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21055,7 +21070,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21434,7 +21449,7 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F100">
         <v>12</v>
@@ -22085,7 +22100,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22291,7 +22306,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22448,6 +22463,830 @@
       </c>
       <c r="BP104">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7466157</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>5</v>
+      </c>
+      <c r="O105" t="s">
+        <v>108</v>
+      </c>
+      <c r="P105" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q105">
+        <v>8.5</v>
+      </c>
+      <c r="R105">
+        <v>2.63</v>
+      </c>
+      <c r="S105">
+        <v>1.73</v>
+      </c>
+      <c r="T105">
+        <v>1.29</v>
+      </c>
+      <c r="U105">
+        <v>3.5</v>
+      </c>
+      <c r="V105">
+        <v>2.25</v>
+      </c>
+      <c r="W105">
+        <v>1.57</v>
+      </c>
+      <c r="X105">
+        <v>5.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.14</v>
+      </c>
+      <c r="Z105">
+        <v>10.76</v>
+      </c>
+      <c r="AA105">
+        <v>5.8</v>
+      </c>
+      <c r="AB105">
+        <v>1.27</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>19</v>
+      </c>
+      <c r="AE105">
+        <v>1.16</v>
+      </c>
+      <c r="AF105">
+        <v>4.87</v>
+      </c>
+      <c r="AG105">
+        <v>1.57</v>
+      </c>
+      <c r="AH105">
+        <v>2.25</v>
+      </c>
+      <c r="AI105">
+        <v>2</v>
+      </c>
+      <c r="AJ105">
+        <v>1.75</v>
+      </c>
+      <c r="AK105">
+        <v>3.75</v>
+      </c>
+      <c r="AL105">
+        <v>1.1</v>
+      </c>
+      <c r="AM105">
+        <v>1.01</v>
+      </c>
+      <c r="AN105">
+        <v>0.67</v>
+      </c>
+      <c r="AO105">
+        <v>2</v>
+      </c>
+      <c r="AP105">
+        <v>0.57</v>
+      </c>
+      <c r="AQ105">
+        <v>2.14</v>
+      </c>
+      <c r="AR105">
+        <v>1.24</v>
+      </c>
+      <c r="AS105">
+        <v>1.86</v>
+      </c>
+      <c r="AT105">
+        <v>3.1</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AV105">
+        <v>12</v>
+      </c>
+      <c r="AW105">
+        <v>2</v>
+      </c>
+      <c r="AX105">
+        <v>7</v>
+      </c>
+      <c r="AY105">
+        <v>9</v>
+      </c>
+      <c r="AZ105">
+        <v>22</v>
+      </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
+      <c r="BB105">
+        <v>9</v>
+      </c>
+      <c r="BC105">
+        <v>9</v>
+      </c>
+      <c r="BD105">
+        <v>5.1</v>
+      </c>
+      <c r="BE105">
+        <v>9</v>
+      </c>
+      <c r="BF105">
+        <v>1.18</v>
+      </c>
+      <c r="BG105">
+        <v>1.2</v>
+      </c>
+      <c r="BH105">
+        <v>3.9</v>
+      </c>
+      <c r="BI105">
+        <v>1.36</v>
+      </c>
+      <c r="BJ105">
+        <v>2.85</v>
+      </c>
+      <c r="BK105">
+        <v>1.58</v>
+      </c>
+      <c r="BL105">
+        <v>2.18</v>
+      </c>
+      <c r="BM105">
+        <v>1.93</v>
+      </c>
+      <c r="BN105">
+        <v>1.76</v>
+      </c>
+      <c r="BO105">
+        <v>2.4</v>
+      </c>
+      <c r="BP105">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7466158</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>165</v>
+      </c>
+      <c r="P106" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q106">
+        <v>3.1</v>
+      </c>
+      <c r="R106">
+        <v>2.25</v>
+      </c>
+      <c r="S106">
+        <v>3.2</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.25</v>
+      </c>
+      <c r="V106">
+        <v>2.63</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>6.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.11</v>
+      </c>
+      <c r="Z106">
+        <v>2.71</v>
+      </c>
+      <c r="AA106">
+        <v>2.14</v>
+      </c>
+      <c r="AB106">
+        <v>3.67</v>
+      </c>
+      <c r="AC106">
+        <v>1.05</v>
+      </c>
+      <c r="AD106">
+        <v>9.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.25</v>
+      </c>
+      <c r="AF106">
+        <v>3.95</v>
+      </c>
+      <c r="AG106">
+        <v>1.73</v>
+      </c>
+      <c r="AH106">
+        <v>2</v>
+      </c>
+      <c r="AI106">
+        <v>1.57</v>
+      </c>
+      <c r="AJ106">
+        <v>2.25</v>
+      </c>
+      <c r="AK106">
+        <v>1.48</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.48</v>
+      </c>
+      <c r="AN106">
+        <v>2.2</v>
+      </c>
+      <c r="AO106">
+        <v>2</v>
+      </c>
+      <c r="AP106">
+        <v>2</v>
+      </c>
+      <c r="AQ106">
+        <v>1.83</v>
+      </c>
+      <c r="AR106">
+        <v>2.03</v>
+      </c>
+      <c r="AS106">
+        <v>1.4</v>
+      </c>
+      <c r="AT106">
+        <v>3.43</v>
+      </c>
+      <c r="AU106">
+        <v>8</v>
+      </c>
+      <c r="AV106">
+        <v>7</v>
+      </c>
+      <c r="AW106">
+        <v>6</v>
+      </c>
+      <c r="AX106">
+        <v>3</v>
+      </c>
+      <c r="AY106">
+        <v>19</v>
+      </c>
+      <c r="AZ106">
+        <v>12</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>9</v>
+      </c>
+      <c r="BD106">
+        <v>1.73</v>
+      </c>
+      <c r="BE106">
+        <v>6.75</v>
+      </c>
+      <c r="BF106">
+        <v>2.33</v>
+      </c>
+      <c r="BG106">
+        <v>1.23</v>
+      </c>
+      <c r="BH106">
+        <v>3.65</v>
+      </c>
+      <c r="BI106">
+        <v>1.41</v>
+      </c>
+      <c r="BJ106">
+        <v>2.65</v>
+      </c>
+      <c r="BK106">
+        <v>1.65</v>
+      </c>
+      <c r="BL106">
+        <v>2.07</v>
+      </c>
+      <c r="BM106">
+        <v>2.04</v>
+      </c>
+      <c r="BN106">
+        <v>1.68</v>
+      </c>
+      <c r="BO106">
+        <v>2.55</v>
+      </c>
+      <c r="BP106">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7466159</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>166</v>
+      </c>
+      <c r="P107" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q107">
+        <v>3.1</v>
+      </c>
+      <c r="R107">
+        <v>2.3</v>
+      </c>
+      <c r="S107">
+        <v>3.1</v>
+      </c>
+      <c r="T107">
+        <v>1.33</v>
+      </c>
+      <c r="U107">
+        <v>3.25</v>
+      </c>
+      <c r="V107">
+        <v>2.5</v>
+      </c>
+      <c r="W107">
+        <v>1.5</v>
+      </c>
+      <c r="X107">
+        <v>6</v>
+      </c>
+      <c r="Y107">
+        <v>1.13</v>
+      </c>
+      <c r="Z107">
+        <v>2.41</v>
+      </c>
+      <c r="AA107">
+        <v>3.56</v>
+      </c>
+      <c r="AB107">
+        <v>2.83</v>
+      </c>
+      <c r="AC107">
+        <v>1.04</v>
+      </c>
+      <c r="AD107">
+        <v>10</v>
+      </c>
+      <c r="AE107">
+        <v>1.22</v>
+      </c>
+      <c r="AF107">
+        <v>4.2</v>
+      </c>
+      <c r="AG107">
+        <v>1.65</v>
+      </c>
+      <c r="AH107">
+        <v>2.1</v>
+      </c>
+      <c r="AI107">
+        <v>1.57</v>
+      </c>
+      <c r="AJ107">
+        <v>2.25</v>
+      </c>
+      <c r="AK107">
+        <v>1.48</v>
+      </c>
+      <c r="AL107">
+        <v>1.25</v>
+      </c>
+      <c r="AM107">
+        <v>1.48</v>
+      </c>
+      <c r="AN107">
+        <v>2.2</v>
+      </c>
+      <c r="AO107">
+        <v>1.4</v>
+      </c>
+      <c r="AP107">
+        <v>2.33</v>
+      </c>
+      <c r="AQ107">
+        <v>1.17</v>
+      </c>
+      <c r="AR107">
+        <v>1.85</v>
+      </c>
+      <c r="AS107">
+        <v>1.08</v>
+      </c>
+      <c r="AT107">
+        <v>2.93</v>
+      </c>
+      <c r="AU107">
+        <v>2</v>
+      </c>
+      <c r="AV107">
+        <v>4</v>
+      </c>
+      <c r="AW107">
+        <v>1</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>5</v>
+      </c>
+      <c r="AZ107">
+        <v>13</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
+        <v>6</v>
+      </c>
+      <c r="BC107">
+        <v>8</v>
+      </c>
+      <c r="BD107">
+        <v>1.93</v>
+      </c>
+      <c r="BE107">
+        <v>6.4</v>
+      </c>
+      <c r="BF107">
+        <v>2.07</v>
+      </c>
+      <c r="BG107">
+        <v>1.21</v>
+      </c>
+      <c r="BH107">
+        <v>3.8</v>
+      </c>
+      <c r="BI107">
+        <v>1.38</v>
+      </c>
+      <c r="BJ107">
+        <v>2.75</v>
+      </c>
+      <c r="BK107">
+        <v>1.64</v>
+      </c>
+      <c r="BL107">
+        <v>2.1</v>
+      </c>
+      <c r="BM107">
+        <v>1.98</v>
+      </c>
+      <c r="BN107">
+        <v>1.72</v>
+      </c>
+      <c r="BO107">
+        <v>2.5</v>
+      </c>
+      <c r="BP107">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7466160</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>82</v>
+      </c>
+      <c r="H108" t="s">
+        <v>86</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>115</v>
+      </c>
+      <c r="P108" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q108">
+        <v>1.95</v>
+      </c>
+      <c r="R108">
+        <v>2.38</v>
+      </c>
+      <c r="S108">
+        <v>7</v>
+      </c>
+      <c r="T108">
+        <v>1.33</v>
+      </c>
+      <c r="U108">
+        <v>3.25</v>
+      </c>
+      <c r="V108">
+        <v>2.63</v>
+      </c>
+      <c r="W108">
+        <v>1.44</v>
+      </c>
+      <c r="X108">
+        <v>6.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.11</v>
+      </c>
+      <c r="Z108">
+        <v>1.48</v>
+      </c>
+      <c r="AA108">
+        <v>4.3</v>
+      </c>
+      <c r="AB108">
+        <v>6.38</v>
+      </c>
+      <c r="AC108">
+        <v>1.03</v>
+      </c>
+      <c r="AD108">
+        <v>15</v>
+      </c>
+      <c r="AE108">
+        <v>1.24</v>
+      </c>
+      <c r="AF108">
+        <v>3.92</v>
+      </c>
+      <c r="AG108">
+        <v>1.76</v>
+      </c>
+      <c r="AH108">
+        <v>2</v>
+      </c>
+      <c r="AI108">
+        <v>2</v>
+      </c>
+      <c r="AJ108">
+        <v>1.75</v>
+      </c>
+      <c r="AK108">
+        <v>1.08</v>
+      </c>
+      <c r="AL108">
+        <v>1.16</v>
+      </c>
+      <c r="AM108">
+        <v>2.85</v>
+      </c>
+      <c r="AN108">
+        <v>1.4</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AP108">
+        <v>1.17</v>
+      </c>
+      <c r="AQ108">
+        <v>1.33</v>
+      </c>
+      <c r="AR108">
+        <v>1.94</v>
+      </c>
+      <c r="AS108">
+        <v>0.75</v>
+      </c>
+      <c r="AT108">
+        <v>2.69</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>13</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>31</v>
+      </c>
+      <c r="AZ108">
+        <v>8</v>
+      </c>
+      <c r="BA108">
+        <v>10</v>
+      </c>
+      <c r="BB108">
+        <v>1</v>
+      </c>
+      <c r="BC108">
+        <v>11</v>
+      </c>
+      <c r="BD108">
+        <v>1.23</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>4.6</v>
+      </c>
+      <c r="BG108">
+        <v>1.29</v>
+      </c>
+      <c r="BH108">
+        <v>3.15</v>
+      </c>
+      <c r="BI108">
+        <v>1.5</v>
+      </c>
+      <c r="BJ108">
+        <v>2.33</v>
+      </c>
+      <c r="BK108">
+        <v>1.83</v>
+      </c>
+      <c r="BL108">
+        <v>1.85</v>
+      </c>
+      <c r="BM108">
+        <v>2.32</v>
+      </c>
+      <c r="BN108">
+        <v>1.53</v>
+      </c>
+      <c r="BO108">
+        <v>2.95</v>
+      </c>
+      <c r="BP108">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Netherlands Eredivisie_20242025.xlsx
@@ -22479,7 +22479,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45605.875</v>
+        <v>45606.34375</v>
       </c>
       <c r="F105">
         <v>12</v>
@@ -22685,10 +22685,10 @@
         <v>69</v>
       </c>
       <c r="E106" s="2">
-        <v>45605.875</v>
+        <v>45606.4375</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
         <v>81</v>
@@ -22891,10 +22891,10 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45605.875</v>
+        <v>45606.4375</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
         <v>80</v>
@@ -23097,7 +23097,7 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45605.875</v>
+        <v>45606.53125</v>
       </c>
       <c r="F108">
         <v>12</v>
